--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD0A06D-E622-4084-9D84-7797FBD11FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44362D4-E728-4B03-AAB3-0EF51458F3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Philip Helger:</t>
         </r>
@@ -45,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ISO6523 identifier</t>
@@ -1532,9 +1532,6 @@
 Check number: mod11 (weights: 5, 4, 3, 2, 7, 6, 5, 4)</t>
   </si>
   <si>
-    <t>RegEx: [0-9]{8}([0-9]{2})?</t>
-  </si>
-  <si>
     <t>RegEx: [0-9]{20}</t>
   </si>
   <si>
@@ -1906,6 +1903,9 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>RegEx: DK[0-9]{8}([0-9]{2})?</t>
   </si>
 </sst>
 </file>
@@ -1944,14 +1944,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2002,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2063,15 +2063,6 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2738,10 +2729,10 @@
   <dimension ref="A1:AMN99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,7 +2751,7 @@
     <col min="12" max="12" width="30.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.5703125" style="10" customWidth="1"/>
     <col min="14" max="14" width="24.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="10" customWidth="1"/>
     <col min="16" max="1027" width="14.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2781,16 +2772,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -2807,8 +2798,8 @@
       <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>537</v>
+      <c r="O1" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -2831,7 +2822,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>366</v>
@@ -2848,8 +2839,8 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>538</v>
+      <c r="O2" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -2872,7 +2863,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>367</v>
@@ -2886,8 +2877,8 @@
       <c r="M3" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="O3" s="24" t="s">
-        <v>538</v>
+      <c r="O3" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -2910,7 +2901,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>368</v>
@@ -2924,8 +2915,8 @@
       <c r="M4" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>538</v>
+      <c r="O4" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="150" x14ac:dyDescent="0.25">
@@ -2948,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>369</v>
@@ -2960,13 +2951,13 @@
         <v>390</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>538</v>
+      <c r="O5" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -2989,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>370</v>
@@ -3006,8 +2997,8 @@
       <c r="N6" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>538</v>
+      <c r="O6" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3030,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>48</v>
@@ -3047,8 +3038,8 @@
       <c r="N7" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="O7" s="24" t="s">
-        <v>538</v>
+      <c r="O7" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="195" x14ac:dyDescent="0.25">
@@ -3071,7 +3062,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>371</v>
@@ -3082,8 +3073,8 @@
       <c r="M8" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="O8" s="24" t="s">
-        <v>538</v>
+      <c r="O8" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="180" x14ac:dyDescent="0.25">
@@ -3106,7 +3097,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>372</v>
@@ -3120,8 +3111,8 @@
       <c r="N9" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="O9" s="24" t="s">
-        <v>538</v>
+      <c r="O9" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="210" x14ac:dyDescent="0.25">
@@ -3144,7 +3135,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>373</v>
@@ -3158,8 +3149,8 @@
       <c r="N10" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="O10" s="24" t="s">
-        <v>538</v>
+      <c r="O10" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -3182,7 +3173,7 @@
         <v>63</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>64</v>
@@ -3193,8 +3184,8 @@
       <c r="N11" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="O11" s="24" t="s">
-        <v>538</v>
+      <c r="O11" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3217,7 +3208,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>73</v>
@@ -3228,8 +3219,8 @@
       <c r="N12" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="O12" s="24" t="s">
-        <v>538</v>
+      <c r="O12" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3252,7 +3243,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>127</v>
@@ -3263,8 +3254,8 @@
       <c r="N13" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="O13" s="24" t="s">
-        <v>538</v>
+      <c r="O13" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="240" x14ac:dyDescent="0.25">
@@ -3287,7 +3278,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>374</v>
@@ -3304,8 +3295,8 @@
       <c r="N14" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="O14" s="24" t="s">
-        <v>538</v>
+      <c r="O14" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="150" x14ac:dyDescent="0.25">
@@ -3328,7 +3319,7 @@
         <v>79</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>339</v>
@@ -3342,8 +3333,8 @@
       <c r="N15" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="O15" s="24" t="s">
-        <v>538</v>
+      <c r="O15" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3366,7 +3357,7 @@
         <v>84</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>375</v>
@@ -3375,42 +3366,42 @@
         <v>383</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:15 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="24" t="s">
-        <v>538</v>
+      <c r="O17" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:15 1028:1028" ht="150" x14ac:dyDescent="0.25">
@@ -3433,7 +3424,7 @@
         <v>89</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>376</v>
@@ -3445,13 +3436,13 @@
         <v>394</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="O18" s="24" t="s">
-        <v>538</v>
+      <c r="O18" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:15 1028:1028" ht="225" x14ac:dyDescent="0.25">
@@ -3474,7 +3465,7 @@
         <v>89</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>377</v>
@@ -3486,13 +3477,13 @@
         <v>395</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="O19" s="24" t="s">
-        <v>538</v>
+      <c r="O19" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:15 1028:1028" ht="60" x14ac:dyDescent="0.25">
@@ -3515,7 +3506,7 @@
         <v>89</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>100</v>
@@ -3527,10 +3518,10 @@
         <v>396</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>538</v>
+        <v>441</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:15 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -3553,7 +3544,7 @@
         <v>106</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>107</v>
@@ -3562,10 +3553,10 @@
         <v>32</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>538</v>
+        <v>442</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:15 1028:1028" ht="105" x14ac:dyDescent="0.25">
@@ -3588,7 +3579,7 @@
         <v>63</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>378</v>
@@ -3597,13 +3588,13 @@
         <v>385</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="O22" s="24" t="s">
-        <v>538</v>
+      <c r="O22" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:15 1028:1028" ht="105" x14ac:dyDescent="0.25">
@@ -3626,7 +3617,7 @@
         <v>63</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>379</v>
@@ -3635,10 +3626,10 @@
         <v>386</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>538</v>
+        <v>444</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:15 1028:1028" ht="45" x14ac:dyDescent="0.25">
@@ -3661,7 +3652,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>348</v>
@@ -3670,10 +3661,10 @@
         <v>349</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="O24" s="24" t="s">
-        <v>538</v>
+        <v>445</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:15 1028:1028" ht="409.5" x14ac:dyDescent="0.25">
@@ -3696,7 +3687,7 @@
         <v>79</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>380</v>
@@ -3705,10 +3696,10 @@
         <v>353</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="O25" s="24" t="s">
-        <v>538</v>
+        <v>446</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:15 1028:1028" ht="90" x14ac:dyDescent="0.25">
@@ -3731,7 +3722,7 @@
         <v>79</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>123</v>
@@ -3743,10 +3734,10 @@
         <v>397</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="O26" s="24" t="s">
-        <v>538</v>
+        <v>447</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:15 1028:1028" ht="30" x14ac:dyDescent="0.25">
@@ -3769,7 +3760,7 @@
         <v>359</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>360</v>
@@ -3779,13 +3770,13 @@
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="O27" s="24" t="s">
-        <v>538</v>
+      <c r="O27" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN27" s="7"/>
     </row>
@@ -3800,7 +3791,7 @@
         <v>226</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>364</v>
@@ -3809,58 +3800,58 @@
         <v>359</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>365</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>538</v>
+        <v>494</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN28" s="7"/>
     </row>
     <row r="29" spans="1:15 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>534</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>535</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>539</v>
+        <v>535</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>538</v>
       </c>
       <c r="AMN29" s="7"/>
     </row>
@@ -3884,281 +3875,281 @@
         <v>425</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>426</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>538</v>
+        <v>457</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN30" s="7"/>
     </row>
     <row r="31" spans="1:15 1028:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>465</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>466</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="O31" s="24" t="s">
-        <v>538</v>
+        <v>466</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN31" s="7"/>
     </row>
     <row r="32" spans="1:15 1028:1028" ht="255" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>472</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>473</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>538</v>
+        <v>473</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN32" s="7"/>
     </row>
     <row r="33" spans="1:1028" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>538</v>
+        <v>451</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN33" s="7"/>
     </row>
     <row r="34" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>483</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="O34" s="24" t="s">
-        <v>538</v>
+        <v>483</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN34" s="7"/>
     </row>
     <row r="35" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>487</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="O35" s="24" t="s">
-        <v>538</v>
+        <v>487</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN35" s="7"/>
     </row>
     <row r="36" spans="1:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>512</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="O36" s="24" t="s">
-        <v>538</v>
+        <v>512</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN36" s="7"/>
     </row>
     <row r="37" spans="1:1028" ht="240" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>518</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>519</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>538</v>
+        <v>519</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="AMN37" s="7"/>
     </row>
@@ -4182,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>127</v>
@@ -4193,8 +4184,8 @@
       <c r="N38" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>538</v>
+      <c r="O38" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4217,16 +4208,16 @@
         <v>13</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>398</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="O39" s="24" t="s">
-        <v>538</v>
+        <v>449</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4249,16 +4240,16 @@
         <v>13</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>134</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="O40" s="24" t="s">
-        <v>538</v>
+        <v>450</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
@@ -4281,7 +4272,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>134</v>
@@ -4289,8 +4280,8 @@
       <c r="N41" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="O41" s="24" t="s">
-        <v>538</v>
+      <c r="O41" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4311,27 +4302,27 @@
         <v>13</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I42" s="18">
         <v>45070</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="17" t="s">
         <v>141</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N42" s="15"/>
-      <c r="O42" s="25" t="s">
-        <v>539</v>
+      <c r="O42" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
@@ -5366,10 +5357,10 @@
         <v>13</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I43" s="18">
         <v>45070</v>
@@ -5380,13 +5371,13 @@
         <v>399</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N43" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="O43" s="25" t="s">
-        <v>539</v>
+      <c r="O43" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
@@ -6421,10 +6412,10 @@
         <v>13</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I44" s="18">
         <v>45070</v>
@@ -6435,13 +6426,13 @@
       <c r="K44" s="19"/>
       <c r="L44" s="17"/>
       <c r="M44" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>539</v>
+        <v>528</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
@@ -7476,7 +7467,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>150</v>
@@ -7485,13 +7476,13 @@
         <v>155</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N45" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="O45" s="24" t="s">
-        <v>538</v>
+      <c r="O45" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
@@ -7511,13 +7502,13 @@
         <v>13</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="O46" s="24" t="s">
-        <v>538</v>
+        <v>454</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:1028" ht="75" x14ac:dyDescent="0.25">
@@ -7538,7 +7529,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>150</v>
@@ -7547,13 +7538,13 @@
         <v>159</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="O47" s="24" t="s">
-        <v>538</v>
+        <v>458</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:1028" x14ac:dyDescent="0.25">
@@ -7576,13 +7567,13 @@
         <v>13</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N48" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="O48" s="24" t="s">
-        <v>538</v>
+      <c r="O48" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -7602,13 +7593,13 @@
         <v>13</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O49" s="24" t="s">
-        <v>538</v>
+      <c r="O49" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -7629,19 +7620,19 @@
         <v>13</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>400</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="O50" s="24" t="s">
-        <v>538</v>
+      <c r="O50" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -7661,13 +7652,13 @@
         <v>13</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="O51" s="24" t="s">
-        <v>538</v>
+      <c r="O51" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -7687,7 +7678,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>63</v>
@@ -7699,13 +7690,13 @@
         <v>386</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="O52" s="24" t="s">
-        <v>538</v>
+      <c r="O52" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -7728,13 +7719,13 @@
         <v>183</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="O53" s="24" t="s">
-        <v>538</v>
+      <c r="O53" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -7755,7 +7746,7 @@
         <v>176</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>187</v>
@@ -7763,8 +7754,8 @@
       <c r="N54" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="O54" s="24" t="s">
-        <v>538</v>
+      <c r="O54" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -7787,10 +7778,10 @@
         <v>176</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O55" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -7813,7 +7804,7 @@
         <v>150</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>359</v>
@@ -7821,8 +7812,8 @@
       <c r="N56" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="O56" s="24" t="s">
-        <v>538</v>
+      <c r="O56" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -7843,10 +7834,10 @@
         <v>150</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O57" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -7867,10 +7858,10 @@
         <v>150</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O58" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -7891,10 +7882,10 @@
         <v>150</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O59" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -7915,10 +7906,10 @@
         <v>150</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O60" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -7939,10 +7930,10 @@
         <v>150</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O61" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -7963,10 +7954,10 @@
         <v>150</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O62" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -7986,10 +7977,10 @@
         <v>150</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O63" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -8010,10 +8001,10 @@
         <v>150</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O64" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -8034,10 +8025,10 @@
         <v>150</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O65" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -8058,10 +8049,10 @@
         <v>150</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O66" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -8082,10 +8073,10 @@
         <v>150</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O67" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -8106,10 +8097,10 @@
         <v>150</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O68" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -8130,10 +8121,10 @@
         <v>150</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O69" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -8154,10 +8145,10 @@
         <v>150</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O70" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -8178,10 +8169,10 @@
         <v>150</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O71" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -8202,10 +8193,10 @@
         <v>150</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O72" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -8226,10 +8217,10 @@
         <v>150</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O73" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -8250,10 +8241,10 @@
         <v>150</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O74" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -8274,10 +8265,10 @@
         <v>150</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O75" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -8298,10 +8289,10 @@
         <v>150</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O76" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -8322,10 +8313,10 @@
         <v>150</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O77" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -8346,10 +8337,10 @@
         <v>150</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O78" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -8370,10 +8361,10 @@
         <v>150</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O79" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O79" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -8394,10 +8385,10 @@
         <v>150</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O80" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="81" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8418,10 +8409,10 @@
         <v>150</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O81" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8442,11 +8433,11 @@
         <v>150</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I82" s="3"/>
-      <c r="O82" s="24" t="s">
-        <v>538</v>
+      <c r="O82" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8467,11 +8458,11 @@
         <v>150</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I83" s="3"/>
-      <c r="O83" s="24" t="s">
-        <v>538</v>
+      <c r="O83" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8492,11 +8483,11 @@
         <v>150</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I84" s="3"/>
-      <c r="O84" s="24" t="s">
-        <v>538</v>
+      <c r="O84" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="85" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8517,10 +8508,10 @@
         <v>150</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O85" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="86" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8540,10 +8531,10 @@
         <v>150</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O86" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O86" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8564,11 +8555,11 @@
         <v>150</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I87" s="4"/>
-      <c r="O87" s="24" t="s">
-        <v>538</v>
+      <c r="O87" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
@@ -8589,10 +8580,10 @@
         <v>150</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O88" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="89" spans="1:1027" x14ac:dyDescent="0.25">
@@ -8612,7 +8603,7 @@
         <v>320</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>89</v>
@@ -8621,8 +8612,8 @@
       <c r="N89" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="O89" s="24" t="s">
-        <v>538</v>
+      <c r="O89" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -8643,10 +8634,10 @@
         <v>325</v>
       </c>
       <c r="G90" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H90" s="16" t="s">
         <v>530</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>531</v>
       </c>
       <c r="I90" s="22">
         <v>45138</v>
@@ -8656,8 +8647,8 @@
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="25" t="s">
-        <v>539</v>
+      <c r="O90" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
@@ -9692,10 +9683,10 @@
         <v>84</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="9" t="s">
@@ -9705,10 +9696,10 @@
         <v>401</v>
       </c>
       <c r="M91" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="O91" s="24" t="s">
-        <v>538</v>
+        <v>457</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:1027" x14ac:dyDescent="0.25">
@@ -9728,10 +9719,10 @@
         <v>84</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O92" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O92" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="93" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -9745,14 +9736,14 @@
         <v>226</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E93" s="15"/>
       <c r="F93" s="16" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H93" s="16" t="s">
         <v>359</v>
@@ -9767,8 +9758,8 @@
       <c r="N93" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="O93" s="25" t="s">
-        <v>539</v>
+      <c r="O93" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
@@ -10785,25 +10776,25 @@
     </row>
     <row r="94" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>525</v>
-      </c>
       <c r="F94" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="O94" s="24" t="s">
-        <v>538</v>
+        <v>491</v>
+      </c>
+      <c r="O94" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.25">

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44362D4-E728-4B03-AAB3-0EF51458F3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACC931-AB1A-4C36-BCF4-F7B1D1E086BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$O$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$O$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="548">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1906,6 +1906,33 @@
   </si>
   <si>
     <t>RegEx: DK[0-9]{8}([0-9]{2})?</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>National e-Invoicing Framework</t>
+  </si>
+  <si>
+    <t>Malaysia Digital Economy Corporation Sdn Bhd (MDEC)</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>1st field = ICD
+2nd field = Special Identifier (e.g. country identifier, test identifier, etc)
+3rd field = Organisation identifier
+No check value</t>
+  </si>
+  <si>
+    <t>For use in electronic messages in accordance to the National e-Invoicing framework on identification of organization</t>
+  </si>
+  <si>
+    <t>MY:EIF</t>
   </si>
 </sst>
 </file>
@@ -2726,13 +2753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMN99"/>
+  <dimension ref="A1:AMN100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,56 +4180,58 @@
       </c>
       <c r="AMN37" s="7"/>
     </row>
-    <row r="38" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>124</v>
+        <v>547</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>125</v>
+        <v>540</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>126</v>
+        <v>542</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>13</v>
+        <v>543</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>544</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>491</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>127</v>
+        <v>545</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="L38" s="11"/>
       <c r="N38" s="7" t="s">
-        <v>413</v>
+        <v>546</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>537</v>
       </c>
+      <c r="AMN38" s="7"/>
     </row>
-    <row r="39" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>13</v>
@@ -4210,11 +4239,14 @@
       <c r="G39" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="L39" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>449</v>
+      <c r="J39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>537</v>
@@ -4222,19 +4254,19 @@
     </row>
     <row r="40" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>13</v>
@@ -4243,10 +4275,10 @@
         <v>491</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>134</v>
+        <v>398</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>537</v>
@@ -4254,19 +4286,19 @@
     </row>
     <row r="41" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>13</v>
@@ -4277,1082 +4309,59 @@
       <c r="L41" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N41" s="7" t="s">
-        <v>414</v>
+      <c r="M41" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="42" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="I42" s="18">
-        <v>45070</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
-      <c r="AJ42" s="15"/>
-      <c r="AK42" s="15"/>
-      <c r="AL42" s="15"/>
-      <c r="AM42" s="15"/>
-      <c r="AN42" s="15"/>
-      <c r="AO42" s="15"/>
-      <c r="AP42" s="15"/>
-      <c r="AQ42" s="15"/>
-      <c r="AR42" s="15"/>
-      <c r="AS42" s="15"/>
-      <c r="AT42" s="15"/>
-      <c r="AU42" s="15"/>
-      <c r="AV42" s="15"/>
-      <c r="AW42" s="15"/>
-      <c r="AX42" s="15"/>
-      <c r="AY42" s="15"/>
-      <c r="AZ42" s="15"/>
-      <c r="BA42" s="15"/>
-      <c r="BB42" s="15"/>
-      <c r="BC42" s="15"/>
-      <c r="BD42" s="15"/>
-      <c r="BE42" s="15"/>
-      <c r="BF42" s="15"/>
-      <c r="BG42" s="15"/>
-      <c r="BH42" s="15"/>
-      <c r="BI42" s="15"/>
-      <c r="BJ42" s="15"/>
-      <c r="BK42" s="15"/>
-      <c r="BL42" s="15"/>
-      <c r="BM42" s="15"/>
-      <c r="BN42" s="15"/>
-      <c r="BO42" s="15"/>
-      <c r="BP42" s="15"/>
-      <c r="BQ42" s="15"/>
-      <c r="BR42" s="15"/>
-      <c r="BS42" s="15"/>
-      <c r="BT42" s="15"/>
-      <c r="BU42" s="15"/>
-      <c r="BV42" s="15"/>
-      <c r="BW42" s="15"/>
-      <c r="BX42" s="15"/>
-      <c r="BY42" s="15"/>
-      <c r="BZ42" s="15"/>
-      <c r="CA42" s="15"/>
-      <c r="CB42" s="15"/>
-      <c r="CC42" s="15"/>
-      <c r="CD42" s="15"/>
-      <c r="CE42" s="15"/>
-      <c r="CF42" s="15"/>
-      <c r="CG42" s="15"/>
-      <c r="CH42" s="15"/>
-      <c r="CI42" s="15"/>
-      <c r="CJ42" s="15"/>
-      <c r="CK42" s="15"/>
-      <c r="CL42" s="15"/>
-      <c r="CM42" s="15"/>
-      <c r="CN42" s="15"/>
-      <c r="CO42" s="15"/>
-      <c r="CP42" s="15"/>
-      <c r="CQ42" s="15"/>
-      <c r="CR42" s="15"/>
-      <c r="CS42" s="15"/>
-      <c r="CT42" s="15"/>
-      <c r="CU42" s="15"/>
-      <c r="CV42" s="15"/>
-      <c r="CW42" s="15"/>
-      <c r="CX42" s="15"/>
-      <c r="CY42" s="15"/>
-      <c r="CZ42" s="15"/>
-      <c r="DA42" s="15"/>
-      <c r="DB42" s="15"/>
-      <c r="DC42" s="15"/>
-      <c r="DD42" s="15"/>
-      <c r="DE42" s="15"/>
-      <c r="DF42" s="15"/>
-      <c r="DG42" s="15"/>
-      <c r="DH42" s="15"/>
-      <c r="DI42" s="15"/>
-      <c r="DJ42" s="15"/>
-      <c r="DK42" s="15"/>
-      <c r="DL42" s="15"/>
-      <c r="DM42" s="15"/>
-      <c r="DN42" s="15"/>
-      <c r="DO42" s="15"/>
-      <c r="DP42" s="15"/>
-      <c r="DQ42" s="15"/>
-      <c r="DR42" s="15"/>
-      <c r="DS42" s="15"/>
-      <c r="DT42" s="15"/>
-      <c r="DU42" s="15"/>
-      <c r="DV42" s="15"/>
-      <c r="DW42" s="15"/>
-      <c r="DX42" s="15"/>
-      <c r="DY42" s="15"/>
-      <c r="DZ42" s="15"/>
-      <c r="EA42" s="15"/>
-      <c r="EB42" s="15"/>
-      <c r="EC42" s="15"/>
-      <c r="ED42" s="15"/>
-      <c r="EE42" s="15"/>
-      <c r="EF42" s="15"/>
-      <c r="EG42" s="15"/>
-      <c r="EH42" s="15"/>
-      <c r="EI42" s="15"/>
-      <c r="EJ42" s="15"/>
-      <c r="EK42" s="15"/>
-      <c r="EL42" s="15"/>
-      <c r="EM42" s="15"/>
-      <c r="EN42" s="15"/>
-      <c r="EO42" s="15"/>
-      <c r="EP42" s="15"/>
-      <c r="EQ42" s="15"/>
-      <c r="ER42" s="15"/>
-      <c r="ES42" s="15"/>
-      <c r="ET42" s="15"/>
-      <c r="EU42" s="15"/>
-      <c r="EV42" s="15"/>
-      <c r="EW42" s="15"/>
-      <c r="EX42" s="15"/>
-      <c r="EY42" s="15"/>
-      <c r="EZ42" s="15"/>
-      <c r="FA42" s="15"/>
-      <c r="FB42" s="15"/>
-      <c r="FC42" s="15"/>
-      <c r="FD42" s="15"/>
-      <c r="FE42" s="15"/>
-      <c r="FF42" s="15"/>
-      <c r="FG42" s="15"/>
-      <c r="FH42" s="15"/>
-      <c r="FI42" s="15"/>
-      <c r="FJ42" s="15"/>
-      <c r="FK42" s="15"/>
-      <c r="FL42" s="15"/>
-      <c r="FM42" s="15"/>
-      <c r="FN42" s="15"/>
-      <c r="FO42" s="15"/>
-      <c r="FP42" s="15"/>
-      <c r="FQ42" s="15"/>
-      <c r="FR42" s="15"/>
-      <c r="FS42" s="15"/>
-      <c r="FT42" s="15"/>
-      <c r="FU42" s="15"/>
-      <c r="FV42" s="15"/>
-      <c r="FW42" s="15"/>
-      <c r="FX42" s="15"/>
-      <c r="FY42" s="15"/>
-      <c r="FZ42" s="15"/>
-      <c r="GA42" s="15"/>
-      <c r="GB42" s="15"/>
-      <c r="GC42" s="15"/>
-      <c r="GD42" s="15"/>
-      <c r="GE42" s="15"/>
-      <c r="GF42" s="15"/>
-      <c r="GG42" s="15"/>
-      <c r="GH42" s="15"/>
-      <c r="GI42" s="15"/>
-      <c r="GJ42" s="15"/>
-      <c r="GK42" s="15"/>
-      <c r="GL42" s="15"/>
-      <c r="GM42" s="15"/>
-      <c r="GN42" s="15"/>
-      <c r="GO42" s="15"/>
-      <c r="GP42" s="15"/>
-      <c r="GQ42" s="15"/>
-      <c r="GR42" s="15"/>
-      <c r="GS42" s="15"/>
-      <c r="GT42" s="15"/>
-      <c r="GU42" s="15"/>
-      <c r="GV42" s="15"/>
-      <c r="GW42" s="15"/>
-      <c r="GX42" s="15"/>
-      <c r="GY42" s="15"/>
-      <c r="GZ42" s="15"/>
-      <c r="HA42" s="15"/>
-      <c r="HB42" s="15"/>
-      <c r="HC42" s="15"/>
-      <c r="HD42" s="15"/>
-      <c r="HE42" s="15"/>
-      <c r="HF42" s="15"/>
-      <c r="HG42" s="15"/>
-      <c r="HH42" s="15"/>
-      <c r="HI42" s="15"/>
-      <c r="HJ42" s="15"/>
-      <c r="HK42" s="15"/>
-      <c r="HL42" s="15"/>
-      <c r="HM42" s="15"/>
-      <c r="HN42" s="15"/>
-      <c r="HO42" s="15"/>
-      <c r="HP42" s="15"/>
-      <c r="HQ42" s="15"/>
-      <c r="HR42" s="15"/>
-      <c r="HS42" s="15"/>
-      <c r="HT42" s="15"/>
-      <c r="HU42" s="15"/>
-      <c r="HV42" s="15"/>
-      <c r="HW42" s="15"/>
-      <c r="HX42" s="15"/>
-      <c r="HY42" s="15"/>
-      <c r="HZ42" s="15"/>
-      <c r="IA42" s="15"/>
-      <c r="IB42" s="15"/>
-      <c r="IC42" s="15"/>
-      <c r="ID42" s="15"/>
-      <c r="IE42" s="15"/>
-      <c r="IF42" s="15"/>
-      <c r="IG42" s="15"/>
-      <c r="IH42" s="15"/>
-      <c r="II42" s="15"/>
-      <c r="IJ42" s="15"/>
-      <c r="IK42" s="15"/>
-      <c r="IL42" s="15"/>
-      <c r="IM42" s="15"/>
-      <c r="IN42" s="15"/>
-      <c r="IO42" s="15"/>
-      <c r="IP42" s="15"/>
-      <c r="IQ42" s="15"/>
-      <c r="IR42" s="15"/>
-      <c r="IS42" s="15"/>
-      <c r="IT42" s="15"/>
-      <c r="IU42" s="15"/>
-      <c r="IV42" s="15"/>
-      <c r="IW42" s="15"/>
-      <c r="IX42" s="15"/>
-      <c r="IY42" s="15"/>
-      <c r="IZ42" s="15"/>
-      <c r="JA42" s="15"/>
-      <c r="JB42" s="15"/>
-      <c r="JC42" s="15"/>
-      <c r="JD42" s="15"/>
-      <c r="JE42" s="15"/>
-      <c r="JF42" s="15"/>
-      <c r="JG42" s="15"/>
-      <c r="JH42" s="15"/>
-      <c r="JI42" s="15"/>
-      <c r="JJ42" s="15"/>
-      <c r="JK42" s="15"/>
-      <c r="JL42" s="15"/>
-      <c r="JM42" s="15"/>
-      <c r="JN42" s="15"/>
-      <c r="JO42" s="15"/>
-      <c r="JP42" s="15"/>
-      <c r="JQ42" s="15"/>
-      <c r="JR42" s="15"/>
-      <c r="JS42" s="15"/>
-      <c r="JT42" s="15"/>
-      <c r="JU42" s="15"/>
-      <c r="JV42" s="15"/>
-      <c r="JW42" s="15"/>
-      <c r="JX42" s="15"/>
-      <c r="JY42" s="15"/>
-      <c r="JZ42" s="15"/>
-      <c r="KA42" s="15"/>
-      <c r="KB42" s="15"/>
-      <c r="KC42" s="15"/>
-      <c r="KD42" s="15"/>
-      <c r="KE42" s="15"/>
-      <c r="KF42" s="15"/>
-      <c r="KG42" s="15"/>
-      <c r="KH42" s="15"/>
-      <c r="KI42" s="15"/>
-      <c r="KJ42" s="15"/>
-      <c r="KK42" s="15"/>
-      <c r="KL42" s="15"/>
-      <c r="KM42" s="15"/>
-      <c r="KN42" s="15"/>
-      <c r="KO42" s="15"/>
-      <c r="KP42" s="15"/>
-      <c r="KQ42" s="15"/>
-      <c r="KR42" s="15"/>
-      <c r="KS42" s="15"/>
-      <c r="KT42" s="15"/>
-      <c r="KU42" s="15"/>
-      <c r="KV42" s="15"/>
-      <c r="KW42" s="15"/>
-      <c r="KX42" s="15"/>
-      <c r="KY42" s="15"/>
-      <c r="KZ42" s="15"/>
-      <c r="LA42" s="15"/>
-      <c r="LB42" s="15"/>
-      <c r="LC42" s="15"/>
-      <c r="LD42" s="15"/>
-      <c r="LE42" s="15"/>
-      <c r="LF42" s="15"/>
-      <c r="LG42" s="15"/>
-      <c r="LH42" s="15"/>
-      <c r="LI42" s="15"/>
-      <c r="LJ42" s="15"/>
-      <c r="LK42" s="15"/>
-      <c r="LL42" s="15"/>
-      <c r="LM42" s="15"/>
-      <c r="LN42" s="15"/>
-      <c r="LO42" s="15"/>
-      <c r="LP42" s="15"/>
-      <c r="LQ42" s="15"/>
-      <c r="LR42" s="15"/>
-      <c r="LS42" s="15"/>
-      <c r="LT42" s="15"/>
-      <c r="LU42" s="15"/>
-      <c r="LV42" s="15"/>
-      <c r="LW42" s="15"/>
-      <c r="LX42" s="15"/>
-      <c r="LY42" s="15"/>
-      <c r="LZ42" s="15"/>
-      <c r="MA42" s="15"/>
-      <c r="MB42" s="15"/>
-      <c r="MC42" s="15"/>
-      <c r="MD42" s="15"/>
-      <c r="ME42" s="15"/>
-      <c r="MF42" s="15"/>
-      <c r="MG42" s="15"/>
-      <c r="MH42" s="15"/>
-      <c r="MI42" s="15"/>
-      <c r="MJ42" s="15"/>
-      <c r="MK42" s="15"/>
-      <c r="ML42" s="15"/>
-      <c r="MM42" s="15"/>
-      <c r="MN42" s="15"/>
-      <c r="MO42" s="15"/>
-      <c r="MP42" s="15"/>
-      <c r="MQ42" s="15"/>
-      <c r="MR42" s="15"/>
-      <c r="MS42" s="15"/>
-      <c r="MT42" s="15"/>
-      <c r="MU42" s="15"/>
-      <c r="MV42" s="15"/>
-      <c r="MW42" s="15"/>
-      <c r="MX42" s="15"/>
-      <c r="MY42" s="15"/>
-      <c r="MZ42" s="15"/>
-      <c r="NA42" s="15"/>
-      <c r="NB42" s="15"/>
-      <c r="NC42" s="15"/>
-      <c r="ND42" s="15"/>
-      <c r="NE42" s="15"/>
-      <c r="NF42" s="15"/>
-      <c r="NG42" s="15"/>
-      <c r="NH42" s="15"/>
-      <c r="NI42" s="15"/>
-      <c r="NJ42" s="15"/>
-      <c r="NK42" s="15"/>
-      <c r="NL42" s="15"/>
-      <c r="NM42" s="15"/>
-      <c r="NN42" s="15"/>
-      <c r="NO42" s="15"/>
-      <c r="NP42" s="15"/>
-      <c r="NQ42" s="15"/>
-      <c r="NR42" s="15"/>
-      <c r="NS42" s="15"/>
-      <c r="NT42" s="15"/>
-      <c r="NU42" s="15"/>
-      <c r="NV42" s="15"/>
-      <c r="NW42" s="15"/>
-      <c r="NX42" s="15"/>
-      <c r="NY42" s="15"/>
-      <c r="NZ42" s="15"/>
-      <c r="OA42" s="15"/>
-      <c r="OB42" s="15"/>
-      <c r="OC42" s="15"/>
-      <c r="OD42" s="15"/>
-      <c r="OE42" s="15"/>
-      <c r="OF42" s="15"/>
-      <c r="OG42" s="15"/>
-      <c r="OH42" s="15"/>
-      <c r="OI42" s="15"/>
-      <c r="OJ42" s="15"/>
-      <c r="OK42" s="15"/>
-      <c r="OL42" s="15"/>
-      <c r="OM42" s="15"/>
-      <c r="ON42" s="15"/>
-      <c r="OO42" s="15"/>
-      <c r="OP42" s="15"/>
-      <c r="OQ42" s="15"/>
-      <c r="OR42" s="15"/>
-      <c r="OS42" s="15"/>
-      <c r="OT42" s="15"/>
-      <c r="OU42" s="15"/>
-      <c r="OV42" s="15"/>
-      <c r="OW42" s="15"/>
-      <c r="OX42" s="15"/>
-      <c r="OY42" s="15"/>
-      <c r="OZ42" s="15"/>
-      <c r="PA42" s="15"/>
-      <c r="PB42" s="15"/>
-      <c r="PC42" s="15"/>
-      <c r="PD42" s="15"/>
-      <c r="PE42" s="15"/>
-      <c r="PF42" s="15"/>
-      <c r="PG42" s="15"/>
-      <c r="PH42" s="15"/>
-      <c r="PI42" s="15"/>
-      <c r="PJ42" s="15"/>
-      <c r="PK42" s="15"/>
-      <c r="PL42" s="15"/>
-      <c r="PM42" s="15"/>
-      <c r="PN42" s="15"/>
-      <c r="PO42" s="15"/>
-      <c r="PP42" s="15"/>
-      <c r="PQ42" s="15"/>
-      <c r="PR42" s="15"/>
-      <c r="PS42" s="15"/>
-      <c r="PT42" s="15"/>
-      <c r="PU42" s="15"/>
-      <c r="PV42" s="15"/>
-      <c r="PW42" s="15"/>
-      <c r="PX42" s="15"/>
-      <c r="PY42" s="15"/>
-      <c r="PZ42" s="15"/>
-      <c r="QA42" s="15"/>
-      <c r="QB42" s="15"/>
-      <c r="QC42" s="15"/>
-      <c r="QD42" s="15"/>
-      <c r="QE42" s="15"/>
-      <c r="QF42" s="15"/>
-      <c r="QG42" s="15"/>
-      <c r="QH42" s="15"/>
-      <c r="QI42" s="15"/>
-      <c r="QJ42" s="15"/>
-      <c r="QK42" s="15"/>
-      <c r="QL42" s="15"/>
-      <c r="QM42" s="15"/>
-      <c r="QN42" s="15"/>
-      <c r="QO42" s="15"/>
-      <c r="QP42" s="15"/>
-      <c r="QQ42" s="15"/>
-      <c r="QR42" s="15"/>
-      <c r="QS42" s="15"/>
-      <c r="QT42" s="15"/>
-      <c r="QU42" s="15"/>
-      <c r="QV42" s="15"/>
-      <c r="QW42" s="15"/>
-      <c r="QX42" s="15"/>
-      <c r="QY42" s="15"/>
-      <c r="QZ42" s="15"/>
-      <c r="RA42" s="15"/>
-      <c r="RB42" s="15"/>
-      <c r="RC42" s="15"/>
-      <c r="RD42" s="15"/>
-      <c r="RE42" s="15"/>
-      <c r="RF42" s="15"/>
-      <c r="RG42" s="15"/>
-      <c r="RH42" s="15"/>
-      <c r="RI42" s="15"/>
-      <c r="RJ42" s="15"/>
-      <c r="RK42" s="15"/>
-      <c r="RL42" s="15"/>
-      <c r="RM42" s="15"/>
-      <c r="RN42" s="15"/>
-      <c r="RO42" s="15"/>
-      <c r="RP42" s="15"/>
-      <c r="RQ42" s="15"/>
-      <c r="RR42" s="15"/>
-      <c r="RS42" s="15"/>
-      <c r="RT42" s="15"/>
-      <c r="RU42" s="15"/>
-      <c r="RV42" s="15"/>
-      <c r="RW42" s="15"/>
-      <c r="RX42" s="15"/>
-      <c r="RY42" s="15"/>
-      <c r="RZ42" s="15"/>
-      <c r="SA42" s="15"/>
-      <c r="SB42" s="15"/>
-      <c r="SC42" s="15"/>
-      <c r="SD42" s="15"/>
-      <c r="SE42" s="15"/>
-      <c r="SF42" s="15"/>
-      <c r="SG42" s="15"/>
-      <c r="SH42" s="15"/>
-      <c r="SI42" s="15"/>
-      <c r="SJ42" s="15"/>
-      <c r="SK42" s="15"/>
-      <c r="SL42" s="15"/>
-      <c r="SM42" s="15"/>
-      <c r="SN42" s="15"/>
-      <c r="SO42" s="15"/>
-      <c r="SP42" s="15"/>
-      <c r="SQ42" s="15"/>
-      <c r="SR42" s="15"/>
-      <c r="SS42" s="15"/>
-      <c r="ST42" s="15"/>
-      <c r="SU42" s="15"/>
-      <c r="SV42" s="15"/>
-      <c r="SW42" s="15"/>
-      <c r="SX42" s="15"/>
-      <c r="SY42" s="15"/>
-      <c r="SZ42" s="15"/>
-      <c r="TA42" s="15"/>
-      <c r="TB42" s="15"/>
-      <c r="TC42" s="15"/>
-      <c r="TD42" s="15"/>
-      <c r="TE42" s="15"/>
-      <c r="TF42" s="15"/>
-      <c r="TG42" s="15"/>
-      <c r="TH42" s="15"/>
-      <c r="TI42" s="15"/>
-      <c r="TJ42" s="15"/>
-      <c r="TK42" s="15"/>
-      <c r="TL42" s="15"/>
-      <c r="TM42" s="15"/>
-      <c r="TN42" s="15"/>
-      <c r="TO42" s="15"/>
-      <c r="TP42" s="15"/>
-      <c r="TQ42" s="15"/>
-      <c r="TR42" s="15"/>
-      <c r="TS42" s="15"/>
-      <c r="TT42" s="15"/>
-      <c r="TU42" s="15"/>
-      <c r="TV42" s="15"/>
-      <c r="TW42" s="15"/>
-      <c r="TX42" s="15"/>
-      <c r="TY42" s="15"/>
-      <c r="TZ42" s="15"/>
-      <c r="UA42" s="15"/>
-      <c r="UB42" s="15"/>
-      <c r="UC42" s="15"/>
-      <c r="UD42" s="15"/>
-      <c r="UE42" s="15"/>
-      <c r="UF42" s="15"/>
-      <c r="UG42" s="15"/>
-      <c r="UH42" s="15"/>
-      <c r="UI42" s="15"/>
-      <c r="UJ42" s="15"/>
-      <c r="UK42" s="15"/>
-      <c r="UL42" s="15"/>
-      <c r="UM42" s="15"/>
-      <c r="UN42" s="15"/>
-      <c r="UO42" s="15"/>
-      <c r="UP42" s="15"/>
-      <c r="UQ42" s="15"/>
-      <c r="UR42" s="15"/>
-      <c r="US42" s="15"/>
-      <c r="UT42" s="15"/>
-      <c r="UU42" s="15"/>
-      <c r="UV42" s="15"/>
-      <c r="UW42" s="15"/>
-      <c r="UX42" s="15"/>
-      <c r="UY42" s="15"/>
-      <c r="UZ42" s="15"/>
-      <c r="VA42" s="15"/>
-      <c r="VB42" s="15"/>
-      <c r="VC42" s="15"/>
-      <c r="VD42" s="15"/>
-      <c r="VE42" s="15"/>
-      <c r="VF42" s="15"/>
-      <c r="VG42" s="15"/>
-      <c r="VH42" s="15"/>
-      <c r="VI42" s="15"/>
-      <c r="VJ42" s="15"/>
-      <c r="VK42" s="15"/>
-      <c r="VL42" s="15"/>
-      <c r="VM42" s="15"/>
-      <c r="VN42" s="15"/>
-      <c r="VO42" s="15"/>
-      <c r="VP42" s="15"/>
-      <c r="VQ42" s="15"/>
-      <c r="VR42" s="15"/>
-      <c r="VS42" s="15"/>
-      <c r="VT42" s="15"/>
-      <c r="VU42" s="15"/>
-      <c r="VV42" s="15"/>
-      <c r="VW42" s="15"/>
-      <c r="VX42" s="15"/>
-      <c r="VY42" s="15"/>
-      <c r="VZ42" s="15"/>
-      <c r="WA42" s="15"/>
-      <c r="WB42" s="15"/>
-      <c r="WC42" s="15"/>
-      <c r="WD42" s="15"/>
-      <c r="WE42" s="15"/>
-      <c r="WF42" s="15"/>
-      <c r="WG42" s="15"/>
-      <c r="WH42" s="15"/>
-      <c r="WI42" s="15"/>
-      <c r="WJ42" s="15"/>
-      <c r="WK42" s="15"/>
-      <c r="WL42" s="15"/>
-      <c r="WM42" s="15"/>
-      <c r="WN42" s="15"/>
-      <c r="WO42" s="15"/>
-      <c r="WP42" s="15"/>
-      <c r="WQ42" s="15"/>
-      <c r="WR42" s="15"/>
-      <c r="WS42" s="15"/>
-      <c r="WT42" s="15"/>
-      <c r="WU42" s="15"/>
-      <c r="WV42" s="15"/>
-      <c r="WW42" s="15"/>
-      <c r="WX42" s="15"/>
-      <c r="WY42" s="15"/>
-      <c r="WZ42" s="15"/>
-      <c r="XA42" s="15"/>
-      <c r="XB42" s="15"/>
-      <c r="XC42" s="15"/>
-      <c r="XD42" s="15"/>
-      <c r="XE42" s="15"/>
-      <c r="XF42" s="15"/>
-      <c r="XG42" s="15"/>
-      <c r="XH42" s="15"/>
-      <c r="XI42" s="15"/>
-      <c r="XJ42" s="15"/>
-      <c r="XK42" s="15"/>
-      <c r="XL42" s="15"/>
-      <c r="XM42" s="15"/>
-      <c r="XN42" s="15"/>
-      <c r="XO42" s="15"/>
-      <c r="XP42" s="15"/>
-      <c r="XQ42" s="15"/>
-      <c r="XR42" s="15"/>
-      <c r="XS42" s="15"/>
-      <c r="XT42" s="15"/>
-      <c r="XU42" s="15"/>
-      <c r="XV42" s="15"/>
-      <c r="XW42" s="15"/>
-      <c r="XX42" s="15"/>
-      <c r="XY42" s="15"/>
-      <c r="XZ42" s="15"/>
-      <c r="YA42" s="15"/>
-      <c r="YB42" s="15"/>
-      <c r="YC42" s="15"/>
-      <c r="YD42" s="15"/>
-      <c r="YE42" s="15"/>
-      <c r="YF42" s="15"/>
-      <c r="YG42" s="15"/>
-      <c r="YH42" s="15"/>
-      <c r="YI42" s="15"/>
-      <c r="YJ42" s="15"/>
-      <c r="YK42" s="15"/>
-      <c r="YL42" s="15"/>
-      <c r="YM42" s="15"/>
-      <c r="YN42" s="15"/>
-      <c r="YO42" s="15"/>
-      <c r="YP42" s="15"/>
-      <c r="YQ42" s="15"/>
-      <c r="YR42" s="15"/>
-      <c r="YS42" s="15"/>
-      <c r="YT42" s="15"/>
-      <c r="YU42" s="15"/>
-      <c r="YV42" s="15"/>
-      <c r="YW42" s="15"/>
-      <c r="YX42" s="15"/>
-      <c r="YY42" s="15"/>
-      <c r="YZ42" s="15"/>
-      <c r="ZA42" s="15"/>
-      <c r="ZB42" s="15"/>
-      <c r="ZC42" s="15"/>
-      <c r="ZD42" s="15"/>
-      <c r="ZE42" s="15"/>
-      <c r="ZF42" s="15"/>
-      <c r="ZG42" s="15"/>
-      <c r="ZH42" s="15"/>
-      <c r="ZI42" s="15"/>
-      <c r="ZJ42" s="15"/>
-      <c r="ZK42" s="15"/>
-      <c r="ZL42" s="15"/>
-      <c r="ZM42" s="15"/>
-      <c r="ZN42" s="15"/>
-      <c r="ZO42" s="15"/>
-      <c r="ZP42" s="15"/>
-      <c r="ZQ42" s="15"/>
-      <c r="ZR42" s="15"/>
-      <c r="ZS42" s="15"/>
-      <c r="ZT42" s="15"/>
-      <c r="ZU42" s="15"/>
-      <c r="ZV42" s="15"/>
-      <c r="ZW42" s="15"/>
-      <c r="ZX42" s="15"/>
-      <c r="ZY42" s="15"/>
-      <c r="ZZ42" s="15"/>
-      <c r="AAA42" s="15"/>
-      <c r="AAB42" s="15"/>
-      <c r="AAC42" s="15"/>
-      <c r="AAD42" s="15"/>
-      <c r="AAE42" s="15"/>
-      <c r="AAF42" s="15"/>
-      <c r="AAG42" s="15"/>
-      <c r="AAH42" s="15"/>
-      <c r="AAI42" s="15"/>
-      <c r="AAJ42" s="15"/>
-      <c r="AAK42" s="15"/>
-      <c r="AAL42" s="15"/>
-      <c r="AAM42" s="15"/>
-      <c r="AAN42" s="15"/>
-      <c r="AAO42" s="15"/>
-      <c r="AAP42" s="15"/>
-      <c r="AAQ42" s="15"/>
-      <c r="AAR42" s="15"/>
-      <c r="AAS42" s="15"/>
-      <c r="AAT42" s="15"/>
-      <c r="AAU42" s="15"/>
-      <c r="AAV42" s="15"/>
-      <c r="AAW42" s="15"/>
-      <c r="AAX42" s="15"/>
-      <c r="AAY42" s="15"/>
-      <c r="AAZ42" s="15"/>
-      <c r="ABA42" s="15"/>
-      <c r="ABB42" s="15"/>
-      <c r="ABC42" s="15"/>
-      <c r="ABD42" s="15"/>
-      <c r="ABE42" s="15"/>
-      <c r="ABF42" s="15"/>
-      <c r="ABG42" s="15"/>
-      <c r="ABH42" s="15"/>
-      <c r="ABI42" s="15"/>
-      <c r="ABJ42" s="15"/>
-      <c r="ABK42" s="15"/>
-      <c r="ABL42" s="15"/>
-      <c r="ABM42" s="15"/>
-      <c r="ABN42" s="15"/>
-      <c r="ABO42" s="15"/>
-      <c r="ABP42" s="15"/>
-      <c r="ABQ42" s="15"/>
-      <c r="ABR42" s="15"/>
-      <c r="ABS42" s="15"/>
-      <c r="ABT42" s="15"/>
-      <c r="ABU42" s="15"/>
-      <c r="ABV42" s="15"/>
-      <c r="ABW42" s="15"/>
-      <c r="ABX42" s="15"/>
-      <c r="ABY42" s="15"/>
-      <c r="ABZ42" s="15"/>
-      <c r="ACA42" s="15"/>
-      <c r="ACB42" s="15"/>
-      <c r="ACC42" s="15"/>
-      <c r="ACD42" s="15"/>
-      <c r="ACE42" s="15"/>
-      <c r="ACF42" s="15"/>
-      <c r="ACG42" s="15"/>
-      <c r="ACH42" s="15"/>
-      <c r="ACI42" s="15"/>
-      <c r="ACJ42" s="15"/>
-      <c r="ACK42" s="15"/>
-      <c r="ACL42" s="15"/>
-      <c r="ACM42" s="15"/>
-      <c r="ACN42" s="15"/>
-      <c r="ACO42" s="15"/>
-      <c r="ACP42" s="15"/>
-      <c r="ACQ42" s="15"/>
-      <c r="ACR42" s="15"/>
-      <c r="ACS42" s="15"/>
-      <c r="ACT42" s="15"/>
-      <c r="ACU42" s="15"/>
-      <c r="ACV42" s="15"/>
-      <c r="ACW42" s="15"/>
-      <c r="ACX42" s="15"/>
-      <c r="ACY42" s="15"/>
-      <c r="ACZ42" s="15"/>
-      <c r="ADA42" s="15"/>
-      <c r="ADB42" s="15"/>
-      <c r="ADC42" s="15"/>
-      <c r="ADD42" s="15"/>
-      <c r="ADE42" s="15"/>
-      <c r="ADF42" s="15"/>
-      <c r="ADG42" s="15"/>
-      <c r="ADH42" s="15"/>
-      <c r="ADI42" s="15"/>
-      <c r="ADJ42" s="15"/>
-      <c r="ADK42" s="15"/>
-      <c r="ADL42" s="15"/>
-      <c r="ADM42" s="15"/>
-      <c r="ADN42" s="15"/>
-      <c r="ADO42" s="15"/>
-      <c r="ADP42" s="15"/>
-      <c r="ADQ42" s="15"/>
-      <c r="ADR42" s="15"/>
-      <c r="ADS42" s="15"/>
-      <c r="ADT42" s="15"/>
-      <c r="ADU42" s="15"/>
-      <c r="ADV42" s="15"/>
-      <c r="ADW42" s="15"/>
-      <c r="ADX42" s="15"/>
-      <c r="ADY42" s="15"/>
-      <c r="ADZ42" s="15"/>
-      <c r="AEA42" s="15"/>
-      <c r="AEB42" s="15"/>
-      <c r="AEC42" s="15"/>
-      <c r="AED42" s="15"/>
-      <c r="AEE42" s="15"/>
-      <c r="AEF42" s="15"/>
-      <c r="AEG42" s="15"/>
-      <c r="AEH42" s="15"/>
-      <c r="AEI42" s="15"/>
-      <c r="AEJ42" s="15"/>
-      <c r="AEK42" s="15"/>
-      <c r="AEL42" s="15"/>
-      <c r="AEM42" s="15"/>
-      <c r="AEN42" s="15"/>
-      <c r="AEO42" s="15"/>
-      <c r="AEP42" s="15"/>
-      <c r="AEQ42" s="15"/>
-      <c r="AER42" s="15"/>
-      <c r="AES42" s="15"/>
-      <c r="AET42" s="15"/>
-      <c r="AEU42" s="15"/>
-      <c r="AEV42" s="15"/>
-      <c r="AEW42" s="15"/>
-      <c r="AEX42" s="15"/>
-      <c r="AEY42" s="15"/>
-      <c r="AEZ42" s="15"/>
-      <c r="AFA42" s="15"/>
-      <c r="AFB42" s="15"/>
-      <c r="AFC42" s="15"/>
-      <c r="AFD42" s="15"/>
-      <c r="AFE42" s="15"/>
-      <c r="AFF42" s="15"/>
-      <c r="AFG42" s="15"/>
-      <c r="AFH42" s="15"/>
-      <c r="AFI42" s="15"/>
-      <c r="AFJ42" s="15"/>
-      <c r="AFK42" s="15"/>
-      <c r="AFL42" s="15"/>
-      <c r="AFM42" s="15"/>
-      <c r="AFN42" s="15"/>
-      <c r="AFO42" s="15"/>
-      <c r="AFP42" s="15"/>
-      <c r="AFQ42" s="15"/>
-      <c r="AFR42" s="15"/>
-      <c r="AFS42" s="15"/>
-      <c r="AFT42" s="15"/>
-      <c r="AFU42" s="15"/>
-      <c r="AFV42" s="15"/>
-      <c r="AFW42" s="15"/>
-      <c r="AFX42" s="15"/>
-      <c r="AFY42" s="15"/>
-      <c r="AFZ42" s="15"/>
-      <c r="AGA42" s="15"/>
-      <c r="AGB42" s="15"/>
-      <c r="AGC42" s="15"/>
-      <c r="AGD42" s="15"/>
-      <c r="AGE42" s="15"/>
-      <c r="AGF42" s="15"/>
-      <c r="AGG42" s="15"/>
-      <c r="AGH42" s="15"/>
-      <c r="AGI42" s="15"/>
-      <c r="AGJ42" s="15"/>
-      <c r="AGK42" s="15"/>
-      <c r="AGL42" s="15"/>
-      <c r="AGM42" s="15"/>
-      <c r="AGN42" s="15"/>
-      <c r="AGO42" s="15"/>
-      <c r="AGP42" s="15"/>
-      <c r="AGQ42" s="15"/>
-      <c r="AGR42" s="15"/>
-      <c r="AGS42" s="15"/>
-      <c r="AGT42" s="15"/>
-      <c r="AGU42" s="15"/>
-      <c r="AGV42" s="15"/>
-      <c r="AGW42" s="15"/>
-      <c r="AGX42" s="15"/>
-      <c r="AGY42" s="15"/>
-      <c r="AGZ42" s="15"/>
-      <c r="AHA42" s="15"/>
-      <c r="AHB42" s="15"/>
-      <c r="AHC42" s="15"/>
-      <c r="AHD42" s="15"/>
-      <c r="AHE42" s="15"/>
-      <c r="AHF42" s="15"/>
-      <c r="AHG42" s="15"/>
-      <c r="AHH42" s="15"/>
-      <c r="AHI42" s="15"/>
-      <c r="AHJ42" s="15"/>
-      <c r="AHK42" s="15"/>
-      <c r="AHL42" s="15"/>
-      <c r="AHM42" s="15"/>
-      <c r="AHN42" s="15"/>
-      <c r="AHO42" s="15"/>
-      <c r="AHP42" s="15"/>
-      <c r="AHQ42" s="15"/>
-      <c r="AHR42" s="15"/>
-      <c r="AHS42" s="15"/>
-      <c r="AHT42" s="15"/>
-      <c r="AHU42" s="15"/>
-      <c r="AHV42" s="15"/>
-      <c r="AHW42" s="15"/>
-      <c r="AHX42" s="15"/>
-      <c r="AHY42" s="15"/>
-      <c r="AHZ42" s="15"/>
-      <c r="AIA42" s="15"/>
-      <c r="AIB42" s="15"/>
-      <c r="AIC42" s="15"/>
-      <c r="AID42" s="15"/>
-      <c r="AIE42" s="15"/>
-      <c r="AIF42" s="15"/>
-      <c r="AIG42" s="15"/>
-      <c r="AIH42" s="15"/>
-      <c r="AII42" s="15"/>
-      <c r="AIJ42" s="15"/>
-      <c r="AIK42" s="15"/>
-      <c r="AIL42" s="15"/>
-      <c r="AIM42" s="15"/>
-      <c r="AIN42" s="15"/>
-      <c r="AIO42" s="15"/>
-      <c r="AIP42" s="15"/>
-      <c r="AIQ42" s="15"/>
-      <c r="AIR42" s="15"/>
-      <c r="AIS42" s="15"/>
-      <c r="AIT42" s="15"/>
-      <c r="AIU42" s="15"/>
-      <c r="AIV42" s="15"/>
-      <c r="AIW42" s="15"/>
-      <c r="AIX42" s="15"/>
-      <c r="AIY42" s="15"/>
-      <c r="AIZ42" s="15"/>
-      <c r="AJA42" s="15"/>
-      <c r="AJB42" s="15"/>
-      <c r="AJC42" s="15"/>
-      <c r="AJD42" s="15"/>
-      <c r="AJE42" s="15"/>
-      <c r="AJF42" s="15"/>
-      <c r="AJG42" s="15"/>
-      <c r="AJH42" s="15"/>
-      <c r="AJI42" s="15"/>
-      <c r="AJJ42" s="15"/>
-      <c r="AJK42" s="15"/>
-      <c r="AJL42" s="15"/>
-      <c r="AJM42" s="15"/>
-      <c r="AJN42" s="15"/>
-      <c r="AJO42" s="15"/>
-      <c r="AJP42" s="15"/>
-      <c r="AJQ42" s="15"/>
-      <c r="AJR42" s="15"/>
-      <c r="AJS42" s="15"/>
-      <c r="AJT42" s="15"/>
-      <c r="AJU42" s="15"/>
-      <c r="AJV42" s="15"/>
-      <c r="AJW42" s="15"/>
-      <c r="AJX42" s="15"/>
-      <c r="AJY42" s="15"/>
-      <c r="AJZ42" s="15"/>
-      <c r="AKA42" s="15"/>
-      <c r="AKB42" s="15"/>
-      <c r="AKC42" s="15"/>
-      <c r="AKD42" s="15"/>
-      <c r="AKE42" s="15"/>
-      <c r="AKF42" s="15"/>
-      <c r="AKG42" s="15"/>
-      <c r="AKH42" s="15"/>
-      <c r="AKI42" s="15"/>
-      <c r="AKJ42" s="15"/>
-      <c r="AKK42" s="15"/>
-      <c r="AKL42" s="15"/>
-      <c r="AKM42" s="15"/>
-      <c r="AKN42" s="15"/>
-      <c r="AKO42" s="15"/>
-      <c r="AKP42" s="15"/>
-      <c r="AKQ42" s="15"/>
-      <c r="AKR42" s="15"/>
-      <c r="AKS42" s="15"/>
-      <c r="AKT42" s="15"/>
-      <c r="AKU42" s="15"/>
-      <c r="AKV42" s="15"/>
-      <c r="AKW42" s="15"/>
-      <c r="AKX42" s="15"/>
-      <c r="AKY42" s="15"/>
-      <c r="AKZ42" s="15"/>
-      <c r="ALA42" s="15"/>
-      <c r="ALB42" s="15"/>
-      <c r="ALC42" s="15"/>
-      <c r="ALD42" s="15"/>
-      <c r="ALE42" s="15"/>
-      <c r="ALF42" s="15"/>
-      <c r="ALG42" s="15"/>
-      <c r="ALH42" s="15"/>
-      <c r="ALI42" s="15"/>
-      <c r="ALJ42" s="15"/>
-      <c r="ALK42" s="15"/>
-      <c r="ALL42" s="15"/>
-      <c r="ALM42" s="15"/>
-      <c r="ALN42" s="15"/>
-      <c r="ALO42" s="15"/>
-      <c r="ALP42" s="15"/>
-      <c r="ALQ42" s="15"/>
-      <c r="ALR42" s="15"/>
-      <c r="ALS42" s="15"/>
-      <c r="ALT42" s="15"/>
-      <c r="ALU42" s="15"/>
-      <c r="ALV42" s="15"/>
-      <c r="ALW42" s="15"/>
-      <c r="ALX42" s="15"/>
-      <c r="ALY42" s="15"/>
-      <c r="ALZ42" s="15"/>
-      <c r="AMA42" s="15"/>
-      <c r="AMB42" s="15"/>
-      <c r="AMC42" s="15"/>
-      <c r="AMD42" s="15"/>
-      <c r="AME42" s="15"/>
-      <c r="AMF42" s="15"/>
-      <c r="AMG42" s="15"/>
-      <c r="AMH42" s="15"/>
-      <c r="AMI42" s="15"/>
-      <c r="AMJ42" s="15"/>
-      <c r="AMK42" s="15"/>
-      <c r="AML42" s="15"/>
-      <c r="AMM42" s="15"/>
-    </row>
-    <row r="43" spans="1:1028" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E43" s="15"/>
       <c r="F43" s="16" t="s">
         <v>13</v>
       </c>
@@ -5365,17 +4374,17 @@
       <c r="I43" s="18">
         <v>45070</v>
       </c>
-      <c r="J43" s="19"/>
+      <c r="J43" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="K43" s="19"/>
       <c r="L43" s="17" t="s">
-        <v>399</v>
+        <v>141</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>415</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N43" s="15"/>
       <c r="O43" s="17" t="s">
         <v>538</v>
       </c>
@@ -6392,21 +5401,21 @@
       <c r="AML43" s="15"/>
       <c r="AMM43" s="15"/>
     </row>
-    <row r="44" spans="1:1028" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1028" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>13</v>
@@ -6414,22 +5423,22 @@
       <c r="G44" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="H44" s="21" t="s">
-        <v>526</v>
+      <c r="H44" s="16" t="s">
+        <v>501</v>
       </c>
       <c r="I44" s="18">
         <v>45070</v>
       </c>
-      <c r="J44" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="J44" s="19"/>
       <c r="K44" s="19"/>
-      <c r="L44" s="17"/>
+      <c r="L44" s="17" t="s">
+        <v>399</v>
+      </c>
       <c r="M44" s="17" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>528</v>
+        <v>415</v>
       </c>
       <c r="O44" s="17" t="s">
         <v>538</v>
@@ -7447,147 +6456,1176 @@
       <c r="AML44" s="15"/>
       <c r="AMM44" s="15"/>
     </row>
-    <row r="45" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:1028" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="I45" s="18">
+        <v>45070</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
+      <c r="AR45" s="15"/>
+      <c r="AS45" s="15"/>
+      <c r="AT45" s="15"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
+      <c r="AW45" s="15"/>
+      <c r="AX45" s="15"/>
+      <c r="AY45" s="15"/>
+      <c r="AZ45" s="15"/>
+      <c r="BA45" s="15"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="15"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="15"/>
+      <c r="BL45" s="15"/>
+      <c r="BM45" s="15"/>
+      <c r="BN45" s="15"/>
+      <c r="BO45" s="15"/>
+      <c r="BP45" s="15"/>
+      <c r="BQ45" s="15"/>
+      <c r="BR45" s="15"/>
+      <c r="BS45" s="15"/>
+      <c r="BT45" s="15"/>
+      <c r="BU45" s="15"/>
+      <c r="BV45" s="15"/>
+      <c r="BW45" s="15"/>
+      <c r="BX45" s="15"/>
+      <c r="BY45" s="15"/>
+      <c r="BZ45" s="15"/>
+      <c r="CA45" s="15"/>
+      <c r="CB45" s="15"/>
+      <c r="CC45" s="15"/>
+      <c r="CD45" s="15"/>
+      <c r="CE45" s="15"/>
+      <c r="CF45" s="15"/>
+      <c r="CG45" s="15"/>
+      <c r="CH45" s="15"/>
+      <c r="CI45" s="15"/>
+      <c r="CJ45" s="15"/>
+      <c r="CK45" s="15"/>
+      <c r="CL45" s="15"/>
+      <c r="CM45" s="15"/>
+      <c r="CN45" s="15"/>
+      <c r="CO45" s="15"/>
+      <c r="CP45" s="15"/>
+      <c r="CQ45" s="15"/>
+      <c r="CR45" s="15"/>
+      <c r="CS45" s="15"/>
+      <c r="CT45" s="15"/>
+      <c r="CU45" s="15"/>
+      <c r="CV45" s="15"/>
+      <c r="CW45" s="15"/>
+      <c r="CX45" s="15"/>
+      <c r="CY45" s="15"/>
+      <c r="CZ45" s="15"/>
+      <c r="DA45" s="15"/>
+      <c r="DB45" s="15"/>
+      <c r="DC45" s="15"/>
+      <c r="DD45" s="15"/>
+      <c r="DE45" s="15"/>
+      <c r="DF45" s="15"/>
+      <c r="DG45" s="15"/>
+      <c r="DH45" s="15"/>
+      <c r="DI45" s="15"/>
+      <c r="DJ45" s="15"/>
+      <c r="DK45" s="15"/>
+      <c r="DL45" s="15"/>
+      <c r="DM45" s="15"/>
+      <c r="DN45" s="15"/>
+      <c r="DO45" s="15"/>
+      <c r="DP45" s="15"/>
+      <c r="DQ45" s="15"/>
+      <c r="DR45" s="15"/>
+      <c r="DS45" s="15"/>
+      <c r="DT45" s="15"/>
+      <c r="DU45" s="15"/>
+      <c r="DV45" s="15"/>
+      <c r="DW45" s="15"/>
+      <c r="DX45" s="15"/>
+      <c r="DY45" s="15"/>
+      <c r="DZ45" s="15"/>
+      <c r="EA45" s="15"/>
+      <c r="EB45" s="15"/>
+      <c r="EC45" s="15"/>
+      <c r="ED45" s="15"/>
+      <c r="EE45" s="15"/>
+      <c r="EF45" s="15"/>
+      <c r="EG45" s="15"/>
+      <c r="EH45" s="15"/>
+      <c r="EI45" s="15"/>
+      <c r="EJ45" s="15"/>
+      <c r="EK45" s="15"/>
+      <c r="EL45" s="15"/>
+      <c r="EM45" s="15"/>
+      <c r="EN45" s="15"/>
+      <c r="EO45" s="15"/>
+      <c r="EP45" s="15"/>
+      <c r="EQ45" s="15"/>
+      <c r="ER45" s="15"/>
+      <c r="ES45" s="15"/>
+      <c r="ET45" s="15"/>
+      <c r="EU45" s="15"/>
+      <c r="EV45" s="15"/>
+      <c r="EW45" s="15"/>
+      <c r="EX45" s="15"/>
+      <c r="EY45" s="15"/>
+      <c r="EZ45" s="15"/>
+      <c r="FA45" s="15"/>
+      <c r="FB45" s="15"/>
+      <c r="FC45" s="15"/>
+      <c r="FD45" s="15"/>
+      <c r="FE45" s="15"/>
+      <c r="FF45" s="15"/>
+      <c r="FG45" s="15"/>
+      <c r="FH45" s="15"/>
+      <c r="FI45" s="15"/>
+      <c r="FJ45" s="15"/>
+      <c r="FK45" s="15"/>
+      <c r="FL45" s="15"/>
+      <c r="FM45" s="15"/>
+      <c r="FN45" s="15"/>
+      <c r="FO45" s="15"/>
+      <c r="FP45" s="15"/>
+      <c r="FQ45" s="15"/>
+      <c r="FR45" s="15"/>
+      <c r="FS45" s="15"/>
+      <c r="FT45" s="15"/>
+      <c r="FU45" s="15"/>
+      <c r="FV45" s="15"/>
+      <c r="FW45" s="15"/>
+      <c r="FX45" s="15"/>
+      <c r="FY45" s="15"/>
+      <c r="FZ45" s="15"/>
+      <c r="GA45" s="15"/>
+      <c r="GB45" s="15"/>
+      <c r="GC45" s="15"/>
+      <c r="GD45" s="15"/>
+      <c r="GE45" s="15"/>
+      <c r="GF45" s="15"/>
+      <c r="GG45" s="15"/>
+      <c r="GH45" s="15"/>
+      <c r="GI45" s="15"/>
+      <c r="GJ45" s="15"/>
+      <c r="GK45" s="15"/>
+      <c r="GL45" s="15"/>
+      <c r="GM45" s="15"/>
+      <c r="GN45" s="15"/>
+      <c r="GO45" s="15"/>
+      <c r="GP45" s="15"/>
+      <c r="GQ45" s="15"/>
+      <c r="GR45" s="15"/>
+      <c r="GS45" s="15"/>
+      <c r="GT45" s="15"/>
+      <c r="GU45" s="15"/>
+      <c r="GV45" s="15"/>
+      <c r="GW45" s="15"/>
+      <c r="GX45" s="15"/>
+      <c r="GY45" s="15"/>
+      <c r="GZ45" s="15"/>
+      <c r="HA45" s="15"/>
+      <c r="HB45" s="15"/>
+      <c r="HC45" s="15"/>
+      <c r="HD45" s="15"/>
+      <c r="HE45" s="15"/>
+      <c r="HF45" s="15"/>
+      <c r="HG45" s="15"/>
+      <c r="HH45" s="15"/>
+      <c r="HI45" s="15"/>
+      <c r="HJ45" s="15"/>
+      <c r="HK45" s="15"/>
+      <c r="HL45" s="15"/>
+      <c r="HM45" s="15"/>
+      <c r="HN45" s="15"/>
+      <c r="HO45" s="15"/>
+      <c r="HP45" s="15"/>
+      <c r="HQ45" s="15"/>
+      <c r="HR45" s="15"/>
+      <c r="HS45" s="15"/>
+      <c r="HT45" s="15"/>
+      <c r="HU45" s="15"/>
+      <c r="HV45" s="15"/>
+      <c r="HW45" s="15"/>
+      <c r="HX45" s="15"/>
+      <c r="HY45" s="15"/>
+      <c r="HZ45" s="15"/>
+      <c r="IA45" s="15"/>
+      <c r="IB45" s="15"/>
+      <c r="IC45" s="15"/>
+      <c r="ID45" s="15"/>
+      <c r="IE45" s="15"/>
+      <c r="IF45" s="15"/>
+      <c r="IG45" s="15"/>
+      <c r="IH45" s="15"/>
+      <c r="II45" s="15"/>
+      <c r="IJ45" s="15"/>
+      <c r="IK45" s="15"/>
+      <c r="IL45" s="15"/>
+      <c r="IM45" s="15"/>
+      <c r="IN45" s="15"/>
+      <c r="IO45" s="15"/>
+      <c r="IP45" s="15"/>
+      <c r="IQ45" s="15"/>
+      <c r="IR45" s="15"/>
+      <c r="IS45" s="15"/>
+      <c r="IT45" s="15"/>
+      <c r="IU45" s="15"/>
+      <c r="IV45" s="15"/>
+      <c r="IW45" s="15"/>
+      <c r="IX45" s="15"/>
+      <c r="IY45" s="15"/>
+      <c r="IZ45" s="15"/>
+      <c r="JA45" s="15"/>
+      <c r="JB45" s="15"/>
+      <c r="JC45" s="15"/>
+      <c r="JD45" s="15"/>
+      <c r="JE45" s="15"/>
+      <c r="JF45" s="15"/>
+      <c r="JG45" s="15"/>
+      <c r="JH45" s="15"/>
+      <c r="JI45" s="15"/>
+      <c r="JJ45" s="15"/>
+      <c r="JK45" s="15"/>
+      <c r="JL45" s="15"/>
+      <c r="JM45" s="15"/>
+      <c r="JN45" s="15"/>
+      <c r="JO45" s="15"/>
+      <c r="JP45" s="15"/>
+      <c r="JQ45" s="15"/>
+      <c r="JR45" s="15"/>
+      <c r="JS45" s="15"/>
+      <c r="JT45" s="15"/>
+      <c r="JU45" s="15"/>
+      <c r="JV45" s="15"/>
+      <c r="JW45" s="15"/>
+      <c r="JX45" s="15"/>
+      <c r="JY45" s="15"/>
+      <c r="JZ45" s="15"/>
+      <c r="KA45" s="15"/>
+      <c r="KB45" s="15"/>
+      <c r="KC45" s="15"/>
+      <c r="KD45" s="15"/>
+      <c r="KE45" s="15"/>
+      <c r="KF45" s="15"/>
+      <c r="KG45" s="15"/>
+      <c r="KH45" s="15"/>
+      <c r="KI45" s="15"/>
+      <c r="KJ45" s="15"/>
+      <c r="KK45" s="15"/>
+      <c r="KL45" s="15"/>
+      <c r="KM45" s="15"/>
+      <c r="KN45" s="15"/>
+      <c r="KO45" s="15"/>
+      <c r="KP45" s="15"/>
+      <c r="KQ45" s="15"/>
+      <c r="KR45" s="15"/>
+      <c r="KS45" s="15"/>
+      <c r="KT45" s="15"/>
+      <c r="KU45" s="15"/>
+      <c r="KV45" s="15"/>
+      <c r="KW45" s="15"/>
+      <c r="KX45" s="15"/>
+      <c r="KY45" s="15"/>
+      <c r="KZ45" s="15"/>
+      <c r="LA45" s="15"/>
+      <c r="LB45" s="15"/>
+      <c r="LC45" s="15"/>
+      <c r="LD45" s="15"/>
+      <c r="LE45" s="15"/>
+      <c r="LF45" s="15"/>
+      <c r="LG45" s="15"/>
+      <c r="LH45" s="15"/>
+      <c r="LI45" s="15"/>
+      <c r="LJ45" s="15"/>
+      <c r="LK45" s="15"/>
+      <c r="LL45" s="15"/>
+      <c r="LM45" s="15"/>
+      <c r="LN45" s="15"/>
+      <c r="LO45" s="15"/>
+      <c r="LP45" s="15"/>
+      <c r="LQ45" s="15"/>
+      <c r="LR45" s="15"/>
+      <c r="LS45" s="15"/>
+      <c r="LT45" s="15"/>
+      <c r="LU45" s="15"/>
+      <c r="LV45" s="15"/>
+      <c r="LW45" s="15"/>
+      <c r="LX45" s="15"/>
+      <c r="LY45" s="15"/>
+      <c r="LZ45" s="15"/>
+      <c r="MA45" s="15"/>
+      <c r="MB45" s="15"/>
+      <c r="MC45" s="15"/>
+      <c r="MD45" s="15"/>
+      <c r="ME45" s="15"/>
+      <c r="MF45" s="15"/>
+      <c r="MG45" s="15"/>
+      <c r="MH45" s="15"/>
+      <c r="MI45" s="15"/>
+      <c r="MJ45" s="15"/>
+      <c r="MK45" s="15"/>
+      <c r="ML45" s="15"/>
+      <c r="MM45" s="15"/>
+      <c r="MN45" s="15"/>
+      <c r="MO45" s="15"/>
+      <c r="MP45" s="15"/>
+      <c r="MQ45" s="15"/>
+      <c r="MR45" s="15"/>
+      <c r="MS45" s="15"/>
+      <c r="MT45" s="15"/>
+      <c r="MU45" s="15"/>
+      <c r="MV45" s="15"/>
+      <c r="MW45" s="15"/>
+      <c r="MX45" s="15"/>
+      <c r="MY45" s="15"/>
+      <c r="MZ45" s="15"/>
+      <c r="NA45" s="15"/>
+      <c r="NB45" s="15"/>
+      <c r="NC45" s="15"/>
+      <c r="ND45" s="15"/>
+      <c r="NE45" s="15"/>
+      <c r="NF45" s="15"/>
+      <c r="NG45" s="15"/>
+      <c r="NH45" s="15"/>
+      <c r="NI45" s="15"/>
+      <c r="NJ45" s="15"/>
+      <c r="NK45" s="15"/>
+      <c r="NL45" s="15"/>
+      <c r="NM45" s="15"/>
+      <c r="NN45" s="15"/>
+      <c r="NO45" s="15"/>
+      <c r="NP45" s="15"/>
+      <c r="NQ45" s="15"/>
+      <c r="NR45" s="15"/>
+      <c r="NS45" s="15"/>
+      <c r="NT45" s="15"/>
+      <c r="NU45" s="15"/>
+      <c r="NV45" s="15"/>
+      <c r="NW45" s="15"/>
+      <c r="NX45" s="15"/>
+      <c r="NY45" s="15"/>
+      <c r="NZ45" s="15"/>
+      <c r="OA45" s="15"/>
+      <c r="OB45" s="15"/>
+      <c r="OC45" s="15"/>
+      <c r="OD45" s="15"/>
+      <c r="OE45" s="15"/>
+      <c r="OF45" s="15"/>
+      <c r="OG45" s="15"/>
+      <c r="OH45" s="15"/>
+      <c r="OI45" s="15"/>
+      <c r="OJ45" s="15"/>
+      <c r="OK45" s="15"/>
+      <c r="OL45" s="15"/>
+      <c r="OM45" s="15"/>
+      <c r="ON45" s="15"/>
+      <c r="OO45" s="15"/>
+      <c r="OP45" s="15"/>
+      <c r="OQ45" s="15"/>
+      <c r="OR45" s="15"/>
+      <c r="OS45" s="15"/>
+      <c r="OT45" s="15"/>
+      <c r="OU45" s="15"/>
+      <c r="OV45" s="15"/>
+      <c r="OW45" s="15"/>
+      <c r="OX45" s="15"/>
+      <c r="OY45" s="15"/>
+      <c r="OZ45" s="15"/>
+      <c r="PA45" s="15"/>
+      <c r="PB45" s="15"/>
+      <c r="PC45" s="15"/>
+      <c r="PD45" s="15"/>
+      <c r="PE45" s="15"/>
+      <c r="PF45" s="15"/>
+      <c r="PG45" s="15"/>
+      <c r="PH45" s="15"/>
+      <c r="PI45" s="15"/>
+      <c r="PJ45" s="15"/>
+      <c r="PK45" s="15"/>
+      <c r="PL45" s="15"/>
+      <c r="PM45" s="15"/>
+      <c r="PN45" s="15"/>
+      <c r="PO45" s="15"/>
+      <c r="PP45" s="15"/>
+      <c r="PQ45" s="15"/>
+      <c r="PR45" s="15"/>
+      <c r="PS45" s="15"/>
+      <c r="PT45" s="15"/>
+      <c r="PU45" s="15"/>
+      <c r="PV45" s="15"/>
+      <c r="PW45" s="15"/>
+      <c r="PX45" s="15"/>
+      <c r="PY45" s="15"/>
+      <c r="PZ45" s="15"/>
+      <c r="QA45" s="15"/>
+      <c r="QB45" s="15"/>
+      <c r="QC45" s="15"/>
+      <c r="QD45" s="15"/>
+      <c r="QE45" s="15"/>
+      <c r="QF45" s="15"/>
+      <c r="QG45" s="15"/>
+      <c r="QH45" s="15"/>
+      <c r="QI45" s="15"/>
+      <c r="QJ45" s="15"/>
+      <c r="QK45" s="15"/>
+      <c r="QL45" s="15"/>
+      <c r="QM45" s="15"/>
+      <c r="QN45" s="15"/>
+      <c r="QO45" s="15"/>
+      <c r="QP45" s="15"/>
+      <c r="QQ45" s="15"/>
+      <c r="QR45" s="15"/>
+      <c r="QS45" s="15"/>
+      <c r="QT45" s="15"/>
+      <c r="QU45" s="15"/>
+      <c r="QV45" s="15"/>
+      <c r="QW45" s="15"/>
+      <c r="QX45" s="15"/>
+      <c r="QY45" s="15"/>
+      <c r="QZ45" s="15"/>
+      <c r="RA45" s="15"/>
+      <c r="RB45" s="15"/>
+      <c r="RC45" s="15"/>
+      <c r="RD45" s="15"/>
+      <c r="RE45" s="15"/>
+      <c r="RF45" s="15"/>
+      <c r="RG45" s="15"/>
+      <c r="RH45" s="15"/>
+      <c r="RI45" s="15"/>
+      <c r="RJ45" s="15"/>
+      <c r="RK45" s="15"/>
+      <c r="RL45" s="15"/>
+      <c r="RM45" s="15"/>
+      <c r="RN45" s="15"/>
+      <c r="RO45" s="15"/>
+      <c r="RP45" s="15"/>
+      <c r="RQ45" s="15"/>
+      <c r="RR45" s="15"/>
+      <c r="RS45" s="15"/>
+      <c r="RT45" s="15"/>
+      <c r="RU45" s="15"/>
+      <c r="RV45" s="15"/>
+      <c r="RW45" s="15"/>
+      <c r="RX45" s="15"/>
+      <c r="RY45" s="15"/>
+      <c r="RZ45" s="15"/>
+      <c r="SA45" s="15"/>
+      <c r="SB45" s="15"/>
+      <c r="SC45" s="15"/>
+      <c r="SD45" s="15"/>
+      <c r="SE45" s="15"/>
+      <c r="SF45" s="15"/>
+      <c r="SG45" s="15"/>
+      <c r="SH45" s="15"/>
+      <c r="SI45" s="15"/>
+      <c r="SJ45" s="15"/>
+      <c r="SK45" s="15"/>
+      <c r="SL45" s="15"/>
+      <c r="SM45" s="15"/>
+      <c r="SN45" s="15"/>
+      <c r="SO45" s="15"/>
+      <c r="SP45" s="15"/>
+      <c r="SQ45" s="15"/>
+      <c r="SR45" s="15"/>
+      <c r="SS45" s="15"/>
+      <c r="ST45" s="15"/>
+      <c r="SU45" s="15"/>
+      <c r="SV45" s="15"/>
+      <c r="SW45" s="15"/>
+      <c r="SX45" s="15"/>
+      <c r="SY45" s="15"/>
+      <c r="SZ45" s="15"/>
+      <c r="TA45" s="15"/>
+      <c r="TB45" s="15"/>
+      <c r="TC45" s="15"/>
+      <c r="TD45" s="15"/>
+      <c r="TE45" s="15"/>
+      <c r="TF45" s="15"/>
+      <c r="TG45" s="15"/>
+      <c r="TH45" s="15"/>
+      <c r="TI45" s="15"/>
+      <c r="TJ45" s="15"/>
+      <c r="TK45" s="15"/>
+      <c r="TL45" s="15"/>
+      <c r="TM45" s="15"/>
+      <c r="TN45" s="15"/>
+      <c r="TO45" s="15"/>
+      <c r="TP45" s="15"/>
+      <c r="TQ45" s="15"/>
+      <c r="TR45" s="15"/>
+      <c r="TS45" s="15"/>
+      <c r="TT45" s="15"/>
+      <c r="TU45" s="15"/>
+      <c r="TV45" s="15"/>
+      <c r="TW45" s="15"/>
+      <c r="TX45" s="15"/>
+      <c r="TY45" s="15"/>
+      <c r="TZ45" s="15"/>
+      <c r="UA45" s="15"/>
+      <c r="UB45" s="15"/>
+      <c r="UC45" s="15"/>
+      <c r="UD45" s="15"/>
+      <c r="UE45" s="15"/>
+      <c r="UF45" s="15"/>
+      <c r="UG45" s="15"/>
+      <c r="UH45" s="15"/>
+      <c r="UI45" s="15"/>
+      <c r="UJ45" s="15"/>
+      <c r="UK45" s="15"/>
+      <c r="UL45" s="15"/>
+      <c r="UM45" s="15"/>
+      <c r="UN45" s="15"/>
+      <c r="UO45" s="15"/>
+      <c r="UP45" s="15"/>
+      <c r="UQ45" s="15"/>
+      <c r="UR45" s="15"/>
+      <c r="US45" s="15"/>
+      <c r="UT45" s="15"/>
+      <c r="UU45" s="15"/>
+      <c r="UV45" s="15"/>
+      <c r="UW45" s="15"/>
+      <c r="UX45" s="15"/>
+      <c r="UY45" s="15"/>
+      <c r="UZ45" s="15"/>
+      <c r="VA45" s="15"/>
+      <c r="VB45" s="15"/>
+      <c r="VC45" s="15"/>
+      <c r="VD45" s="15"/>
+      <c r="VE45" s="15"/>
+      <c r="VF45" s="15"/>
+      <c r="VG45" s="15"/>
+      <c r="VH45" s="15"/>
+      <c r="VI45" s="15"/>
+      <c r="VJ45" s="15"/>
+      <c r="VK45" s="15"/>
+      <c r="VL45" s="15"/>
+      <c r="VM45" s="15"/>
+      <c r="VN45" s="15"/>
+      <c r="VO45" s="15"/>
+      <c r="VP45" s="15"/>
+      <c r="VQ45" s="15"/>
+      <c r="VR45" s="15"/>
+      <c r="VS45" s="15"/>
+      <c r="VT45" s="15"/>
+      <c r="VU45" s="15"/>
+      <c r="VV45" s="15"/>
+      <c r="VW45" s="15"/>
+      <c r="VX45" s="15"/>
+      <c r="VY45" s="15"/>
+      <c r="VZ45" s="15"/>
+      <c r="WA45" s="15"/>
+      <c r="WB45" s="15"/>
+      <c r="WC45" s="15"/>
+      <c r="WD45" s="15"/>
+      <c r="WE45" s="15"/>
+      <c r="WF45" s="15"/>
+      <c r="WG45" s="15"/>
+      <c r="WH45" s="15"/>
+      <c r="WI45" s="15"/>
+      <c r="WJ45" s="15"/>
+      <c r="WK45" s="15"/>
+      <c r="WL45" s="15"/>
+      <c r="WM45" s="15"/>
+      <c r="WN45" s="15"/>
+      <c r="WO45" s="15"/>
+      <c r="WP45" s="15"/>
+      <c r="WQ45" s="15"/>
+      <c r="WR45" s="15"/>
+      <c r="WS45" s="15"/>
+      <c r="WT45" s="15"/>
+      <c r="WU45" s="15"/>
+      <c r="WV45" s="15"/>
+      <c r="WW45" s="15"/>
+      <c r="WX45" s="15"/>
+      <c r="WY45" s="15"/>
+      <c r="WZ45" s="15"/>
+      <c r="XA45" s="15"/>
+      <c r="XB45" s="15"/>
+      <c r="XC45" s="15"/>
+      <c r="XD45" s="15"/>
+      <c r="XE45" s="15"/>
+      <c r="XF45" s="15"/>
+      <c r="XG45" s="15"/>
+      <c r="XH45" s="15"/>
+      <c r="XI45" s="15"/>
+      <c r="XJ45" s="15"/>
+      <c r="XK45" s="15"/>
+      <c r="XL45" s="15"/>
+      <c r="XM45" s="15"/>
+      <c r="XN45" s="15"/>
+      <c r="XO45" s="15"/>
+      <c r="XP45" s="15"/>
+      <c r="XQ45" s="15"/>
+      <c r="XR45" s="15"/>
+      <c r="XS45" s="15"/>
+      <c r="XT45" s="15"/>
+      <c r="XU45" s="15"/>
+      <c r="XV45" s="15"/>
+      <c r="XW45" s="15"/>
+      <c r="XX45" s="15"/>
+      <c r="XY45" s="15"/>
+      <c r="XZ45" s="15"/>
+      <c r="YA45" s="15"/>
+      <c r="YB45" s="15"/>
+      <c r="YC45" s="15"/>
+      <c r="YD45" s="15"/>
+      <c r="YE45" s="15"/>
+      <c r="YF45" s="15"/>
+      <c r="YG45" s="15"/>
+      <c r="YH45" s="15"/>
+      <c r="YI45" s="15"/>
+      <c r="YJ45" s="15"/>
+      <c r="YK45" s="15"/>
+      <c r="YL45" s="15"/>
+      <c r="YM45" s="15"/>
+      <c r="YN45" s="15"/>
+      <c r="YO45" s="15"/>
+      <c r="YP45" s="15"/>
+      <c r="YQ45" s="15"/>
+      <c r="YR45" s="15"/>
+      <c r="YS45" s="15"/>
+      <c r="YT45" s="15"/>
+      <c r="YU45" s="15"/>
+      <c r="YV45" s="15"/>
+      <c r="YW45" s="15"/>
+      <c r="YX45" s="15"/>
+      <c r="YY45" s="15"/>
+      <c r="YZ45" s="15"/>
+      <c r="ZA45" s="15"/>
+      <c r="ZB45" s="15"/>
+      <c r="ZC45" s="15"/>
+      <c r="ZD45" s="15"/>
+      <c r="ZE45" s="15"/>
+      <c r="ZF45" s="15"/>
+      <c r="ZG45" s="15"/>
+      <c r="ZH45" s="15"/>
+      <c r="ZI45" s="15"/>
+      <c r="ZJ45" s="15"/>
+      <c r="ZK45" s="15"/>
+      <c r="ZL45" s="15"/>
+      <c r="ZM45" s="15"/>
+      <c r="ZN45" s="15"/>
+      <c r="ZO45" s="15"/>
+      <c r="ZP45" s="15"/>
+      <c r="ZQ45" s="15"/>
+      <c r="ZR45" s="15"/>
+      <c r="ZS45" s="15"/>
+      <c r="ZT45" s="15"/>
+      <c r="ZU45" s="15"/>
+      <c r="ZV45" s="15"/>
+      <c r="ZW45" s="15"/>
+      <c r="ZX45" s="15"/>
+      <c r="ZY45" s="15"/>
+      <c r="ZZ45" s="15"/>
+      <c r="AAA45" s="15"/>
+      <c r="AAB45" s="15"/>
+      <c r="AAC45" s="15"/>
+      <c r="AAD45" s="15"/>
+      <c r="AAE45" s="15"/>
+      <c r="AAF45" s="15"/>
+      <c r="AAG45" s="15"/>
+      <c r="AAH45" s="15"/>
+      <c r="AAI45" s="15"/>
+      <c r="AAJ45" s="15"/>
+      <c r="AAK45" s="15"/>
+      <c r="AAL45" s="15"/>
+      <c r="AAM45" s="15"/>
+      <c r="AAN45" s="15"/>
+      <c r="AAO45" s="15"/>
+      <c r="AAP45" s="15"/>
+      <c r="AAQ45" s="15"/>
+      <c r="AAR45" s="15"/>
+      <c r="AAS45" s="15"/>
+      <c r="AAT45" s="15"/>
+      <c r="AAU45" s="15"/>
+      <c r="AAV45" s="15"/>
+      <c r="AAW45" s="15"/>
+      <c r="AAX45" s="15"/>
+      <c r="AAY45" s="15"/>
+      <c r="AAZ45" s="15"/>
+      <c r="ABA45" s="15"/>
+      <c r="ABB45" s="15"/>
+      <c r="ABC45" s="15"/>
+      <c r="ABD45" s="15"/>
+      <c r="ABE45" s="15"/>
+      <c r="ABF45" s="15"/>
+      <c r="ABG45" s="15"/>
+      <c r="ABH45" s="15"/>
+      <c r="ABI45" s="15"/>
+      <c r="ABJ45" s="15"/>
+      <c r="ABK45" s="15"/>
+      <c r="ABL45" s="15"/>
+      <c r="ABM45" s="15"/>
+      <c r="ABN45" s="15"/>
+      <c r="ABO45" s="15"/>
+      <c r="ABP45" s="15"/>
+      <c r="ABQ45" s="15"/>
+      <c r="ABR45" s="15"/>
+      <c r="ABS45" s="15"/>
+      <c r="ABT45" s="15"/>
+      <c r="ABU45" s="15"/>
+      <c r="ABV45" s="15"/>
+      <c r="ABW45" s="15"/>
+      <c r="ABX45" s="15"/>
+      <c r="ABY45" s="15"/>
+      <c r="ABZ45" s="15"/>
+      <c r="ACA45" s="15"/>
+      <c r="ACB45" s="15"/>
+      <c r="ACC45" s="15"/>
+      <c r="ACD45" s="15"/>
+      <c r="ACE45" s="15"/>
+      <c r="ACF45" s="15"/>
+      <c r="ACG45" s="15"/>
+      <c r="ACH45" s="15"/>
+      <c r="ACI45" s="15"/>
+      <c r="ACJ45" s="15"/>
+      <c r="ACK45" s="15"/>
+      <c r="ACL45" s="15"/>
+      <c r="ACM45" s="15"/>
+      <c r="ACN45" s="15"/>
+      <c r="ACO45" s="15"/>
+      <c r="ACP45" s="15"/>
+      <c r="ACQ45" s="15"/>
+      <c r="ACR45" s="15"/>
+      <c r="ACS45" s="15"/>
+      <c r="ACT45" s="15"/>
+      <c r="ACU45" s="15"/>
+      <c r="ACV45" s="15"/>
+      <c r="ACW45" s="15"/>
+      <c r="ACX45" s="15"/>
+      <c r="ACY45" s="15"/>
+      <c r="ACZ45" s="15"/>
+      <c r="ADA45" s="15"/>
+      <c r="ADB45" s="15"/>
+      <c r="ADC45" s="15"/>
+      <c r="ADD45" s="15"/>
+      <c r="ADE45" s="15"/>
+      <c r="ADF45" s="15"/>
+      <c r="ADG45" s="15"/>
+      <c r="ADH45" s="15"/>
+      <c r="ADI45" s="15"/>
+      <c r="ADJ45" s="15"/>
+      <c r="ADK45" s="15"/>
+      <c r="ADL45" s="15"/>
+      <c r="ADM45" s="15"/>
+      <c r="ADN45" s="15"/>
+      <c r="ADO45" s="15"/>
+      <c r="ADP45" s="15"/>
+      <c r="ADQ45" s="15"/>
+      <c r="ADR45" s="15"/>
+      <c r="ADS45" s="15"/>
+      <c r="ADT45" s="15"/>
+      <c r="ADU45" s="15"/>
+      <c r="ADV45" s="15"/>
+      <c r="ADW45" s="15"/>
+      <c r="ADX45" s="15"/>
+      <c r="ADY45" s="15"/>
+      <c r="ADZ45" s="15"/>
+      <c r="AEA45" s="15"/>
+      <c r="AEB45" s="15"/>
+      <c r="AEC45" s="15"/>
+      <c r="AED45" s="15"/>
+      <c r="AEE45" s="15"/>
+      <c r="AEF45" s="15"/>
+      <c r="AEG45" s="15"/>
+      <c r="AEH45" s="15"/>
+      <c r="AEI45" s="15"/>
+      <c r="AEJ45" s="15"/>
+      <c r="AEK45" s="15"/>
+      <c r="AEL45" s="15"/>
+      <c r="AEM45" s="15"/>
+      <c r="AEN45" s="15"/>
+      <c r="AEO45" s="15"/>
+      <c r="AEP45" s="15"/>
+      <c r="AEQ45" s="15"/>
+      <c r="AER45" s="15"/>
+      <c r="AES45" s="15"/>
+      <c r="AET45" s="15"/>
+      <c r="AEU45" s="15"/>
+      <c r="AEV45" s="15"/>
+      <c r="AEW45" s="15"/>
+      <c r="AEX45" s="15"/>
+      <c r="AEY45" s="15"/>
+      <c r="AEZ45" s="15"/>
+      <c r="AFA45" s="15"/>
+      <c r="AFB45" s="15"/>
+      <c r="AFC45" s="15"/>
+      <c r="AFD45" s="15"/>
+      <c r="AFE45" s="15"/>
+      <c r="AFF45" s="15"/>
+      <c r="AFG45" s="15"/>
+      <c r="AFH45" s="15"/>
+      <c r="AFI45" s="15"/>
+      <c r="AFJ45" s="15"/>
+      <c r="AFK45" s="15"/>
+      <c r="AFL45" s="15"/>
+      <c r="AFM45" s="15"/>
+      <c r="AFN45" s="15"/>
+      <c r="AFO45" s="15"/>
+      <c r="AFP45" s="15"/>
+      <c r="AFQ45" s="15"/>
+      <c r="AFR45" s="15"/>
+      <c r="AFS45" s="15"/>
+      <c r="AFT45" s="15"/>
+      <c r="AFU45" s="15"/>
+      <c r="AFV45" s="15"/>
+      <c r="AFW45" s="15"/>
+      <c r="AFX45" s="15"/>
+      <c r="AFY45" s="15"/>
+      <c r="AFZ45" s="15"/>
+      <c r="AGA45" s="15"/>
+      <c r="AGB45" s="15"/>
+      <c r="AGC45" s="15"/>
+      <c r="AGD45" s="15"/>
+      <c r="AGE45" s="15"/>
+      <c r="AGF45" s="15"/>
+      <c r="AGG45" s="15"/>
+      <c r="AGH45" s="15"/>
+      <c r="AGI45" s="15"/>
+      <c r="AGJ45" s="15"/>
+      <c r="AGK45" s="15"/>
+      <c r="AGL45" s="15"/>
+      <c r="AGM45" s="15"/>
+      <c r="AGN45" s="15"/>
+      <c r="AGO45" s="15"/>
+      <c r="AGP45" s="15"/>
+      <c r="AGQ45" s="15"/>
+      <c r="AGR45" s="15"/>
+      <c r="AGS45" s="15"/>
+      <c r="AGT45" s="15"/>
+      <c r="AGU45" s="15"/>
+      <c r="AGV45" s="15"/>
+      <c r="AGW45" s="15"/>
+      <c r="AGX45" s="15"/>
+      <c r="AGY45" s="15"/>
+      <c r="AGZ45" s="15"/>
+      <c r="AHA45" s="15"/>
+      <c r="AHB45" s="15"/>
+      <c r="AHC45" s="15"/>
+      <c r="AHD45" s="15"/>
+      <c r="AHE45" s="15"/>
+      <c r="AHF45" s="15"/>
+      <c r="AHG45" s="15"/>
+      <c r="AHH45" s="15"/>
+      <c r="AHI45" s="15"/>
+      <c r="AHJ45" s="15"/>
+      <c r="AHK45" s="15"/>
+      <c r="AHL45" s="15"/>
+      <c r="AHM45" s="15"/>
+      <c r="AHN45" s="15"/>
+      <c r="AHO45" s="15"/>
+      <c r="AHP45" s="15"/>
+      <c r="AHQ45" s="15"/>
+      <c r="AHR45" s="15"/>
+      <c r="AHS45" s="15"/>
+      <c r="AHT45" s="15"/>
+      <c r="AHU45" s="15"/>
+      <c r="AHV45" s="15"/>
+      <c r="AHW45" s="15"/>
+      <c r="AHX45" s="15"/>
+      <c r="AHY45" s="15"/>
+      <c r="AHZ45" s="15"/>
+      <c r="AIA45" s="15"/>
+      <c r="AIB45" s="15"/>
+      <c r="AIC45" s="15"/>
+      <c r="AID45" s="15"/>
+      <c r="AIE45" s="15"/>
+      <c r="AIF45" s="15"/>
+      <c r="AIG45" s="15"/>
+      <c r="AIH45" s="15"/>
+      <c r="AII45" s="15"/>
+      <c r="AIJ45" s="15"/>
+      <c r="AIK45" s="15"/>
+      <c r="AIL45" s="15"/>
+      <c r="AIM45" s="15"/>
+      <c r="AIN45" s="15"/>
+      <c r="AIO45" s="15"/>
+      <c r="AIP45" s="15"/>
+      <c r="AIQ45" s="15"/>
+      <c r="AIR45" s="15"/>
+      <c r="AIS45" s="15"/>
+      <c r="AIT45" s="15"/>
+      <c r="AIU45" s="15"/>
+      <c r="AIV45" s="15"/>
+      <c r="AIW45" s="15"/>
+      <c r="AIX45" s="15"/>
+      <c r="AIY45" s="15"/>
+      <c r="AIZ45" s="15"/>
+      <c r="AJA45" s="15"/>
+      <c r="AJB45" s="15"/>
+      <c r="AJC45" s="15"/>
+      <c r="AJD45" s="15"/>
+      <c r="AJE45" s="15"/>
+      <c r="AJF45" s="15"/>
+      <c r="AJG45" s="15"/>
+      <c r="AJH45" s="15"/>
+      <c r="AJI45" s="15"/>
+      <c r="AJJ45" s="15"/>
+      <c r="AJK45" s="15"/>
+      <c r="AJL45" s="15"/>
+      <c r="AJM45" s="15"/>
+      <c r="AJN45" s="15"/>
+      <c r="AJO45" s="15"/>
+      <c r="AJP45" s="15"/>
+      <c r="AJQ45" s="15"/>
+      <c r="AJR45" s="15"/>
+      <c r="AJS45" s="15"/>
+      <c r="AJT45" s="15"/>
+      <c r="AJU45" s="15"/>
+      <c r="AJV45" s="15"/>
+      <c r="AJW45" s="15"/>
+      <c r="AJX45" s="15"/>
+      <c r="AJY45" s="15"/>
+      <c r="AJZ45" s="15"/>
+      <c r="AKA45" s="15"/>
+      <c r="AKB45" s="15"/>
+      <c r="AKC45" s="15"/>
+      <c r="AKD45" s="15"/>
+      <c r="AKE45" s="15"/>
+      <c r="AKF45" s="15"/>
+      <c r="AKG45" s="15"/>
+      <c r="AKH45" s="15"/>
+      <c r="AKI45" s="15"/>
+      <c r="AKJ45" s="15"/>
+      <c r="AKK45" s="15"/>
+      <c r="AKL45" s="15"/>
+      <c r="AKM45" s="15"/>
+      <c r="AKN45" s="15"/>
+      <c r="AKO45" s="15"/>
+      <c r="AKP45" s="15"/>
+      <c r="AKQ45" s="15"/>
+      <c r="AKR45" s="15"/>
+      <c r="AKS45" s="15"/>
+      <c r="AKT45" s="15"/>
+      <c r="AKU45" s="15"/>
+      <c r="AKV45" s="15"/>
+      <c r="AKW45" s="15"/>
+      <c r="AKX45" s="15"/>
+      <c r="AKY45" s="15"/>
+      <c r="AKZ45" s="15"/>
+      <c r="ALA45" s="15"/>
+      <c r="ALB45" s="15"/>
+      <c r="ALC45" s="15"/>
+      <c r="ALD45" s="15"/>
+      <c r="ALE45" s="15"/>
+      <c r="ALF45" s="15"/>
+      <c r="ALG45" s="15"/>
+      <c r="ALH45" s="15"/>
+      <c r="ALI45" s="15"/>
+      <c r="ALJ45" s="15"/>
+      <c r="ALK45" s="15"/>
+      <c r="ALL45" s="15"/>
+      <c r="ALM45" s="15"/>
+      <c r="ALN45" s="15"/>
+      <c r="ALO45" s="15"/>
+      <c r="ALP45" s="15"/>
+      <c r="ALQ45" s="15"/>
+      <c r="ALR45" s="15"/>
+      <c r="ALS45" s="15"/>
+      <c r="ALT45" s="15"/>
+      <c r="ALU45" s="15"/>
+      <c r="ALV45" s="15"/>
+      <c r="ALW45" s="15"/>
+      <c r="ALX45" s="15"/>
+      <c r="ALY45" s="15"/>
+      <c r="ALZ45" s="15"/>
+      <c r="AMA45" s="15"/>
+      <c r="AMB45" s="15"/>
+      <c r="AMC45" s="15"/>
+      <c r="AMD45" s="15"/>
+      <c r="AME45" s="15"/>
+      <c r="AMF45" s="15"/>
+      <c r="AMG45" s="15"/>
+      <c r="AMH45" s="15"/>
+      <c r="AMI45" s="15"/>
+      <c r="AMJ45" s="15"/>
+      <c r="AMK45" s="15"/>
+      <c r="AML45" s="15"/>
+      <c r="AMM45" s="15"/>
+    </row>
+    <row r="46" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="O46" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:1028" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47"/>
+        <v>154</v>
+      </c>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>159</v>
+        <v>491</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="48" spans="1:1028" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E48"/>
       <c r="F48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>13</v>
@@ -7595,8 +7633,8 @@
       <c r="G49" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>168</v>
+      <c r="N49" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>537</v>
@@ -7604,18 +7642,17 @@
     </row>
     <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50"/>
+        <v>166</v>
+      </c>
       <c r="F50" s="8" t="s">
         <v>13</v>
       </c>
@@ -7623,13 +7660,7 @@
         <v>491</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>537</v>
@@ -7637,42 +7668,49 @@
     </row>
     <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E51"/>
       <c r="F51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>176</v>
+        <v>491</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="O51" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>13</v>
@@ -7681,104 +7719,104 @@
         <v>492</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="N52" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54"/>
+        <v>167</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F54" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>491</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N54" s="7" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E55"/>
       <c r="F55" s="8" t="s">
         <v>176</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>491</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>537</v>
@@ -7786,55 +7824,57 @@
     </row>
     <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="O56" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>193</v>
+    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E57"/>
+        <v>179</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="F57" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="O57" s="10" t="s">
         <v>537</v>
@@ -7842,16 +7882,16 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="8" t="s">
@@ -7866,16 +7906,16 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="8" t="s">
@@ -7890,16 +7930,16 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="8" t="s">
@@ -7914,16 +7954,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="8" t="s">
@@ -7938,16 +7978,16 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="8" t="s">
@@ -7962,17 +8002,18 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>219</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E63"/>
       <c r="F63" s="8" t="s">
         <v>150</v>
       </c>
@@ -7985,18 +8026,17 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E64"/>
+        <v>219</v>
+      </c>
       <c r="F64" s="8" t="s">
         <v>150</v>
       </c>
@@ -8009,16 +8049,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="8" t="s">
@@ -8033,16 +8073,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="8" t="s">
@@ -8056,17 +8096,17 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>231</v>
+      <c r="A67" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="8" t="s">
@@ -8081,16 +8121,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="8" t="s">
@@ -8105,16 +8145,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="8" t="s">
@@ -8129,16 +8169,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="8" t="s">
@@ -8153,16 +8193,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="8" t="s">
@@ -8177,16 +8217,16 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="8" t="s">
@@ -8201,16 +8241,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="8" t="s">
@@ -8225,16 +8265,16 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="8" t="s">
@@ -8249,16 +8289,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="8" t="s">
@@ -8273,16 +8313,16 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="8" t="s">
@@ -8295,18 +8335,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E77"/>
       <c r="F77" s="8" t="s">
@@ -8319,18 +8359,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E78"/>
       <c r="F78" s="8" t="s">
@@ -8345,16 +8385,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E79"/>
       <c r="F79" s="8" t="s">
@@ -8369,16 +8409,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E80"/>
       <c r="F80" s="8" t="s">
@@ -8393,16 +8433,16 @@
     </row>
     <row r="81" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E81"/>
       <c r="F81" s="8" t="s">
@@ -8417,16 +8457,16 @@
     </row>
     <row r="82" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E82"/>
       <c r="F82" s="8" t="s">
@@ -8435,23 +8475,22 @@
       <c r="G82" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="I82" s="3"/>
       <c r="O82" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E83"/>
       <c r="F83" s="8" t="s">
@@ -8467,16 +8506,16 @@
     </row>
     <row r="84" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="8" t="s">
@@ -8492,16 +8531,16 @@
     </row>
     <row r="85" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E85"/>
       <c r="F85" s="8" t="s">
@@ -8510,23 +8549,25 @@
       <c r="G85" s="10" t="s">
         <v>491</v>
       </c>
+      <c r="I85" s="3"/>
       <c r="O85" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="86" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>308</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E86"/>
       <c r="F86" s="8" t="s">
         <v>150</v>
       </c>
@@ -8539,41 +8580,39 @@
     </row>
     <row r="87" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E87"/>
+        <v>308</v>
+      </c>
       <c r="F87" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="I87" s="4"/>
       <c r="O87" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="88" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E88"/>
       <c r="F88" s="8" t="s">
@@ -8582,2226 +8621,2251 @@
       <c r="G88" s="10" t="s">
         <v>491</v>
       </c>
+      <c r="I88" s="4"/>
       <c r="O88" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="89" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>317</v>
+    <row r="89" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>319</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="E89"/>
       <c r="F89" s="8" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I89" s="3"/>
-      <c r="N89" s="7" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="O89" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="90" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+    <row r="90" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="N90" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B91" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D91" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E90" s="15"/>
-      <c r="F90" s="16" t="s">
+      <c r="E91" s="15"/>
+      <c r="F91" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G91" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H91" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="I90" s="22">
+      <c r="I91" s="22">
         <v>45138</v>
       </c>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="17" t="s">
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
-      <c r="W90" s="15"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="15"/>
-      <c r="AA90" s="15"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="15"/>
-      <c r="AD90" s="15"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="15"/>
-      <c r="AJ90" s="15"/>
-      <c r="AK90" s="15"/>
-      <c r="AL90" s="15"/>
-      <c r="AM90" s="15"/>
-      <c r="AN90" s="15"/>
-      <c r="AO90" s="15"/>
-      <c r="AP90" s="15"/>
-      <c r="AQ90" s="15"/>
-      <c r="AR90" s="15"/>
-      <c r="AS90" s="15"/>
-      <c r="AT90" s="15"/>
-      <c r="AU90" s="15"/>
-      <c r="AV90" s="15"/>
-      <c r="AW90" s="15"/>
-      <c r="AX90" s="15"/>
-      <c r="AY90" s="15"/>
-      <c r="AZ90" s="15"/>
-      <c r="BA90" s="15"/>
-      <c r="BB90" s="15"/>
-      <c r="BC90" s="15"/>
-      <c r="BD90" s="15"/>
-      <c r="BE90" s="15"/>
-      <c r="BF90" s="15"/>
-      <c r="BG90" s="15"/>
-      <c r="BH90" s="15"/>
-      <c r="BI90" s="15"/>
-      <c r="BJ90" s="15"/>
-      <c r="BK90" s="15"/>
-      <c r="BL90" s="15"/>
-      <c r="BM90" s="15"/>
-      <c r="BN90" s="15"/>
-      <c r="BO90" s="15"/>
-      <c r="BP90" s="15"/>
-      <c r="BQ90" s="15"/>
-      <c r="BR90" s="15"/>
-      <c r="BS90" s="15"/>
-      <c r="BT90" s="15"/>
-      <c r="BU90" s="15"/>
-      <c r="BV90" s="15"/>
-      <c r="BW90" s="15"/>
-      <c r="BX90" s="15"/>
-      <c r="BY90" s="15"/>
-      <c r="BZ90" s="15"/>
-      <c r="CA90" s="15"/>
-      <c r="CB90" s="15"/>
-      <c r="CC90" s="15"/>
-      <c r="CD90" s="15"/>
-      <c r="CE90" s="15"/>
-      <c r="CF90" s="15"/>
-      <c r="CG90" s="15"/>
-      <c r="CH90" s="15"/>
-      <c r="CI90" s="15"/>
-      <c r="CJ90" s="15"/>
-      <c r="CK90" s="15"/>
-      <c r="CL90" s="15"/>
-      <c r="CM90" s="15"/>
-      <c r="CN90" s="15"/>
-      <c r="CO90" s="15"/>
-      <c r="CP90" s="15"/>
-      <c r="CQ90" s="15"/>
-      <c r="CR90" s="15"/>
-      <c r="CS90" s="15"/>
-      <c r="CT90" s="15"/>
-      <c r="CU90" s="15"/>
-      <c r="CV90" s="15"/>
-      <c r="CW90" s="15"/>
-      <c r="CX90" s="15"/>
-      <c r="CY90" s="15"/>
-      <c r="CZ90" s="15"/>
-      <c r="DA90" s="15"/>
-      <c r="DB90" s="15"/>
-      <c r="DC90" s="15"/>
-      <c r="DD90" s="15"/>
-      <c r="DE90" s="15"/>
-      <c r="DF90" s="15"/>
-      <c r="DG90" s="15"/>
-      <c r="DH90" s="15"/>
-      <c r="DI90" s="15"/>
-      <c r="DJ90" s="15"/>
-      <c r="DK90" s="15"/>
-      <c r="DL90" s="15"/>
-      <c r="DM90" s="15"/>
-      <c r="DN90" s="15"/>
-      <c r="DO90" s="15"/>
-      <c r="DP90" s="15"/>
-      <c r="DQ90" s="15"/>
-      <c r="DR90" s="15"/>
-      <c r="DS90" s="15"/>
-      <c r="DT90" s="15"/>
-      <c r="DU90" s="15"/>
-      <c r="DV90" s="15"/>
-      <c r="DW90" s="15"/>
-      <c r="DX90" s="15"/>
-      <c r="DY90" s="15"/>
-      <c r="DZ90" s="15"/>
-      <c r="EA90" s="15"/>
-      <c r="EB90" s="15"/>
-      <c r="EC90" s="15"/>
-      <c r="ED90" s="15"/>
-      <c r="EE90" s="15"/>
-      <c r="EF90" s="15"/>
-      <c r="EG90" s="15"/>
-      <c r="EH90" s="15"/>
-      <c r="EI90" s="15"/>
-      <c r="EJ90" s="15"/>
-      <c r="EK90" s="15"/>
-      <c r="EL90" s="15"/>
-      <c r="EM90" s="15"/>
-      <c r="EN90" s="15"/>
-      <c r="EO90" s="15"/>
-      <c r="EP90" s="15"/>
-      <c r="EQ90" s="15"/>
-      <c r="ER90" s="15"/>
-      <c r="ES90" s="15"/>
-      <c r="ET90" s="15"/>
-      <c r="EU90" s="15"/>
-      <c r="EV90" s="15"/>
-      <c r="EW90" s="15"/>
-      <c r="EX90" s="15"/>
-      <c r="EY90" s="15"/>
-      <c r="EZ90" s="15"/>
-      <c r="FA90" s="15"/>
-      <c r="FB90" s="15"/>
-      <c r="FC90" s="15"/>
-      <c r="FD90" s="15"/>
-      <c r="FE90" s="15"/>
-      <c r="FF90" s="15"/>
-      <c r="FG90" s="15"/>
-      <c r="FH90" s="15"/>
-      <c r="FI90" s="15"/>
-      <c r="FJ90" s="15"/>
-      <c r="FK90" s="15"/>
-      <c r="FL90" s="15"/>
-      <c r="FM90" s="15"/>
-      <c r="FN90" s="15"/>
-      <c r="FO90" s="15"/>
-      <c r="FP90" s="15"/>
-      <c r="FQ90" s="15"/>
-      <c r="FR90" s="15"/>
-      <c r="FS90" s="15"/>
-      <c r="FT90" s="15"/>
-      <c r="FU90" s="15"/>
-      <c r="FV90" s="15"/>
-      <c r="FW90" s="15"/>
-      <c r="FX90" s="15"/>
-      <c r="FY90" s="15"/>
-      <c r="FZ90" s="15"/>
-      <c r="GA90" s="15"/>
-      <c r="GB90" s="15"/>
-      <c r="GC90" s="15"/>
-      <c r="GD90" s="15"/>
-      <c r="GE90" s="15"/>
-      <c r="GF90" s="15"/>
-      <c r="GG90" s="15"/>
-      <c r="GH90" s="15"/>
-      <c r="GI90" s="15"/>
-      <c r="GJ90" s="15"/>
-      <c r="GK90" s="15"/>
-      <c r="GL90" s="15"/>
-      <c r="GM90" s="15"/>
-      <c r="GN90" s="15"/>
-      <c r="GO90" s="15"/>
-      <c r="GP90" s="15"/>
-      <c r="GQ90" s="15"/>
-      <c r="GR90" s="15"/>
-      <c r="GS90" s="15"/>
-      <c r="GT90" s="15"/>
-      <c r="GU90" s="15"/>
-      <c r="GV90" s="15"/>
-      <c r="GW90" s="15"/>
-      <c r="GX90" s="15"/>
-      <c r="GY90" s="15"/>
-      <c r="GZ90" s="15"/>
-      <c r="HA90" s="15"/>
-      <c r="HB90" s="15"/>
-      <c r="HC90" s="15"/>
-      <c r="HD90" s="15"/>
-      <c r="HE90" s="15"/>
-      <c r="HF90" s="15"/>
-      <c r="HG90" s="15"/>
-      <c r="HH90" s="15"/>
-      <c r="HI90" s="15"/>
-      <c r="HJ90" s="15"/>
-      <c r="HK90" s="15"/>
-      <c r="HL90" s="15"/>
-      <c r="HM90" s="15"/>
-      <c r="HN90" s="15"/>
-      <c r="HO90" s="15"/>
-      <c r="HP90" s="15"/>
-      <c r="HQ90" s="15"/>
-      <c r="HR90" s="15"/>
-      <c r="HS90" s="15"/>
-      <c r="HT90" s="15"/>
-      <c r="HU90" s="15"/>
-      <c r="HV90" s="15"/>
-      <c r="HW90" s="15"/>
-      <c r="HX90" s="15"/>
-      <c r="HY90" s="15"/>
-      <c r="HZ90" s="15"/>
-      <c r="IA90" s="15"/>
-      <c r="IB90" s="15"/>
-      <c r="IC90" s="15"/>
-      <c r="ID90" s="15"/>
-      <c r="IE90" s="15"/>
-      <c r="IF90" s="15"/>
-      <c r="IG90" s="15"/>
-      <c r="IH90" s="15"/>
-      <c r="II90" s="15"/>
-      <c r="IJ90" s="15"/>
-      <c r="IK90" s="15"/>
-      <c r="IL90" s="15"/>
-      <c r="IM90" s="15"/>
-      <c r="IN90" s="15"/>
-      <c r="IO90" s="15"/>
-      <c r="IP90" s="15"/>
-      <c r="IQ90" s="15"/>
-      <c r="IR90" s="15"/>
-      <c r="IS90" s="15"/>
-      <c r="IT90" s="15"/>
-      <c r="IU90" s="15"/>
-      <c r="IV90" s="15"/>
-      <c r="IW90" s="15"/>
-      <c r="IX90" s="15"/>
-      <c r="IY90" s="15"/>
-      <c r="IZ90" s="15"/>
-      <c r="JA90" s="15"/>
-      <c r="JB90" s="15"/>
-      <c r="JC90" s="15"/>
-      <c r="JD90" s="15"/>
-      <c r="JE90" s="15"/>
-      <c r="JF90" s="15"/>
-      <c r="JG90" s="15"/>
-      <c r="JH90" s="15"/>
-      <c r="JI90" s="15"/>
-      <c r="JJ90" s="15"/>
-      <c r="JK90" s="15"/>
-      <c r="JL90" s="15"/>
-      <c r="JM90" s="15"/>
-      <c r="JN90" s="15"/>
-      <c r="JO90" s="15"/>
-      <c r="JP90" s="15"/>
-      <c r="JQ90" s="15"/>
-      <c r="JR90" s="15"/>
-      <c r="JS90" s="15"/>
-      <c r="JT90" s="15"/>
-      <c r="JU90" s="15"/>
-      <c r="JV90" s="15"/>
-      <c r="JW90" s="15"/>
-      <c r="JX90" s="15"/>
-      <c r="JY90" s="15"/>
-      <c r="JZ90" s="15"/>
-      <c r="KA90" s="15"/>
-      <c r="KB90" s="15"/>
-      <c r="KC90" s="15"/>
-      <c r="KD90" s="15"/>
-      <c r="KE90" s="15"/>
-      <c r="KF90" s="15"/>
-      <c r="KG90" s="15"/>
-      <c r="KH90" s="15"/>
-      <c r="KI90" s="15"/>
-      <c r="KJ90" s="15"/>
-      <c r="KK90" s="15"/>
-      <c r="KL90" s="15"/>
-      <c r="KM90" s="15"/>
-      <c r="KN90" s="15"/>
-      <c r="KO90" s="15"/>
-      <c r="KP90" s="15"/>
-      <c r="KQ90" s="15"/>
-      <c r="KR90" s="15"/>
-      <c r="KS90" s="15"/>
-      <c r="KT90" s="15"/>
-      <c r="KU90" s="15"/>
-      <c r="KV90" s="15"/>
-      <c r="KW90" s="15"/>
-      <c r="KX90" s="15"/>
-      <c r="KY90" s="15"/>
-      <c r="KZ90" s="15"/>
-      <c r="LA90" s="15"/>
-      <c r="LB90" s="15"/>
-      <c r="LC90" s="15"/>
-      <c r="LD90" s="15"/>
-      <c r="LE90" s="15"/>
-      <c r="LF90" s="15"/>
-      <c r="LG90" s="15"/>
-      <c r="LH90" s="15"/>
-      <c r="LI90" s="15"/>
-      <c r="LJ90" s="15"/>
-      <c r="LK90" s="15"/>
-      <c r="LL90" s="15"/>
-      <c r="LM90" s="15"/>
-      <c r="LN90" s="15"/>
-      <c r="LO90" s="15"/>
-      <c r="LP90" s="15"/>
-      <c r="LQ90" s="15"/>
-      <c r="LR90" s="15"/>
-      <c r="LS90" s="15"/>
-      <c r="LT90" s="15"/>
-      <c r="LU90" s="15"/>
-      <c r="LV90" s="15"/>
-      <c r="LW90" s="15"/>
-      <c r="LX90" s="15"/>
-      <c r="LY90" s="15"/>
-      <c r="LZ90" s="15"/>
-      <c r="MA90" s="15"/>
-      <c r="MB90" s="15"/>
-      <c r="MC90" s="15"/>
-      <c r="MD90" s="15"/>
-      <c r="ME90" s="15"/>
-      <c r="MF90" s="15"/>
-      <c r="MG90" s="15"/>
-      <c r="MH90" s="15"/>
-      <c r="MI90" s="15"/>
-      <c r="MJ90" s="15"/>
-      <c r="MK90" s="15"/>
-      <c r="ML90" s="15"/>
-      <c r="MM90" s="15"/>
-      <c r="MN90" s="15"/>
-      <c r="MO90" s="15"/>
-      <c r="MP90" s="15"/>
-      <c r="MQ90" s="15"/>
-      <c r="MR90" s="15"/>
-      <c r="MS90" s="15"/>
-      <c r="MT90" s="15"/>
-      <c r="MU90" s="15"/>
-      <c r="MV90" s="15"/>
-      <c r="MW90" s="15"/>
-      <c r="MX90" s="15"/>
-      <c r="MY90" s="15"/>
-      <c r="MZ90" s="15"/>
-      <c r="NA90" s="15"/>
-      <c r="NB90" s="15"/>
-      <c r="NC90" s="15"/>
-      <c r="ND90" s="15"/>
-      <c r="NE90" s="15"/>
-      <c r="NF90" s="15"/>
-      <c r="NG90" s="15"/>
-      <c r="NH90" s="15"/>
-      <c r="NI90" s="15"/>
-      <c r="NJ90" s="15"/>
-      <c r="NK90" s="15"/>
-      <c r="NL90" s="15"/>
-      <c r="NM90" s="15"/>
-      <c r="NN90" s="15"/>
-      <c r="NO90" s="15"/>
-      <c r="NP90" s="15"/>
-      <c r="NQ90" s="15"/>
-      <c r="NR90" s="15"/>
-      <c r="NS90" s="15"/>
-      <c r="NT90" s="15"/>
-      <c r="NU90" s="15"/>
-      <c r="NV90" s="15"/>
-      <c r="NW90" s="15"/>
-      <c r="NX90" s="15"/>
-      <c r="NY90" s="15"/>
-      <c r="NZ90" s="15"/>
-      <c r="OA90" s="15"/>
-      <c r="OB90" s="15"/>
-      <c r="OC90" s="15"/>
-      <c r="OD90" s="15"/>
-      <c r="OE90" s="15"/>
-      <c r="OF90" s="15"/>
-      <c r="OG90" s="15"/>
-      <c r="OH90" s="15"/>
-      <c r="OI90" s="15"/>
-      <c r="OJ90" s="15"/>
-      <c r="OK90" s="15"/>
-      <c r="OL90" s="15"/>
-      <c r="OM90" s="15"/>
-      <c r="ON90" s="15"/>
-      <c r="OO90" s="15"/>
-      <c r="OP90" s="15"/>
-      <c r="OQ90" s="15"/>
-      <c r="OR90" s="15"/>
-      <c r="OS90" s="15"/>
-      <c r="OT90" s="15"/>
-      <c r="OU90" s="15"/>
-      <c r="OV90" s="15"/>
-      <c r="OW90" s="15"/>
-      <c r="OX90" s="15"/>
-      <c r="OY90" s="15"/>
-      <c r="OZ90" s="15"/>
-      <c r="PA90" s="15"/>
-      <c r="PB90" s="15"/>
-      <c r="PC90" s="15"/>
-      <c r="PD90" s="15"/>
-      <c r="PE90" s="15"/>
-      <c r="PF90" s="15"/>
-      <c r="PG90" s="15"/>
-      <c r="PH90" s="15"/>
-      <c r="PI90" s="15"/>
-      <c r="PJ90" s="15"/>
-      <c r="PK90" s="15"/>
-      <c r="PL90" s="15"/>
-      <c r="PM90" s="15"/>
-      <c r="PN90" s="15"/>
-      <c r="PO90" s="15"/>
-      <c r="PP90" s="15"/>
-      <c r="PQ90" s="15"/>
-      <c r="PR90" s="15"/>
-      <c r="PS90" s="15"/>
-      <c r="PT90" s="15"/>
-      <c r="PU90" s="15"/>
-      <c r="PV90" s="15"/>
-      <c r="PW90" s="15"/>
-      <c r="PX90" s="15"/>
-      <c r="PY90" s="15"/>
-      <c r="PZ90" s="15"/>
-      <c r="QA90" s="15"/>
-      <c r="QB90" s="15"/>
-      <c r="QC90" s="15"/>
-      <c r="QD90" s="15"/>
-      <c r="QE90" s="15"/>
-      <c r="QF90" s="15"/>
-      <c r="QG90" s="15"/>
-      <c r="QH90" s="15"/>
-      <c r="QI90" s="15"/>
-      <c r="QJ90" s="15"/>
-      <c r="QK90" s="15"/>
-      <c r="QL90" s="15"/>
-      <c r="QM90" s="15"/>
-      <c r="QN90" s="15"/>
-      <c r="QO90" s="15"/>
-      <c r="QP90" s="15"/>
-      <c r="QQ90" s="15"/>
-      <c r="QR90" s="15"/>
-      <c r="QS90" s="15"/>
-      <c r="QT90" s="15"/>
-      <c r="QU90" s="15"/>
-      <c r="QV90" s="15"/>
-      <c r="QW90" s="15"/>
-      <c r="QX90" s="15"/>
-      <c r="QY90" s="15"/>
-      <c r="QZ90" s="15"/>
-      <c r="RA90" s="15"/>
-      <c r="RB90" s="15"/>
-      <c r="RC90" s="15"/>
-      <c r="RD90" s="15"/>
-      <c r="RE90" s="15"/>
-      <c r="RF90" s="15"/>
-      <c r="RG90" s="15"/>
-      <c r="RH90" s="15"/>
-      <c r="RI90" s="15"/>
-      <c r="RJ90" s="15"/>
-      <c r="RK90" s="15"/>
-      <c r="RL90" s="15"/>
-      <c r="RM90" s="15"/>
-      <c r="RN90" s="15"/>
-      <c r="RO90" s="15"/>
-      <c r="RP90" s="15"/>
-      <c r="RQ90" s="15"/>
-      <c r="RR90" s="15"/>
-      <c r="RS90" s="15"/>
-      <c r="RT90" s="15"/>
-      <c r="RU90" s="15"/>
-      <c r="RV90" s="15"/>
-      <c r="RW90" s="15"/>
-      <c r="RX90" s="15"/>
-      <c r="RY90" s="15"/>
-      <c r="RZ90" s="15"/>
-      <c r="SA90" s="15"/>
-      <c r="SB90" s="15"/>
-      <c r="SC90" s="15"/>
-      <c r="SD90" s="15"/>
-      <c r="SE90" s="15"/>
-      <c r="SF90" s="15"/>
-      <c r="SG90" s="15"/>
-      <c r="SH90" s="15"/>
-      <c r="SI90" s="15"/>
-      <c r="SJ90" s="15"/>
-      <c r="SK90" s="15"/>
-      <c r="SL90" s="15"/>
-      <c r="SM90" s="15"/>
-      <c r="SN90" s="15"/>
-      <c r="SO90" s="15"/>
-      <c r="SP90" s="15"/>
-      <c r="SQ90" s="15"/>
-      <c r="SR90" s="15"/>
-      <c r="SS90" s="15"/>
-      <c r="ST90" s="15"/>
-      <c r="SU90" s="15"/>
-      <c r="SV90" s="15"/>
-      <c r="SW90" s="15"/>
-      <c r="SX90" s="15"/>
-      <c r="SY90" s="15"/>
-      <c r="SZ90" s="15"/>
-      <c r="TA90" s="15"/>
-      <c r="TB90" s="15"/>
-      <c r="TC90" s="15"/>
-      <c r="TD90" s="15"/>
-      <c r="TE90" s="15"/>
-      <c r="TF90" s="15"/>
-      <c r="TG90" s="15"/>
-      <c r="TH90" s="15"/>
-      <c r="TI90" s="15"/>
-      <c r="TJ90" s="15"/>
-      <c r="TK90" s="15"/>
-      <c r="TL90" s="15"/>
-      <c r="TM90" s="15"/>
-      <c r="TN90" s="15"/>
-      <c r="TO90" s="15"/>
-      <c r="TP90" s="15"/>
-      <c r="TQ90" s="15"/>
-      <c r="TR90" s="15"/>
-      <c r="TS90" s="15"/>
-      <c r="TT90" s="15"/>
-      <c r="TU90" s="15"/>
-      <c r="TV90" s="15"/>
-      <c r="TW90" s="15"/>
-      <c r="TX90" s="15"/>
-      <c r="TY90" s="15"/>
-      <c r="TZ90" s="15"/>
-      <c r="UA90" s="15"/>
-      <c r="UB90" s="15"/>
-      <c r="UC90" s="15"/>
-      <c r="UD90" s="15"/>
-      <c r="UE90" s="15"/>
-      <c r="UF90" s="15"/>
-      <c r="UG90" s="15"/>
-      <c r="UH90" s="15"/>
-      <c r="UI90" s="15"/>
-      <c r="UJ90" s="15"/>
-      <c r="UK90" s="15"/>
-      <c r="UL90" s="15"/>
-      <c r="UM90" s="15"/>
-      <c r="UN90" s="15"/>
-      <c r="UO90" s="15"/>
-      <c r="UP90" s="15"/>
-      <c r="UQ90" s="15"/>
-      <c r="UR90" s="15"/>
-      <c r="US90" s="15"/>
-      <c r="UT90" s="15"/>
-      <c r="UU90" s="15"/>
-      <c r="UV90" s="15"/>
-      <c r="UW90" s="15"/>
-      <c r="UX90" s="15"/>
-      <c r="UY90" s="15"/>
-      <c r="UZ90" s="15"/>
-      <c r="VA90" s="15"/>
-      <c r="VB90" s="15"/>
-      <c r="VC90" s="15"/>
-      <c r="VD90" s="15"/>
-      <c r="VE90" s="15"/>
-      <c r="VF90" s="15"/>
-      <c r="VG90" s="15"/>
-      <c r="VH90" s="15"/>
-      <c r="VI90" s="15"/>
-      <c r="VJ90" s="15"/>
-      <c r="VK90" s="15"/>
-      <c r="VL90" s="15"/>
-      <c r="VM90" s="15"/>
-      <c r="VN90" s="15"/>
-      <c r="VO90" s="15"/>
-      <c r="VP90" s="15"/>
-      <c r="VQ90" s="15"/>
-      <c r="VR90" s="15"/>
-      <c r="VS90" s="15"/>
-      <c r="VT90" s="15"/>
-      <c r="VU90" s="15"/>
-      <c r="VV90" s="15"/>
-      <c r="VW90" s="15"/>
-      <c r="VX90" s="15"/>
-      <c r="VY90" s="15"/>
-      <c r="VZ90" s="15"/>
-      <c r="WA90" s="15"/>
-      <c r="WB90" s="15"/>
-      <c r="WC90" s="15"/>
-      <c r="WD90" s="15"/>
-      <c r="WE90" s="15"/>
-      <c r="WF90" s="15"/>
-      <c r="WG90" s="15"/>
-      <c r="WH90" s="15"/>
-      <c r="WI90" s="15"/>
-      <c r="WJ90" s="15"/>
-      <c r="WK90" s="15"/>
-      <c r="WL90" s="15"/>
-      <c r="WM90" s="15"/>
-      <c r="WN90" s="15"/>
-      <c r="WO90" s="15"/>
-      <c r="WP90" s="15"/>
-      <c r="WQ90" s="15"/>
-      <c r="WR90" s="15"/>
-      <c r="WS90" s="15"/>
-      <c r="WT90" s="15"/>
-      <c r="WU90" s="15"/>
-      <c r="WV90" s="15"/>
-      <c r="WW90" s="15"/>
-      <c r="WX90" s="15"/>
-      <c r="WY90" s="15"/>
-      <c r="WZ90" s="15"/>
-      <c r="XA90" s="15"/>
-      <c r="XB90" s="15"/>
-      <c r="XC90" s="15"/>
-      <c r="XD90" s="15"/>
-      <c r="XE90" s="15"/>
-      <c r="XF90" s="15"/>
-      <c r="XG90" s="15"/>
-      <c r="XH90" s="15"/>
-      <c r="XI90" s="15"/>
-      <c r="XJ90" s="15"/>
-      <c r="XK90" s="15"/>
-      <c r="XL90" s="15"/>
-      <c r="XM90" s="15"/>
-      <c r="XN90" s="15"/>
-      <c r="XO90" s="15"/>
-      <c r="XP90" s="15"/>
-      <c r="XQ90" s="15"/>
-      <c r="XR90" s="15"/>
-      <c r="XS90" s="15"/>
-      <c r="XT90" s="15"/>
-      <c r="XU90" s="15"/>
-      <c r="XV90" s="15"/>
-      <c r="XW90" s="15"/>
-      <c r="XX90" s="15"/>
-      <c r="XY90" s="15"/>
-      <c r="XZ90" s="15"/>
-      <c r="YA90" s="15"/>
-      <c r="YB90" s="15"/>
-      <c r="YC90" s="15"/>
-      <c r="YD90" s="15"/>
-      <c r="YE90" s="15"/>
-      <c r="YF90" s="15"/>
-      <c r="YG90" s="15"/>
-      <c r="YH90" s="15"/>
-      <c r="YI90" s="15"/>
-      <c r="YJ90" s="15"/>
-      <c r="YK90" s="15"/>
-      <c r="YL90" s="15"/>
-      <c r="YM90" s="15"/>
-      <c r="YN90" s="15"/>
-      <c r="YO90" s="15"/>
-      <c r="YP90" s="15"/>
-      <c r="YQ90" s="15"/>
-      <c r="YR90" s="15"/>
-      <c r="YS90" s="15"/>
-      <c r="YT90" s="15"/>
-      <c r="YU90" s="15"/>
-      <c r="YV90" s="15"/>
-      <c r="YW90" s="15"/>
-      <c r="YX90" s="15"/>
-      <c r="YY90" s="15"/>
-      <c r="YZ90" s="15"/>
-      <c r="ZA90" s="15"/>
-      <c r="ZB90" s="15"/>
-      <c r="ZC90" s="15"/>
-      <c r="ZD90" s="15"/>
-      <c r="ZE90" s="15"/>
-      <c r="ZF90" s="15"/>
-      <c r="ZG90" s="15"/>
-      <c r="ZH90" s="15"/>
-      <c r="ZI90" s="15"/>
-      <c r="ZJ90" s="15"/>
-      <c r="ZK90" s="15"/>
-      <c r="ZL90" s="15"/>
-      <c r="ZM90" s="15"/>
-      <c r="ZN90" s="15"/>
-      <c r="ZO90" s="15"/>
-      <c r="ZP90" s="15"/>
-      <c r="ZQ90" s="15"/>
-      <c r="ZR90" s="15"/>
-      <c r="ZS90" s="15"/>
-      <c r="ZT90" s="15"/>
-      <c r="ZU90" s="15"/>
-      <c r="ZV90" s="15"/>
-      <c r="ZW90" s="15"/>
-      <c r="ZX90" s="15"/>
-      <c r="ZY90" s="15"/>
-      <c r="ZZ90" s="15"/>
-      <c r="AAA90" s="15"/>
-      <c r="AAB90" s="15"/>
-      <c r="AAC90" s="15"/>
-      <c r="AAD90" s="15"/>
-      <c r="AAE90" s="15"/>
-      <c r="AAF90" s="15"/>
-      <c r="AAG90" s="15"/>
-      <c r="AAH90" s="15"/>
-      <c r="AAI90" s="15"/>
-      <c r="AAJ90" s="15"/>
-      <c r="AAK90" s="15"/>
-      <c r="AAL90" s="15"/>
-      <c r="AAM90" s="15"/>
-      <c r="AAN90" s="15"/>
-      <c r="AAO90" s="15"/>
-      <c r="AAP90" s="15"/>
-      <c r="AAQ90" s="15"/>
-      <c r="AAR90" s="15"/>
-      <c r="AAS90" s="15"/>
-      <c r="AAT90" s="15"/>
-      <c r="AAU90" s="15"/>
-      <c r="AAV90" s="15"/>
-      <c r="AAW90" s="15"/>
-      <c r="AAX90" s="15"/>
-      <c r="AAY90" s="15"/>
-      <c r="AAZ90" s="15"/>
-      <c r="ABA90" s="15"/>
-      <c r="ABB90" s="15"/>
-      <c r="ABC90" s="15"/>
-      <c r="ABD90" s="15"/>
-      <c r="ABE90" s="15"/>
-      <c r="ABF90" s="15"/>
-      <c r="ABG90" s="15"/>
-      <c r="ABH90" s="15"/>
-      <c r="ABI90" s="15"/>
-      <c r="ABJ90" s="15"/>
-      <c r="ABK90" s="15"/>
-      <c r="ABL90" s="15"/>
-      <c r="ABM90" s="15"/>
-      <c r="ABN90" s="15"/>
-      <c r="ABO90" s="15"/>
-      <c r="ABP90" s="15"/>
-      <c r="ABQ90" s="15"/>
-      <c r="ABR90" s="15"/>
-      <c r="ABS90" s="15"/>
-      <c r="ABT90" s="15"/>
-      <c r="ABU90" s="15"/>
-      <c r="ABV90" s="15"/>
-      <c r="ABW90" s="15"/>
-      <c r="ABX90" s="15"/>
-      <c r="ABY90" s="15"/>
-      <c r="ABZ90" s="15"/>
-      <c r="ACA90" s="15"/>
-      <c r="ACB90" s="15"/>
-      <c r="ACC90" s="15"/>
-      <c r="ACD90" s="15"/>
-      <c r="ACE90" s="15"/>
-      <c r="ACF90" s="15"/>
-      <c r="ACG90" s="15"/>
-      <c r="ACH90" s="15"/>
-      <c r="ACI90" s="15"/>
-      <c r="ACJ90" s="15"/>
-      <c r="ACK90" s="15"/>
-      <c r="ACL90" s="15"/>
-      <c r="ACM90" s="15"/>
-      <c r="ACN90" s="15"/>
-      <c r="ACO90" s="15"/>
-      <c r="ACP90" s="15"/>
-      <c r="ACQ90" s="15"/>
-      <c r="ACR90" s="15"/>
-      <c r="ACS90" s="15"/>
-      <c r="ACT90" s="15"/>
-      <c r="ACU90" s="15"/>
-      <c r="ACV90" s="15"/>
-      <c r="ACW90" s="15"/>
-      <c r="ACX90" s="15"/>
-      <c r="ACY90" s="15"/>
-      <c r="ACZ90" s="15"/>
-      <c r="ADA90" s="15"/>
-      <c r="ADB90" s="15"/>
-      <c r="ADC90" s="15"/>
-      <c r="ADD90" s="15"/>
-      <c r="ADE90" s="15"/>
-      <c r="ADF90" s="15"/>
-      <c r="ADG90" s="15"/>
-      <c r="ADH90" s="15"/>
-      <c r="ADI90" s="15"/>
-      <c r="ADJ90" s="15"/>
-      <c r="ADK90" s="15"/>
-      <c r="ADL90" s="15"/>
-      <c r="ADM90" s="15"/>
-      <c r="ADN90" s="15"/>
-      <c r="ADO90" s="15"/>
-      <c r="ADP90" s="15"/>
-      <c r="ADQ90" s="15"/>
-      <c r="ADR90" s="15"/>
-      <c r="ADS90" s="15"/>
-      <c r="ADT90" s="15"/>
-      <c r="ADU90" s="15"/>
-      <c r="ADV90" s="15"/>
-      <c r="ADW90" s="15"/>
-      <c r="ADX90" s="15"/>
-      <c r="ADY90" s="15"/>
-      <c r="ADZ90" s="15"/>
-      <c r="AEA90" s="15"/>
-      <c r="AEB90" s="15"/>
-      <c r="AEC90" s="15"/>
-      <c r="AED90" s="15"/>
-      <c r="AEE90" s="15"/>
-      <c r="AEF90" s="15"/>
-      <c r="AEG90" s="15"/>
-      <c r="AEH90" s="15"/>
-      <c r="AEI90" s="15"/>
-      <c r="AEJ90" s="15"/>
-      <c r="AEK90" s="15"/>
-      <c r="AEL90" s="15"/>
-      <c r="AEM90" s="15"/>
-      <c r="AEN90" s="15"/>
-      <c r="AEO90" s="15"/>
-      <c r="AEP90" s="15"/>
-      <c r="AEQ90" s="15"/>
-      <c r="AER90" s="15"/>
-      <c r="AES90" s="15"/>
-      <c r="AET90" s="15"/>
-      <c r="AEU90" s="15"/>
-      <c r="AEV90" s="15"/>
-      <c r="AEW90" s="15"/>
-      <c r="AEX90" s="15"/>
-      <c r="AEY90" s="15"/>
-      <c r="AEZ90" s="15"/>
-      <c r="AFA90" s="15"/>
-      <c r="AFB90" s="15"/>
-      <c r="AFC90" s="15"/>
-      <c r="AFD90" s="15"/>
-      <c r="AFE90" s="15"/>
-      <c r="AFF90" s="15"/>
-      <c r="AFG90" s="15"/>
-      <c r="AFH90" s="15"/>
-      <c r="AFI90" s="15"/>
-      <c r="AFJ90" s="15"/>
-      <c r="AFK90" s="15"/>
-      <c r="AFL90" s="15"/>
-      <c r="AFM90" s="15"/>
-      <c r="AFN90" s="15"/>
-      <c r="AFO90" s="15"/>
-      <c r="AFP90" s="15"/>
-      <c r="AFQ90" s="15"/>
-      <c r="AFR90" s="15"/>
-      <c r="AFS90" s="15"/>
-      <c r="AFT90" s="15"/>
-      <c r="AFU90" s="15"/>
-      <c r="AFV90" s="15"/>
-      <c r="AFW90" s="15"/>
-      <c r="AFX90" s="15"/>
-      <c r="AFY90" s="15"/>
-      <c r="AFZ90" s="15"/>
-      <c r="AGA90" s="15"/>
-      <c r="AGB90" s="15"/>
-      <c r="AGC90" s="15"/>
-      <c r="AGD90" s="15"/>
-      <c r="AGE90" s="15"/>
-      <c r="AGF90" s="15"/>
-      <c r="AGG90" s="15"/>
-      <c r="AGH90" s="15"/>
-      <c r="AGI90" s="15"/>
-      <c r="AGJ90" s="15"/>
-      <c r="AGK90" s="15"/>
-      <c r="AGL90" s="15"/>
-      <c r="AGM90" s="15"/>
-      <c r="AGN90" s="15"/>
-      <c r="AGO90" s="15"/>
-      <c r="AGP90" s="15"/>
-      <c r="AGQ90" s="15"/>
-      <c r="AGR90" s="15"/>
-      <c r="AGS90" s="15"/>
-      <c r="AGT90" s="15"/>
-      <c r="AGU90" s="15"/>
-      <c r="AGV90" s="15"/>
-      <c r="AGW90" s="15"/>
-      <c r="AGX90" s="15"/>
-      <c r="AGY90" s="15"/>
-      <c r="AGZ90" s="15"/>
-      <c r="AHA90" s="15"/>
-      <c r="AHB90" s="15"/>
-      <c r="AHC90" s="15"/>
-      <c r="AHD90" s="15"/>
-      <c r="AHE90" s="15"/>
-      <c r="AHF90" s="15"/>
-      <c r="AHG90" s="15"/>
-      <c r="AHH90" s="15"/>
-      <c r="AHI90" s="15"/>
-      <c r="AHJ90" s="15"/>
-      <c r="AHK90" s="15"/>
-      <c r="AHL90" s="15"/>
-      <c r="AHM90" s="15"/>
-      <c r="AHN90" s="15"/>
-      <c r="AHO90" s="15"/>
-      <c r="AHP90" s="15"/>
-      <c r="AHQ90" s="15"/>
-      <c r="AHR90" s="15"/>
-      <c r="AHS90" s="15"/>
-      <c r="AHT90" s="15"/>
-      <c r="AHU90" s="15"/>
-      <c r="AHV90" s="15"/>
-      <c r="AHW90" s="15"/>
-      <c r="AHX90" s="15"/>
-      <c r="AHY90" s="15"/>
-      <c r="AHZ90" s="15"/>
-      <c r="AIA90" s="15"/>
-      <c r="AIB90" s="15"/>
-      <c r="AIC90" s="15"/>
-      <c r="AID90" s="15"/>
-      <c r="AIE90" s="15"/>
-      <c r="AIF90" s="15"/>
-      <c r="AIG90" s="15"/>
-      <c r="AIH90" s="15"/>
-      <c r="AII90" s="15"/>
-      <c r="AIJ90" s="15"/>
-      <c r="AIK90" s="15"/>
-      <c r="AIL90" s="15"/>
-      <c r="AIM90" s="15"/>
-      <c r="AIN90" s="15"/>
-      <c r="AIO90" s="15"/>
-      <c r="AIP90" s="15"/>
-      <c r="AIQ90" s="15"/>
-      <c r="AIR90" s="15"/>
-      <c r="AIS90" s="15"/>
-      <c r="AIT90" s="15"/>
-      <c r="AIU90" s="15"/>
-      <c r="AIV90" s="15"/>
-      <c r="AIW90" s="15"/>
-      <c r="AIX90" s="15"/>
-      <c r="AIY90" s="15"/>
-      <c r="AIZ90" s="15"/>
-      <c r="AJA90" s="15"/>
-      <c r="AJB90" s="15"/>
-      <c r="AJC90" s="15"/>
-      <c r="AJD90" s="15"/>
-      <c r="AJE90" s="15"/>
-      <c r="AJF90" s="15"/>
-      <c r="AJG90" s="15"/>
-      <c r="AJH90" s="15"/>
-      <c r="AJI90" s="15"/>
-      <c r="AJJ90" s="15"/>
-      <c r="AJK90" s="15"/>
-      <c r="AJL90" s="15"/>
-      <c r="AJM90" s="15"/>
-      <c r="AJN90" s="15"/>
-      <c r="AJO90" s="15"/>
-      <c r="AJP90" s="15"/>
-      <c r="AJQ90" s="15"/>
-      <c r="AJR90" s="15"/>
-      <c r="AJS90" s="15"/>
-      <c r="AJT90" s="15"/>
-      <c r="AJU90" s="15"/>
-      <c r="AJV90" s="15"/>
-      <c r="AJW90" s="15"/>
-      <c r="AJX90" s="15"/>
-      <c r="AJY90" s="15"/>
-      <c r="AJZ90" s="15"/>
-      <c r="AKA90" s="15"/>
-      <c r="AKB90" s="15"/>
-      <c r="AKC90" s="15"/>
-      <c r="AKD90" s="15"/>
-      <c r="AKE90" s="15"/>
-      <c r="AKF90" s="15"/>
-      <c r="AKG90" s="15"/>
-      <c r="AKH90" s="15"/>
-      <c r="AKI90" s="15"/>
-      <c r="AKJ90" s="15"/>
-      <c r="AKK90" s="15"/>
-      <c r="AKL90" s="15"/>
-      <c r="AKM90" s="15"/>
-      <c r="AKN90" s="15"/>
-      <c r="AKO90" s="15"/>
-      <c r="AKP90" s="15"/>
-      <c r="AKQ90" s="15"/>
-      <c r="AKR90" s="15"/>
-      <c r="AKS90" s="15"/>
-      <c r="AKT90" s="15"/>
-      <c r="AKU90" s="15"/>
-      <c r="AKV90" s="15"/>
-      <c r="AKW90" s="15"/>
-      <c r="AKX90" s="15"/>
-      <c r="AKY90" s="15"/>
-      <c r="AKZ90" s="15"/>
-      <c r="ALA90" s="15"/>
-      <c r="ALB90" s="15"/>
-      <c r="ALC90" s="15"/>
-      <c r="ALD90" s="15"/>
-      <c r="ALE90" s="15"/>
-      <c r="ALF90" s="15"/>
-      <c r="ALG90" s="15"/>
-      <c r="ALH90" s="15"/>
-      <c r="ALI90" s="15"/>
-      <c r="ALJ90" s="15"/>
-      <c r="ALK90" s="15"/>
-      <c r="ALL90" s="15"/>
-      <c r="ALM90" s="15"/>
-      <c r="ALN90" s="15"/>
-      <c r="ALO90" s="15"/>
-      <c r="ALP90" s="15"/>
-      <c r="ALQ90" s="15"/>
-      <c r="ALR90" s="15"/>
-      <c r="ALS90" s="15"/>
-      <c r="ALT90" s="15"/>
-      <c r="ALU90" s="15"/>
-      <c r="ALV90" s="15"/>
-      <c r="ALW90" s="15"/>
-      <c r="ALX90" s="15"/>
-      <c r="ALY90" s="15"/>
-      <c r="ALZ90" s="15"/>
-      <c r="AMA90" s="15"/>
-      <c r="AMB90" s="15"/>
-      <c r="AMC90" s="15"/>
-      <c r="AMD90" s="15"/>
-      <c r="AME90" s="15"/>
-      <c r="AMF90" s="15"/>
-      <c r="AMG90" s="15"/>
-      <c r="AMH90" s="15"/>
-      <c r="AMI90" s="15"/>
-      <c r="AMJ90" s="15"/>
-      <c r="AMK90" s="15"/>
-      <c r="AML90" s="15"/>
-      <c r="AMM90" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="15"/>
+      <c r="AN91" s="15"/>
+      <c r="AO91" s="15"/>
+      <c r="AP91" s="15"/>
+      <c r="AQ91" s="15"/>
+      <c r="AR91" s="15"/>
+      <c r="AS91" s="15"/>
+      <c r="AT91" s="15"/>
+      <c r="AU91" s="15"/>
+      <c r="AV91" s="15"/>
+      <c r="AW91" s="15"/>
+      <c r="AX91" s="15"/>
+      <c r="AY91" s="15"/>
+      <c r="AZ91" s="15"/>
+      <c r="BA91" s="15"/>
+      <c r="BB91" s="15"/>
+      <c r="BC91" s="15"/>
+      <c r="BD91" s="15"/>
+      <c r="BE91" s="15"/>
+      <c r="BF91" s="15"/>
+      <c r="BG91" s="15"/>
+      <c r="BH91" s="15"/>
+      <c r="BI91" s="15"/>
+      <c r="BJ91" s="15"/>
+      <c r="BK91" s="15"/>
+      <c r="BL91" s="15"/>
+      <c r="BM91" s="15"/>
+      <c r="BN91" s="15"/>
+      <c r="BO91" s="15"/>
+      <c r="BP91" s="15"/>
+      <c r="BQ91" s="15"/>
+      <c r="BR91" s="15"/>
+      <c r="BS91" s="15"/>
+      <c r="BT91" s="15"/>
+      <c r="BU91" s="15"/>
+      <c r="BV91" s="15"/>
+      <c r="BW91" s="15"/>
+      <c r="BX91" s="15"/>
+      <c r="BY91" s="15"/>
+      <c r="BZ91" s="15"/>
+      <c r="CA91" s="15"/>
+      <c r="CB91" s="15"/>
+      <c r="CC91" s="15"/>
+      <c r="CD91" s="15"/>
+      <c r="CE91" s="15"/>
+      <c r="CF91" s="15"/>
+      <c r="CG91" s="15"/>
+      <c r="CH91" s="15"/>
+      <c r="CI91" s="15"/>
+      <c r="CJ91" s="15"/>
+      <c r="CK91" s="15"/>
+      <c r="CL91" s="15"/>
+      <c r="CM91" s="15"/>
+      <c r="CN91" s="15"/>
+      <c r="CO91" s="15"/>
+      <c r="CP91" s="15"/>
+      <c r="CQ91" s="15"/>
+      <c r="CR91" s="15"/>
+      <c r="CS91" s="15"/>
+      <c r="CT91" s="15"/>
+      <c r="CU91" s="15"/>
+      <c r="CV91" s="15"/>
+      <c r="CW91" s="15"/>
+      <c r="CX91" s="15"/>
+      <c r="CY91" s="15"/>
+      <c r="CZ91" s="15"/>
+      <c r="DA91" s="15"/>
+      <c r="DB91" s="15"/>
+      <c r="DC91" s="15"/>
+      <c r="DD91" s="15"/>
+      <c r="DE91" s="15"/>
+      <c r="DF91" s="15"/>
+      <c r="DG91" s="15"/>
+      <c r="DH91" s="15"/>
+      <c r="DI91" s="15"/>
+      <c r="DJ91" s="15"/>
+      <c r="DK91" s="15"/>
+      <c r="DL91" s="15"/>
+      <c r="DM91" s="15"/>
+      <c r="DN91" s="15"/>
+      <c r="DO91" s="15"/>
+      <c r="DP91" s="15"/>
+      <c r="DQ91" s="15"/>
+      <c r="DR91" s="15"/>
+      <c r="DS91" s="15"/>
+      <c r="DT91" s="15"/>
+      <c r="DU91" s="15"/>
+      <c r="DV91" s="15"/>
+      <c r="DW91" s="15"/>
+      <c r="DX91" s="15"/>
+      <c r="DY91" s="15"/>
+      <c r="DZ91" s="15"/>
+      <c r="EA91" s="15"/>
+      <c r="EB91" s="15"/>
+      <c r="EC91" s="15"/>
+      <c r="ED91" s="15"/>
+      <c r="EE91" s="15"/>
+      <c r="EF91" s="15"/>
+      <c r="EG91" s="15"/>
+      <c r="EH91" s="15"/>
+      <c r="EI91" s="15"/>
+      <c r="EJ91" s="15"/>
+      <c r="EK91" s="15"/>
+      <c r="EL91" s="15"/>
+      <c r="EM91" s="15"/>
+      <c r="EN91" s="15"/>
+      <c r="EO91" s="15"/>
+      <c r="EP91" s="15"/>
+      <c r="EQ91" s="15"/>
+      <c r="ER91" s="15"/>
+      <c r="ES91" s="15"/>
+      <c r="ET91" s="15"/>
+      <c r="EU91" s="15"/>
+      <c r="EV91" s="15"/>
+      <c r="EW91" s="15"/>
+      <c r="EX91" s="15"/>
+      <c r="EY91" s="15"/>
+      <c r="EZ91" s="15"/>
+      <c r="FA91" s="15"/>
+      <c r="FB91" s="15"/>
+      <c r="FC91" s="15"/>
+      <c r="FD91" s="15"/>
+      <c r="FE91" s="15"/>
+      <c r="FF91" s="15"/>
+      <c r="FG91" s="15"/>
+      <c r="FH91" s="15"/>
+      <c r="FI91" s="15"/>
+      <c r="FJ91" s="15"/>
+      <c r="FK91" s="15"/>
+      <c r="FL91" s="15"/>
+      <c r="FM91" s="15"/>
+      <c r="FN91" s="15"/>
+      <c r="FO91" s="15"/>
+      <c r="FP91" s="15"/>
+      <c r="FQ91" s="15"/>
+      <c r="FR91" s="15"/>
+      <c r="FS91" s="15"/>
+      <c r="FT91" s="15"/>
+      <c r="FU91" s="15"/>
+      <c r="FV91" s="15"/>
+      <c r="FW91" s="15"/>
+      <c r="FX91" s="15"/>
+      <c r="FY91" s="15"/>
+      <c r="FZ91" s="15"/>
+      <c r="GA91" s="15"/>
+      <c r="GB91" s="15"/>
+      <c r="GC91" s="15"/>
+      <c r="GD91" s="15"/>
+      <c r="GE91" s="15"/>
+      <c r="GF91" s="15"/>
+      <c r="GG91" s="15"/>
+      <c r="GH91" s="15"/>
+      <c r="GI91" s="15"/>
+      <c r="GJ91" s="15"/>
+      <c r="GK91" s="15"/>
+      <c r="GL91" s="15"/>
+      <c r="GM91" s="15"/>
+      <c r="GN91" s="15"/>
+      <c r="GO91" s="15"/>
+      <c r="GP91" s="15"/>
+      <c r="GQ91" s="15"/>
+      <c r="GR91" s="15"/>
+      <c r="GS91" s="15"/>
+      <c r="GT91" s="15"/>
+      <c r="GU91" s="15"/>
+      <c r="GV91" s="15"/>
+      <c r="GW91" s="15"/>
+      <c r="GX91" s="15"/>
+      <c r="GY91" s="15"/>
+      <c r="GZ91" s="15"/>
+      <c r="HA91" s="15"/>
+      <c r="HB91" s="15"/>
+      <c r="HC91" s="15"/>
+      <c r="HD91" s="15"/>
+      <c r="HE91" s="15"/>
+      <c r="HF91" s="15"/>
+      <c r="HG91" s="15"/>
+      <c r="HH91" s="15"/>
+      <c r="HI91" s="15"/>
+      <c r="HJ91" s="15"/>
+      <c r="HK91" s="15"/>
+      <c r="HL91" s="15"/>
+      <c r="HM91" s="15"/>
+      <c r="HN91" s="15"/>
+      <c r="HO91" s="15"/>
+      <c r="HP91" s="15"/>
+      <c r="HQ91" s="15"/>
+      <c r="HR91" s="15"/>
+      <c r="HS91" s="15"/>
+      <c r="HT91" s="15"/>
+      <c r="HU91" s="15"/>
+      <c r="HV91" s="15"/>
+      <c r="HW91" s="15"/>
+      <c r="HX91" s="15"/>
+      <c r="HY91" s="15"/>
+      <c r="HZ91" s="15"/>
+      <c r="IA91" s="15"/>
+      <c r="IB91" s="15"/>
+      <c r="IC91" s="15"/>
+      <c r="ID91" s="15"/>
+      <c r="IE91" s="15"/>
+      <c r="IF91" s="15"/>
+      <c r="IG91" s="15"/>
+      <c r="IH91" s="15"/>
+      <c r="II91" s="15"/>
+      <c r="IJ91" s="15"/>
+      <c r="IK91" s="15"/>
+      <c r="IL91" s="15"/>
+      <c r="IM91" s="15"/>
+      <c r="IN91" s="15"/>
+      <c r="IO91" s="15"/>
+      <c r="IP91" s="15"/>
+      <c r="IQ91" s="15"/>
+      <c r="IR91" s="15"/>
+      <c r="IS91" s="15"/>
+      <c r="IT91" s="15"/>
+      <c r="IU91" s="15"/>
+      <c r="IV91" s="15"/>
+      <c r="IW91" s="15"/>
+      <c r="IX91" s="15"/>
+      <c r="IY91" s="15"/>
+      <c r="IZ91" s="15"/>
+      <c r="JA91" s="15"/>
+      <c r="JB91" s="15"/>
+      <c r="JC91" s="15"/>
+      <c r="JD91" s="15"/>
+      <c r="JE91" s="15"/>
+      <c r="JF91" s="15"/>
+      <c r="JG91" s="15"/>
+      <c r="JH91" s="15"/>
+      <c r="JI91" s="15"/>
+      <c r="JJ91" s="15"/>
+      <c r="JK91" s="15"/>
+      <c r="JL91" s="15"/>
+      <c r="JM91" s="15"/>
+      <c r="JN91" s="15"/>
+      <c r="JO91" s="15"/>
+      <c r="JP91" s="15"/>
+      <c r="JQ91" s="15"/>
+      <c r="JR91" s="15"/>
+      <c r="JS91" s="15"/>
+      <c r="JT91" s="15"/>
+      <c r="JU91" s="15"/>
+      <c r="JV91" s="15"/>
+      <c r="JW91" s="15"/>
+      <c r="JX91" s="15"/>
+      <c r="JY91" s="15"/>
+      <c r="JZ91" s="15"/>
+      <c r="KA91" s="15"/>
+      <c r="KB91" s="15"/>
+      <c r="KC91" s="15"/>
+      <c r="KD91" s="15"/>
+      <c r="KE91" s="15"/>
+      <c r="KF91" s="15"/>
+      <c r="KG91" s="15"/>
+      <c r="KH91" s="15"/>
+      <c r="KI91" s="15"/>
+      <c r="KJ91" s="15"/>
+      <c r="KK91" s="15"/>
+      <c r="KL91" s="15"/>
+      <c r="KM91" s="15"/>
+      <c r="KN91" s="15"/>
+      <c r="KO91" s="15"/>
+      <c r="KP91" s="15"/>
+      <c r="KQ91" s="15"/>
+      <c r="KR91" s="15"/>
+      <c r="KS91" s="15"/>
+      <c r="KT91" s="15"/>
+      <c r="KU91" s="15"/>
+      <c r="KV91" s="15"/>
+      <c r="KW91" s="15"/>
+      <c r="KX91" s="15"/>
+      <c r="KY91" s="15"/>
+      <c r="KZ91" s="15"/>
+      <c r="LA91" s="15"/>
+      <c r="LB91" s="15"/>
+      <c r="LC91" s="15"/>
+      <c r="LD91" s="15"/>
+      <c r="LE91" s="15"/>
+      <c r="LF91" s="15"/>
+      <c r="LG91" s="15"/>
+      <c r="LH91" s="15"/>
+      <c r="LI91" s="15"/>
+      <c r="LJ91" s="15"/>
+      <c r="LK91" s="15"/>
+      <c r="LL91" s="15"/>
+      <c r="LM91" s="15"/>
+      <c r="LN91" s="15"/>
+      <c r="LO91" s="15"/>
+      <c r="LP91" s="15"/>
+      <c r="LQ91" s="15"/>
+      <c r="LR91" s="15"/>
+      <c r="LS91" s="15"/>
+      <c r="LT91" s="15"/>
+      <c r="LU91" s="15"/>
+      <c r="LV91" s="15"/>
+      <c r="LW91" s="15"/>
+      <c r="LX91" s="15"/>
+      <c r="LY91" s="15"/>
+      <c r="LZ91" s="15"/>
+      <c r="MA91" s="15"/>
+      <c r="MB91" s="15"/>
+      <c r="MC91" s="15"/>
+      <c r="MD91" s="15"/>
+      <c r="ME91" s="15"/>
+      <c r="MF91" s="15"/>
+      <c r="MG91" s="15"/>
+      <c r="MH91" s="15"/>
+      <c r="MI91" s="15"/>
+      <c r="MJ91" s="15"/>
+      <c r="MK91" s="15"/>
+      <c r="ML91" s="15"/>
+      <c r="MM91" s="15"/>
+      <c r="MN91" s="15"/>
+      <c r="MO91" s="15"/>
+      <c r="MP91" s="15"/>
+      <c r="MQ91" s="15"/>
+      <c r="MR91" s="15"/>
+      <c r="MS91" s="15"/>
+      <c r="MT91" s="15"/>
+      <c r="MU91" s="15"/>
+      <c r="MV91" s="15"/>
+      <c r="MW91" s="15"/>
+      <c r="MX91" s="15"/>
+      <c r="MY91" s="15"/>
+      <c r="MZ91" s="15"/>
+      <c r="NA91" s="15"/>
+      <c r="NB91" s="15"/>
+      <c r="NC91" s="15"/>
+      <c r="ND91" s="15"/>
+      <c r="NE91" s="15"/>
+      <c r="NF91" s="15"/>
+      <c r="NG91" s="15"/>
+      <c r="NH91" s="15"/>
+      <c r="NI91" s="15"/>
+      <c r="NJ91" s="15"/>
+      <c r="NK91" s="15"/>
+      <c r="NL91" s="15"/>
+      <c r="NM91" s="15"/>
+      <c r="NN91" s="15"/>
+      <c r="NO91" s="15"/>
+      <c r="NP91" s="15"/>
+      <c r="NQ91" s="15"/>
+      <c r="NR91" s="15"/>
+      <c r="NS91" s="15"/>
+      <c r="NT91" s="15"/>
+      <c r="NU91" s="15"/>
+      <c r="NV91" s="15"/>
+      <c r="NW91" s="15"/>
+      <c r="NX91" s="15"/>
+      <c r="NY91" s="15"/>
+      <c r="NZ91" s="15"/>
+      <c r="OA91" s="15"/>
+      <c r="OB91" s="15"/>
+      <c r="OC91" s="15"/>
+      <c r="OD91" s="15"/>
+      <c r="OE91" s="15"/>
+      <c r="OF91" s="15"/>
+      <c r="OG91" s="15"/>
+      <c r="OH91" s="15"/>
+      <c r="OI91" s="15"/>
+      <c r="OJ91" s="15"/>
+      <c r="OK91" s="15"/>
+      <c r="OL91" s="15"/>
+      <c r="OM91" s="15"/>
+      <c r="ON91" s="15"/>
+      <c r="OO91" s="15"/>
+      <c r="OP91" s="15"/>
+      <c r="OQ91" s="15"/>
+      <c r="OR91" s="15"/>
+      <c r="OS91" s="15"/>
+      <c r="OT91" s="15"/>
+      <c r="OU91" s="15"/>
+      <c r="OV91" s="15"/>
+      <c r="OW91" s="15"/>
+      <c r="OX91" s="15"/>
+      <c r="OY91" s="15"/>
+      <c r="OZ91" s="15"/>
+      <c r="PA91" s="15"/>
+      <c r="PB91" s="15"/>
+      <c r="PC91" s="15"/>
+      <c r="PD91" s="15"/>
+      <c r="PE91" s="15"/>
+      <c r="PF91" s="15"/>
+      <c r="PG91" s="15"/>
+      <c r="PH91" s="15"/>
+      <c r="PI91" s="15"/>
+      <c r="PJ91" s="15"/>
+      <c r="PK91" s="15"/>
+      <c r="PL91" s="15"/>
+      <c r="PM91" s="15"/>
+      <c r="PN91" s="15"/>
+      <c r="PO91" s="15"/>
+      <c r="PP91" s="15"/>
+      <c r="PQ91" s="15"/>
+      <c r="PR91" s="15"/>
+      <c r="PS91" s="15"/>
+      <c r="PT91" s="15"/>
+      <c r="PU91" s="15"/>
+      <c r="PV91" s="15"/>
+      <c r="PW91" s="15"/>
+      <c r="PX91" s="15"/>
+      <c r="PY91" s="15"/>
+      <c r="PZ91" s="15"/>
+      <c r="QA91" s="15"/>
+      <c r="QB91" s="15"/>
+      <c r="QC91" s="15"/>
+      <c r="QD91" s="15"/>
+      <c r="QE91" s="15"/>
+      <c r="QF91" s="15"/>
+      <c r="QG91" s="15"/>
+      <c r="QH91" s="15"/>
+      <c r="QI91" s="15"/>
+      <c r="QJ91" s="15"/>
+      <c r="QK91" s="15"/>
+      <c r="QL91" s="15"/>
+      <c r="QM91" s="15"/>
+      <c r="QN91" s="15"/>
+      <c r="QO91" s="15"/>
+      <c r="QP91" s="15"/>
+      <c r="QQ91" s="15"/>
+      <c r="QR91" s="15"/>
+      <c r="QS91" s="15"/>
+      <c r="QT91" s="15"/>
+      <c r="QU91" s="15"/>
+      <c r="QV91" s="15"/>
+      <c r="QW91" s="15"/>
+      <c r="QX91" s="15"/>
+      <c r="QY91" s="15"/>
+      <c r="QZ91" s="15"/>
+      <c r="RA91" s="15"/>
+      <c r="RB91" s="15"/>
+      <c r="RC91" s="15"/>
+      <c r="RD91" s="15"/>
+      <c r="RE91" s="15"/>
+      <c r="RF91" s="15"/>
+      <c r="RG91" s="15"/>
+      <c r="RH91" s="15"/>
+      <c r="RI91" s="15"/>
+      <c r="RJ91" s="15"/>
+      <c r="RK91" s="15"/>
+      <c r="RL91" s="15"/>
+      <c r="RM91" s="15"/>
+      <c r="RN91" s="15"/>
+      <c r="RO91" s="15"/>
+      <c r="RP91" s="15"/>
+      <c r="RQ91" s="15"/>
+      <c r="RR91" s="15"/>
+      <c r="RS91" s="15"/>
+      <c r="RT91" s="15"/>
+      <c r="RU91" s="15"/>
+      <c r="RV91" s="15"/>
+      <c r="RW91" s="15"/>
+      <c r="RX91" s="15"/>
+      <c r="RY91" s="15"/>
+      <c r="RZ91" s="15"/>
+      <c r="SA91" s="15"/>
+      <c r="SB91" s="15"/>
+      <c r="SC91" s="15"/>
+      <c r="SD91" s="15"/>
+      <c r="SE91" s="15"/>
+      <c r="SF91" s="15"/>
+      <c r="SG91" s="15"/>
+      <c r="SH91" s="15"/>
+      <c r="SI91" s="15"/>
+      <c r="SJ91" s="15"/>
+      <c r="SK91" s="15"/>
+      <c r="SL91" s="15"/>
+      <c r="SM91" s="15"/>
+      <c r="SN91" s="15"/>
+      <c r="SO91" s="15"/>
+      <c r="SP91" s="15"/>
+      <c r="SQ91" s="15"/>
+      <c r="SR91" s="15"/>
+      <c r="SS91" s="15"/>
+      <c r="ST91" s="15"/>
+      <c r="SU91" s="15"/>
+      <c r="SV91" s="15"/>
+      <c r="SW91" s="15"/>
+      <c r="SX91" s="15"/>
+      <c r="SY91" s="15"/>
+      <c r="SZ91" s="15"/>
+      <c r="TA91" s="15"/>
+      <c r="TB91" s="15"/>
+      <c r="TC91" s="15"/>
+      <c r="TD91" s="15"/>
+      <c r="TE91" s="15"/>
+      <c r="TF91" s="15"/>
+      <c r="TG91" s="15"/>
+      <c r="TH91" s="15"/>
+      <c r="TI91" s="15"/>
+      <c r="TJ91" s="15"/>
+      <c r="TK91" s="15"/>
+      <c r="TL91" s="15"/>
+      <c r="TM91" s="15"/>
+      <c r="TN91" s="15"/>
+      <c r="TO91" s="15"/>
+      <c r="TP91" s="15"/>
+      <c r="TQ91" s="15"/>
+      <c r="TR91" s="15"/>
+      <c r="TS91" s="15"/>
+      <c r="TT91" s="15"/>
+      <c r="TU91" s="15"/>
+      <c r="TV91" s="15"/>
+      <c r="TW91" s="15"/>
+      <c r="TX91" s="15"/>
+      <c r="TY91" s="15"/>
+      <c r="TZ91" s="15"/>
+      <c r="UA91" s="15"/>
+      <c r="UB91" s="15"/>
+      <c r="UC91" s="15"/>
+      <c r="UD91" s="15"/>
+      <c r="UE91" s="15"/>
+      <c r="UF91" s="15"/>
+      <c r="UG91" s="15"/>
+      <c r="UH91" s="15"/>
+      <c r="UI91" s="15"/>
+      <c r="UJ91" s="15"/>
+      <c r="UK91" s="15"/>
+      <c r="UL91" s="15"/>
+      <c r="UM91" s="15"/>
+      <c r="UN91" s="15"/>
+      <c r="UO91" s="15"/>
+      <c r="UP91" s="15"/>
+      <c r="UQ91" s="15"/>
+      <c r="UR91" s="15"/>
+      <c r="US91" s="15"/>
+      <c r="UT91" s="15"/>
+      <c r="UU91" s="15"/>
+      <c r="UV91" s="15"/>
+      <c r="UW91" s="15"/>
+      <c r="UX91" s="15"/>
+      <c r="UY91" s="15"/>
+      <c r="UZ91" s="15"/>
+      <c r="VA91" s="15"/>
+      <c r="VB91" s="15"/>
+      <c r="VC91" s="15"/>
+      <c r="VD91" s="15"/>
+      <c r="VE91" s="15"/>
+      <c r="VF91" s="15"/>
+      <c r="VG91" s="15"/>
+      <c r="VH91" s="15"/>
+      <c r="VI91" s="15"/>
+      <c r="VJ91" s="15"/>
+      <c r="VK91" s="15"/>
+      <c r="VL91" s="15"/>
+      <c r="VM91" s="15"/>
+      <c r="VN91" s="15"/>
+      <c r="VO91" s="15"/>
+      <c r="VP91" s="15"/>
+      <c r="VQ91" s="15"/>
+      <c r="VR91" s="15"/>
+      <c r="VS91" s="15"/>
+      <c r="VT91" s="15"/>
+      <c r="VU91" s="15"/>
+      <c r="VV91" s="15"/>
+      <c r="VW91" s="15"/>
+      <c r="VX91" s="15"/>
+      <c r="VY91" s="15"/>
+      <c r="VZ91" s="15"/>
+      <c r="WA91" s="15"/>
+      <c r="WB91" s="15"/>
+      <c r="WC91" s="15"/>
+      <c r="WD91" s="15"/>
+      <c r="WE91" s="15"/>
+      <c r="WF91" s="15"/>
+      <c r="WG91" s="15"/>
+      <c r="WH91" s="15"/>
+      <c r="WI91" s="15"/>
+      <c r="WJ91" s="15"/>
+      <c r="WK91" s="15"/>
+      <c r="WL91" s="15"/>
+      <c r="WM91" s="15"/>
+      <c r="WN91" s="15"/>
+      <c r="WO91" s="15"/>
+      <c r="WP91" s="15"/>
+      <c r="WQ91" s="15"/>
+      <c r="WR91" s="15"/>
+      <c r="WS91" s="15"/>
+      <c r="WT91" s="15"/>
+      <c r="WU91" s="15"/>
+      <c r="WV91" s="15"/>
+      <c r="WW91" s="15"/>
+      <c r="WX91" s="15"/>
+      <c r="WY91" s="15"/>
+      <c r="WZ91" s="15"/>
+      <c r="XA91" s="15"/>
+      <c r="XB91" s="15"/>
+      <c r="XC91" s="15"/>
+      <c r="XD91" s="15"/>
+      <c r="XE91" s="15"/>
+      <c r="XF91" s="15"/>
+      <c r="XG91" s="15"/>
+      <c r="XH91" s="15"/>
+      <c r="XI91" s="15"/>
+      <c r="XJ91" s="15"/>
+      <c r="XK91" s="15"/>
+      <c r="XL91" s="15"/>
+      <c r="XM91" s="15"/>
+      <c r="XN91" s="15"/>
+      <c r="XO91" s="15"/>
+      <c r="XP91" s="15"/>
+      <c r="XQ91" s="15"/>
+      <c r="XR91" s="15"/>
+      <c r="XS91" s="15"/>
+      <c r="XT91" s="15"/>
+      <c r="XU91" s="15"/>
+      <c r="XV91" s="15"/>
+      <c r="XW91" s="15"/>
+      <c r="XX91" s="15"/>
+      <c r="XY91" s="15"/>
+      <c r="XZ91" s="15"/>
+      <c r="YA91" s="15"/>
+      <c r="YB91" s="15"/>
+      <c r="YC91" s="15"/>
+      <c r="YD91" s="15"/>
+      <c r="YE91" s="15"/>
+      <c r="YF91" s="15"/>
+      <c r="YG91" s="15"/>
+      <c r="YH91" s="15"/>
+      <c r="YI91" s="15"/>
+      <c r="YJ91" s="15"/>
+      <c r="YK91" s="15"/>
+      <c r="YL91" s="15"/>
+      <c r="YM91" s="15"/>
+      <c r="YN91" s="15"/>
+      <c r="YO91" s="15"/>
+      <c r="YP91" s="15"/>
+      <c r="YQ91" s="15"/>
+      <c r="YR91" s="15"/>
+      <c r="YS91" s="15"/>
+      <c r="YT91" s="15"/>
+      <c r="YU91" s="15"/>
+      <c r="YV91" s="15"/>
+      <c r="YW91" s="15"/>
+      <c r="YX91" s="15"/>
+      <c r="YY91" s="15"/>
+      <c r="YZ91" s="15"/>
+      <c r="ZA91" s="15"/>
+      <c r="ZB91" s="15"/>
+      <c r="ZC91" s="15"/>
+      <c r="ZD91" s="15"/>
+      <c r="ZE91" s="15"/>
+      <c r="ZF91" s="15"/>
+      <c r="ZG91" s="15"/>
+      <c r="ZH91" s="15"/>
+      <c r="ZI91" s="15"/>
+      <c r="ZJ91" s="15"/>
+      <c r="ZK91" s="15"/>
+      <c r="ZL91" s="15"/>
+      <c r="ZM91" s="15"/>
+      <c r="ZN91" s="15"/>
+      <c r="ZO91" s="15"/>
+      <c r="ZP91" s="15"/>
+      <c r="ZQ91" s="15"/>
+      <c r="ZR91" s="15"/>
+      <c r="ZS91" s="15"/>
+      <c r="ZT91" s="15"/>
+      <c r="ZU91" s="15"/>
+      <c r="ZV91" s="15"/>
+      <c r="ZW91" s="15"/>
+      <c r="ZX91" s="15"/>
+      <c r="ZY91" s="15"/>
+      <c r="ZZ91" s="15"/>
+      <c r="AAA91" s="15"/>
+      <c r="AAB91" s="15"/>
+      <c r="AAC91" s="15"/>
+      <c r="AAD91" s="15"/>
+      <c r="AAE91" s="15"/>
+      <c r="AAF91" s="15"/>
+      <c r="AAG91" s="15"/>
+      <c r="AAH91" s="15"/>
+      <c r="AAI91" s="15"/>
+      <c r="AAJ91" s="15"/>
+      <c r="AAK91" s="15"/>
+      <c r="AAL91" s="15"/>
+      <c r="AAM91" s="15"/>
+      <c r="AAN91" s="15"/>
+      <c r="AAO91" s="15"/>
+      <c r="AAP91" s="15"/>
+      <c r="AAQ91" s="15"/>
+      <c r="AAR91" s="15"/>
+      <c r="AAS91" s="15"/>
+      <c r="AAT91" s="15"/>
+      <c r="AAU91" s="15"/>
+      <c r="AAV91" s="15"/>
+      <c r="AAW91" s="15"/>
+      <c r="AAX91" s="15"/>
+      <c r="AAY91" s="15"/>
+      <c r="AAZ91" s="15"/>
+      <c r="ABA91" s="15"/>
+      <c r="ABB91" s="15"/>
+      <c r="ABC91" s="15"/>
+      <c r="ABD91" s="15"/>
+      <c r="ABE91" s="15"/>
+      <c r="ABF91" s="15"/>
+      <c r="ABG91" s="15"/>
+      <c r="ABH91" s="15"/>
+      <c r="ABI91" s="15"/>
+      <c r="ABJ91" s="15"/>
+      <c r="ABK91" s="15"/>
+      <c r="ABL91" s="15"/>
+      <c r="ABM91" s="15"/>
+      <c r="ABN91" s="15"/>
+      <c r="ABO91" s="15"/>
+      <c r="ABP91" s="15"/>
+      <c r="ABQ91" s="15"/>
+      <c r="ABR91" s="15"/>
+      <c r="ABS91" s="15"/>
+      <c r="ABT91" s="15"/>
+      <c r="ABU91" s="15"/>
+      <c r="ABV91" s="15"/>
+      <c r="ABW91" s="15"/>
+      <c r="ABX91" s="15"/>
+      <c r="ABY91" s="15"/>
+      <c r="ABZ91" s="15"/>
+      <c r="ACA91" s="15"/>
+      <c r="ACB91" s="15"/>
+      <c r="ACC91" s="15"/>
+      <c r="ACD91" s="15"/>
+      <c r="ACE91" s="15"/>
+      <c r="ACF91" s="15"/>
+      <c r="ACG91" s="15"/>
+      <c r="ACH91" s="15"/>
+      <c r="ACI91" s="15"/>
+      <c r="ACJ91" s="15"/>
+      <c r="ACK91" s="15"/>
+      <c r="ACL91" s="15"/>
+      <c r="ACM91" s="15"/>
+      <c r="ACN91" s="15"/>
+      <c r="ACO91" s="15"/>
+      <c r="ACP91" s="15"/>
+      <c r="ACQ91" s="15"/>
+      <c r="ACR91" s="15"/>
+      <c r="ACS91" s="15"/>
+      <c r="ACT91" s="15"/>
+      <c r="ACU91" s="15"/>
+      <c r="ACV91" s="15"/>
+      <c r="ACW91" s="15"/>
+      <c r="ACX91" s="15"/>
+      <c r="ACY91" s="15"/>
+      <c r="ACZ91" s="15"/>
+      <c r="ADA91" s="15"/>
+      <c r="ADB91" s="15"/>
+      <c r="ADC91" s="15"/>
+      <c r="ADD91" s="15"/>
+      <c r="ADE91" s="15"/>
+      <c r="ADF91" s="15"/>
+      <c r="ADG91" s="15"/>
+      <c r="ADH91" s="15"/>
+      <c r="ADI91" s="15"/>
+      <c r="ADJ91" s="15"/>
+      <c r="ADK91" s="15"/>
+      <c r="ADL91" s="15"/>
+      <c r="ADM91" s="15"/>
+      <c r="ADN91" s="15"/>
+      <c r="ADO91" s="15"/>
+      <c r="ADP91" s="15"/>
+      <c r="ADQ91" s="15"/>
+      <c r="ADR91" s="15"/>
+      <c r="ADS91" s="15"/>
+      <c r="ADT91" s="15"/>
+      <c r="ADU91" s="15"/>
+      <c r="ADV91" s="15"/>
+      <c r="ADW91" s="15"/>
+      <c r="ADX91" s="15"/>
+      <c r="ADY91" s="15"/>
+      <c r="ADZ91" s="15"/>
+      <c r="AEA91" s="15"/>
+      <c r="AEB91" s="15"/>
+      <c r="AEC91" s="15"/>
+      <c r="AED91" s="15"/>
+      <c r="AEE91" s="15"/>
+      <c r="AEF91" s="15"/>
+      <c r="AEG91" s="15"/>
+      <c r="AEH91" s="15"/>
+      <c r="AEI91" s="15"/>
+      <c r="AEJ91" s="15"/>
+      <c r="AEK91" s="15"/>
+      <c r="AEL91" s="15"/>
+      <c r="AEM91" s="15"/>
+      <c r="AEN91" s="15"/>
+      <c r="AEO91" s="15"/>
+      <c r="AEP91" s="15"/>
+      <c r="AEQ91" s="15"/>
+      <c r="AER91" s="15"/>
+      <c r="AES91" s="15"/>
+      <c r="AET91" s="15"/>
+      <c r="AEU91" s="15"/>
+      <c r="AEV91" s="15"/>
+      <c r="AEW91" s="15"/>
+      <c r="AEX91" s="15"/>
+      <c r="AEY91" s="15"/>
+      <c r="AEZ91" s="15"/>
+      <c r="AFA91" s="15"/>
+      <c r="AFB91" s="15"/>
+      <c r="AFC91" s="15"/>
+      <c r="AFD91" s="15"/>
+      <c r="AFE91" s="15"/>
+      <c r="AFF91" s="15"/>
+      <c r="AFG91" s="15"/>
+      <c r="AFH91" s="15"/>
+      <c r="AFI91" s="15"/>
+      <c r="AFJ91" s="15"/>
+      <c r="AFK91" s="15"/>
+      <c r="AFL91" s="15"/>
+      <c r="AFM91" s="15"/>
+      <c r="AFN91" s="15"/>
+      <c r="AFO91" s="15"/>
+      <c r="AFP91" s="15"/>
+      <c r="AFQ91" s="15"/>
+      <c r="AFR91" s="15"/>
+      <c r="AFS91" s="15"/>
+      <c r="AFT91" s="15"/>
+      <c r="AFU91" s="15"/>
+      <c r="AFV91" s="15"/>
+      <c r="AFW91" s="15"/>
+      <c r="AFX91" s="15"/>
+      <c r="AFY91" s="15"/>
+      <c r="AFZ91" s="15"/>
+      <c r="AGA91" s="15"/>
+      <c r="AGB91" s="15"/>
+      <c r="AGC91" s="15"/>
+      <c r="AGD91" s="15"/>
+      <c r="AGE91" s="15"/>
+      <c r="AGF91" s="15"/>
+      <c r="AGG91" s="15"/>
+      <c r="AGH91" s="15"/>
+      <c r="AGI91" s="15"/>
+      <c r="AGJ91" s="15"/>
+      <c r="AGK91" s="15"/>
+      <c r="AGL91" s="15"/>
+      <c r="AGM91" s="15"/>
+      <c r="AGN91" s="15"/>
+      <c r="AGO91" s="15"/>
+      <c r="AGP91" s="15"/>
+      <c r="AGQ91" s="15"/>
+      <c r="AGR91" s="15"/>
+      <c r="AGS91" s="15"/>
+      <c r="AGT91" s="15"/>
+      <c r="AGU91" s="15"/>
+      <c r="AGV91" s="15"/>
+      <c r="AGW91" s="15"/>
+      <c r="AGX91" s="15"/>
+      <c r="AGY91" s="15"/>
+      <c r="AGZ91" s="15"/>
+      <c r="AHA91" s="15"/>
+      <c r="AHB91" s="15"/>
+      <c r="AHC91" s="15"/>
+      <c r="AHD91" s="15"/>
+      <c r="AHE91" s="15"/>
+      <c r="AHF91" s="15"/>
+      <c r="AHG91" s="15"/>
+      <c r="AHH91" s="15"/>
+      <c r="AHI91" s="15"/>
+      <c r="AHJ91" s="15"/>
+      <c r="AHK91" s="15"/>
+      <c r="AHL91" s="15"/>
+      <c r="AHM91" s="15"/>
+      <c r="AHN91" s="15"/>
+      <c r="AHO91" s="15"/>
+      <c r="AHP91" s="15"/>
+      <c r="AHQ91" s="15"/>
+      <c r="AHR91" s="15"/>
+      <c r="AHS91" s="15"/>
+      <c r="AHT91" s="15"/>
+      <c r="AHU91" s="15"/>
+      <c r="AHV91" s="15"/>
+      <c r="AHW91" s="15"/>
+      <c r="AHX91" s="15"/>
+      <c r="AHY91" s="15"/>
+      <c r="AHZ91" s="15"/>
+      <c r="AIA91" s="15"/>
+      <c r="AIB91" s="15"/>
+      <c r="AIC91" s="15"/>
+      <c r="AID91" s="15"/>
+      <c r="AIE91" s="15"/>
+      <c r="AIF91" s="15"/>
+      <c r="AIG91" s="15"/>
+      <c r="AIH91" s="15"/>
+      <c r="AII91" s="15"/>
+      <c r="AIJ91" s="15"/>
+      <c r="AIK91" s="15"/>
+      <c r="AIL91" s="15"/>
+      <c r="AIM91" s="15"/>
+      <c r="AIN91" s="15"/>
+      <c r="AIO91" s="15"/>
+      <c r="AIP91" s="15"/>
+      <c r="AIQ91" s="15"/>
+      <c r="AIR91" s="15"/>
+      <c r="AIS91" s="15"/>
+      <c r="AIT91" s="15"/>
+      <c r="AIU91" s="15"/>
+      <c r="AIV91" s="15"/>
+      <c r="AIW91" s="15"/>
+      <c r="AIX91" s="15"/>
+      <c r="AIY91" s="15"/>
+      <c r="AIZ91" s="15"/>
+      <c r="AJA91" s="15"/>
+      <c r="AJB91" s="15"/>
+      <c r="AJC91" s="15"/>
+      <c r="AJD91" s="15"/>
+      <c r="AJE91" s="15"/>
+      <c r="AJF91" s="15"/>
+      <c r="AJG91" s="15"/>
+      <c r="AJH91" s="15"/>
+      <c r="AJI91" s="15"/>
+      <c r="AJJ91" s="15"/>
+      <c r="AJK91" s="15"/>
+      <c r="AJL91" s="15"/>
+      <c r="AJM91" s="15"/>
+      <c r="AJN91" s="15"/>
+      <c r="AJO91" s="15"/>
+      <c r="AJP91" s="15"/>
+      <c r="AJQ91" s="15"/>
+      <c r="AJR91" s="15"/>
+      <c r="AJS91" s="15"/>
+      <c r="AJT91" s="15"/>
+      <c r="AJU91" s="15"/>
+      <c r="AJV91" s="15"/>
+      <c r="AJW91" s="15"/>
+      <c r="AJX91" s="15"/>
+      <c r="AJY91" s="15"/>
+      <c r="AJZ91" s="15"/>
+      <c r="AKA91" s="15"/>
+      <c r="AKB91" s="15"/>
+      <c r="AKC91" s="15"/>
+      <c r="AKD91" s="15"/>
+      <c r="AKE91" s="15"/>
+      <c r="AKF91" s="15"/>
+      <c r="AKG91" s="15"/>
+      <c r="AKH91" s="15"/>
+      <c r="AKI91" s="15"/>
+      <c r="AKJ91" s="15"/>
+      <c r="AKK91" s="15"/>
+      <c r="AKL91" s="15"/>
+      <c r="AKM91" s="15"/>
+      <c r="AKN91" s="15"/>
+      <c r="AKO91" s="15"/>
+      <c r="AKP91" s="15"/>
+      <c r="AKQ91" s="15"/>
+      <c r="AKR91" s="15"/>
+      <c r="AKS91" s="15"/>
+      <c r="AKT91" s="15"/>
+      <c r="AKU91" s="15"/>
+      <c r="AKV91" s="15"/>
+      <c r="AKW91" s="15"/>
+      <c r="AKX91" s="15"/>
+      <c r="AKY91" s="15"/>
+      <c r="AKZ91" s="15"/>
+      <c r="ALA91" s="15"/>
+      <c r="ALB91" s="15"/>
+      <c r="ALC91" s="15"/>
+      <c r="ALD91" s="15"/>
+      <c r="ALE91" s="15"/>
+      <c r="ALF91" s="15"/>
+      <c r="ALG91" s="15"/>
+      <c r="ALH91" s="15"/>
+      <c r="ALI91" s="15"/>
+      <c r="ALJ91" s="15"/>
+      <c r="ALK91" s="15"/>
+      <c r="ALL91" s="15"/>
+      <c r="ALM91" s="15"/>
+      <c r="ALN91" s="15"/>
+      <c r="ALO91" s="15"/>
+      <c r="ALP91" s="15"/>
+      <c r="ALQ91" s="15"/>
+      <c r="ALR91" s="15"/>
+      <c r="ALS91" s="15"/>
+      <c r="ALT91" s="15"/>
+      <c r="ALU91" s="15"/>
+      <c r="ALV91" s="15"/>
+      <c r="ALW91" s="15"/>
+      <c r="ALX91" s="15"/>
+      <c r="ALY91" s="15"/>
+      <c r="ALZ91" s="15"/>
+      <c r="AMA91" s="15"/>
+      <c r="AMB91" s="15"/>
+      <c r="AMC91" s="15"/>
+      <c r="AMD91" s="15"/>
+      <c r="AME91" s="15"/>
+      <c r="AMF91" s="15"/>
+      <c r="AMG91" s="15"/>
+      <c r="AMH91" s="15"/>
+      <c r="AMI91" s="15"/>
+      <c r="AMJ91" s="15"/>
+      <c r="AMK91" s="15"/>
+      <c r="AML91" s="15"/>
+      <c r="AMM91" s="15"/>
     </row>
-    <row r="91" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+    <row r="92" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="L91" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="M91" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="O91" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="F92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M92" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="O92" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+    <row r="93" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="O93" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B94" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D94" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="16" t="s">
+      <c r="E94" s="15"/>
+      <c r="F94" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G94" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H94" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I94" s="22">
         <v>45138</v>
       </c>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="15" t="s">
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="O93" s="17" t="s">
+      <c r="O94" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
-      <c r="U93" s="15"/>
-      <c r="V93" s="15"/>
-      <c r="W93" s="15"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="15"/>
-      <c r="AA93" s="15"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="15"/>
-      <c r="AD93" s="15"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15"/>
-      <c r="AG93" s="15"/>
-      <c r="AH93" s="15"/>
-      <c r="AI93" s="15"/>
-      <c r="AJ93" s="15"/>
-      <c r="AK93" s="15"/>
-      <c r="AL93" s="15"/>
-      <c r="AM93" s="15"/>
-      <c r="AN93" s="15"/>
-      <c r="AO93" s="15"/>
-      <c r="AP93" s="15"/>
-      <c r="AQ93" s="15"/>
-      <c r="AR93" s="15"/>
-      <c r="AS93" s="15"/>
-      <c r="AT93" s="15"/>
-      <c r="AU93" s="15"/>
-      <c r="AV93" s="15"/>
-      <c r="AW93" s="15"/>
-      <c r="AX93" s="15"/>
-      <c r="AY93" s="15"/>
-      <c r="AZ93" s="15"/>
-      <c r="BA93" s="15"/>
-      <c r="BB93" s="15"/>
-      <c r="BC93" s="15"/>
-      <c r="BD93" s="15"/>
-      <c r="BE93" s="15"/>
-      <c r="BF93" s="15"/>
-      <c r="BG93" s="15"/>
-      <c r="BH93" s="15"/>
-      <c r="BI93" s="15"/>
-      <c r="BJ93" s="15"/>
-      <c r="BK93" s="15"/>
-      <c r="BL93" s="15"/>
-      <c r="BM93" s="15"/>
-      <c r="BN93" s="15"/>
-      <c r="BO93" s="15"/>
-      <c r="BP93" s="15"/>
-      <c r="BQ93" s="15"/>
-      <c r="BR93" s="15"/>
-      <c r="BS93" s="15"/>
-      <c r="BT93" s="15"/>
-      <c r="BU93" s="15"/>
-      <c r="BV93" s="15"/>
-      <c r="BW93" s="15"/>
-      <c r="BX93" s="15"/>
-      <c r="BY93" s="15"/>
-      <c r="BZ93" s="15"/>
-      <c r="CA93" s="15"/>
-      <c r="CB93" s="15"/>
-      <c r="CC93" s="15"/>
-      <c r="CD93" s="15"/>
-      <c r="CE93" s="15"/>
-      <c r="CF93" s="15"/>
-      <c r="CG93" s="15"/>
-      <c r="CH93" s="15"/>
-      <c r="CI93" s="15"/>
-      <c r="CJ93" s="15"/>
-      <c r="CK93" s="15"/>
-      <c r="CL93" s="15"/>
-      <c r="CM93" s="15"/>
-      <c r="CN93" s="15"/>
-      <c r="CO93" s="15"/>
-      <c r="CP93" s="15"/>
-      <c r="CQ93" s="15"/>
-      <c r="CR93" s="15"/>
-      <c r="CS93" s="15"/>
-      <c r="CT93" s="15"/>
-      <c r="CU93" s="15"/>
-      <c r="CV93" s="15"/>
-      <c r="CW93" s="15"/>
-      <c r="CX93" s="15"/>
-      <c r="CY93" s="15"/>
-      <c r="CZ93" s="15"/>
-      <c r="DA93" s="15"/>
-      <c r="DB93" s="15"/>
-      <c r="DC93" s="15"/>
-      <c r="DD93" s="15"/>
-      <c r="DE93" s="15"/>
-      <c r="DF93" s="15"/>
-      <c r="DG93" s="15"/>
-      <c r="DH93" s="15"/>
-      <c r="DI93" s="15"/>
-      <c r="DJ93" s="15"/>
-      <c r="DK93" s="15"/>
-      <c r="DL93" s="15"/>
-      <c r="DM93" s="15"/>
-      <c r="DN93" s="15"/>
-      <c r="DO93" s="15"/>
-      <c r="DP93" s="15"/>
-      <c r="DQ93" s="15"/>
-      <c r="DR93" s="15"/>
-      <c r="DS93" s="15"/>
-      <c r="DT93" s="15"/>
-      <c r="DU93" s="15"/>
-      <c r="DV93" s="15"/>
-      <c r="DW93" s="15"/>
-      <c r="DX93" s="15"/>
-      <c r="DY93" s="15"/>
-      <c r="DZ93" s="15"/>
-      <c r="EA93" s="15"/>
-      <c r="EB93" s="15"/>
-      <c r="EC93" s="15"/>
-      <c r="ED93" s="15"/>
-      <c r="EE93" s="15"/>
-      <c r="EF93" s="15"/>
-      <c r="EG93" s="15"/>
-      <c r="EH93" s="15"/>
-      <c r="EI93" s="15"/>
-      <c r="EJ93" s="15"/>
-      <c r="EK93" s="15"/>
-      <c r="EL93" s="15"/>
-      <c r="EM93" s="15"/>
-      <c r="EN93" s="15"/>
-      <c r="EO93" s="15"/>
-      <c r="EP93" s="15"/>
-      <c r="EQ93" s="15"/>
-      <c r="ER93" s="15"/>
-      <c r="ES93" s="15"/>
-      <c r="ET93" s="15"/>
-      <c r="EU93" s="15"/>
-      <c r="EV93" s="15"/>
-      <c r="EW93" s="15"/>
-      <c r="EX93" s="15"/>
-      <c r="EY93" s="15"/>
-      <c r="EZ93" s="15"/>
-      <c r="FA93" s="15"/>
-      <c r="FB93" s="15"/>
-      <c r="FC93" s="15"/>
-      <c r="FD93" s="15"/>
-      <c r="FE93" s="15"/>
-      <c r="FF93" s="15"/>
-      <c r="FG93" s="15"/>
-      <c r="FH93" s="15"/>
-      <c r="FI93" s="15"/>
-      <c r="FJ93" s="15"/>
-      <c r="FK93" s="15"/>
-      <c r="FL93" s="15"/>
-      <c r="FM93" s="15"/>
-      <c r="FN93" s="15"/>
-      <c r="FO93" s="15"/>
-      <c r="FP93" s="15"/>
-      <c r="FQ93" s="15"/>
-      <c r="FR93" s="15"/>
-      <c r="FS93" s="15"/>
-      <c r="FT93" s="15"/>
-      <c r="FU93" s="15"/>
-      <c r="FV93" s="15"/>
-      <c r="FW93" s="15"/>
-      <c r="FX93" s="15"/>
-      <c r="FY93" s="15"/>
-      <c r="FZ93" s="15"/>
-      <c r="GA93" s="15"/>
-      <c r="GB93" s="15"/>
-      <c r="GC93" s="15"/>
-      <c r="GD93" s="15"/>
-      <c r="GE93" s="15"/>
-      <c r="GF93" s="15"/>
-      <c r="GG93" s="15"/>
-      <c r="GH93" s="15"/>
-      <c r="GI93" s="15"/>
-      <c r="GJ93" s="15"/>
-      <c r="GK93" s="15"/>
-      <c r="GL93" s="15"/>
-      <c r="GM93" s="15"/>
-      <c r="GN93" s="15"/>
-      <c r="GO93" s="15"/>
-      <c r="GP93" s="15"/>
-      <c r="GQ93" s="15"/>
-      <c r="GR93" s="15"/>
-      <c r="GS93" s="15"/>
-      <c r="GT93" s="15"/>
-      <c r="GU93" s="15"/>
-      <c r="GV93" s="15"/>
-      <c r="GW93" s="15"/>
-      <c r="GX93" s="15"/>
-      <c r="GY93" s="15"/>
-      <c r="GZ93" s="15"/>
-      <c r="HA93" s="15"/>
-      <c r="HB93" s="15"/>
-      <c r="HC93" s="15"/>
-      <c r="HD93" s="15"/>
-      <c r="HE93" s="15"/>
-      <c r="HF93" s="15"/>
-      <c r="HG93" s="15"/>
-      <c r="HH93" s="15"/>
-      <c r="HI93" s="15"/>
-      <c r="HJ93" s="15"/>
-      <c r="HK93" s="15"/>
-      <c r="HL93" s="15"/>
-      <c r="HM93" s="15"/>
-      <c r="HN93" s="15"/>
-      <c r="HO93" s="15"/>
-      <c r="HP93" s="15"/>
-      <c r="HQ93" s="15"/>
-      <c r="HR93" s="15"/>
-      <c r="HS93" s="15"/>
-      <c r="HT93" s="15"/>
-      <c r="HU93" s="15"/>
-      <c r="HV93" s="15"/>
-      <c r="HW93" s="15"/>
-      <c r="HX93" s="15"/>
-      <c r="HY93" s="15"/>
-      <c r="HZ93" s="15"/>
-      <c r="IA93" s="15"/>
-      <c r="IB93" s="15"/>
-      <c r="IC93" s="15"/>
-      <c r="ID93" s="15"/>
-      <c r="IE93" s="15"/>
-      <c r="IF93" s="15"/>
-      <c r="IG93" s="15"/>
-      <c r="IH93" s="15"/>
-      <c r="II93" s="15"/>
-      <c r="IJ93" s="15"/>
-      <c r="IK93" s="15"/>
-      <c r="IL93" s="15"/>
-      <c r="IM93" s="15"/>
-      <c r="IN93" s="15"/>
-      <c r="IO93" s="15"/>
-      <c r="IP93" s="15"/>
-      <c r="IQ93" s="15"/>
-      <c r="IR93" s="15"/>
-      <c r="IS93" s="15"/>
-      <c r="IT93" s="15"/>
-      <c r="IU93" s="15"/>
-      <c r="IV93" s="15"/>
-      <c r="IW93" s="15"/>
-      <c r="IX93" s="15"/>
-      <c r="IY93" s="15"/>
-      <c r="IZ93" s="15"/>
-      <c r="JA93" s="15"/>
-      <c r="JB93" s="15"/>
-      <c r="JC93" s="15"/>
-      <c r="JD93" s="15"/>
-      <c r="JE93" s="15"/>
-      <c r="JF93" s="15"/>
-      <c r="JG93" s="15"/>
-      <c r="JH93" s="15"/>
-      <c r="JI93" s="15"/>
-      <c r="JJ93" s="15"/>
-      <c r="JK93" s="15"/>
-      <c r="JL93" s="15"/>
-      <c r="JM93" s="15"/>
-      <c r="JN93" s="15"/>
-      <c r="JO93" s="15"/>
-      <c r="JP93" s="15"/>
-      <c r="JQ93" s="15"/>
-      <c r="JR93" s="15"/>
-      <c r="JS93" s="15"/>
-      <c r="JT93" s="15"/>
-      <c r="JU93" s="15"/>
-      <c r="JV93" s="15"/>
-      <c r="JW93" s="15"/>
-      <c r="JX93" s="15"/>
-      <c r="JY93" s="15"/>
-      <c r="JZ93" s="15"/>
-      <c r="KA93" s="15"/>
-      <c r="KB93" s="15"/>
-      <c r="KC93" s="15"/>
-      <c r="KD93" s="15"/>
-      <c r="KE93" s="15"/>
-      <c r="KF93" s="15"/>
-      <c r="KG93" s="15"/>
-      <c r="KH93" s="15"/>
-      <c r="KI93" s="15"/>
-      <c r="KJ93" s="15"/>
-      <c r="KK93" s="15"/>
-      <c r="KL93" s="15"/>
-      <c r="KM93" s="15"/>
-      <c r="KN93" s="15"/>
-      <c r="KO93" s="15"/>
-      <c r="KP93" s="15"/>
-      <c r="KQ93" s="15"/>
-      <c r="KR93" s="15"/>
-      <c r="KS93" s="15"/>
-      <c r="KT93" s="15"/>
-      <c r="KU93" s="15"/>
-      <c r="KV93" s="15"/>
-      <c r="KW93" s="15"/>
-      <c r="KX93" s="15"/>
-      <c r="KY93" s="15"/>
-      <c r="KZ93" s="15"/>
-      <c r="LA93" s="15"/>
-      <c r="LB93" s="15"/>
-      <c r="LC93" s="15"/>
-      <c r="LD93" s="15"/>
-      <c r="LE93" s="15"/>
-      <c r="LF93" s="15"/>
-      <c r="LG93" s="15"/>
-      <c r="LH93" s="15"/>
-      <c r="LI93" s="15"/>
-      <c r="LJ93" s="15"/>
-      <c r="LK93" s="15"/>
-      <c r="LL93" s="15"/>
-      <c r="LM93" s="15"/>
-      <c r="LN93" s="15"/>
-      <c r="LO93" s="15"/>
-      <c r="LP93" s="15"/>
-      <c r="LQ93" s="15"/>
-      <c r="LR93" s="15"/>
-      <c r="LS93" s="15"/>
-      <c r="LT93" s="15"/>
-      <c r="LU93" s="15"/>
-      <c r="LV93" s="15"/>
-      <c r="LW93" s="15"/>
-      <c r="LX93" s="15"/>
-      <c r="LY93" s="15"/>
-      <c r="LZ93" s="15"/>
-      <c r="MA93" s="15"/>
-      <c r="MB93" s="15"/>
-      <c r="MC93" s="15"/>
-      <c r="MD93" s="15"/>
-      <c r="ME93" s="15"/>
-      <c r="MF93" s="15"/>
-      <c r="MG93" s="15"/>
-      <c r="MH93" s="15"/>
-      <c r="MI93" s="15"/>
-      <c r="MJ93" s="15"/>
-      <c r="MK93" s="15"/>
-      <c r="ML93" s="15"/>
-      <c r="MM93" s="15"/>
-      <c r="MN93" s="15"/>
-      <c r="MO93" s="15"/>
-      <c r="MP93" s="15"/>
-      <c r="MQ93" s="15"/>
-      <c r="MR93" s="15"/>
-      <c r="MS93" s="15"/>
-      <c r="MT93" s="15"/>
-      <c r="MU93" s="15"/>
-      <c r="MV93" s="15"/>
-      <c r="MW93" s="15"/>
-      <c r="MX93" s="15"/>
-      <c r="MY93" s="15"/>
-      <c r="MZ93" s="15"/>
-      <c r="NA93" s="15"/>
-      <c r="NB93" s="15"/>
-      <c r="NC93" s="15"/>
-      <c r="ND93" s="15"/>
-      <c r="NE93" s="15"/>
-      <c r="NF93" s="15"/>
-      <c r="NG93" s="15"/>
-      <c r="NH93" s="15"/>
-      <c r="NI93" s="15"/>
-      <c r="NJ93" s="15"/>
-      <c r="NK93" s="15"/>
-      <c r="NL93" s="15"/>
-      <c r="NM93" s="15"/>
-      <c r="NN93" s="15"/>
-      <c r="NO93" s="15"/>
-      <c r="NP93" s="15"/>
-      <c r="NQ93" s="15"/>
-      <c r="NR93" s="15"/>
-      <c r="NS93" s="15"/>
-      <c r="NT93" s="15"/>
-      <c r="NU93" s="15"/>
-      <c r="NV93" s="15"/>
-      <c r="NW93" s="15"/>
-      <c r="NX93" s="15"/>
-      <c r="NY93" s="15"/>
-      <c r="NZ93" s="15"/>
-      <c r="OA93" s="15"/>
-      <c r="OB93" s="15"/>
-      <c r="OC93" s="15"/>
-      <c r="OD93" s="15"/>
-      <c r="OE93" s="15"/>
-      <c r="OF93" s="15"/>
-      <c r="OG93" s="15"/>
-      <c r="OH93" s="15"/>
-      <c r="OI93" s="15"/>
-      <c r="OJ93" s="15"/>
-      <c r="OK93" s="15"/>
-      <c r="OL93" s="15"/>
-      <c r="OM93" s="15"/>
-      <c r="ON93" s="15"/>
-      <c r="OO93" s="15"/>
-      <c r="OP93" s="15"/>
-      <c r="OQ93" s="15"/>
-      <c r="OR93" s="15"/>
-      <c r="OS93" s="15"/>
-      <c r="OT93" s="15"/>
-      <c r="OU93" s="15"/>
-      <c r="OV93" s="15"/>
-      <c r="OW93" s="15"/>
-      <c r="OX93" s="15"/>
-      <c r="OY93" s="15"/>
-      <c r="OZ93" s="15"/>
-      <c r="PA93" s="15"/>
-      <c r="PB93" s="15"/>
-      <c r="PC93" s="15"/>
-      <c r="PD93" s="15"/>
-      <c r="PE93" s="15"/>
-      <c r="PF93" s="15"/>
-      <c r="PG93" s="15"/>
-      <c r="PH93" s="15"/>
-      <c r="PI93" s="15"/>
-      <c r="PJ93" s="15"/>
-      <c r="PK93" s="15"/>
-      <c r="PL93" s="15"/>
-      <c r="PM93" s="15"/>
-      <c r="PN93" s="15"/>
-      <c r="PO93" s="15"/>
-      <c r="PP93" s="15"/>
-      <c r="PQ93" s="15"/>
-      <c r="PR93" s="15"/>
-      <c r="PS93" s="15"/>
-      <c r="PT93" s="15"/>
-      <c r="PU93" s="15"/>
-      <c r="PV93" s="15"/>
-      <c r="PW93" s="15"/>
-      <c r="PX93" s="15"/>
-      <c r="PY93" s="15"/>
-      <c r="PZ93" s="15"/>
-      <c r="QA93" s="15"/>
-      <c r="QB93" s="15"/>
-      <c r="QC93" s="15"/>
-      <c r="QD93" s="15"/>
-      <c r="QE93" s="15"/>
-      <c r="QF93" s="15"/>
-      <c r="QG93" s="15"/>
-      <c r="QH93" s="15"/>
-      <c r="QI93" s="15"/>
-      <c r="QJ93" s="15"/>
-      <c r="QK93" s="15"/>
-      <c r="QL93" s="15"/>
-      <c r="QM93" s="15"/>
-      <c r="QN93" s="15"/>
-      <c r="QO93" s="15"/>
-      <c r="QP93" s="15"/>
-      <c r="QQ93" s="15"/>
-      <c r="QR93" s="15"/>
-      <c r="QS93" s="15"/>
-      <c r="QT93" s="15"/>
-      <c r="QU93" s="15"/>
-      <c r="QV93" s="15"/>
-      <c r="QW93" s="15"/>
-      <c r="QX93" s="15"/>
-      <c r="QY93" s="15"/>
-      <c r="QZ93" s="15"/>
-      <c r="RA93" s="15"/>
-      <c r="RB93" s="15"/>
-      <c r="RC93" s="15"/>
-      <c r="RD93" s="15"/>
-      <c r="RE93" s="15"/>
-      <c r="RF93" s="15"/>
-      <c r="RG93" s="15"/>
-      <c r="RH93" s="15"/>
-      <c r="RI93" s="15"/>
-      <c r="RJ93" s="15"/>
-      <c r="RK93" s="15"/>
-      <c r="RL93" s="15"/>
-      <c r="RM93" s="15"/>
-      <c r="RN93" s="15"/>
-      <c r="RO93" s="15"/>
-      <c r="RP93" s="15"/>
-      <c r="RQ93" s="15"/>
-      <c r="RR93" s="15"/>
-      <c r="RS93" s="15"/>
-      <c r="RT93" s="15"/>
-      <c r="RU93" s="15"/>
-      <c r="RV93" s="15"/>
-      <c r="RW93" s="15"/>
-      <c r="RX93" s="15"/>
-      <c r="RY93" s="15"/>
-      <c r="RZ93" s="15"/>
-      <c r="SA93" s="15"/>
-      <c r="SB93" s="15"/>
-      <c r="SC93" s="15"/>
-      <c r="SD93" s="15"/>
-      <c r="SE93" s="15"/>
-      <c r="SF93" s="15"/>
-      <c r="SG93" s="15"/>
-      <c r="SH93" s="15"/>
-      <c r="SI93" s="15"/>
-      <c r="SJ93" s="15"/>
-      <c r="SK93" s="15"/>
-      <c r="SL93" s="15"/>
-      <c r="SM93" s="15"/>
-      <c r="SN93" s="15"/>
-      <c r="SO93" s="15"/>
-      <c r="SP93" s="15"/>
-      <c r="SQ93" s="15"/>
-      <c r="SR93" s="15"/>
-      <c r="SS93" s="15"/>
-      <c r="ST93" s="15"/>
-      <c r="SU93" s="15"/>
-      <c r="SV93" s="15"/>
-      <c r="SW93" s="15"/>
-      <c r="SX93" s="15"/>
-      <c r="SY93" s="15"/>
-      <c r="SZ93" s="15"/>
-      <c r="TA93" s="15"/>
-      <c r="TB93" s="15"/>
-      <c r="TC93" s="15"/>
-      <c r="TD93" s="15"/>
-      <c r="TE93" s="15"/>
-      <c r="TF93" s="15"/>
-      <c r="TG93" s="15"/>
-      <c r="TH93" s="15"/>
-      <c r="TI93" s="15"/>
-      <c r="TJ93" s="15"/>
-      <c r="TK93" s="15"/>
-      <c r="TL93" s="15"/>
-      <c r="TM93" s="15"/>
-      <c r="TN93" s="15"/>
-      <c r="TO93" s="15"/>
-      <c r="TP93" s="15"/>
-      <c r="TQ93" s="15"/>
-      <c r="TR93" s="15"/>
-      <c r="TS93" s="15"/>
-      <c r="TT93" s="15"/>
-      <c r="TU93" s="15"/>
-      <c r="TV93" s="15"/>
-      <c r="TW93" s="15"/>
-      <c r="TX93" s="15"/>
-      <c r="TY93" s="15"/>
-      <c r="TZ93" s="15"/>
-      <c r="UA93" s="15"/>
-      <c r="UB93" s="15"/>
-      <c r="UC93" s="15"/>
-      <c r="UD93" s="15"/>
-      <c r="UE93" s="15"/>
-      <c r="UF93" s="15"/>
-      <c r="UG93" s="15"/>
-      <c r="UH93" s="15"/>
-      <c r="UI93" s="15"/>
-      <c r="UJ93" s="15"/>
-      <c r="UK93" s="15"/>
-      <c r="UL93" s="15"/>
-      <c r="UM93" s="15"/>
-      <c r="UN93" s="15"/>
-      <c r="UO93" s="15"/>
-      <c r="UP93" s="15"/>
-      <c r="UQ93" s="15"/>
-      <c r="UR93" s="15"/>
-      <c r="US93" s="15"/>
-      <c r="UT93" s="15"/>
-      <c r="UU93" s="15"/>
-      <c r="UV93" s="15"/>
-      <c r="UW93" s="15"/>
-      <c r="UX93" s="15"/>
-      <c r="UY93" s="15"/>
-      <c r="UZ93" s="15"/>
-      <c r="VA93" s="15"/>
-      <c r="VB93" s="15"/>
-      <c r="VC93" s="15"/>
-      <c r="VD93" s="15"/>
-      <c r="VE93" s="15"/>
-      <c r="VF93" s="15"/>
-      <c r="VG93" s="15"/>
-      <c r="VH93" s="15"/>
-      <c r="VI93" s="15"/>
-      <c r="VJ93" s="15"/>
-      <c r="VK93" s="15"/>
-      <c r="VL93" s="15"/>
-      <c r="VM93" s="15"/>
-      <c r="VN93" s="15"/>
-      <c r="VO93" s="15"/>
-      <c r="VP93" s="15"/>
-      <c r="VQ93" s="15"/>
-      <c r="VR93" s="15"/>
-      <c r="VS93" s="15"/>
-      <c r="VT93" s="15"/>
-      <c r="VU93" s="15"/>
-      <c r="VV93" s="15"/>
-      <c r="VW93" s="15"/>
-      <c r="VX93" s="15"/>
-      <c r="VY93" s="15"/>
-      <c r="VZ93" s="15"/>
-      <c r="WA93" s="15"/>
-      <c r="WB93" s="15"/>
-      <c r="WC93" s="15"/>
-      <c r="WD93" s="15"/>
-      <c r="WE93" s="15"/>
-      <c r="WF93" s="15"/>
-      <c r="WG93" s="15"/>
-      <c r="WH93" s="15"/>
-      <c r="WI93" s="15"/>
-      <c r="WJ93" s="15"/>
-      <c r="WK93" s="15"/>
-      <c r="WL93" s="15"/>
-      <c r="WM93" s="15"/>
-      <c r="WN93" s="15"/>
-      <c r="WO93" s="15"/>
-      <c r="WP93" s="15"/>
-      <c r="WQ93" s="15"/>
-      <c r="WR93" s="15"/>
-      <c r="WS93" s="15"/>
-      <c r="WT93" s="15"/>
-      <c r="WU93" s="15"/>
-      <c r="WV93" s="15"/>
-      <c r="WW93" s="15"/>
-      <c r="WX93" s="15"/>
-      <c r="WY93" s="15"/>
-      <c r="WZ93" s="15"/>
-      <c r="XA93" s="15"/>
-      <c r="XB93" s="15"/>
-      <c r="XC93" s="15"/>
-      <c r="XD93" s="15"/>
-      <c r="XE93" s="15"/>
-      <c r="XF93" s="15"/>
-      <c r="XG93" s="15"/>
-      <c r="XH93" s="15"/>
-      <c r="XI93" s="15"/>
-      <c r="XJ93" s="15"/>
-      <c r="XK93" s="15"/>
-      <c r="XL93" s="15"/>
-      <c r="XM93" s="15"/>
-      <c r="XN93" s="15"/>
-      <c r="XO93" s="15"/>
-      <c r="XP93" s="15"/>
-      <c r="XQ93" s="15"/>
-      <c r="XR93" s="15"/>
-      <c r="XS93" s="15"/>
-      <c r="XT93" s="15"/>
-      <c r="XU93" s="15"/>
-      <c r="XV93" s="15"/>
-      <c r="XW93" s="15"/>
-      <c r="XX93" s="15"/>
-      <c r="XY93" s="15"/>
-      <c r="XZ93" s="15"/>
-      <c r="YA93" s="15"/>
-      <c r="YB93" s="15"/>
-      <c r="YC93" s="15"/>
-      <c r="YD93" s="15"/>
-      <c r="YE93" s="15"/>
-      <c r="YF93" s="15"/>
-      <c r="YG93" s="15"/>
-      <c r="YH93" s="15"/>
-      <c r="YI93" s="15"/>
-      <c r="YJ93" s="15"/>
-      <c r="YK93" s="15"/>
-      <c r="YL93" s="15"/>
-      <c r="YM93" s="15"/>
-      <c r="YN93" s="15"/>
-      <c r="YO93" s="15"/>
-      <c r="YP93" s="15"/>
-      <c r="YQ93" s="15"/>
-      <c r="YR93" s="15"/>
-      <c r="YS93" s="15"/>
-      <c r="YT93" s="15"/>
-      <c r="YU93" s="15"/>
-      <c r="YV93" s="15"/>
-      <c r="YW93" s="15"/>
-      <c r="YX93" s="15"/>
-      <c r="YY93" s="15"/>
-      <c r="YZ93" s="15"/>
-      <c r="ZA93" s="15"/>
-      <c r="ZB93" s="15"/>
-      <c r="ZC93" s="15"/>
-      <c r="ZD93" s="15"/>
-      <c r="ZE93" s="15"/>
-      <c r="ZF93" s="15"/>
-      <c r="ZG93" s="15"/>
-      <c r="ZH93" s="15"/>
-      <c r="ZI93" s="15"/>
-      <c r="ZJ93" s="15"/>
-      <c r="ZK93" s="15"/>
-      <c r="ZL93" s="15"/>
-      <c r="ZM93" s="15"/>
-      <c r="ZN93" s="15"/>
-      <c r="ZO93" s="15"/>
-      <c r="ZP93" s="15"/>
-      <c r="ZQ93" s="15"/>
-      <c r="ZR93" s="15"/>
-      <c r="ZS93" s="15"/>
-      <c r="ZT93" s="15"/>
-      <c r="ZU93" s="15"/>
-      <c r="ZV93" s="15"/>
-      <c r="ZW93" s="15"/>
-      <c r="ZX93" s="15"/>
-      <c r="ZY93" s="15"/>
-      <c r="ZZ93" s="15"/>
-      <c r="AAA93" s="15"/>
-      <c r="AAB93" s="15"/>
-      <c r="AAC93" s="15"/>
-      <c r="AAD93" s="15"/>
-      <c r="AAE93" s="15"/>
-      <c r="AAF93" s="15"/>
-      <c r="AAG93" s="15"/>
-      <c r="AAH93" s="15"/>
-      <c r="AAI93" s="15"/>
-      <c r="AAJ93" s="15"/>
-      <c r="AAK93" s="15"/>
-      <c r="AAL93" s="15"/>
-      <c r="AAM93" s="15"/>
-      <c r="AAN93" s="15"/>
-      <c r="AAO93" s="15"/>
-      <c r="AAP93" s="15"/>
-      <c r="AAQ93" s="15"/>
-      <c r="AAR93" s="15"/>
-      <c r="AAS93" s="15"/>
-      <c r="AAT93" s="15"/>
-      <c r="AAU93" s="15"/>
-      <c r="AAV93" s="15"/>
-      <c r="AAW93" s="15"/>
-      <c r="AAX93" s="15"/>
-      <c r="AAY93" s="15"/>
-      <c r="AAZ93" s="15"/>
-      <c r="ABA93" s="15"/>
-      <c r="ABB93" s="15"/>
-      <c r="ABC93" s="15"/>
-      <c r="ABD93" s="15"/>
-      <c r="ABE93" s="15"/>
-      <c r="ABF93" s="15"/>
-      <c r="ABG93" s="15"/>
-      <c r="ABH93" s="15"/>
-      <c r="ABI93" s="15"/>
-      <c r="ABJ93" s="15"/>
-      <c r="ABK93" s="15"/>
-      <c r="ABL93" s="15"/>
-      <c r="ABM93" s="15"/>
-      <c r="ABN93" s="15"/>
-      <c r="ABO93" s="15"/>
-      <c r="ABP93" s="15"/>
-      <c r="ABQ93" s="15"/>
-      <c r="ABR93" s="15"/>
-      <c r="ABS93" s="15"/>
-      <c r="ABT93" s="15"/>
-      <c r="ABU93" s="15"/>
-      <c r="ABV93" s="15"/>
-      <c r="ABW93" s="15"/>
-      <c r="ABX93" s="15"/>
-      <c r="ABY93" s="15"/>
-      <c r="ABZ93" s="15"/>
-      <c r="ACA93" s="15"/>
-      <c r="ACB93" s="15"/>
-      <c r="ACC93" s="15"/>
-      <c r="ACD93" s="15"/>
-      <c r="ACE93" s="15"/>
-      <c r="ACF93" s="15"/>
-      <c r="ACG93" s="15"/>
-      <c r="ACH93" s="15"/>
-      <c r="ACI93" s="15"/>
-      <c r="ACJ93" s="15"/>
-      <c r="ACK93" s="15"/>
-      <c r="ACL93" s="15"/>
-      <c r="ACM93" s="15"/>
-      <c r="ACN93" s="15"/>
-      <c r="ACO93" s="15"/>
-      <c r="ACP93" s="15"/>
-      <c r="ACQ93" s="15"/>
-      <c r="ACR93" s="15"/>
-      <c r="ACS93" s="15"/>
-      <c r="ACT93" s="15"/>
-      <c r="ACU93" s="15"/>
-      <c r="ACV93" s="15"/>
-      <c r="ACW93" s="15"/>
-      <c r="ACX93" s="15"/>
-      <c r="ACY93" s="15"/>
-      <c r="ACZ93" s="15"/>
-      <c r="ADA93" s="15"/>
-      <c r="ADB93" s="15"/>
-      <c r="ADC93" s="15"/>
-      <c r="ADD93" s="15"/>
-      <c r="ADE93" s="15"/>
-      <c r="ADF93" s="15"/>
-      <c r="ADG93" s="15"/>
-      <c r="ADH93" s="15"/>
-      <c r="ADI93" s="15"/>
-      <c r="ADJ93" s="15"/>
-      <c r="ADK93" s="15"/>
-      <c r="ADL93" s="15"/>
-      <c r="ADM93" s="15"/>
-      <c r="ADN93" s="15"/>
-      <c r="ADO93" s="15"/>
-      <c r="ADP93" s="15"/>
-      <c r="ADQ93" s="15"/>
-      <c r="ADR93" s="15"/>
-      <c r="ADS93" s="15"/>
-      <c r="ADT93" s="15"/>
-      <c r="ADU93" s="15"/>
-      <c r="ADV93" s="15"/>
-      <c r="ADW93" s="15"/>
-      <c r="ADX93" s="15"/>
-      <c r="ADY93" s="15"/>
-      <c r="ADZ93" s="15"/>
-      <c r="AEA93" s="15"/>
-      <c r="AEB93" s="15"/>
-      <c r="AEC93" s="15"/>
-      <c r="AED93" s="15"/>
-      <c r="AEE93" s="15"/>
-      <c r="AEF93" s="15"/>
-      <c r="AEG93" s="15"/>
-      <c r="AEH93" s="15"/>
-      <c r="AEI93" s="15"/>
-      <c r="AEJ93" s="15"/>
-      <c r="AEK93" s="15"/>
-      <c r="AEL93" s="15"/>
-      <c r="AEM93" s="15"/>
-      <c r="AEN93" s="15"/>
-      <c r="AEO93" s="15"/>
-      <c r="AEP93" s="15"/>
-      <c r="AEQ93" s="15"/>
-      <c r="AER93" s="15"/>
-      <c r="AES93" s="15"/>
-      <c r="AET93" s="15"/>
-      <c r="AEU93" s="15"/>
-      <c r="AEV93" s="15"/>
-      <c r="AEW93" s="15"/>
-      <c r="AEX93" s="15"/>
-      <c r="AEY93" s="15"/>
-      <c r="AEZ93" s="15"/>
-      <c r="AFA93" s="15"/>
-      <c r="AFB93" s="15"/>
-      <c r="AFC93" s="15"/>
-      <c r="AFD93" s="15"/>
-      <c r="AFE93" s="15"/>
-      <c r="AFF93" s="15"/>
-      <c r="AFG93" s="15"/>
-      <c r="AFH93" s="15"/>
-      <c r="AFI93" s="15"/>
-      <c r="AFJ93" s="15"/>
-      <c r="AFK93" s="15"/>
-      <c r="AFL93" s="15"/>
-      <c r="AFM93" s="15"/>
-      <c r="AFN93" s="15"/>
-      <c r="AFO93" s="15"/>
-      <c r="AFP93" s="15"/>
-      <c r="AFQ93" s="15"/>
-      <c r="AFR93" s="15"/>
-      <c r="AFS93" s="15"/>
-      <c r="AFT93" s="15"/>
-      <c r="AFU93" s="15"/>
-      <c r="AFV93" s="15"/>
-      <c r="AFW93" s="15"/>
-      <c r="AFX93" s="15"/>
-      <c r="AFY93" s="15"/>
-      <c r="AFZ93" s="15"/>
-      <c r="AGA93" s="15"/>
-      <c r="AGB93" s="15"/>
-      <c r="AGC93" s="15"/>
-      <c r="AGD93" s="15"/>
-      <c r="AGE93" s="15"/>
-      <c r="AGF93" s="15"/>
-      <c r="AGG93" s="15"/>
-      <c r="AGH93" s="15"/>
-      <c r="AGI93" s="15"/>
-      <c r="AGJ93" s="15"/>
-      <c r="AGK93" s="15"/>
-      <c r="AGL93" s="15"/>
-      <c r="AGM93" s="15"/>
-      <c r="AGN93" s="15"/>
-      <c r="AGO93" s="15"/>
-      <c r="AGP93" s="15"/>
-      <c r="AGQ93" s="15"/>
-      <c r="AGR93" s="15"/>
-      <c r="AGS93" s="15"/>
-      <c r="AGT93" s="15"/>
-      <c r="AGU93" s="15"/>
-      <c r="AGV93" s="15"/>
-      <c r="AGW93" s="15"/>
-      <c r="AGX93" s="15"/>
-      <c r="AGY93" s="15"/>
-      <c r="AGZ93" s="15"/>
-      <c r="AHA93" s="15"/>
-      <c r="AHB93" s="15"/>
-      <c r="AHC93" s="15"/>
-      <c r="AHD93" s="15"/>
-      <c r="AHE93" s="15"/>
-      <c r="AHF93" s="15"/>
-      <c r="AHG93" s="15"/>
-      <c r="AHH93" s="15"/>
-      <c r="AHI93" s="15"/>
-      <c r="AHJ93" s="15"/>
-      <c r="AHK93" s="15"/>
-      <c r="AHL93" s="15"/>
-      <c r="AHM93" s="15"/>
-      <c r="AHN93" s="15"/>
-      <c r="AHO93" s="15"/>
-      <c r="AHP93" s="15"/>
-      <c r="AHQ93" s="15"/>
-      <c r="AHR93" s="15"/>
-      <c r="AHS93" s="15"/>
-      <c r="AHT93" s="15"/>
-      <c r="AHU93" s="15"/>
-      <c r="AHV93" s="15"/>
-      <c r="AHW93" s="15"/>
-      <c r="AHX93" s="15"/>
-      <c r="AHY93" s="15"/>
-      <c r="AHZ93" s="15"/>
-      <c r="AIA93" s="15"/>
-      <c r="AIB93" s="15"/>
-      <c r="AIC93" s="15"/>
-      <c r="AID93" s="15"/>
-      <c r="AIE93" s="15"/>
-      <c r="AIF93" s="15"/>
-      <c r="AIG93" s="15"/>
-      <c r="AIH93" s="15"/>
-      <c r="AII93" s="15"/>
-      <c r="AIJ93" s="15"/>
-      <c r="AIK93" s="15"/>
-      <c r="AIL93" s="15"/>
-      <c r="AIM93" s="15"/>
-      <c r="AIN93" s="15"/>
-      <c r="AIO93" s="15"/>
-      <c r="AIP93" s="15"/>
-      <c r="AIQ93" s="15"/>
-      <c r="AIR93" s="15"/>
-      <c r="AIS93" s="15"/>
-      <c r="AIT93" s="15"/>
-      <c r="AIU93" s="15"/>
-      <c r="AIV93" s="15"/>
-      <c r="AIW93" s="15"/>
-      <c r="AIX93" s="15"/>
-      <c r="AIY93" s="15"/>
-      <c r="AIZ93" s="15"/>
-      <c r="AJA93" s="15"/>
-      <c r="AJB93" s="15"/>
-      <c r="AJC93" s="15"/>
-      <c r="AJD93" s="15"/>
-      <c r="AJE93" s="15"/>
-      <c r="AJF93" s="15"/>
-      <c r="AJG93" s="15"/>
-      <c r="AJH93" s="15"/>
-      <c r="AJI93" s="15"/>
-      <c r="AJJ93" s="15"/>
-      <c r="AJK93" s="15"/>
-      <c r="AJL93" s="15"/>
-      <c r="AJM93" s="15"/>
-      <c r="AJN93" s="15"/>
-      <c r="AJO93" s="15"/>
-      <c r="AJP93" s="15"/>
-      <c r="AJQ93" s="15"/>
-      <c r="AJR93" s="15"/>
-      <c r="AJS93" s="15"/>
-      <c r="AJT93" s="15"/>
-      <c r="AJU93" s="15"/>
-      <c r="AJV93" s="15"/>
-      <c r="AJW93" s="15"/>
-      <c r="AJX93" s="15"/>
-      <c r="AJY93" s="15"/>
-      <c r="AJZ93" s="15"/>
-      <c r="AKA93" s="15"/>
-      <c r="AKB93" s="15"/>
-      <c r="AKC93" s="15"/>
-      <c r="AKD93" s="15"/>
-      <c r="AKE93" s="15"/>
-      <c r="AKF93" s="15"/>
-      <c r="AKG93" s="15"/>
-      <c r="AKH93" s="15"/>
-      <c r="AKI93" s="15"/>
-      <c r="AKJ93" s="15"/>
-      <c r="AKK93" s="15"/>
-      <c r="AKL93" s="15"/>
-      <c r="AKM93" s="15"/>
-      <c r="AKN93" s="15"/>
-      <c r="AKO93" s="15"/>
-      <c r="AKP93" s="15"/>
-      <c r="AKQ93" s="15"/>
-      <c r="AKR93" s="15"/>
-      <c r="AKS93" s="15"/>
-      <c r="AKT93" s="15"/>
-      <c r="AKU93" s="15"/>
-      <c r="AKV93" s="15"/>
-      <c r="AKW93" s="15"/>
-      <c r="AKX93" s="15"/>
-      <c r="AKY93" s="15"/>
-      <c r="AKZ93" s="15"/>
-      <c r="ALA93" s="15"/>
-      <c r="ALB93" s="15"/>
-      <c r="ALC93" s="15"/>
-      <c r="ALD93" s="15"/>
-      <c r="ALE93" s="15"/>
-      <c r="ALF93" s="15"/>
-      <c r="ALG93" s="15"/>
-      <c r="ALH93" s="15"/>
-      <c r="ALI93" s="15"/>
-      <c r="ALJ93" s="15"/>
-      <c r="ALK93" s="15"/>
-      <c r="ALL93" s="15"/>
-      <c r="ALM93" s="15"/>
-      <c r="ALN93" s="15"/>
-      <c r="ALO93" s="15"/>
-      <c r="ALP93" s="15"/>
-      <c r="ALQ93" s="15"/>
-      <c r="ALR93" s="15"/>
-      <c r="ALS93" s="15"/>
-      <c r="ALT93" s="15"/>
-      <c r="ALU93" s="15"/>
-      <c r="ALV93" s="15"/>
-      <c r="ALW93" s="15"/>
-      <c r="ALX93" s="15"/>
-      <c r="ALY93" s="15"/>
-      <c r="ALZ93" s="15"/>
-      <c r="AMA93" s="15"/>
-      <c r="AMB93" s="15"/>
-      <c r="AMC93" s="15"/>
-      <c r="AMD93" s="15"/>
-      <c r="AME93" s="15"/>
-      <c r="AMF93" s="15"/>
-      <c r="AMG93" s="15"/>
-      <c r="AMH93" s="15"/>
-      <c r="AMI93" s="15"/>
-      <c r="AMJ93" s="15"/>
-      <c r="AMK93" s="15"/>
-      <c r="AML93" s="15"/>
-      <c r="AMM93" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="15"/>
+      <c r="AN94" s="15"/>
+      <c r="AO94" s="15"/>
+      <c r="AP94" s="15"/>
+      <c r="AQ94" s="15"/>
+      <c r="AR94" s="15"/>
+      <c r="AS94" s="15"/>
+      <c r="AT94" s="15"/>
+      <c r="AU94" s="15"/>
+      <c r="AV94" s="15"/>
+      <c r="AW94" s="15"/>
+      <c r="AX94" s="15"/>
+      <c r="AY94" s="15"/>
+      <c r="AZ94" s="15"/>
+      <c r="BA94" s="15"/>
+      <c r="BB94" s="15"/>
+      <c r="BC94" s="15"/>
+      <c r="BD94" s="15"/>
+      <c r="BE94" s="15"/>
+      <c r="BF94" s="15"/>
+      <c r="BG94" s="15"/>
+      <c r="BH94" s="15"/>
+      <c r="BI94" s="15"/>
+      <c r="BJ94" s="15"/>
+      <c r="BK94" s="15"/>
+      <c r="BL94" s="15"/>
+      <c r="BM94" s="15"/>
+      <c r="BN94" s="15"/>
+      <c r="BO94" s="15"/>
+      <c r="BP94" s="15"/>
+      <c r="BQ94" s="15"/>
+      <c r="BR94" s="15"/>
+      <c r="BS94" s="15"/>
+      <c r="BT94" s="15"/>
+      <c r="BU94" s="15"/>
+      <c r="BV94" s="15"/>
+      <c r="BW94" s="15"/>
+      <c r="BX94" s="15"/>
+      <c r="BY94" s="15"/>
+      <c r="BZ94" s="15"/>
+      <c r="CA94" s="15"/>
+      <c r="CB94" s="15"/>
+      <c r="CC94" s="15"/>
+      <c r="CD94" s="15"/>
+      <c r="CE94" s="15"/>
+      <c r="CF94" s="15"/>
+      <c r="CG94" s="15"/>
+      <c r="CH94" s="15"/>
+      <c r="CI94" s="15"/>
+      <c r="CJ94" s="15"/>
+      <c r="CK94" s="15"/>
+      <c r="CL94" s="15"/>
+      <c r="CM94" s="15"/>
+      <c r="CN94" s="15"/>
+      <c r="CO94" s="15"/>
+      <c r="CP94" s="15"/>
+      <c r="CQ94" s="15"/>
+      <c r="CR94" s="15"/>
+      <c r="CS94" s="15"/>
+      <c r="CT94" s="15"/>
+      <c r="CU94" s="15"/>
+      <c r="CV94" s="15"/>
+      <c r="CW94" s="15"/>
+      <c r="CX94" s="15"/>
+      <c r="CY94" s="15"/>
+      <c r="CZ94" s="15"/>
+      <c r="DA94" s="15"/>
+      <c r="DB94" s="15"/>
+      <c r="DC94" s="15"/>
+      <c r="DD94" s="15"/>
+      <c r="DE94" s="15"/>
+      <c r="DF94" s="15"/>
+      <c r="DG94" s="15"/>
+      <c r="DH94" s="15"/>
+      <c r="DI94" s="15"/>
+      <c r="DJ94" s="15"/>
+      <c r="DK94" s="15"/>
+      <c r="DL94" s="15"/>
+      <c r="DM94" s="15"/>
+      <c r="DN94" s="15"/>
+      <c r="DO94" s="15"/>
+      <c r="DP94" s="15"/>
+      <c r="DQ94" s="15"/>
+      <c r="DR94" s="15"/>
+      <c r="DS94" s="15"/>
+      <c r="DT94" s="15"/>
+      <c r="DU94" s="15"/>
+      <c r="DV94" s="15"/>
+      <c r="DW94" s="15"/>
+      <c r="DX94" s="15"/>
+      <c r="DY94" s="15"/>
+      <c r="DZ94" s="15"/>
+      <c r="EA94" s="15"/>
+      <c r="EB94" s="15"/>
+      <c r="EC94" s="15"/>
+      <c r="ED94" s="15"/>
+      <c r="EE94" s="15"/>
+      <c r="EF94" s="15"/>
+      <c r="EG94" s="15"/>
+      <c r="EH94" s="15"/>
+      <c r="EI94" s="15"/>
+      <c r="EJ94" s="15"/>
+      <c r="EK94" s="15"/>
+      <c r="EL94" s="15"/>
+      <c r="EM94" s="15"/>
+      <c r="EN94" s="15"/>
+      <c r="EO94" s="15"/>
+      <c r="EP94" s="15"/>
+      <c r="EQ94" s="15"/>
+      <c r="ER94" s="15"/>
+      <c r="ES94" s="15"/>
+      <c r="ET94" s="15"/>
+      <c r="EU94" s="15"/>
+      <c r="EV94" s="15"/>
+      <c r="EW94" s="15"/>
+      <c r="EX94" s="15"/>
+      <c r="EY94" s="15"/>
+      <c r="EZ94" s="15"/>
+      <c r="FA94" s="15"/>
+      <c r="FB94" s="15"/>
+      <c r="FC94" s="15"/>
+      <c r="FD94" s="15"/>
+      <c r="FE94" s="15"/>
+      <c r="FF94" s="15"/>
+      <c r="FG94" s="15"/>
+      <c r="FH94" s="15"/>
+      <c r="FI94" s="15"/>
+      <c r="FJ94" s="15"/>
+      <c r="FK94" s="15"/>
+      <c r="FL94" s="15"/>
+      <c r="FM94" s="15"/>
+      <c r="FN94" s="15"/>
+      <c r="FO94" s="15"/>
+      <c r="FP94" s="15"/>
+      <c r="FQ94" s="15"/>
+      <c r="FR94" s="15"/>
+      <c r="FS94" s="15"/>
+      <c r="FT94" s="15"/>
+      <c r="FU94" s="15"/>
+      <c r="FV94" s="15"/>
+      <c r="FW94" s="15"/>
+      <c r="FX94" s="15"/>
+      <c r="FY94" s="15"/>
+      <c r="FZ94" s="15"/>
+      <c r="GA94" s="15"/>
+      <c r="GB94" s="15"/>
+      <c r="GC94" s="15"/>
+      <c r="GD94" s="15"/>
+      <c r="GE94" s="15"/>
+      <c r="GF94" s="15"/>
+      <c r="GG94" s="15"/>
+      <c r="GH94" s="15"/>
+      <c r="GI94" s="15"/>
+      <c r="GJ94" s="15"/>
+      <c r="GK94" s="15"/>
+      <c r="GL94" s="15"/>
+      <c r="GM94" s="15"/>
+      <c r="GN94" s="15"/>
+      <c r="GO94" s="15"/>
+      <c r="GP94" s="15"/>
+      <c r="GQ94" s="15"/>
+      <c r="GR94" s="15"/>
+      <c r="GS94" s="15"/>
+      <c r="GT94" s="15"/>
+      <c r="GU94" s="15"/>
+      <c r="GV94" s="15"/>
+      <c r="GW94" s="15"/>
+      <c r="GX94" s="15"/>
+      <c r="GY94" s="15"/>
+      <c r="GZ94" s="15"/>
+      <c r="HA94" s="15"/>
+      <c r="HB94" s="15"/>
+      <c r="HC94" s="15"/>
+      <c r="HD94" s="15"/>
+      <c r="HE94" s="15"/>
+      <c r="HF94" s="15"/>
+      <c r="HG94" s="15"/>
+      <c r="HH94" s="15"/>
+      <c r="HI94" s="15"/>
+      <c r="HJ94" s="15"/>
+      <c r="HK94" s="15"/>
+      <c r="HL94" s="15"/>
+      <c r="HM94" s="15"/>
+      <c r="HN94" s="15"/>
+      <c r="HO94" s="15"/>
+      <c r="HP94" s="15"/>
+      <c r="HQ94" s="15"/>
+      <c r="HR94" s="15"/>
+      <c r="HS94" s="15"/>
+      <c r="HT94" s="15"/>
+      <c r="HU94" s="15"/>
+      <c r="HV94" s="15"/>
+      <c r="HW94" s="15"/>
+      <c r="HX94" s="15"/>
+      <c r="HY94" s="15"/>
+      <c r="HZ94" s="15"/>
+      <c r="IA94" s="15"/>
+      <c r="IB94" s="15"/>
+      <c r="IC94" s="15"/>
+      <c r="ID94" s="15"/>
+      <c r="IE94" s="15"/>
+      <c r="IF94" s="15"/>
+      <c r="IG94" s="15"/>
+      <c r="IH94" s="15"/>
+      <c r="II94" s="15"/>
+      <c r="IJ94" s="15"/>
+      <c r="IK94" s="15"/>
+      <c r="IL94" s="15"/>
+      <c r="IM94" s="15"/>
+      <c r="IN94" s="15"/>
+      <c r="IO94" s="15"/>
+      <c r="IP94" s="15"/>
+      <c r="IQ94" s="15"/>
+      <c r="IR94" s="15"/>
+      <c r="IS94" s="15"/>
+      <c r="IT94" s="15"/>
+      <c r="IU94" s="15"/>
+      <c r="IV94" s="15"/>
+      <c r="IW94" s="15"/>
+      <c r="IX94" s="15"/>
+      <c r="IY94" s="15"/>
+      <c r="IZ94" s="15"/>
+      <c r="JA94" s="15"/>
+      <c r="JB94" s="15"/>
+      <c r="JC94" s="15"/>
+      <c r="JD94" s="15"/>
+      <c r="JE94" s="15"/>
+      <c r="JF94" s="15"/>
+      <c r="JG94" s="15"/>
+      <c r="JH94" s="15"/>
+      <c r="JI94" s="15"/>
+      <c r="JJ94" s="15"/>
+      <c r="JK94" s="15"/>
+      <c r="JL94" s="15"/>
+      <c r="JM94" s="15"/>
+      <c r="JN94" s="15"/>
+      <c r="JO94" s="15"/>
+      <c r="JP94" s="15"/>
+      <c r="JQ94" s="15"/>
+      <c r="JR94" s="15"/>
+      <c r="JS94" s="15"/>
+      <c r="JT94" s="15"/>
+      <c r="JU94" s="15"/>
+      <c r="JV94" s="15"/>
+      <c r="JW94" s="15"/>
+      <c r="JX94" s="15"/>
+      <c r="JY94" s="15"/>
+      <c r="JZ94" s="15"/>
+      <c r="KA94" s="15"/>
+      <c r="KB94" s="15"/>
+      <c r="KC94" s="15"/>
+      <c r="KD94" s="15"/>
+      <c r="KE94" s="15"/>
+      <c r="KF94" s="15"/>
+      <c r="KG94" s="15"/>
+      <c r="KH94" s="15"/>
+      <c r="KI94" s="15"/>
+      <c r="KJ94" s="15"/>
+      <c r="KK94" s="15"/>
+      <c r="KL94" s="15"/>
+      <c r="KM94" s="15"/>
+      <c r="KN94" s="15"/>
+      <c r="KO94" s="15"/>
+      <c r="KP94" s="15"/>
+      <c r="KQ94" s="15"/>
+      <c r="KR94" s="15"/>
+      <c r="KS94" s="15"/>
+      <c r="KT94" s="15"/>
+      <c r="KU94" s="15"/>
+      <c r="KV94" s="15"/>
+      <c r="KW94" s="15"/>
+      <c r="KX94" s="15"/>
+      <c r="KY94" s="15"/>
+      <c r="KZ94" s="15"/>
+      <c r="LA94" s="15"/>
+      <c r="LB94" s="15"/>
+      <c r="LC94" s="15"/>
+      <c r="LD94" s="15"/>
+      <c r="LE94" s="15"/>
+      <c r="LF94" s="15"/>
+      <c r="LG94" s="15"/>
+      <c r="LH94" s="15"/>
+      <c r="LI94" s="15"/>
+      <c r="LJ94" s="15"/>
+      <c r="LK94" s="15"/>
+      <c r="LL94" s="15"/>
+      <c r="LM94" s="15"/>
+      <c r="LN94" s="15"/>
+      <c r="LO94" s="15"/>
+      <c r="LP94" s="15"/>
+      <c r="LQ94" s="15"/>
+      <c r="LR94" s="15"/>
+      <c r="LS94" s="15"/>
+      <c r="LT94" s="15"/>
+      <c r="LU94" s="15"/>
+      <c r="LV94" s="15"/>
+      <c r="LW94" s="15"/>
+      <c r="LX94" s="15"/>
+      <c r="LY94" s="15"/>
+      <c r="LZ94" s="15"/>
+      <c r="MA94" s="15"/>
+      <c r="MB94" s="15"/>
+      <c r="MC94" s="15"/>
+      <c r="MD94" s="15"/>
+      <c r="ME94" s="15"/>
+      <c r="MF94" s="15"/>
+      <c r="MG94" s="15"/>
+      <c r="MH94" s="15"/>
+      <c r="MI94" s="15"/>
+      <c r="MJ94" s="15"/>
+      <c r="MK94" s="15"/>
+      <c r="ML94" s="15"/>
+      <c r="MM94" s="15"/>
+      <c r="MN94" s="15"/>
+      <c r="MO94" s="15"/>
+      <c r="MP94" s="15"/>
+      <c r="MQ94" s="15"/>
+      <c r="MR94" s="15"/>
+      <c r="MS94" s="15"/>
+      <c r="MT94" s="15"/>
+      <c r="MU94" s="15"/>
+      <c r="MV94" s="15"/>
+      <c r="MW94" s="15"/>
+      <c r="MX94" s="15"/>
+      <c r="MY94" s="15"/>
+      <c r="MZ94" s="15"/>
+      <c r="NA94" s="15"/>
+      <c r="NB94" s="15"/>
+      <c r="NC94" s="15"/>
+      <c r="ND94" s="15"/>
+      <c r="NE94" s="15"/>
+      <c r="NF94" s="15"/>
+      <c r="NG94" s="15"/>
+      <c r="NH94" s="15"/>
+      <c r="NI94" s="15"/>
+      <c r="NJ94" s="15"/>
+      <c r="NK94" s="15"/>
+      <c r="NL94" s="15"/>
+      <c r="NM94" s="15"/>
+      <c r="NN94" s="15"/>
+      <c r="NO94" s="15"/>
+      <c r="NP94" s="15"/>
+      <c r="NQ94" s="15"/>
+      <c r="NR94" s="15"/>
+      <c r="NS94" s="15"/>
+      <c r="NT94" s="15"/>
+      <c r="NU94" s="15"/>
+      <c r="NV94" s="15"/>
+      <c r="NW94" s="15"/>
+      <c r="NX94" s="15"/>
+      <c r="NY94" s="15"/>
+      <c r="NZ94" s="15"/>
+      <c r="OA94" s="15"/>
+      <c r="OB94" s="15"/>
+      <c r="OC94" s="15"/>
+      <c r="OD94" s="15"/>
+      <c r="OE94" s="15"/>
+      <c r="OF94" s="15"/>
+      <c r="OG94" s="15"/>
+      <c r="OH94" s="15"/>
+      <c r="OI94" s="15"/>
+      <c r="OJ94" s="15"/>
+      <c r="OK94" s="15"/>
+      <c r="OL94" s="15"/>
+      <c r="OM94" s="15"/>
+      <c r="ON94" s="15"/>
+      <c r="OO94" s="15"/>
+      <c r="OP94" s="15"/>
+      <c r="OQ94" s="15"/>
+      <c r="OR94" s="15"/>
+      <c r="OS94" s="15"/>
+      <c r="OT94" s="15"/>
+      <c r="OU94" s="15"/>
+      <c r="OV94" s="15"/>
+      <c r="OW94" s="15"/>
+      <c r="OX94" s="15"/>
+      <c r="OY94" s="15"/>
+      <c r="OZ94" s="15"/>
+      <c r="PA94" s="15"/>
+      <c r="PB94" s="15"/>
+      <c r="PC94" s="15"/>
+      <c r="PD94" s="15"/>
+      <c r="PE94" s="15"/>
+      <c r="PF94" s="15"/>
+      <c r="PG94" s="15"/>
+      <c r="PH94" s="15"/>
+      <c r="PI94" s="15"/>
+      <c r="PJ94" s="15"/>
+      <c r="PK94" s="15"/>
+      <c r="PL94" s="15"/>
+      <c r="PM94" s="15"/>
+      <c r="PN94" s="15"/>
+      <c r="PO94" s="15"/>
+      <c r="PP94" s="15"/>
+      <c r="PQ94" s="15"/>
+      <c r="PR94" s="15"/>
+      <c r="PS94" s="15"/>
+      <c r="PT94" s="15"/>
+      <c r="PU94" s="15"/>
+      <c r="PV94" s="15"/>
+      <c r="PW94" s="15"/>
+      <c r="PX94" s="15"/>
+      <c r="PY94" s="15"/>
+      <c r="PZ94" s="15"/>
+      <c r="QA94" s="15"/>
+      <c r="QB94" s="15"/>
+      <c r="QC94" s="15"/>
+      <c r="QD94" s="15"/>
+      <c r="QE94" s="15"/>
+      <c r="QF94" s="15"/>
+      <c r="QG94" s="15"/>
+      <c r="QH94" s="15"/>
+      <c r="QI94" s="15"/>
+      <c r="QJ94" s="15"/>
+      <c r="QK94" s="15"/>
+      <c r="QL94" s="15"/>
+      <c r="QM94" s="15"/>
+      <c r="QN94" s="15"/>
+      <c r="QO94" s="15"/>
+      <c r="QP94" s="15"/>
+      <c r="QQ94" s="15"/>
+      <c r="QR94" s="15"/>
+      <c r="QS94" s="15"/>
+      <c r="QT94" s="15"/>
+      <c r="QU94" s="15"/>
+      <c r="QV94" s="15"/>
+      <c r="QW94" s="15"/>
+      <c r="QX94" s="15"/>
+      <c r="QY94" s="15"/>
+      <c r="QZ94" s="15"/>
+      <c r="RA94" s="15"/>
+      <c r="RB94" s="15"/>
+      <c r="RC94" s="15"/>
+      <c r="RD94" s="15"/>
+      <c r="RE94" s="15"/>
+      <c r="RF94" s="15"/>
+      <c r="RG94" s="15"/>
+      <c r="RH94" s="15"/>
+      <c r="RI94" s="15"/>
+      <c r="RJ94" s="15"/>
+      <c r="RK94" s="15"/>
+      <c r="RL94" s="15"/>
+      <c r="RM94" s="15"/>
+      <c r="RN94" s="15"/>
+      <c r="RO94" s="15"/>
+      <c r="RP94" s="15"/>
+      <c r="RQ94" s="15"/>
+      <c r="RR94" s="15"/>
+      <c r="RS94" s="15"/>
+      <c r="RT94" s="15"/>
+      <c r="RU94" s="15"/>
+      <c r="RV94" s="15"/>
+      <c r="RW94" s="15"/>
+      <c r="RX94" s="15"/>
+      <c r="RY94" s="15"/>
+      <c r="RZ94" s="15"/>
+      <c r="SA94" s="15"/>
+      <c r="SB94" s="15"/>
+      <c r="SC94" s="15"/>
+      <c r="SD94" s="15"/>
+      <c r="SE94" s="15"/>
+      <c r="SF94" s="15"/>
+      <c r="SG94" s="15"/>
+      <c r="SH94" s="15"/>
+      <c r="SI94" s="15"/>
+      <c r="SJ94" s="15"/>
+      <c r="SK94" s="15"/>
+      <c r="SL94" s="15"/>
+      <c r="SM94" s="15"/>
+      <c r="SN94" s="15"/>
+      <c r="SO94" s="15"/>
+      <c r="SP94" s="15"/>
+      <c r="SQ94" s="15"/>
+      <c r="SR94" s="15"/>
+      <c r="SS94" s="15"/>
+      <c r="ST94" s="15"/>
+      <c r="SU94" s="15"/>
+      <c r="SV94" s="15"/>
+      <c r="SW94" s="15"/>
+      <c r="SX94" s="15"/>
+      <c r="SY94" s="15"/>
+      <c r="SZ94" s="15"/>
+      <c r="TA94" s="15"/>
+      <c r="TB94" s="15"/>
+      <c r="TC94" s="15"/>
+      <c r="TD94" s="15"/>
+      <c r="TE94" s="15"/>
+      <c r="TF94" s="15"/>
+      <c r="TG94" s="15"/>
+      <c r="TH94" s="15"/>
+      <c r="TI94" s="15"/>
+      <c r="TJ94" s="15"/>
+      <c r="TK94" s="15"/>
+      <c r="TL94" s="15"/>
+      <c r="TM94" s="15"/>
+      <c r="TN94" s="15"/>
+      <c r="TO94" s="15"/>
+      <c r="TP94" s="15"/>
+      <c r="TQ94" s="15"/>
+      <c r="TR94" s="15"/>
+      <c r="TS94" s="15"/>
+      <c r="TT94" s="15"/>
+      <c r="TU94" s="15"/>
+      <c r="TV94" s="15"/>
+      <c r="TW94" s="15"/>
+      <c r="TX94" s="15"/>
+      <c r="TY94" s="15"/>
+      <c r="TZ94" s="15"/>
+      <c r="UA94" s="15"/>
+      <c r="UB94" s="15"/>
+      <c r="UC94" s="15"/>
+      <c r="UD94" s="15"/>
+      <c r="UE94" s="15"/>
+      <c r="UF94" s="15"/>
+      <c r="UG94" s="15"/>
+      <c r="UH94" s="15"/>
+      <c r="UI94" s="15"/>
+      <c r="UJ94" s="15"/>
+      <c r="UK94" s="15"/>
+      <c r="UL94" s="15"/>
+      <c r="UM94" s="15"/>
+      <c r="UN94" s="15"/>
+      <c r="UO94" s="15"/>
+      <c r="UP94" s="15"/>
+      <c r="UQ94" s="15"/>
+      <c r="UR94" s="15"/>
+      <c r="US94" s="15"/>
+      <c r="UT94" s="15"/>
+      <c r="UU94" s="15"/>
+      <c r="UV94" s="15"/>
+      <c r="UW94" s="15"/>
+      <c r="UX94" s="15"/>
+      <c r="UY94" s="15"/>
+      <c r="UZ94" s="15"/>
+      <c r="VA94" s="15"/>
+      <c r="VB94" s="15"/>
+      <c r="VC94" s="15"/>
+      <c r="VD94" s="15"/>
+      <c r="VE94" s="15"/>
+      <c r="VF94" s="15"/>
+      <c r="VG94" s="15"/>
+      <c r="VH94" s="15"/>
+      <c r="VI94" s="15"/>
+      <c r="VJ94" s="15"/>
+      <c r="VK94" s="15"/>
+      <c r="VL94" s="15"/>
+      <c r="VM94" s="15"/>
+      <c r="VN94" s="15"/>
+      <c r="VO94" s="15"/>
+      <c r="VP94" s="15"/>
+      <c r="VQ94" s="15"/>
+      <c r="VR94" s="15"/>
+      <c r="VS94" s="15"/>
+      <c r="VT94" s="15"/>
+      <c r="VU94" s="15"/>
+      <c r="VV94" s="15"/>
+      <c r="VW94" s="15"/>
+      <c r="VX94" s="15"/>
+      <c r="VY94" s="15"/>
+      <c r="VZ94" s="15"/>
+      <c r="WA94" s="15"/>
+      <c r="WB94" s="15"/>
+      <c r="WC94" s="15"/>
+      <c r="WD94" s="15"/>
+      <c r="WE94" s="15"/>
+      <c r="WF94" s="15"/>
+      <c r="WG94" s="15"/>
+      <c r="WH94" s="15"/>
+      <c r="WI94" s="15"/>
+      <c r="WJ94" s="15"/>
+      <c r="WK94" s="15"/>
+      <c r="WL94" s="15"/>
+      <c r="WM94" s="15"/>
+      <c r="WN94" s="15"/>
+      <c r="WO94" s="15"/>
+      <c r="WP94" s="15"/>
+      <c r="WQ94" s="15"/>
+      <c r="WR94" s="15"/>
+      <c r="WS94" s="15"/>
+      <c r="WT94" s="15"/>
+      <c r="WU94" s="15"/>
+      <c r="WV94" s="15"/>
+      <c r="WW94" s="15"/>
+      <c r="WX94" s="15"/>
+      <c r="WY94" s="15"/>
+      <c r="WZ94" s="15"/>
+      <c r="XA94" s="15"/>
+      <c r="XB94" s="15"/>
+      <c r="XC94" s="15"/>
+      <c r="XD94" s="15"/>
+      <c r="XE94" s="15"/>
+      <c r="XF94" s="15"/>
+      <c r="XG94" s="15"/>
+      <c r="XH94" s="15"/>
+      <c r="XI94" s="15"/>
+      <c r="XJ94" s="15"/>
+      <c r="XK94" s="15"/>
+      <c r="XL94" s="15"/>
+      <c r="XM94" s="15"/>
+      <c r="XN94" s="15"/>
+      <c r="XO94" s="15"/>
+      <c r="XP94" s="15"/>
+      <c r="XQ94" s="15"/>
+      <c r="XR94" s="15"/>
+      <c r="XS94" s="15"/>
+      <c r="XT94" s="15"/>
+      <c r="XU94" s="15"/>
+      <c r="XV94" s="15"/>
+      <c r="XW94" s="15"/>
+      <c r="XX94" s="15"/>
+      <c r="XY94" s="15"/>
+      <c r="XZ94" s="15"/>
+      <c r="YA94" s="15"/>
+      <c r="YB94" s="15"/>
+      <c r="YC94" s="15"/>
+      <c r="YD94" s="15"/>
+      <c r="YE94" s="15"/>
+      <c r="YF94" s="15"/>
+      <c r="YG94" s="15"/>
+      <c r="YH94" s="15"/>
+      <c r="YI94" s="15"/>
+      <c r="YJ94" s="15"/>
+      <c r="YK94" s="15"/>
+      <c r="YL94" s="15"/>
+      <c r="YM94" s="15"/>
+      <c r="YN94" s="15"/>
+      <c r="YO94" s="15"/>
+      <c r="YP94" s="15"/>
+      <c r="YQ94" s="15"/>
+      <c r="YR94" s="15"/>
+      <c r="YS94" s="15"/>
+      <c r="YT94" s="15"/>
+      <c r="YU94" s="15"/>
+      <c r="YV94" s="15"/>
+      <c r="YW94" s="15"/>
+      <c r="YX94" s="15"/>
+      <c r="YY94" s="15"/>
+      <c r="YZ94" s="15"/>
+      <c r="ZA94" s="15"/>
+      <c r="ZB94" s="15"/>
+      <c r="ZC94" s="15"/>
+      <c r="ZD94" s="15"/>
+      <c r="ZE94" s="15"/>
+      <c r="ZF94" s="15"/>
+      <c r="ZG94" s="15"/>
+      <c r="ZH94" s="15"/>
+      <c r="ZI94" s="15"/>
+      <c r="ZJ94" s="15"/>
+      <c r="ZK94" s="15"/>
+      <c r="ZL94" s="15"/>
+      <c r="ZM94" s="15"/>
+      <c r="ZN94" s="15"/>
+      <c r="ZO94" s="15"/>
+      <c r="ZP94" s="15"/>
+      <c r="ZQ94" s="15"/>
+      <c r="ZR94" s="15"/>
+      <c r="ZS94" s="15"/>
+      <c r="ZT94" s="15"/>
+      <c r="ZU94" s="15"/>
+      <c r="ZV94" s="15"/>
+      <c r="ZW94" s="15"/>
+      <c r="ZX94" s="15"/>
+      <c r="ZY94" s="15"/>
+      <c r="ZZ94" s="15"/>
+      <c r="AAA94" s="15"/>
+      <c r="AAB94" s="15"/>
+      <c r="AAC94" s="15"/>
+      <c r="AAD94" s="15"/>
+      <c r="AAE94" s="15"/>
+      <c r="AAF94" s="15"/>
+      <c r="AAG94" s="15"/>
+      <c r="AAH94" s="15"/>
+      <c r="AAI94" s="15"/>
+      <c r="AAJ94" s="15"/>
+      <c r="AAK94" s="15"/>
+      <c r="AAL94" s="15"/>
+      <c r="AAM94" s="15"/>
+      <c r="AAN94" s="15"/>
+      <c r="AAO94" s="15"/>
+      <c r="AAP94" s="15"/>
+      <c r="AAQ94" s="15"/>
+      <c r="AAR94" s="15"/>
+      <c r="AAS94" s="15"/>
+      <c r="AAT94" s="15"/>
+      <c r="AAU94" s="15"/>
+      <c r="AAV94" s="15"/>
+      <c r="AAW94" s="15"/>
+      <c r="AAX94" s="15"/>
+      <c r="AAY94" s="15"/>
+      <c r="AAZ94" s="15"/>
+      <c r="ABA94" s="15"/>
+      <c r="ABB94" s="15"/>
+      <c r="ABC94" s="15"/>
+      <c r="ABD94" s="15"/>
+      <c r="ABE94" s="15"/>
+      <c r="ABF94" s="15"/>
+      <c r="ABG94" s="15"/>
+      <c r="ABH94" s="15"/>
+      <c r="ABI94" s="15"/>
+      <c r="ABJ94" s="15"/>
+      <c r="ABK94" s="15"/>
+      <c r="ABL94" s="15"/>
+      <c r="ABM94" s="15"/>
+      <c r="ABN94" s="15"/>
+      <c r="ABO94" s="15"/>
+      <c r="ABP94" s="15"/>
+      <c r="ABQ94" s="15"/>
+      <c r="ABR94" s="15"/>
+      <c r="ABS94" s="15"/>
+      <c r="ABT94" s="15"/>
+      <c r="ABU94" s="15"/>
+      <c r="ABV94" s="15"/>
+      <c r="ABW94" s="15"/>
+      <c r="ABX94" s="15"/>
+      <c r="ABY94" s="15"/>
+      <c r="ABZ94" s="15"/>
+      <c r="ACA94" s="15"/>
+      <c r="ACB94" s="15"/>
+      <c r="ACC94" s="15"/>
+      <c r="ACD94" s="15"/>
+      <c r="ACE94" s="15"/>
+      <c r="ACF94" s="15"/>
+      <c r="ACG94" s="15"/>
+      <c r="ACH94" s="15"/>
+      <c r="ACI94" s="15"/>
+      <c r="ACJ94" s="15"/>
+      <c r="ACK94" s="15"/>
+      <c r="ACL94" s="15"/>
+      <c r="ACM94" s="15"/>
+      <c r="ACN94" s="15"/>
+      <c r="ACO94" s="15"/>
+      <c r="ACP94" s="15"/>
+      <c r="ACQ94" s="15"/>
+      <c r="ACR94" s="15"/>
+      <c r="ACS94" s="15"/>
+      <c r="ACT94" s="15"/>
+      <c r="ACU94" s="15"/>
+      <c r="ACV94" s="15"/>
+      <c r="ACW94" s="15"/>
+      <c r="ACX94" s="15"/>
+      <c r="ACY94" s="15"/>
+      <c r="ACZ94" s="15"/>
+      <c r="ADA94" s="15"/>
+      <c r="ADB94" s="15"/>
+      <c r="ADC94" s="15"/>
+      <c r="ADD94" s="15"/>
+      <c r="ADE94" s="15"/>
+      <c r="ADF94" s="15"/>
+      <c r="ADG94" s="15"/>
+      <c r="ADH94" s="15"/>
+      <c r="ADI94" s="15"/>
+      <c r="ADJ94" s="15"/>
+      <c r="ADK94" s="15"/>
+      <c r="ADL94" s="15"/>
+      <c r="ADM94" s="15"/>
+      <c r="ADN94" s="15"/>
+      <c r="ADO94" s="15"/>
+      <c r="ADP94" s="15"/>
+      <c r="ADQ94" s="15"/>
+      <c r="ADR94" s="15"/>
+      <c r="ADS94" s="15"/>
+      <c r="ADT94" s="15"/>
+      <c r="ADU94" s="15"/>
+      <c r="ADV94" s="15"/>
+      <c r="ADW94" s="15"/>
+      <c r="ADX94" s="15"/>
+      <c r="ADY94" s="15"/>
+      <c r="ADZ94" s="15"/>
+      <c r="AEA94" s="15"/>
+      <c r="AEB94" s="15"/>
+      <c r="AEC94" s="15"/>
+      <c r="AED94" s="15"/>
+      <c r="AEE94" s="15"/>
+      <c r="AEF94" s="15"/>
+      <c r="AEG94" s="15"/>
+      <c r="AEH94" s="15"/>
+      <c r="AEI94" s="15"/>
+      <c r="AEJ94" s="15"/>
+      <c r="AEK94" s="15"/>
+      <c r="AEL94" s="15"/>
+      <c r="AEM94" s="15"/>
+      <c r="AEN94" s="15"/>
+      <c r="AEO94" s="15"/>
+      <c r="AEP94" s="15"/>
+      <c r="AEQ94" s="15"/>
+      <c r="AER94" s="15"/>
+      <c r="AES94" s="15"/>
+      <c r="AET94" s="15"/>
+      <c r="AEU94" s="15"/>
+      <c r="AEV94" s="15"/>
+      <c r="AEW94" s="15"/>
+      <c r="AEX94" s="15"/>
+      <c r="AEY94" s="15"/>
+      <c r="AEZ94" s="15"/>
+      <c r="AFA94" s="15"/>
+      <c r="AFB94" s="15"/>
+      <c r="AFC94" s="15"/>
+      <c r="AFD94" s="15"/>
+      <c r="AFE94" s="15"/>
+      <c r="AFF94" s="15"/>
+      <c r="AFG94" s="15"/>
+      <c r="AFH94" s="15"/>
+      <c r="AFI94" s="15"/>
+      <c r="AFJ94" s="15"/>
+      <c r="AFK94" s="15"/>
+      <c r="AFL94" s="15"/>
+      <c r="AFM94" s="15"/>
+      <c r="AFN94" s="15"/>
+      <c r="AFO94" s="15"/>
+      <c r="AFP94" s="15"/>
+      <c r="AFQ94" s="15"/>
+      <c r="AFR94" s="15"/>
+      <c r="AFS94" s="15"/>
+      <c r="AFT94" s="15"/>
+      <c r="AFU94" s="15"/>
+      <c r="AFV94" s="15"/>
+      <c r="AFW94" s="15"/>
+      <c r="AFX94" s="15"/>
+      <c r="AFY94" s="15"/>
+      <c r="AFZ94" s="15"/>
+      <c r="AGA94" s="15"/>
+      <c r="AGB94" s="15"/>
+      <c r="AGC94" s="15"/>
+      <c r="AGD94" s="15"/>
+      <c r="AGE94" s="15"/>
+      <c r="AGF94" s="15"/>
+      <c r="AGG94" s="15"/>
+      <c r="AGH94" s="15"/>
+      <c r="AGI94" s="15"/>
+      <c r="AGJ94" s="15"/>
+      <c r="AGK94" s="15"/>
+      <c r="AGL94" s="15"/>
+      <c r="AGM94" s="15"/>
+      <c r="AGN94" s="15"/>
+      <c r="AGO94" s="15"/>
+      <c r="AGP94" s="15"/>
+      <c r="AGQ94" s="15"/>
+      <c r="AGR94" s="15"/>
+      <c r="AGS94" s="15"/>
+      <c r="AGT94" s="15"/>
+      <c r="AGU94" s="15"/>
+      <c r="AGV94" s="15"/>
+      <c r="AGW94" s="15"/>
+      <c r="AGX94" s="15"/>
+      <c r="AGY94" s="15"/>
+      <c r="AGZ94" s="15"/>
+      <c r="AHA94" s="15"/>
+      <c r="AHB94" s="15"/>
+      <c r="AHC94" s="15"/>
+      <c r="AHD94" s="15"/>
+      <c r="AHE94" s="15"/>
+      <c r="AHF94" s="15"/>
+      <c r="AHG94" s="15"/>
+      <c r="AHH94" s="15"/>
+      <c r="AHI94" s="15"/>
+      <c r="AHJ94" s="15"/>
+      <c r="AHK94" s="15"/>
+      <c r="AHL94" s="15"/>
+      <c r="AHM94" s="15"/>
+      <c r="AHN94" s="15"/>
+      <c r="AHO94" s="15"/>
+      <c r="AHP94" s="15"/>
+      <c r="AHQ94" s="15"/>
+      <c r="AHR94" s="15"/>
+      <c r="AHS94" s="15"/>
+      <c r="AHT94" s="15"/>
+      <c r="AHU94" s="15"/>
+      <c r="AHV94" s="15"/>
+      <c r="AHW94" s="15"/>
+      <c r="AHX94" s="15"/>
+      <c r="AHY94" s="15"/>
+      <c r="AHZ94" s="15"/>
+      <c r="AIA94" s="15"/>
+      <c r="AIB94" s="15"/>
+      <c r="AIC94" s="15"/>
+      <c r="AID94" s="15"/>
+      <c r="AIE94" s="15"/>
+      <c r="AIF94" s="15"/>
+      <c r="AIG94" s="15"/>
+      <c r="AIH94" s="15"/>
+      <c r="AII94" s="15"/>
+      <c r="AIJ94" s="15"/>
+      <c r="AIK94" s="15"/>
+      <c r="AIL94" s="15"/>
+      <c r="AIM94" s="15"/>
+      <c r="AIN94" s="15"/>
+      <c r="AIO94" s="15"/>
+      <c r="AIP94" s="15"/>
+      <c r="AIQ94" s="15"/>
+      <c r="AIR94" s="15"/>
+      <c r="AIS94" s="15"/>
+      <c r="AIT94" s="15"/>
+      <c r="AIU94" s="15"/>
+      <c r="AIV94" s="15"/>
+      <c r="AIW94" s="15"/>
+      <c r="AIX94" s="15"/>
+      <c r="AIY94" s="15"/>
+      <c r="AIZ94" s="15"/>
+      <c r="AJA94" s="15"/>
+      <c r="AJB94" s="15"/>
+      <c r="AJC94" s="15"/>
+      <c r="AJD94" s="15"/>
+      <c r="AJE94" s="15"/>
+      <c r="AJF94" s="15"/>
+      <c r="AJG94" s="15"/>
+      <c r="AJH94" s="15"/>
+      <c r="AJI94" s="15"/>
+      <c r="AJJ94" s="15"/>
+      <c r="AJK94" s="15"/>
+      <c r="AJL94" s="15"/>
+      <c r="AJM94" s="15"/>
+      <c r="AJN94" s="15"/>
+      <c r="AJO94" s="15"/>
+      <c r="AJP94" s="15"/>
+      <c r="AJQ94" s="15"/>
+      <c r="AJR94" s="15"/>
+      <c r="AJS94" s="15"/>
+      <c r="AJT94" s="15"/>
+      <c r="AJU94" s="15"/>
+      <c r="AJV94" s="15"/>
+      <c r="AJW94" s="15"/>
+      <c r="AJX94" s="15"/>
+      <c r="AJY94" s="15"/>
+      <c r="AJZ94" s="15"/>
+      <c r="AKA94" s="15"/>
+      <c r="AKB94" s="15"/>
+      <c r="AKC94" s="15"/>
+      <c r="AKD94" s="15"/>
+      <c r="AKE94" s="15"/>
+      <c r="AKF94" s="15"/>
+      <c r="AKG94" s="15"/>
+      <c r="AKH94" s="15"/>
+      <c r="AKI94" s="15"/>
+      <c r="AKJ94" s="15"/>
+      <c r="AKK94" s="15"/>
+      <c r="AKL94" s="15"/>
+      <c r="AKM94" s="15"/>
+      <c r="AKN94" s="15"/>
+      <c r="AKO94" s="15"/>
+      <c r="AKP94" s="15"/>
+      <c r="AKQ94" s="15"/>
+      <c r="AKR94" s="15"/>
+      <c r="AKS94" s="15"/>
+      <c r="AKT94" s="15"/>
+      <c r="AKU94" s="15"/>
+      <c r="AKV94" s="15"/>
+      <c r="AKW94" s="15"/>
+      <c r="AKX94" s="15"/>
+      <c r="AKY94" s="15"/>
+      <c r="AKZ94" s="15"/>
+      <c r="ALA94" s="15"/>
+      <c r="ALB94" s="15"/>
+      <c r="ALC94" s="15"/>
+      <c r="ALD94" s="15"/>
+      <c r="ALE94" s="15"/>
+      <c r="ALF94" s="15"/>
+      <c r="ALG94" s="15"/>
+      <c r="ALH94" s="15"/>
+      <c r="ALI94" s="15"/>
+      <c r="ALJ94" s="15"/>
+      <c r="ALK94" s="15"/>
+      <c r="ALL94" s="15"/>
+      <c r="ALM94" s="15"/>
+      <c r="ALN94" s="15"/>
+      <c r="ALO94" s="15"/>
+      <c r="ALP94" s="15"/>
+      <c r="ALQ94" s="15"/>
+      <c r="ALR94" s="15"/>
+      <c r="ALS94" s="15"/>
+      <c r="ALT94" s="15"/>
+      <c r="ALU94" s="15"/>
+      <c r="ALV94" s="15"/>
+      <c r="ALW94" s="15"/>
+      <c r="ALX94" s="15"/>
+      <c r="ALY94" s="15"/>
+      <c r="ALZ94" s="15"/>
+      <c r="AMA94" s="15"/>
+      <c r="AMB94" s="15"/>
+      <c r="AMC94" s="15"/>
+      <c r="AMD94" s="15"/>
+      <c r="AME94" s="15"/>
+      <c r="AMF94" s="15"/>
+      <c r="AMG94" s="15"/>
+      <c r="AMH94" s="15"/>
+      <c r="AMI94" s="15"/>
+      <c r="AMJ94" s="15"/>
+      <c r="AMK94" s="15"/>
+      <c r="AML94" s="15"/>
+      <c r="AMM94" s="15"/>
     </row>
-    <row r="94" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    <row r="95" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B95" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D95" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F95" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="G94" s="10" t="s">
+      <c r="G95" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="O94" s="10" t="s">
+      <c r="O95" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" s="4"/>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O95" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.5.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAACC931-AB1A-4C36-BCF4-F7B1D1E086BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F8B16-0693-4DDA-96AA-32CEC4439932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="26715" windowHeight="14745" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$O$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$O$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="554">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1933,6 +1933,30 @@
   </si>
   <si>
     <t>MY:EIF</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>The registered number of the qualified invoice issuer</t>
+  </si>
+  <si>
+    <t>Name: National Tax Agency Japan</t>
+  </si>
+  <si>
+    <t>T + 13-digit integer
+Figure of 14 digits
+Figures from 1 to 9
+(Formula to calculate the test number)
+Formula 9 - ((n = 1 (Sigma)12( Pn * Qn )) remainder obtained by dividing the 9)
+Pn: the numeral of the n-th digit of a fundamental number, when counted from the bottom digit.
+Qn: one when the "n" is an odd number, two when the "n" is an even one</t>
+  </si>
+  <si>
+    <t>Business entities need to submit application to be registered to issue qualified invoices.</t>
+  </si>
+  <si>
+    <t>JP:IIN</t>
   </si>
 </sst>
 </file>
@@ -2753,13 +2777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMN100"/>
+  <dimension ref="A1:AMN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4180,21 +4204,21 @@
       </c>
       <c r="AMN37" s="7"/>
     </row>
-    <row r="38" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1028" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>544</v>
@@ -4203,70 +4227,72 @@
         <v>491</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="11"/>
       <c r="N38" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>537</v>
       </c>
       <c r="AMN38" s="7"/>
     </row>
-    <row r="39" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>124</v>
+        <v>547</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>125</v>
+        <v>540</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>45</v>
+        <v>541</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>126</v>
+        <v>542</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>13</v>
+        <v>543</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>544</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>491</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>127</v>
+        <v>545</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="L39" s="11"/>
       <c r="N39" s="7" t="s">
-        <v>413</v>
+        <v>546</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>537</v>
       </c>
+      <c r="AMN39" s="7"/>
     </row>
-    <row r="40" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>13</v>
@@ -4274,11 +4300,14 @@
       <c r="G40" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>449</v>
+      <c r="J40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>537</v>
@@ -4286,19 +4315,19 @@
     </row>
     <row r="41" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>13</v>
@@ -4307,10 +4336,10 @@
         <v>491</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>134</v>
+        <v>398</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>537</v>
@@ -4318,19 +4347,19 @@
     </row>
     <row r="42" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>13</v>
@@ -4341,1082 +4370,59 @@
       <c r="L42" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N42" s="7" t="s">
-        <v>414</v>
+      <c r="M42" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="43" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="I43" s="18">
-        <v>45070</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="N43" s="15"/>
-      <c r="O43" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
-      <c r="AJ43" s="15"/>
-      <c r="AK43" s="15"/>
-      <c r="AL43" s="15"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="15"/>
-      <c r="AO43" s="15"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="15"/>
-      <c r="AR43" s="15"/>
-      <c r="AS43" s="15"/>
-      <c r="AT43" s="15"/>
-      <c r="AU43" s="15"/>
-      <c r="AV43" s="15"/>
-      <c r="AW43" s="15"/>
-      <c r="AX43" s="15"/>
-      <c r="AY43" s="15"/>
-      <c r="AZ43" s="15"/>
-      <c r="BA43" s="15"/>
-      <c r="BB43" s="15"/>
-      <c r="BC43" s="15"/>
-      <c r="BD43" s="15"/>
-      <c r="BE43" s="15"/>
-      <c r="BF43" s="15"/>
-      <c r="BG43" s="15"/>
-      <c r="BH43" s="15"/>
-      <c r="BI43" s="15"/>
-      <c r="BJ43" s="15"/>
-      <c r="BK43" s="15"/>
-      <c r="BL43" s="15"/>
-      <c r="BM43" s="15"/>
-      <c r="BN43" s="15"/>
-      <c r="BO43" s="15"/>
-      <c r="BP43" s="15"/>
-      <c r="BQ43" s="15"/>
-      <c r="BR43" s="15"/>
-      <c r="BS43" s="15"/>
-      <c r="BT43" s="15"/>
-      <c r="BU43" s="15"/>
-      <c r="BV43" s="15"/>
-      <c r="BW43" s="15"/>
-      <c r="BX43" s="15"/>
-      <c r="BY43" s="15"/>
-      <c r="BZ43" s="15"/>
-      <c r="CA43" s="15"/>
-      <c r="CB43" s="15"/>
-      <c r="CC43" s="15"/>
-      <c r="CD43" s="15"/>
-      <c r="CE43" s="15"/>
-      <c r="CF43" s="15"/>
-      <c r="CG43" s="15"/>
-      <c r="CH43" s="15"/>
-      <c r="CI43" s="15"/>
-      <c r="CJ43" s="15"/>
-      <c r="CK43" s="15"/>
-      <c r="CL43" s="15"/>
-      <c r="CM43" s="15"/>
-      <c r="CN43" s="15"/>
-      <c r="CO43" s="15"/>
-      <c r="CP43" s="15"/>
-      <c r="CQ43" s="15"/>
-      <c r="CR43" s="15"/>
-      <c r="CS43" s="15"/>
-      <c r="CT43" s="15"/>
-      <c r="CU43" s="15"/>
-      <c r="CV43" s="15"/>
-      <c r="CW43" s="15"/>
-      <c r="CX43" s="15"/>
-      <c r="CY43" s="15"/>
-      <c r="CZ43" s="15"/>
-      <c r="DA43" s="15"/>
-      <c r="DB43" s="15"/>
-      <c r="DC43" s="15"/>
-      <c r="DD43" s="15"/>
-      <c r="DE43" s="15"/>
-      <c r="DF43" s="15"/>
-      <c r="DG43" s="15"/>
-      <c r="DH43" s="15"/>
-      <c r="DI43" s="15"/>
-      <c r="DJ43" s="15"/>
-      <c r="DK43" s="15"/>
-      <c r="DL43" s="15"/>
-      <c r="DM43" s="15"/>
-      <c r="DN43" s="15"/>
-      <c r="DO43" s="15"/>
-      <c r="DP43" s="15"/>
-      <c r="DQ43" s="15"/>
-      <c r="DR43" s="15"/>
-      <c r="DS43" s="15"/>
-      <c r="DT43" s="15"/>
-      <c r="DU43" s="15"/>
-      <c r="DV43" s="15"/>
-      <c r="DW43" s="15"/>
-      <c r="DX43" s="15"/>
-      <c r="DY43" s="15"/>
-      <c r="DZ43" s="15"/>
-      <c r="EA43" s="15"/>
-      <c r="EB43" s="15"/>
-      <c r="EC43" s="15"/>
-      <c r="ED43" s="15"/>
-      <c r="EE43" s="15"/>
-      <c r="EF43" s="15"/>
-      <c r="EG43" s="15"/>
-      <c r="EH43" s="15"/>
-      <c r="EI43" s="15"/>
-      <c r="EJ43" s="15"/>
-      <c r="EK43" s="15"/>
-      <c r="EL43" s="15"/>
-      <c r="EM43" s="15"/>
-      <c r="EN43" s="15"/>
-      <c r="EO43" s="15"/>
-      <c r="EP43" s="15"/>
-      <c r="EQ43" s="15"/>
-      <c r="ER43" s="15"/>
-      <c r="ES43" s="15"/>
-      <c r="ET43" s="15"/>
-      <c r="EU43" s="15"/>
-      <c r="EV43" s="15"/>
-      <c r="EW43" s="15"/>
-      <c r="EX43" s="15"/>
-      <c r="EY43" s="15"/>
-      <c r="EZ43" s="15"/>
-      <c r="FA43" s="15"/>
-      <c r="FB43" s="15"/>
-      <c r="FC43" s="15"/>
-      <c r="FD43" s="15"/>
-      <c r="FE43" s="15"/>
-      <c r="FF43" s="15"/>
-      <c r="FG43" s="15"/>
-      <c r="FH43" s="15"/>
-      <c r="FI43" s="15"/>
-      <c r="FJ43" s="15"/>
-      <c r="FK43" s="15"/>
-      <c r="FL43" s="15"/>
-      <c r="FM43" s="15"/>
-      <c r="FN43" s="15"/>
-      <c r="FO43" s="15"/>
-      <c r="FP43" s="15"/>
-      <c r="FQ43" s="15"/>
-      <c r="FR43" s="15"/>
-      <c r="FS43" s="15"/>
-      <c r="FT43" s="15"/>
-      <c r="FU43" s="15"/>
-      <c r="FV43" s="15"/>
-      <c r="FW43" s="15"/>
-      <c r="FX43" s="15"/>
-      <c r="FY43" s="15"/>
-      <c r="FZ43" s="15"/>
-      <c r="GA43" s="15"/>
-      <c r="GB43" s="15"/>
-      <c r="GC43" s="15"/>
-      <c r="GD43" s="15"/>
-      <c r="GE43" s="15"/>
-      <c r="GF43" s="15"/>
-      <c r="GG43" s="15"/>
-      <c r="GH43" s="15"/>
-      <c r="GI43" s="15"/>
-      <c r="GJ43" s="15"/>
-      <c r="GK43" s="15"/>
-      <c r="GL43" s="15"/>
-      <c r="GM43" s="15"/>
-      <c r="GN43" s="15"/>
-      <c r="GO43" s="15"/>
-      <c r="GP43" s="15"/>
-      <c r="GQ43" s="15"/>
-      <c r="GR43" s="15"/>
-      <c r="GS43" s="15"/>
-      <c r="GT43" s="15"/>
-      <c r="GU43" s="15"/>
-      <c r="GV43" s="15"/>
-      <c r="GW43" s="15"/>
-      <c r="GX43" s="15"/>
-      <c r="GY43" s="15"/>
-      <c r="GZ43" s="15"/>
-      <c r="HA43" s="15"/>
-      <c r="HB43" s="15"/>
-      <c r="HC43" s="15"/>
-      <c r="HD43" s="15"/>
-      <c r="HE43" s="15"/>
-      <c r="HF43" s="15"/>
-      <c r="HG43" s="15"/>
-      <c r="HH43" s="15"/>
-      <c r="HI43" s="15"/>
-      <c r="HJ43" s="15"/>
-      <c r="HK43" s="15"/>
-      <c r="HL43" s="15"/>
-      <c r="HM43" s="15"/>
-      <c r="HN43" s="15"/>
-      <c r="HO43" s="15"/>
-      <c r="HP43" s="15"/>
-      <c r="HQ43" s="15"/>
-      <c r="HR43" s="15"/>
-      <c r="HS43" s="15"/>
-      <c r="HT43" s="15"/>
-      <c r="HU43" s="15"/>
-      <c r="HV43" s="15"/>
-      <c r="HW43" s="15"/>
-      <c r="HX43" s="15"/>
-      <c r="HY43" s="15"/>
-      <c r="HZ43" s="15"/>
-      <c r="IA43" s="15"/>
-      <c r="IB43" s="15"/>
-      <c r="IC43" s="15"/>
-      <c r="ID43" s="15"/>
-      <c r="IE43" s="15"/>
-      <c r="IF43" s="15"/>
-      <c r="IG43" s="15"/>
-      <c r="IH43" s="15"/>
-      <c r="II43" s="15"/>
-      <c r="IJ43" s="15"/>
-      <c r="IK43" s="15"/>
-      <c r="IL43" s="15"/>
-      <c r="IM43" s="15"/>
-      <c r="IN43" s="15"/>
-      <c r="IO43" s="15"/>
-      <c r="IP43" s="15"/>
-      <c r="IQ43" s="15"/>
-      <c r="IR43" s="15"/>
-      <c r="IS43" s="15"/>
-      <c r="IT43" s="15"/>
-      <c r="IU43" s="15"/>
-      <c r="IV43" s="15"/>
-      <c r="IW43" s="15"/>
-      <c r="IX43" s="15"/>
-      <c r="IY43" s="15"/>
-      <c r="IZ43" s="15"/>
-      <c r="JA43" s="15"/>
-      <c r="JB43" s="15"/>
-      <c r="JC43" s="15"/>
-      <c r="JD43" s="15"/>
-      <c r="JE43" s="15"/>
-      <c r="JF43" s="15"/>
-      <c r="JG43" s="15"/>
-      <c r="JH43" s="15"/>
-      <c r="JI43" s="15"/>
-      <c r="JJ43" s="15"/>
-      <c r="JK43" s="15"/>
-      <c r="JL43" s="15"/>
-      <c r="JM43" s="15"/>
-      <c r="JN43" s="15"/>
-      <c r="JO43" s="15"/>
-      <c r="JP43" s="15"/>
-      <c r="JQ43" s="15"/>
-      <c r="JR43" s="15"/>
-      <c r="JS43" s="15"/>
-      <c r="JT43" s="15"/>
-      <c r="JU43" s="15"/>
-      <c r="JV43" s="15"/>
-      <c r="JW43" s="15"/>
-      <c r="JX43" s="15"/>
-      <c r="JY43" s="15"/>
-      <c r="JZ43" s="15"/>
-      <c r="KA43" s="15"/>
-      <c r="KB43" s="15"/>
-      <c r="KC43" s="15"/>
-      <c r="KD43" s="15"/>
-      <c r="KE43" s="15"/>
-      <c r="KF43" s="15"/>
-      <c r="KG43" s="15"/>
-      <c r="KH43" s="15"/>
-      <c r="KI43" s="15"/>
-      <c r="KJ43" s="15"/>
-      <c r="KK43" s="15"/>
-      <c r="KL43" s="15"/>
-      <c r="KM43" s="15"/>
-      <c r="KN43" s="15"/>
-      <c r="KO43" s="15"/>
-      <c r="KP43" s="15"/>
-      <c r="KQ43" s="15"/>
-      <c r="KR43" s="15"/>
-      <c r="KS43" s="15"/>
-      <c r="KT43" s="15"/>
-      <c r="KU43" s="15"/>
-      <c r="KV43" s="15"/>
-      <c r="KW43" s="15"/>
-      <c r="KX43" s="15"/>
-      <c r="KY43" s="15"/>
-      <c r="KZ43" s="15"/>
-      <c r="LA43" s="15"/>
-      <c r="LB43" s="15"/>
-      <c r="LC43" s="15"/>
-      <c r="LD43" s="15"/>
-      <c r="LE43" s="15"/>
-      <c r="LF43" s="15"/>
-      <c r="LG43" s="15"/>
-      <c r="LH43" s="15"/>
-      <c r="LI43" s="15"/>
-      <c r="LJ43" s="15"/>
-      <c r="LK43" s="15"/>
-      <c r="LL43" s="15"/>
-      <c r="LM43" s="15"/>
-      <c r="LN43" s="15"/>
-      <c r="LO43" s="15"/>
-      <c r="LP43" s="15"/>
-      <c r="LQ43" s="15"/>
-      <c r="LR43" s="15"/>
-      <c r="LS43" s="15"/>
-      <c r="LT43" s="15"/>
-      <c r="LU43" s="15"/>
-      <c r="LV43" s="15"/>
-      <c r="LW43" s="15"/>
-      <c r="LX43" s="15"/>
-      <c r="LY43" s="15"/>
-      <c r="LZ43" s="15"/>
-      <c r="MA43" s="15"/>
-      <c r="MB43" s="15"/>
-      <c r="MC43" s="15"/>
-      <c r="MD43" s="15"/>
-      <c r="ME43" s="15"/>
-      <c r="MF43" s="15"/>
-      <c r="MG43" s="15"/>
-      <c r="MH43" s="15"/>
-      <c r="MI43" s="15"/>
-      <c r="MJ43" s="15"/>
-      <c r="MK43" s="15"/>
-      <c r="ML43" s="15"/>
-      <c r="MM43" s="15"/>
-      <c r="MN43" s="15"/>
-      <c r="MO43" s="15"/>
-      <c r="MP43" s="15"/>
-      <c r="MQ43" s="15"/>
-      <c r="MR43" s="15"/>
-      <c r="MS43" s="15"/>
-      <c r="MT43" s="15"/>
-      <c r="MU43" s="15"/>
-      <c r="MV43" s="15"/>
-      <c r="MW43" s="15"/>
-      <c r="MX43" s="15"/>
-      <c r="MY43" s="15"/>
-      <c r="MZ43" s="15"/>
-      <c r="NA43" s="15"/>
-      <c r="NB43" s="15"/>
-      <c r="NC43" s="15"/>
-      <c r="ND43" s="15"/>
-      <c r="NE43" s="15"/>
-      <c r="NF43" s="15"/>
-      <c r="NG43" s="15"/>
-      <c r="NH43" s="15"/>
-      <c r="NI43" s="15"/>
-      <c r="NJ43" s="15"/>
-      <c r="NK43" s="15"/>
-      <c r="NL43" s="15"/>
-      <c r="NM43" s="15"/>
-      <c r="NN43" s="15"/>
-      <c r="NO43" s="15"/>
-      <c r="NP43" s="15"/>
-      <c r="NQ43" s="15"/>
-      <c r="NR43" s="15"/>
-      <c r="NS43" s="15"/>
-      <c r="NT43" s="15"/>
-      <c r="NU43" s="15"/>
-      <c r="NV43" s="15"/>
-      <c r="NW43" s="15"/>
-      <c r="NX43" s="15"/>
-      <c r="NY43" s="15"/>
-      <c r="NZ43" s="15"/>
-      <c r="OA43" s="15"/>
-      <c r="OB43" s="15"/>
-      <c r="OC43" s="15"/>
-      <c r="OD43" s="15"/>
-      <c r="OE43" s="15"/>
-      <c r="OF43" s="15"/>
-      <c r="OG43" s="15"/>
-      <c r="OH43" s="15"/>
-      <c r="OI43" s="15"/>
-      <c r="OJ43" s="15"/>
-      <c r="OK43" s="15"/>
-      <c r="OL43" s="15"/>
-      <c r="OM43" s="15"/>
-      <c r="ON43" s="15"/>
-      <c r="OO43" s="15"/>
-      <c r="OP43" s="15"/>
-      <c r="OQ43" s="15"/>
-      <c r="OR43" s="15"/>
-      <c r="OS43" s="15"/>
-      <c r="OT43" s="15"/>
-      <c r="OU43" s="15"/>
-      <c r="OV43" s="15"/>
-      <c r="OW43" s="15"/>
-      <c r="OX43" s="15"/>
-      <c r="OY43" s="15"/>
-      <c r="OZ43" s="15"/>
-      <c r="PA43" s="15"/>
-      <c r="PB43" s="15"/>
-      <c r="PC43" s="15"/>
-      <c r="PD43" s="15"/>
-      <c r="PE43" s="15"/>
-      <c r="PF43" s="15"/>
-      <c r="PG43" s="15"/>
-      <c r="PH43" s="15"/>
-      <c r="PI43" s="15"/>
-      <c r="PJ43" s="15"/>
-      <c r="PK43" s="15"/>
-      <c r="PL43" s="15"/>
-      <c r="PM43" s="15"/>
-      <c r="PN43" s="15"/>
-      <c r="PO43" s="15"/>
-      <c r="PP43" s="15"/>
-      <c r="PQ43" s="15"/>
-      <c r="PR43" s="15"/>
-      <c r="PS43" s="15"/>
-      <c r="PT43" s="15"/>
-      <c r="PU43" s="15"/>
-      <c r="PV43" s="15"/>
-      <c r="PW43" s="15"/>
-      <c r="PX43" s="15"/>
-      <c r="PY43" s="15"/>
-      <c r="PZ43" s="15"/>
-      <c r="QA43" s="15"/>
-      <c r="QB43" s="15"/>
-      <c r="QC43" s="15"/>
-      <c r="QD43" s="15"/>
-      <c r="QE43" s="15"/>
-      <c r="QF43" s="15"/>
-      <c r="QG43" s="15"/>
-      <c r="QH43" s="15"/>
-      <c r="QI43" s="15"/>
-      <c r="QJ43" s="15"/>
-      <c r="QK43" s="15"/>
-      <c r="QL43" s="15"/>
-      <c r="QM43" s="15"/>
-      <c r="QN43" s="15"/>
-      <c r="QO43" s="15"/>
-      <c r="QP43" s="15"/>
-      <c r="QQ43" s="15"/>
-      <c r="QR43" s="15"/>
-      <c r="QS43" s="15"/>
-      <c r="QT43" s="15"/>
-      <c r="QU43" s="15"/>
-      <c r="QV43" s="15"/>
-      <c r="QW43" s="15"/>
-      <c r="QX43" s="15"/>
-      <c r="QY43" s="15"/>
-      <c r="QZ43" s="15"/>
-      <c r="RA43" s="15"/>
-      <c r="RB43" s="15"/>
-      <c r="RC43" s="15"/>
-      <c r="RD43" s="15"/>
-      <c r="RE43" s="15"/>
-      <c r="RF43" s="15"/>
-      <c r="RG43" s="15"/>
-      <c r="RH43" s="15"/>
-      <c r="RI43" s="15"/>
-      <c r="RJ43" s="15"/>
-      <c r="RK43" s="15"/>
-      <c r="RL43" s="15"/>
-      <c r="RM43" s="15"/>
-      <c r="RN43" s="15"/>
-      <c r="RO43" s="15"/>
-      <c r="RP43" s="15"/>
-      <c r="RQ43" s="15"/>
-      <c r="RR43" s="15"/>
-      <c r="RS43" s="15"/>
-      <c r="RT43" s="15"/>
-      <c r="RU43" s="15"/>
-      <c r="RV43" s="15"/>
-      <c r="RW43" s="15"/>
-      <c r="RX43" s="15"/>
-      <c r="RY43" s="15"/>
-      <c r="RZ43" s="15"/>
-      <c r="SA43" s="15"/>
-      <c r="SB43" s="15"/>
-      <c r="SC43" s="15"/>
-      <c r="SD43" s="15"/>
-      <c r="SE43" s="15"/>
-      <c r="SF43" s="15"/>
-      <c r="SG43" s="15"/>
-      <c r="SH43" s="15"/>
-      <c r="SI43" s="15"/>
-      <c r="SJ43" s="15"/>
-      <c r="SK43" s="15"/>
-      <c r="SL43" s="15"/>
-      <c r="SM43" s="15"/>
-      <c r="SN43" s="15"/>
-      <c r="SO43" s="15"/>
-      <c r="SP43" s="15"/>
-      <c r="SQ43" s="15"/>
-      <c r="SR43" s="15"/>
-      <c r="SS43" s="15"/>
-      <c r="ST43" s="15"/>
-      <c r="SU43" s="15"/>
-      <c r="SV43" s="15"/>
-      <c r="SW43" s="15"/>
-      <c r="SX43" s="15"/>
-      <c r="SY43" s="15"/>
-      <c r="SZ43" s="15"/>
-      <c r="TA43" s="15"/>
-      <c r="TB43" s="15"/>
-      <c r="TC43" s="15"/>
-      <c r="TD43" s="15"/>
-      <c r="TE43" s="15"/>
-      <c r="TF43" s="15"/>
-      <c r="TG43" s="15"/>
-      <c r="TH43" s="15"/>
-      <c r="TI43" s="15"/>
-      <c r="TJ43" s="15"/>
-      <c r="TK43" s="15"/>
-      <c r="TL43" s="15"/>
-      <c r="TM43" s="15"/>
-      <c r="TN43" s="15"/>
-      <c r="TO43" s="15"/>
-      <c r="TP43" s="15"/>
-      <c r="TQ43" s="15"/>
-      <c r="TR43" s="15"/>
-      <c r="TS43" s="15"/>
-      <c r="TT43" s="15"/>
-      <c r="TU43" s="15"/>
-      <c r="TV43" s="15"/>
-      <c r="TW43" s="15"/>
-      <c r="TX43" s="15"/>
-      <c r="TY43" s="15"/>
-      <c r="TZ43" s="15"/>
-      <c r="UA43" s="15"/>
-      <c r="UB43" s="15"/>
-      <c r="UC43" s="15"/>
-      <c r="UD43" s="15"/>
-      <c r="UE43" s="15"/>
-      <c r="UF43" s="15"/>
-      <c r="UG43" s="15"/>
-      <c r="UH43" s="15"/>
-      <c r="UI43" s="15"/>
-      <c r="UJ43" s="15"/>
-      <c r="UK43" s="15"/>
-      <c r="UL43" s="15"/>
-      <c r="UM43" s="15"/>
-      <c r="UN43" s="15"/>
-      <c r="UO43" s="15"/>
-      <c r="UP43" s="15"/>
-      <c r="UQ43" s="15"/>
-      <c r="UR43" s="15"/>
-      <c r="US43" s="15"/>
-      <c r="UT43" s="15"/>
-      <c r="UU43" s="15"/>
-      <c r="UV43" s="15"/>
-      <c r="UW43" s="15"/>
-      <c r="UX43" s="15"/>
-      <c r="UY43" s="15"/>
-      <c r="UZ43" s="15"/>
-      <c r="VA43" s="15"/>
-      <c r="VB43" s="15"/>
-      <c r="VC43" s="15"/>
-      <c r="VD43" s="15"/>
-      <c r="VE43" s="15"/>
-      <c r="VF43" s="15"/>
-      <c r="VG43" s="15"/>
-      <c r="VH43" s="15"/>
-      <c r="VI43" s="15"/>
-      <c r="VJ43" s="15"/>
-      <c r="VK43" s="15"/>
-      <c r="VL43" s="15"/>
-      <c r="VM43" s="15"/>
-      <c r="VN43" s="15"/>
-      <c r="VO43" s="15"/>
-      <c r="VP43" s="15"/>
-      <c r="VQ43" s="15"/>
-      <c r="VR43" s="15"/>
-      <c r="VS43" s="15"/>
-      <c r="VT43" s="15"/>
-      <c r="VU43" s="15"/>
-      <c r="VV43" s="15"/>
-      <c r="VW43" s="15"/>
-      <c r="VX43" s="15"/>
-      <c r="VY43" s="15"/>
-      <c r="VZ43" s="15"/>
-      <c r="WA43" s="15"/>
-      <c r="WB43" s="15"/>
-      <c r="WC43" s="15"/>
-      <c r="WD43" s="15"/>
-      <c r="WE43" s="15"/>
-      <c r="WF43" s="15"/>
-      <c r="WG43" s="15"/>
-      <c r="WH43" s="15"/>
-      <c r="WI43" s="15"/>
-      <c r="WJ43" s="15"/>
-      <c r="WK43" s="15"/>
-      <c r="WL43" s="15"/>
-      <c r="WM43" s="15"/>
-      <c r="WN43" s="15"/>
-      <c r="WO43" s="15"/>
-      <c r="WP43" s="15"/>
-      <c r="WQ43" s="15"/>
-      <c r="WR43" s="15"/>
-      <c r="WS43" s="15"/>
-      <c r="WT43" s="15"/>
-      <c r="WU43" s="15"/>
-      <c r="WV43" s="15"/>
-      <c r="WW43" s="15"/>
-      <c r="WX43" s="15"/>
-      <c r="WY43" s="15"/>
-      <c r="WZ43" s="15"/>
-      <c r="XA43" s="15"/>
-      <c r="XB43" s="15"/>
-      <c r="XC43" s="15"/>
-      <c r="XD43" s="15"/>
-      <c r="XE43" s="15"/>
-      <c r="XF43" s="15"/>
-      <c r="XG43" s="15"/>
-      <c r="XH43" s="15"/>
-      <c r="XI43" s="15"/>
-      <c r="XJ43" s="15"/>
-      <c r="XK43" s="15"/>
-      <c r="XL43" s="15"/>
-      <c r="XM43" s="15"/>
-      <c r="XN43" s="15"/>
-      <c r="XO43" s="15"/>
-      <c r="XP43" s="15"/>
-      <c r="XQ43" s="15"/>
-      <c r="XR43" s="15"/>
-      <c r="XS43" s="15"/>
-      <c r="XT43" s="15"/>
-      <c r="XU43" s="15"/>
-      <c r="XV43" s="15"/>
-      <c r="XW43" s="15"/>
-      <c r="XX43" s="15"/>
-      <c r="XY43" s="15"/>
-      <c r="XZ43" s="15"/>
-      <c r="YA43" s="15"/>
-      <c r="YB43" s="15"/>
-      <c r="YC43" s="15"/>
-      <c r="YD43" s="15"/>
-      <c r="YE43" s="15"/>
-      <c r="YF43" s="15"/>
-      <c r="YG43" s="15"/>
-      <c r="YH43" s="15"/>
-      <c r="YI43" s="15"/>
-      <c r="YJ43" s="15"/>
-      <c r="YK43" s="15"/>
-      <c r="YL43" s="15"/>
-      <c r="YM43" s="15"/>
-      <c r="YN43" s="15"/>
-      <c r="YO43" s="15"/>
-      <c r="YP43" s="15"/>
-      <c r="YQ43" s="15"/>
-      <c r="YR43" s="15"/>
-      <c r="YS43" s="15"/>
-      <c r="YT43" s="15"/>
-      <c r="YU43" s="15"/>
-      <c r="YV43" s="15"/>
-      <c r="YW43" s="15"/>
-      <c r="YX43" s="15"/>
-      <c r="YY43" s="15"/>
-      <c r="YZ43" s="15"/>
-      <c r="ZA43" s="15"/>
-      <c r="ZB43" s="15"/>
-      <c r="ZC43" s="15"/>
-      <c r="ZD43" s="15"/>
-      <c r="ZE43" s="15"/>
-      <c r="ZF43" s="15"/>
-      <c r="ZG43" s="15"/>
-      <c r="ZH43" s="15"/>
-      <c r="ZI43" s="15"/>
-      <c r="ZJ43" s="15"/>
-      <c r="ZK43" s="15"/>
-      <c r="ZL43" s="15"/>
-      <c r="ZM43" s="15"/>
-      <c r="ZN43" s="15"/>
-      <c r="ZO43" s="15"/>
-      <c r="ZP43" s="15"/>
-      <c r="ZQ43" s="15"/>
-      <c r="ZR43" s="15"/>
-      <c r="ZS43" s="15"/>
-      <c r="ZT43" s="15"/>
-      <c r="ZU43" s="15"/>
-      <c r="ZV43" s="15"/>
-      <c r="ZW43" s="15"/>
-      <c r="ZX43" s="15"/>
-      <c r="ZY43" s="15"/>
-      <c r="ZZ43" s="15"/>
-      <c r="AAA43" s="15"/>
-      <c r="AAB43" s="15"/>
-      <c r="AAC43" s="15"/>
-      <c r="AAD43" s="15"/>
-      <c r="AAE43" s="15"/>
-      <c r="AAF43" s="15"/>
-      <c r="AAG43" s="15"/>
-      <c r="AAH43" s="15"/>
-      <c r="AAI43" s="15"/>
-      <c r="AAJ43" s="15"/>
-      <c r="AAK43" s="15"/>
-      <c r="AAL43" s="15"/>
-      <c r="AAM43" s="15"/>
-      <c r="AAN43" s="15"/>
-      <c r="AAO43" s="15"/>
-      <c r="AAP43" s="15"/>
-      <c r="AAQ43" s="15"/>
-      <c r="AAR43" s="15"/>
-      <c r="AAS43" s="15"/>
-      <c r="AAT43" s="15"/>
-      <c r="AAU43" s="15"/>
-      <c r="AAV43" s="15"/>
-      <c r="AAW43" s="15"/>
-      <c r="AAX43" s="15"/>
-      <c r="AAY43" s="15"/>
-      <c r="AAZ43" s="15"/>
-      <c r="ABA43" s="15"/>
-      <c r="ABB43" s="15"/>
-      <c r="ABC43" s="15"/>
-      <c r="ABD43" s="15"/>
-      <c r="ABE43" s="15"/>
-      <c r="ABF43" s="15"/>
-      <c r="ABG43" s="15"/>
-      <c r="ABH43" s="15"/>
-      <c r="ABI43" s="15"/>
-      <c r="ABJ43" s="15"/>
-      <c r="ABK43" s="15"/>
-      <c r="ABL43" s="15"/>
-      <c r="ABM43" s="15"/>
-      <c r="ABN43" s="15"/>
-      <c r="ABO43" s="15"/>
-      <c r="ABP43" s="15"/>
-      <c r="ABQ43" s="15"/>
-      <c r="ABR43" s="15"/>
-      <c r="ABS43" s="15"/>
-      <c r="ABT43" s="15"/>
-      <c r="ABU43" s="15"/>
-      <c r="ABV43" s="15"/>
-      <c r="ABW43" s="15"/>
-      <c r="ABX43" s="15"/>
-      <c r="ABY43" s="15"/>
-      <c r="ABZ43" s="15"/>
-      <c r="ACA43" s="15"/>
-      <c r="ACB43" s="15"/>
-      <c r="ACC43" s="15"/>
-      <c r="ACD43" s="15"/>
-      <c r="ACE43" s="15"/>
-      <c r="ACF43" s="15"/>
-      <c r="ACG43" s="15"/>
-      <c r="ACH43" s="15"/>
-      <c r="ACI43" s="15"/>
-      <c r="ACJ43" s="15"/>
-      <c r="ACK43" s="15"/>
-      <c r="ACL43" s="15"/>
-      <c r="ACM43" s="15"/>
-      <c r="ACN43" s="15"/>
-      <c r="ACO43" s="15"/>
-      <c r="ACP43" s="15"/>
-      <c r="ACQ43" s="15"/>
-      <c r="ACR43" s="15"/>
-      <c r="ACS43" s="15"/>
-      <c r="ACT43" s="15"/>
-      <c r="ACU43" s="15"/>
-      <c r="ACV43" s="15"/>
-      <c r="ACW43" s="15"/>
-      <c r="ACX43" s="15"/>
-      <c r="ACY43" s="15"/>
-      <c r="ACZ43" s="15"/>
-      <c r="ADA43" s="15"/>
-      <c r="ADB43" s="15"/>
-      <c r="ADC43" s="15"/>
-      <c r="ADD43" s="15"/>
-      <c r="ADE43" s="15"/>
-      <c r="ADF43" s="15"/>
-      <c r="ADG43" s="15"/>
-      <c r="ADH43" s="15"/>
-      <c r="ADI43" s="15"/>
-      <c r="ADJ43" s="15"/>
-      <c r="ADK43" s="15"/>
-      <c r="ADL43" s="15"/>
-      <c r="ADM43" s="15"/>
-      <c r="ADN43" s="15"/>
-      <c r="ADO43" s="15"/>
-      <c r="ADP43" s="15"/>
-      <c r="ADQ43" s="15"/>
-      <c r="ADR43" s="15"/>
-      <c r="ADS43" s="15"/>
-      <c r="ADT43" s="15"/>
-      <c r="ADU43" s="15"/>
-      <c r="ADV43" s="15"/>
-      <c r="ADW43" s="15"/>
-      <c r="ADX43" s="15"/>
-      <c r="ADY43" s="15"/>
-      <c r="ADZ43" s="15"/>
-      <c r="AEA43" s="15"/>
-      <c r="AEB43" s="15"/>
-      <c r="AEC43" s="15"/>
-      <c r="AED43" s="15"/>
-      <c r="AEE43" s="15"/>
-      <c r="AEF43" s="15"/>
-      <c r="AEG43" s="15"/>
-      <c r="AEH43" s="15"/>
-      <c r="AEI43" s="15"/>
-      <c r="AEJ43" s="15"/>
-      <c r="AEK43" s="15"/>
-      <c r="AEL43" s="15"/>
-      <c r="AEM43" s="15"/>
-      <c r="AEN43" s="15"/>
-      <c r="AEO43" s="15"/>
-      <c r="AEP43" s="15"/>
-      <c r="AEQ43" s="15"/>
-      <c r="AER43" s="15"/>
-      <c r="AES43" s="15"/>
-      <c r="AET43" s="15"/>
-      <c r="AEU43" s="15"/>
-      <c r="AEV43" s="15"/>
-      <c r="AEW43" s="15"/>
-      <c r="AEX43" s="15"/>
-      <c r="AEY43" s="15"/>
-      <c r="AEZ43" s="15"/>
-      <c r="AFA43" s="15"/>
-      <c r="AFB43" s="15"/>
-      <c r="AFC43" s="15"/>
-      <c r="AFD43" s="15"/>
-      <c r="AFE43" s="15"/>
-      <c r="AFF43" s="15"/>
-      <c r="AFG43" s="15"/>
-      <c r="AFH43" s="15"/>
-      <c r="AFI43" s="15"/>
-      <c r="AFJ43" s="15"/>
-      <c r="AFK43" s="15"/>
-      <c r="AFL43" s="15"/>
-      <c r="AFM43" s="15"/>
-      <c r="AFN43" s="15"/>
-      <c r="AFO43" s="15"/>
-      <c r="AFP43" s="15"/>
-      <c r="AFQ43" s="15"/>
-      <c r="AFR43" s="15"/>
-      <c r="AFS43" s="15"/>
-      <c r="AFT43" s="15"/>
-      <c r="AFU43" s="15"/>
-      <c r="AFV43" s="15"/>
-      <c r="AFW43" s="15"/>
-      <c r="AFX43" s="15"/>
-      <c r="AFY43" s="15"/>
-      <c r="AFZ43" s="15"/>
-      <c r="AGA43" s="15"/>
-      <c r="AGB43" s="15"/>
-      <c r="AGC43" s="15"/>
-      <c r="AGD43" s="15"/>
-      <c r="AGE43" s="15"/>
-      <c r="AGF43" s="15"/>
-      <c r="AGG43" s="15"/>
-      <c r="AGH43" s="15"/>
-      <c r="AGI43" s="15"/>
-      <c r="AGJ43" s="15"/>
-      <c r="AGK43" s="15"/>
-      <c r="AGL43" s="15"/>
-      <c r="AGM43" s="15"/>
-      <c r="AGN43" s="15"/>
-      <c r="AGO43" s="15"/>
-      <c r="AGP43" s="15"/>
-      <c r="AGQ43" s="15"/>
-      <c r="AGR43" s="15"/>
-      <c r="AGS43" s="15"/>
-      <c r="AGT43" s="15"/>
-      <c r="AGU43" s="15"/>
-      <c r="AGV43" s="15"/>
-      <c r="AGW43" s="15"/>
-      <c r="AGX43" s="15"/>
-      <c r="AGY43" s="15"/>
-      <c r="AGZ43" s="15"/>
-      <c r="AHA43" s="15"/>
-      <c r="AHB43" s="15"/>
-      <c r="AHC43" s="15"/>
-      <c r="AHD43" s="15"/>
-      <c r="AHE43" s="15"/>
-      <c r="AHF43" s="15"/>
-      <c r="AHG43" s="15"/>
-      <c r="AHH43" s="15"/>
-      <c r="AHI43" s="15"/>
-      <c r="AHJ43" s="15"/>
-      <c r="AHK43" s="15"/>
-      <c r="AHL43" s="15"/>
-      <c r="AHM43" s="15"/>
-      <c r="AHN43" s="15"/>
-      <c r="AHO43" s="15"/>
-      <c r="AHP43" s="15"/>
-      <c r="AHQ43" s="15"/>
-      <c r="AHR43" s="15"/>
-      <c r="AHS43" s="15"/>
-      <c r="AHT43" s="15"/>
-      <c r="AHU43" s="15"/>
-      <c r="AHV43" s="15"/>
-      <c r="AHW43" s="15"/>
-      <c r="AHX43" s="15"/>
-      <c r="AHY43" s="15"/>
-      <c r="AHZ43" s="15"/>
-      <c r="AIA43" s="15"/>
-      <c r="AIB43" s="15"/>
-      <c r="AIC43" s="15"/>
-      <c r="AID43" s="15"/>
-      <c r="AIE43" s="15"/>
-      <c r="AIF43" s="15"/>
-      <c r="AIG43" s="15"/>
-      <c r="AIH43" s="15"/>
-      <c r="AII43" s="15"/>
-      <c r="AIJ43" s="15"/>
-      <c r="AIK43" s="15"/>
-      <c r="AIL43" s="15"/>
-      <c r="AIM43" s="15"/>
-      <c r="AIN43" s="15"/>
-      <c r="AIO43" s="15"/>
-      <c r="AIP43" s="15"/>
-      <c r="AIQ43" s="15"/>
-      <c r="AIR43" s="15"/>
-      <c r="AIS43" s="15"/>
-      <c r="AIT43" s="15"/>
-      <c r="AIU43" s="15"/>
-      <c r="AIV43" s="15"/>
-      <c r="AIW43" s="15"/>
-      <c r="AIX43" s="15"/>
-      <c r="AIY43" s="15"/>
-      <c r="AIZ43" s="15"/>
-      <c r="AJA43" s="15"/>
-      <c r="AJB43" s="15"/>
-      <c r="AJC43" s="15"/>
-      <c r="AJD43" s="15"/>
-      <c r="AJE43" s="15"/>
-      <c r="AJF43" s="15"/>
-      <c r="AJG43" s="15"/>
-      <c r="AJH43" s="15"/>
-      <c r="AJI43" s="15"/>
-      <c r="AJJ43" s="15"/>
-      <c r="AJK43" s="15"/>
-      <c r="AJL43" s="15"/>
-      <c r="AJM43" s="15"/>
-      <c r="AJN43" s="15"/>
-      <c r="AJO43" s="15"/>
-      <c r="AJP43" s="15"/>
-      <c r="AJQ43" s="15"/>
-      <c r="AJR43" s="15"/>
-      <c r="AJS43" s="15"/>
-      <c r="AJT43" s="15"/>
-      <c r="AJU43" s="15"/>
-      <c r="AJV43" s="15"/>
-      <c r="AJW43" s="15"/>
-      <c r="AJX43" s="15"/>
-      <c r="AJY43" s="15"/>
-      <c r="AJZ43" s="15"/>
-      <c r="AKA43" s="15"/>
-      <c r="AKB43" s="15"/>
-      <c r="AKC43" s="15"/>
-      <c r="AKD43" s="15"/>
-      <c r="AKE43" s="15"/>
-      <c r="AKF43" s="15"/>
-      <c r="AKG43" s="15"/>
-      <c r="AKH43" s="15"/>
-      <c r="AKI43" s="15"/>
-      <c r="AKJ43" s="15"/>
-      <c r="AKK43" s="15"/>
-      <c r="AKL43" s="15"/>
-      <c r="AKM43" s="15"/>
-      <c r="AKN43" s="15"/>
-      <c r="AKO43" s="15"/>
-      <c r="AKP43" s="15"/>
-      <c r="AKQ43" s="15"/>
-      <c r="AKR43" s="15"/>
-      <c r="AKS43" s="15"/>
-      <c r="AKT43" s="15"/>
-      <c r="AKU43" s="15"/>
-      <c r="AKV43" s="15"/>
-      <c r="AKW43" s="15"/>
-      <c r="AKX43" s="15"/>
-      <c r="AKY43" s="15"/>
-      <c r="AKZ43" s="15"/>
-      <c r="ALA43" s="15"/>
-      <c r="ALB43" s="15"/>
-      <c r="ALC43" s="15"/>
-      <c r="ALD43" s="15"/>
-      <c r="ALE43" s="15"/>
-      <c r="ALF43" s="15"/>
-      <c r="ALG43" s="15"/>
-      <c r="ALH43" s="15"/>
-      <c r="ALI43" s="15"/>
-      <c r="ALJ43" s="15"/>
-      <c r="ALK43" s="15"/>
-      <c r="ALL43" s="15"/>
-      <c r="ALM43" s="15"/>
-      <c r="ALN43" s="15"/>
-      <c r="ALO43" s="15"/>
-      <c r="ALP43" s="15"/>
-      <c r="ALQ43" s="15"/>
-      <c r="ALR43" s="15"/>
-      <c r="ALS43" s="15"/>
-      <c r="ALT43" s="15"/>
-      <c r="ALU43" s="15"/>
-      <c r="ALV43" s="15"/>
-      <c r="ALW43" s="15"/>
-      <c r="ALX43" s="15"/>
-      <c r="ALY43" s="15"/>
-      <c r="ALZ43" s="15"/>
-      <c r="AMA43" s="15"/>
-      <c r="AMB43" s="15"/>
-      <c r="AMC43" s="15"/>
-      <c r="AMD43" s="15"/>
-      <c r="AME43" s="15"/>
-      <c r="AMF43" s="15"/>
-      <c r="AMG43" s="15"/>
-      <c r="AMH43" s="15"/>
-      <c r="AMI43" s="15"/>
-      <c r="AMJ43" s="15"/>
-      <c r="AMK43" s="15"/>
-      <c r="AML43" s="15"/>
-      <c r="AMM43" s="15"/>
-    </row>
-    <row r="44" spans="1:1028" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E44" s="15"/>
       <c r="F44" s="16" t="s">
         <v>13</v>
       </c>
@@ -5429,17 +4435,17 @@
       <c r="I44" s="18">
         <v>45070</v>
       </c>
-      <c r="J44" s="19"/>
+      <c r="J44" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="K44" s="19"/>
       <c r="L44" s="17" t="s">
-        <v>399</v>
+        <v>141</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>415</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N44" s="15"/>
       <c r="O44" s="17" t="s">
         <v>538</v>
       </c>
@@ -6456,21 +5462,21 @@
       <c r="AML44" s="15"/>
       <c r="AMM44" s="15"/>
     </row>
-    <row r="45" spans="1:1028" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1028" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>13</v>
@@ -6478,22 +5484,22 @@
       <c r="G45" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="H45" s="21" t="s">
-        <v>526</v>
+      <c r="H45" s="16" t="s">
+        <v>501</v>
       </c>
       <c r="I45" s="18">
         <v>45070</v>
       </c>
-      <c r="J45" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="J45" s="19"/>
       <c r="K45" s="19"/>
-      <c r="L45" s="17"/>
+      <c r="L45" s="17" t="s">
+        <v>399</v>
+      </c>
       <c r="M45" s="17" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>528</v>
+        <v>415</v>
       </c>
       <c r="O45" s="17" t="s">
         <v>538</v>
@@ -7511,147 +6517,1176 @@
       <c r="AML45" s="15"/>
       <c r="AMM45" s="15"/>
     </row>
-    <row r="46" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:1028" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="I46" s="18">
+        <v>45070</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
+      <c r="AR46" s="15"/>
+      <c r="AS46" s="15"/>
+      <c r="AT46" s="15"/>
+      <c r="AU46" s="15"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="15"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="15"/>
+      <c r="BA46" s="15"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="15"/>
+      <c r="BE46" s="15"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="15"/>
+      <c r="BL46" s="15"/>
+      <c r="BM46" s="15"/>
+      <c r="BN46" s="15"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="15"/>
+      <c r="BS46" s="15"/>
+      <c r="BT46" s="15"/>
+      <c r="BU46" s="15"/>
+      <c r="BV46" s="15"/>
+      <c r="BW46" s="15"/>
+      <c r="BX46" s="15"/>
+      <c r="BY46" s="15"/>
+      <c r="BZ46" s="15"/>
+      <c r="CA46" s="15"/>
+      <c r="CB46" s="15"/>
+      <c r="CC46" s="15"/>
+      <c r="CD46" s="15"/>
+      <c r="CE46" s="15"/>
+      <c r="CF46" s="15"/>
+      <c r="CG46" s="15"/>
+      <c r="CH46" s="15"/>
+      <c r="CI46" s="15"/>
+      <c r="CJ46" s="15"/>
+      <c r="CK46" s="15"/>
+      <c r="CL46" s="15"/>
+      <c r="CM46" s="15"/>
+      <c r="CN46" s="15"/>
+      <c r="CO46" s="15"/>
+      <c r="CP46" s="15"/>
+      <c r="CQ46" s="15"/>
+      <c r="CR46" s="15"/>
+      <c r="CS46" s="15"/>
+      <c r="CT46" s="15"/>
+      <c r="CU46" s="15"/>
+      <c r="CV46" s="15"/>
+      <c r="CW46" s="15"/>
+      <c r="CX46" s="15"/>
+      <c r="CY46" s="15"/>
+      <c r="CZ46" s="15"/>
+      <c r="DA46" s="15"/>
+      <c r="DB46" s="15"/>
+      <c r="DC46" s="15"/>
+      <c r="DD46" s="15"/>
+      <c r="DE46" s="15"/>
+      <c r="DF46" s="15"/>
+      <c r="DG46" s="15"/>
+      <c r="DH46" s="15"/>
+      <c r="DI46" s="15"/>
+      <c r="DJ46" s="15"/>
+      <c r="DK46" s="15"/>
+      <c r="DL46" s="15"/>
+      <c r="DM46" s="15"/>
+      <c r="DN46" s="15"/>
+      <c r="DO46" s="15"/>
+      <c r="DP46" s="15"/>
+      <c r="DQ46" s="15"/>
+      <c r="DR46" s="15"/>
+      <c r="DS46" s="15"/>
+      <c r="DT46" s="15"/>
+      <c r="DU46" s="15"/>
+      <c r="DV46" s="15"/>
+      <c r="DW46" s="15"/>
+      <c r="DX46" s="15"/>
+      <c r="DY46" s="15"/>
+      <c r="DZ46" s="15"/>
+      <c r="EA46" s="15"/>
+      <c r="EB46" s="15"/>
+      <c r="EC46" s="15"/>
+      <c r="ED46" s="15"/>
+      <c r="EE46" s="15"/>
+      <c r="EF46" s="15"/>
+      <c r="EG46" s="15"/>
+      <c r="EH46" s="15"/>
+      <c r="EI46" s="15"/>
+      <c r="EJ46" s="15"/>
+      <c r="EK46" s="15"/>
+      <c r="EL46" s="15"/>
+      <c r="EM46" s="15"/>
+      <c r="EN46" s="15"/>
+      <c r="EO46" s="15"/>
+      <c r="EP46" s="15"/>
+      <c r="EQ46" s="15"/>
+      <c r="ER46" s="15"/>
+      <c r="ES46" s="15"/>
+      <c r="ET46" s="15"/>
+      <c r="EU46" s="15"/>
+      <c r="EV46" s="15"/>
+      <c r="EW46" s="15"/>
+      <c r="EX46" s="15"/>
+      <c r="EY46" s="15"/>
+      <c r="EZ46" s="15"/>
+      <c r="FA46" s="15"/>
+      <c r="FB46" s="15"/>
+      <c r="FC46" s="15"/>
+      <c r="FD46" s="15"/>
+      <c r="FE46" s="15"/>
+      <c r="FF46" s="15"/>
+      <c r="FG46" s="15"/>
+      <c r="FH46" s="15"/>
+      <c r="FI46" s="15"/>
+      <c r="FJ46" s="15"/>
+      <c r="FK46" s="15"/>
+      <c r="FL46" s="15"/>
+      <c r="FM46" s="15"/>
+      <c r="FN46" s="15"/>
+      <c r="FO46" s="15"/>
+      <c r="FP46" s="15"/>
+      <c r="FQ46" s="15"/>
+      <c r="FR46" s="15"/>
+      <c r="FS46" s="15"/>
+      <c r="FT46" s="15"/>
+      <c r="FU46" s="15"/>
+      <c r="FV46" s="15"/>
+      <c r="FW46" s="15"/>
+      <c r="FX46" s="15"/>
+      <c r="FY46" s="15"/>
+      <c r="FZ46" s="15"/>
+      <c r="GA46" s="15"/>
+      <c r="GB46" s="15"/>
+      <c r="GC46" s="15"/>
+      <c r="GD46" s="15"/>
+      <c r="GE46" s="15"/>
+      <c r="GF46" s="15"/>
+      <c r="GG46" s="15"/>
+      <c r="GH46" s="15"/>
+      <c r="GI46" s="15"/>
+      <c r="GJ46" s="15"/>
+      <c r="GK46" s="15"/>
+      <c r="GL46" s="15"/>
+      <c r="GM46" s="15"/>
+      <c r="GN46" s="15"/>
+      <c r="GO46" s="15"/>
+      <c r="GP46" s="15"/>
+      <c r="GQ46" s="15"/>
+      <c r="GR46" s="15"/>
+      <c r="GS46" s="15"/>
+      <c r="GT46" s="15"/>
+      <c r="GU46" s="15"/>
+      <c r="GV46" s="15"/>
+      <c r="GW46" s="15"/>
+      <c r="GX46" s="15"/>
+      <c r="GY46" s="15"/>
+      <c r="GZ46" s="15"/>
+      <c r="HA46" s="15"/>
+      <c r="HB46" s="15"/>
+      <c r="HC46" s="15"/>
+      <c r="HD46" s="15"/>
+      <c r="HE46" s="15"/>
+      <c r="HF46" s="15"/>
+      <c r="HG46" s="15"/>
+      <c r="HH46" s="15"/>
+      <c r="HI46" s="15"/>
+      <c r="HJ46" s="15"/>
+      <c r="HK46" s="15"/>
+      <c r="HL46" s="15"/>
+      <c r="HM46" s="15"/>
+      <c r="HN46" s="15"/>
+      <c r="HO46" s="15"/>
+      <c r="HP46" s="15"/>
+      <c r="HQ46" s="15"/>
+      <c r="HR46" s="15"/>
+      <c r="HS46" s="15"/>
+      <c r="HT46" s="15"/>
+      <c r="HU46" s="15"/>
+      <c r="HV46" s="15"/>
+      <c r="HW46" s="15"/>
+      <c r="HX46" s="15"/>
+      <c r="HY46" s="15"/>
+      <c r="HZ46" s="15"/>
+      <c r="IA46" s="15"/>
+      <c r="IB46" s="15"/>
+      <c r="IC46" s="15"/>
+      <c r="ID46" s="15"/>
+      <c r="IE46" s="15"/>
+      <c r="IF46" s="15"/>
+      <c r="IG46" s="15"/>
+      <c r="IH46" s="15"/>
+      <c r="II46" s="15"/>
+      <c r="IJ46" s="15"/>
+      <c r="IK46" s="15"/>
+      <c r="IL46" s="15"/>
+      <c r="IM46" s="15"/>
+      <c r="IN46" s="15"/>
+      <c r="IO46" s="15"/>
+      <c r="IP46" s="15"/>
+      <c r="IQ46" s="15"/>
+      <c r="IR46" s="15"/>
+      <c r="IS46" s="15"/>
+      <c r="IT46" s="15"/>
+      <c r="IU46" s="15"/>
+      <c r="IV46" s="15"/>
+      <c r="IW46" s="15"/>
+      <c r="IX46" s="15"/>
+      <c r="IY46" s="15"/>
+      <c r="IZ46" s="15"/>
+      <c r="JA46" s="15"/>
+      <c r="JB46" s="15"/>
+      <c r="JC46" s="15"/>
+      <c r="JD46" s="15"/>
+      <c r="JE46" s="15"/>
+      <c r="JF46" s="15"/>
+      <c r="JG46" s="15"/>
+      <c r="JH46" s="15"/>
+      <c r="JI46" s="15"/>
+      <c r="JJ46" s="15"/>
+      <c r="JK46" s="15"/>
+      <c r="JL46" s="15"/>
+      <c r="JM46" s="15"/>
+      <c r="JN46" s="15"/>
+      <c r="JO46" s="15"/>
+      <c r="JP46" s="15"/>
+      <c r="JQ46" s="15"/>
+      <c r="JR46" s="15"/>
+      <c r="JS46" s="15"/>
+      <c r="JT46" s="15"/>
+      <c r="JU46" s="15"/>
+      <c r="JV46" s="15"/>
+      <c r="JW46" s="15"/>
+      <c r="JX46" s="15"/>
+      <c r="JY46" s="15"/>
+      <c r="JZ46" s="15"/>
+      <c r="KA46" s="15"/>
+      <c r="KB46" s="15"/>
+      <c r="KC46" s="15"/>
+      <c r="KD46" s="15"/>
+      <c r="KE46" s="15"/>
+      <c r="KF46" s="15"/>
+      <c r="KG46" s="15"/>
+      <c r="KH46" s="15"/>
+      <c r="KI46" s="15"/>
+      <c r="KJ46" s="15"/>
+      <c r="KK46" s="15"/>
+      <c r="KL46" s="15"/>
+      <c r="KM46" s="15"/>
+      <c r="KN46" s="15"/>
+      <c r="KO46" s="15"/>
+      <c r="KP46" s="15"/>
+      <c r="KQ46" s="15"/>
+      <c r="KR46" s="15"/>
+      <c r="KS46" s="15"/>
+      <c r="KT46" s="15"/>
+      <c r="KU46" s="15"/>
+      <c r="KV46" s="15"/>
+      <c r="KW46" s="15"/>
+      <c r="KX46" s="15"/>
+      <c r="KY46" s="15"/>
+      <c r="KZ46" s="15"/>
+      <c r="LA46" s="15"/>
+      <c r="LB46" s="15"/>
+      <c r="LC46" s="15"/>
+      <c r="LD46" s="15"/>
+      <c r="LE46" s="15"/>
+      <c r="LF46" s="15"/>
+      <c r="LG46" s="15"/>
+      <c r="LH46" s="15"/>
+      <c r="LI46" s="15"/>
+      <c r="LJ46" s="15"/>
+      <c r="LK46" s="15"/>
+      <c r="LL46" s="15"/>
+      <c r="LM46" s="15"/>
+      <c r="LN46" s="15"/>
+      <c r="LO46" s="15"/>
+      <c r="LP46" s="15"/>
+      <c r="LQ46" s="15"/>
+      <c r="LR46" s="15"/>
+      <c r="LS46" s="15"/>
+      <c r="LT46" s="15"/>
+      <c r="LU46" s="15"/>
+      <c r="LV46" s="15"/>
+      <c r="LW46" s="15"/>
+      <c r="LX46" s="15"/>
+      <c r="LY46" s="15"/>
+      <c r="LZ46" s="15"/>
+      <c r="MA46" s="15"/>
+      <c r="MB46" s="15"/>
+      <c r="MC46" s="15"/>
+      <c r="MD46" s="15"/>
+      <c r="ME46" s="15"/>
+      <c r="MF46" s="15"/>
+      <c r="MG46" s="15"/>
+      <c r="MH46" s="15"/>
+      <c r="MI46" s="15"/>
+      <c r="MJ46" s="15"/>
+      <c r="MK46" s="15"/>
+      <c r="ML46" s="15"/>
+      <c r="MM46" s="15"/>
+      <c r="MN46" s="15"/>
+      <c r="MO46" s="15"/>
+      <c r="MP46" s="15"/>
+      <c r="MQ46" s="15"/>
+      <c r="MR46" s="15"/>
+      <c r="MS46" s="15"/>
+      <c r="MT46" s="15"/>
+      <c r="MU46" s="15"/>
+      <c r="MV46" s="15"/>
+      <c r="MW46" s="15"/>
+      <c r="MX46" s="15"/>
+      <c r="MY46" s="15"/>
+      <c r="MZ46" s="15"/>
+      <c r="NA46" s="15"/>
+      <c r="NB46" s="15"/>
+      <c r="NC46" s="15"/>
+      <c r="ND46" s="15"/>
+      <c r="NE46" s="15"/>
+      <c r="NF46" s="15"/>
+      <c r="NG46" s="15"/>
+      <c r="NH46" s="15"/>
+      <c r="NI46" s="15"/>
+      <c r="NJ46" s="15"/>
+      <c r="NK46" s="15"/>
+      <c r="NL46" s="15"/>
+      <c r="NM46" s="15"/>
+      <c r="NN46" s="15"/>
+      <c r="NO46" s="15"/>
+      <c r="NP46" s="15"/>
+      <c r="NQ46" s="15"/>
+      <c r="NR46" s="15"/>
+      <c r="NS46" s="15"/>
+      <c r="NT46" s="15"/>
+      <c r="NU46" s="15"/>
+      <c r="NV46" s="15"/>
+      <c r="NW46" s="15"/>
+      <c r="NX46" s="15"/>
+      <c r="NY46" s="15"/>
+      <c r="NZ46" s="15"/>
+      <c r="OA46" s="15"/>
+      <c r="OB46" s="15"/>
+      <c r="OC46" s="15"/>
+      <c r="OD46" s="15"/>
+      <c r="OE46" s="15"/>
+      <c r="OF46" s="15"/>
+      <c r="OG46" s="15"/>
+      <c r="OH46" s="15"/>
+      <c r="OI46" s="15"/>
+      <c r="OJ46" s="15"/>
+      <c r="OK46" s="15"/>
+      <c r="OL46" s="15"/>
+      <c r="OM46" s="15"/>
+      <c r="ON46" s="15"/>
+      <c r="OO46" s="15"/>
+      <c r="OP46" s="15"/>
+      <c r="OQ46" s="15"/>
+      <c r="OR46" s="15"/>
+      <c r="OS46" s="15"/>
+      <c r="OT46" s="15"/>
+      <c r="OU46" s="15"/>
+      <c r="OV46" s="15"/>
+      <c r="OW46" s="15"/>
+      <c r="OX46" s="15"/>
+      <c r="OY46" s="15"/>
+      <c r="OZ46" s="15"/>
+      <c r="PA46" s="15"/>
+      <c r="PB46" s="15"/>
+      <c r="PC46" s="15"/>
+      <c r="PD46" s="15"/>
+      <c r="PE46" s="15"/>
+      <c r="PF46" s="15"/>
+      <c r="PG46" s="15"/>
+      <c r="PH46" s="15"/>
+      <c r="PI46" s="15"/>
+      <c r="PJ46" s="15"/>
+      <c r="PK46" s="15"/>
+      <c r="PL46" s="15"/>
+      <c r="PM46" s="15"/>
+      <c r="PN46" s="15"/>
+      <c r="PO46" s="15"/>
+      <c r="PP46" s="15"/>
+      <c r="PQ46" s="15"/>
+      <c r="PR46" s="15"/>
+      <c r="PS46" s="15"/>
+      <c r="PT46" s="15"/>
+      <c r="PU46" s="15"/>
+      <c r="PV46" s="15"/>
+      <c r="PW46" s="15"/>
+      <c r="PX46" s="15"/>
+      <c r="PY46" s="15"/>
+      <c r="PZ46" s="15"/>
+      <c r="QA46" s="15"/>
+      <c r="QB46" s="15"/>
+      <c r="QC46" s="15"/>
+      <c r="QD46" s="15"/>
+      <c r="QE46" s="15"/>
+      <c r="QF46" s="15"/>
+      <c r="QG46" s="15"/>
+      <c r="QH46" s="15"/>
+      <c r="QI46" s="15"/>
+      <c r="QJ46" s="15"/>
+      <c r="QK46" s="15"/>
+      <c r="QL46" s="15"/>
+      <c r="QM46" s="15"/>
+      <c r="QN46" s="15"/>
+      <c r="QO46" s="15"/>
+      <c r="QP46" s="15"/>
+      <c r="QQ46" s="15"/>
+      <c r="QR46" s="15"/>
+      <c r="QS46" s="15"/>
+      <c r="QT46" s="15"/>
+      <c r="QU46" s="15"/>
+      <c r="QV46" s="15"/>
+      <c r="QW46" s="15"/>
+      <c r="QX46" s="15"/>
+      <c r="QY46" s="15"/>
+      <c r="QZ46" s="15"/>
+      <c r="RA46" s="15"/>
+      <c r="RB46" s="15"/>
+      <c r="RC46" s="15"/>
+      <c r="RD46" s="15"/>
+      <c r="RE46" s="15"/>
+      <c r="RF46" s="15"/>
+      <c r="RG46" s="15"/>
+      <c r="RH46" s="15"/>
+      <c r="RI46" s="15"/>
+      <c r="RJ46" s="15"/>
+      <c r="RK46" s="15"/>
+      <c r="RL46" s="15"/>
+      <c r="RM46" s="15"/>
+      <c r="RN46" s="15"/>
+      <c r="RO46" s="15"/>
+      <c r="RP46" s="15"/>
+      <c r="RQ46" s="15"/>
+      <c r="RR46" s="15"/>
+      <c r="RS46" s="15"/>
+      <c r="RT46" s="15"/>
+      <c r="RU46" s="15"/>
+      <c r="RV46" s="15"/>
+      <c r="RW46" s="15"/>
+      <c r="RX46" s="15"/>
+      <c r="RY46" s="15"/>
+      <c r="RZ46" s="15"/>
+      <c r="SA46" s="15"/>
+      <c r="SB46" s="15"/>
+      <c r="SC46" s="15"/>
+      <c r="SD46" s="15"/>
+      <c r="SE46" s="15"/>
+      <c r="SF46" s="15"/>
+      <c r="SG46" s="15"/>
+      <c r="SH46" s="15"/>
+      <c r="SI46" s="15"/>
+      <c r="SJ46" s="15"/>
+      <c r="SK46" s="15"/>
+      <c r="SL46" s="15"/>
+      <c r="SM46" s="15"/>
+      <c r="SN46" s="15"/>
+      <c r="SO46" s="15"/>
+      <c r="SP46" s="15"/>
+      <c r="SQ46" s="15"/>
+      <c r="SR46" s="15"/>
+      <c r="SS46" s="15"/>
+      <c r="ST46" s="15"/>
+      <c r="SU46" s="15"/>
+      <c r="SV46" s="15"/>
+      <c r="SW46" s="15"/>
+      <c r="SX46" s="15"/>
+      <c r="SY46" s="15"/>
+      <c r="SZ46" s="15"/>
+      <c r="TA46" s="15"/>
+      <c r="TB46" s="15"/>
+      <c r="TC46" s="15"/>
+      <c r="TD46" s="15"/>
+      <c r="TE46" s="15"/>
+      <c r="TF46" s="15"/>
+      <c r="TG46" s="15"/>
+      <c r="TH46" s="15"/>
+      <c r="TI46" s="15"/>
+      <c r="TJ46" s="15"/>
+      <c r="TK46" s="15"/>
+      <c r="TL46" s="15"/>
+      <c r="TM46" s="15"/>
+      <c r="TN46" s="15"/>
+      <c r="TO46" s="15"/>
+      <c r="TP46" s="15"/>
+      <c r="TQ46" s="15"/>
+      <c r="TR46" s="15"/>
+      <c r="TS46" s="15"/>
+      <c r="TT46" s="15"/>
+      <c r="TU46" s="15"/>
+      <c r="TV46" s="15"/>
+      <c r="TW46" s="15"/>
+      <c r="TX46" s="15"/>
+      <c r="TY46" s="15"/>
+      <c r="TZ46" s="15"/>
+      <c r="UA46" s="15"/>
+      <c r="UB46" s="15"/>
+      <c r="UC46" s="15"/>
+      <c r="UD46" s="15"/>
+      <c r="UE46" s="15"/>
+      <c r="UF46" s="15"/>
+      <c r="UG46" s="15"/>
+      <c r="UH46" s="15"/>
+      <c r="UI46" s="15"/>
+      <c r="UJ46" s="15"/>
+      <c r="UK46" s="15"/>
+      <c r="UL46" s="15"/>
+      <c r="UM46" s="15"/>
+      <c r="UN46" s="15"/>
+      <c r="UO46" s="15"/>
+      <c r="UP46" s="15"/>
+      <c r="UQ46" s="15"/>
+      <c r="UR46" s="15"/>
+      <c r="US46" s="15"/>
+      <c r="UT46" s="15"/>
+      <c r="UU46" s="15"/>
+      <c r="UV46" s="15"/>
+      <c r="UW46" s="15"/>
+      <c r="UX46" s="15"/>
+      <c r="UY46" s="15"/>
+      <c r="UZ46" s="15"/>
+      <c r="VA46" s="15"/>
+      <c r="VB46" s="15"/>
+      <c r="VC46" s="15"/>
+      <c r="VD46" s="15"/>
+      <c r="VE46" s="15"/>
+      <c r="VF46" s="15"/>
+      <c r="VG46" s="15"/>
+      <c r="VH46" s="15"/>
+      <c r="VI46" s="15"/>
+      <c r="VJ46" s="15"/>
+      <c r="VK46" s="15"/>
+      <c r="VL46" s="15"/>
+      <c r="VM46" s="15"/>
+      <c r="VN46" s="15"/>
+      <c r="VO46" s="15"/>
+      <c r="VP46" s="15"/>
+      <c r="VQ46" s="15"/>
+      <c r="VR46" s="15"/>
+      <c r="VS46" s="15"/>
+      <c r="VT46" s="15"/>
+      <c r="VU46" s="15"/>
+      <c r="VV46" s="15"/>
+      <c r="VW46" s="15"/>
+      <c r="VX46" s="15"/>
+      <c r="VY46" s="15"/>
+      <c r="VZ46" s="15"/>
+      <c r="WA46" s="15"/>
+      <c r="WB46" s="15"/>
+      <c r="WC46" s="15"/>
+      <c r="WD46" s="15"/>
+      <c r="WE46" s="15"/>
+      <c r="WF46" s="15"/>
+      <c r="WG46" s="15"/>
+      <c r="WH46" s="15"/>
+      <c r="WI46" s="15"/>
+      <c r="WJ46" s="15"/>
+      <c r="WK46" s="15"/>
+      <c r="WL46" s="15"/>
+      <c r="WM46" s="15"/>
+      <c r="WN46" s="15"/>
+      <c r="WO46" s="15"/>
+      <c r="WP46" s="15"/>
+      <c r="WQ46" s="15"/>
+      <c r="WR46" s="15"/>
+      <c r="WS46" s="15"/>
+      <c r="WT46" s="15"/>
+      <c r="WU46" s="15"/>
+      <c r="WV46" s="15"/>
+      <c r="WW46" s="15"/>
+      <c r="WX46" s="15"/>
+      <c r="WY46" s="15"/>
+      <c r="WZ46" s="15"/>
+      <c r="XA46" s="15"/>
+      <c r="XB46" s="15"/>
+      <c r="XC46" s="15"/>
+      <c r="XD46" s="15"/>
+      <c r="XE46" s="15"/>
+      <c r="XF46" s="15"/>
+      <c r="XG46" s="15"/>
+      <c r="XH46" s="15"/>
+      <c r="XI46" s="15"/>
+      <c r="XJ46" s="15"/>
+      <c r="XK46" s="15"/>
+      <c r="XL46" s="15"/>
+      <c r="XM46" s="15"/>
+      <c r="XN46" s="15"/>
+      <c r="XO46" s="15"/>
+      <c r="XP46" s="15"/>
+      <c r="XQ46" s="15"/>
+      <c r="XR46" s="15"/>
+      <c r="XS46" s="15"/>
+      <c r="XT46" s="15"/>
+      <c r="XU46" s="15"/>
+      <c r="XV46" s="15"/>
+      <c r="XW46" s="15"/>
+      <c r="XX46" s="15"/>
+      <c r="XY46" s="15"/>
+      <c r="XZ46" s="15"/>
+      <c r="YA46" s="15"/>
+      <c r="YB46" s="15"/>
+      <c r="YC46" s="15"/>
+      <c r="YD46" s="15"/>
+      <c r="YE46" s="15"/>
+      <c r="YF46" s="15"/>
+      <c r="YG46" s="15"/>
+      <c r="YH46" s="15"/>
+      <c r="YI46" s="15"/>
+      <c r="YJ46" s="15"/>
+      <c r="YK46" s="15"/>
+      <c r="YL46" s="15"/>
+      <c r="YM46" s="15"/>
+      <c r="YN46" s="15"/>
+      <c r="YO46" s="15"/>
+      <c r="YP46" s="15"/>
+      <c r="YQ46" s="15"/>
+      <c r="YR46" s="15"/>
+      <c r="YS46" s="15"/>
+      <c r="YT46" s="15"/>
+      <c r="YU46" s="15"/>
+      <c r="YV46" s="15"/>
+      <c r="YW46" s="15"/>
+      <c r="YX46" s="15"/>
+      <c r="YY46" s="15"/>
+      <c r="YZ46" s="15"/>
+      <c r="ZA46" s="15"/>
+      <c r="ZB46" s="15"/>
+      <c r="ZC46" s="15"/>
+      <c r="ZD46" s="15"/>
+      <c r="ZE46" s="15"/>
+      <c r="ZF46" s="15"/>
+      <c r="ZG46" s="15"/>
+      <c r="ZH46" s="15"/>
+      <c r="ZI46" s="15"/>
+      <c r="ZJ46" s="15"/>
+      <c r="ZK46" s="15"/>
+      <c r="ZL46" s="15"/>
+      <c r="ZM46" s="15"/>
+      <c r="ZN46" s="15"/>
+      <c r="ZO46" s="15"/>
+      <c r="ZP46" s="15"/>
+      <c r="ZQ46" s="15"/>
+      <c r="ZR46" s="15"/>
+      <c r="ZS46" s="15"/>
+      <c r="ZT46" s="15"/>
+      <c r="ZU46" s="15"/>
+      <c r="ZV46" s="15"/>
+      <c r="ZW46" s="15"/>
+      <c r="ZX46" s="15"/>
+      <c r="ZY46" s="15"/>
+      <c r="ZZ46" s="15"/>
+      <c r="AAA46" s="15"/>
+      <c r="AAB46" s="15"/>
+      <c r="AAC46" s="15"/>
+      <c r="AAD46" s="15"/>
+      <c r="AAE46" s="15"/>
+      <c r="AAF46" s="15"/>
+      <c r="AAG46" s="15"/>
+      <c r="AAH46" s="15"/>
+      <c r="AAI46" s="15"/>
+      <c r="AAJ46" s="15"/>
+      <c r="AAK46" s="15"/>
+      <c r="AAL46" s="15"/>
+      <c r="AAM46" s="15"/>
+      <c r="AAN46" s="15"/>
+      <c r="AAO46" s="15"/>
+      <c r="AAP46" s="15"/>
+      <c r="AAQ46" s="15"/>
+      <c r="AAR46" s="15"/>
+      <c r="AAS46" s="15"/>
+      <c r="AAT46" s="15"/>
+      <c r="AAU46" s="15"/>
+      <c r="AAV46" s="15"/>
+      <c r="AAW46" s="15"/>
+      <c r="AAX46" s="15"/>
+      <c r="AAY46" s="15"/>
+      <c r="AAZ46" s="15"/>
+      <c r="ABA46" s="15"/>
+      <c r="ABB46" s="15"/>
+      <c r="ABC46" s="15"/>
+      <c r="ABD46" s="15"/>
+      <c r="ABE46" s="15"/>
+      <c r="ABF46" s="15"/>
+      <c r="ABG46" s="15"/>
+      <c r="ABH46" s="15"/>
+      <c r="ABI46" s="15"/>
+      <c r="ABJ46" s="15"/>
+      <c r="ABK46" s="15"/>
+      <c r="ABL46" s="15"/>
+      <c r="ABM46" s="15"/>
+      <c r="ABN46" s="15"/>
+      <c r="ABO46" s="15"/>
+      <c r="ABP46" s="15"/>
+      <c r="ABQ46" s="15"/>
+      <c r="ABR46" s="15"/>
+      <c r="ABS46" s="15"/>
+      <c r="ABT46" s="15"/>
+      <c r="ABU46" s="15"/>
+      <c r="ABV46" s="15"/>
+      <c r="ABW46" s="15"/>
+      <c r="ABX46" s="15"/>
+      <c r="ABY46" s="15"/>
+      <c r="ABZ46" s="15"/>
+      <c r="ACA46" s="15"/>
+      <c r="ACB46" s="15"/>
+      <c r="ACC46" s="15"/>
+      <c r="ACD46" s="15"/>
+      <c r="ACE46" s="15"/>
+      <c r="ACF46" s="15"/>
+      <c r="ACG46" s="15"/>
+      <c r="ACH46" s="15"/>
+      <c r="ACI46" s="15"/>
+      <c r="ACJ46" s="15"/>
+      <c r="ACK46" s="15"/>
+      <c r="ACL46" s="15"/>
+      <c r="ACM46" s="15"/>
+      <c r="ACN46" s="15"/>
+      <c r="ACO46" s="15"/>
+      <c r="ACP46" s="15"/>
+      <c r="ACQ46" s="15"/>
+      <c r="ACR46" s="15"/>
+      <c r="ACS46" s="15"/>
+      <c r="ACT46" s="15"/>
+      <c r="ACU46" s="15"/>
+      <c r="ACV46" s="15"/>
+      <c r="ACW46" s="15"/>
+      <c r="ACX46" s="15"/>
+      <c r="ACY46" s="15"/>
+      <c r="ACZ46" s="15"/>
+      <c r="ADA46" s="15"/>
+      <c r="ADB46" s="15"/>
+      <c r="ADC46" s="15"/>
+      <c r="ADD46" s="15"/>
+      <c r="ADE46" s="15"/>
+      <c r="ADF46" s="15"/>
+      <c r="ADG46" s="15"/>
+      <c r="ADH46" s="15"/>
+      <c r="ADI46" s="15"/>
+      <c r="ADJ46" s="15"/>
+      <c r="ADK46" s="15"/>
+      <c r="ADL46" s="15"/>
+      <c r="ADM46" s="15"/>
+      <c r="ADN46" s="15"/>
+      <c r="ADO46" s="15"/>
+      <c r="ADP46" s="15"/>
+      <c r="ADQ46" s="15"/>
+      <c r="ADR46" s="15"/>
+      <c r="ADS46" s="15"/>
+      <c r="ADT46" s="15"/>
+      <c r="ADU46" s="15"/>
+      <c r="ADV46" s="15"/>
+      <c r="ADW46" s="15"/>
+      <c r="ADX46" s="15"/>
+      <c r="ADY46" s="15"/>
+      <c r="ADZ46" s="15"/>
+      <c r="AEA46" s="15"/>
+      <c r="AEB46" s="15"/>
+      <c r="AEC46" s="15"/>
+      <c r="AED46" s="15"/>
+      <c r="AEE46" s="15"/>
+      <c r="AEF46" s="15"/>
+      <c r="AEG46" s="15"/>
+      <c r="AEH46" s="15"/>
+      <c r="AEI46" s="15"/>
+      <c r="AEJ46" s="15"/>
+      <c r="AEK46" s="15"/>
+      <c r="AEL46" s="15"/>
+      <c r="AEM46" s="15"/>
+      <c r="AEN46" s="15"/>
+      <c r="AEO46" s="15"/>
+      <c r="AEP46" s="15"/>
+      <c r="AEQ46" s="15"/>
+      <c r="AER46" s="15"/>
+      <c r="AES46" s="15"/>
+      <c r="AET46" s="15"/>
+      <c r="AEU46" s="15"/>
+      <c r="AEV46" s="15"/>
+      <c r="AEW46" s="15"/>
+      <c r="AEX46" s="15"/>
+      <c r="AEY46" s="15"/>
+      <c r="AEZ46" s="15"/>
+      <c r="AFA46" s="15"/>
+      <c r="AFB46" s="15"/>
+      <c r="AFC46" s="15"/>
+      <c r="AFD46" s="15"/>
+      <c r="AFE46" s="15"/>
+      <c r="AFF46" s="15"/>
+      <c r="AFG46" s="15"/>
+      <c r="AFH46" s="15"/>
+      <c r="AFI46" s="15"/>
+      <c r="AFJ46" s="15"/>
+      <c r="AFK46" s="15"/>
+      <c r="AFL46" s="15"/>
+      <c r="AFM46" s="15"/>
+      <c r="AFN46" s="15"/>
+      <c r="AFO46" s="15"/>
+      <c r="AFP46" s="15"/>
+      <c r="AFQ46" s="15"/>
+      <c r="AFR46" s="15"/>
+      <c r="AFS46" s="15"/>
+      <c r="AFT46" s="15"/>
+      <c r="AFU46" s="15"/>
+      <c r="AFV46" s="15"/>
+      <c r="AFW46" s="15"/>
+      <c r="AFX46" s="15"/>
+      <c r="AFY46" s="15"/>
+      <c r="AFZ46" s="15"/>
+      <c r="AGA46" s="15"/>
+      <c r="AGB46" s="15"/>
+      <c r="AGC46" s="15"/>
+      <c r="AGD46" s="15"/>
+      <c r="AGE46" s="15"/>
+      <c r="AGF46" s="15"/>
+      <c r="AGG46" s="15"/>
+      <c r="AGH46" s="15"/>
+      <c r="AGI46" s="15"/>
+      <c r="AGJ46" s="15"/>
+      <c r="AGK46" s="15"/>
+      <c r="AGL46" s="15"/>
+      <c r="AGM46" s="15"/>
+      <c r="AGN46" s="15"/>
+      <c r="AGO46" s="15"/>
+      <c r="AGP46" s="15"/>
+      <c r="AGQ46" s="15"/>
+      <c r="AGR46" s="15"/>
+      <c r="AGS46" s="15"/>
+      <c r="AGT46" s="15"/>
+      <c r="AGU46" s="15"/>
+      <c r="AGV46" s="15"/>
+      <c r="AGW46" s="15"/>
+      <c r="AGX46" s="15"/>
+      <c r="AGY46" s="15"/>
+      <c r="AGZ46" s="15"/>
+      <c r="AHA46" s="15"/>
+      <c r="AHB46" s="15"/>
+      <c r="AHC46" s="15"/>
+      <c r="AHD46" s="15"/>
+      <c r="AHE46" s="15"/>
+      <c r="AHF46" s="15"/>
+      <c r="AHG46" s="15"/>
+      <c r="AHH46" s="15"/>
+      <c r="AHI46" s="15"/>
+      <c r="AHJ46" s="15"/>
+      <c r="AHK46" s="15"/>
+      <c r="AHL46" s="15"/>
+      <c r="AHM46" s="15"/>
+      <c r="AHN46" s="15"/>
+      <c r="AHO46" s="15"/>
+      <c r="AHP46" s="15"/>
+      <c r="AHQ46" s="15"/>
+      <c r="AHR46" s="15"/>
+      <c r="AHS46" s="15"/>
+      <c r="AHT46" s="15"/>
+      <c r="AHU46" s="15"/>
+      <c r="AHV46" s="15"/>
+      <c r="AHW46" s="15"/>
+      <c r="AHX46" s="15"/>
+      <c r="AHY46" s="15"/>
+      <c r="AHZ46" s="15"/>
+      <c r="AIA46" s="15"/>
+      <c r="AIB46" s="15"/>
+      <c r="AIC46" s="15"/>
+      <c r="AID46" s="15"/>
+      <c r="AIE46" s="15"/>
+      <c r="AIF46" s="15"/>
+      <c r="AIG46" s="15"/>
+      <c r="AIH46" s="15"/>
+      <c r="AII46" s="15"/>
+      <c r="AIJ46" s="15"/>
+      <c r="AIK46" s="15"/>
+      <c r="AIL46" s="15"/>
+      <c r="AIM46" s="15"/>
+      <c r="AIN46" s="15"/>
+      <c r="AIO46" s="15"/>
+      <c r="AIP46" s="15"/>
+      <c r="AIQ46" s="15"/>
+      <c r="AIR46" s="15"/>
+      <c r="AIS46" s="15"/>
+      <c r="AIT46" s="15"/>
+      <c r="AIU46" s="15"/>
+      <c r="AIV46" s="15"/>
+      <c r="AIW46" s="15"/>
+      <c r="AIX46" s="15"/>
+      <c r="AIY46" s="15"/>
+      <c r="AIZ46" s="15"/>
+      <c r="AJA46" s="15"/>
+      <c r="AJB46" s="15"/>
+      <c r="AJC46" s="15"/>
+      <c r="AJD46" s="15"/>
+      <c r="AJE46" s="15"/>
+      <c r="AJF46" s="15"/>
+      <c r="AJG46" s="15"/>
+      <c r="AJH46" s="15"/>
+      <c r="AJI46" s="15"/>
+      <c r="AJJ46" s="15"/>
+      <c r="AJK46" s="15"/>
+      <c r="AJL46" s="15"/>
+      <c r="AJM46" s="15"/>
+      <c r="AJN46" s="15"/>
+      <c r="AJO46" s="15"/>
+      <c r="AJP46" s="15"/>
+      <c r="AJQ46" s="15"/>
+      <c r="AJR46" s="15"/>
+      <c r="AJS46" s="15"/>
+      <c r="AJT46" s="15"/>
+      <c r="AJU46" s="15"/>
+      <c r="AJV46" s="15"/>
+      <c r="AJW46" s="15"/>
+      <c r="AJX46" s="15"/>
+      <c r="AJY46" s="15"/>
+      <c r="AJZ46" s="15"/>
+      <c r="AKA46" s="15"/>
+      <c r="AKB46" s="15"/>
+      <c r="AKC46" s="15"/>
+      <c r="AKD46" s="15"/>
+      <c r="AKE46" s="15"/>
+      <c r="AKF46" s="15"/>
+      <c r="AKG46" s="15"/>
+      <c r="AKH46" s="15"/>
+      <c r="AKI46" s="15"/>
+      <c r="AKJ46" s="15"/>
+      <c r="AKK46" s="15"/>
+      <c r="AKL46" s="15"/>
+      <c r="AKM46" s="15"/>
+      <c r="AKN46" s="15"/>
+      <c r="AKO46" s="15"/>
+      <c r="AKP46" s="15"/>
+      <c r="AKQ46" s="15"/>
+      <c r="AKR46" s="15"/>
+      <c r="AKS46" s="15"/>
+      <c r="AKT46" s="15"/>
+      <c r="AKU46" s="15"/>
+      <c r="AKV46" s="15"/>
+      <c r="AKW46" s="15"/>
+      <c r="AKX46" s="15"/>
+      <c r="AKY46" s="15"/>
+      <c r="AKZ46" s="15"/>
+      <c r="ALA46" s="15"/>
+      <c r="ALB46" s="15"/>
+      <c r="ALC46" s="15"/>
+      <c r="ALD46" s="15"/>
+      <c r="ALE46" s="15"/>
+      <c r="ALF46" s="15"/>
+      <c r="ALG46" s="15"/>
+      <c r="ALH46" s="15"/>
+      <c r="ALI46" s="15"/>
+      <c r="ALJ46" s="15"/>
+      <c r="ALK46" s="15"/>
+      <c r="ALL46" s="15"/>
+      <c r="ALM46" s="15"/>
+      <c r="ALN46" s="15"/>
+      <c r="ALO46" s="15"/>
+      <c r="ALP46" s="15"/>
+      <c r="ALQ46" s="15"/>
+      <c r="ALR46" s="15"/>
+      <c r="ALS46" s="15"/>
+      <c r="ALT46" s="15"/>
+      <c r="ALU46" s="15"/>
+      <c r="ALV46" s="15"/>
+      <c r="ALW46" s="15"/>
+      <c r="ALX46" s="15"/>
+      <c r="ALY46" s="15"/>
+      <c r="ALZ46" s="15"/>
+      <c r="AMA46" s="15"/>
+      <c r="AMB46" s="15"/>
+      <c r="AMC46" s="15"/>
+      <c r="AMD46" s="15"/>
+      <c r="AME46" s="15"/>
+      <c r="AMF46" s="15"/>
+      <c r="AMG46" s="15"/>
+      <c r="AMH46" s="15"/>
+      <c r="AMI46" s="15"/>
+      <c r="AMJ46" s="15"/>
+      <c r="AMK46" s="15"/>
+      <c r="AML46" s="15"/>
+      <c r="AMM46" s="15"/>
+    </row>
+    <row r="47" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="O47" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="48" spans="1:1028" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48"/>
+        <v>154</v>
+      </c>
       <c r="F48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>159</v>
+        <v>491</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E49"/>
       <c r="F49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>13</v>
@@ -7659,8 +7694,8 @@
       <c r="G50" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="L50" s="10" t="s">
-        <v>168</v>
+      <c r="N50" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="O50" s="10" t="s">
         <v>537</v>
@@ -7668,18 +7703,17 @@
     </row>
     <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51"/>
+        <v>166</v>
+      </c>
       <c r="F51" s="8" t="s">
         <v>13</v>
       </c>
@@ -7687,13 +7721,7 @@
         <v>491</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="O51" s="10" t="s">
         <v>537</v>
@@ -7701,42 +7729,49 @@
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E52"/>
       <c r="F52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>176</v>
+        <v>491</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>13</v>
@@ -7745,104 +7780,104 @@
         <v>492</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55"/>
+        <v>167</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F55" s="8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>491</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E56"/>
       <c r="F56" s="8" t="s">
         <v>176</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>491</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="O56" s="10" t="s">
         <v>537</v>
@@ -7850,55 +7885,57 @@
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>420</v>
+        <v>491</v>
       </c>
       <c r="O57" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>193</v>
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58"/>
+        <v>179</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="F58" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="O58" s="10" t="s">
         <v>537</v>
@@ -7906,16 +7943,16 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="8" t="s">
@@ -7930,16 +7967,16 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="8" t="s">
@@ -7954,16 +7991,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="8" t="s">
@@ -7978,16 +8015,16 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E62"/>
       <c r="F62" s="8" t="s">
@@ -8002,16 +8039,16 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E63"/>
       <c r="F63" s="8" t="s">
@@ -8026,17 +8063,18 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>219</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E64"/>
       <c r="F64" s="8" t="s">
         <v>150</v>
       </c>
@@ -8049,18 +8087,17 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65"/>
+        <v>219</v>
+      </c>
       <c r="F65" s="8" t="s">
         <v>150</v>
       </c>
@@ -8073,16 +8110,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="8" t="s">
@@ -8097,16 +8134,16 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="8" t="s">
@@ -8120,17 +8157,17 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>231</v>
+      <c r="A68" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="8" t="s">
@@ -8145,16 +8182,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="8" t="s">
@@ -8169,16 +8206,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="8" t="s">
@@ -8193,16 +8230,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="8" t="s">
@@ -8217,16 +8254,16 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="8" t="s">
@@ -8241,16 +8278,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="8" t="s">
@@ -8265,16 +8302,16 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="8" t="s">
@@ -8289,16 +8326,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="8" t="s">
@@ -8313,16 +8350,16 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="8" t="s">
@@ -8337,16 +8374,16 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E77"/>
       <c r="F77" s="8" t="s">
@@ -8359,18 +8396,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E78"/>
       <c r="F78" s="8" t="s">
@@ -8383,18 +8420,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E79"/>
       <c r="F79" s="8" t="s">
@@ -8409,16 +8446,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E80"/>
       <c r="F80" s="8" t="s">
@@ -8433,16 +8470,16 @@
     </row>
     <row r="81" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E81"/>
       <c r="F81" s="8" t="s">
@@ -8457,16 +8494,16 @@
     </row>
     <row r="82" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E82"/>
       <c r="F82" s="8" t="s">
@@ -8481,16 +8518,16 @@
     </row>
     <row r="83" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E83"/>
       <c r="F83" s="8" t="s">
@@ -8499,23 +8536,22 @@
       <c r="G83" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="I83" s="3"/>
       <c r="O83" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="8" t="s">
@@ -8531,16 +8567,16 @@
     </row>
     <row r="85" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E85"/>
       <c r="F85" s="8" t="s">
@@ -8556,16 +8592,16 @@
     </row>
     <row r="86" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E86"/>
       <c r="F86" s="8" t="s">
@@ -8574,23 +8610,25 @@
       <c r="G86" s="10" t="s">
         <v>491</v>
       </c>
+      <c r="I86" s="3"/>
       <c r="O86" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>308</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E87"/>
       <c r="F87" s="8" t="s">
         <v>150</v>
       </c>
@@ -8603,41 +8641,39 @@
     </row>
     <row r="88" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E88"/>
+        <v>308</v>
+      </c>
       <c r="F88" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="I88" s="4"/>
       <c r="O88" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="89" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E89"/>
       <c r="F89" s="8" t="s">
@@ -8646,2226 +8682,2251 @@
       <c r="G89" s="10" t="s">
         <v>491</v>
       </c>
+      <c r="I89" s="4"/>
       <c r="O89" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="90" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>317</v>
+    <row r="90" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>319</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="E90"/>
       <c r="F90" s="8" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I90" s="3"/>
-      <c r="N90" s="7" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="O90" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+    <row r="91" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="N91" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B92" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D92" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E91" s="15"/>
-      <c r="F91" s="16" t="s">
+      <c r="E92" s="15"/>
+      <c r="F92" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G92" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H92" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="I91" s="22">
+      <c r="I92" s="22">
         <v>45138</v>
       </c>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="17" t="s">
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
-      <c r="U91" s="15"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="15"/>
-      <c r="AA91" s="15"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="15"/>
-      <c r="AD91" s="15"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="15"/>
-      <c r="AN91" s="15"/>
-      <c r="AO91" s="15"/>
-      <c r="AP91" s="15"/>
-      <c r="AQ91" s="15"/>
-      <c r="AR91" s="15"/>
-      <c r="AS91" s="15"/>
-      <c r="AT91" s="15"/>
-      <c r="AU91" s="15"/>
-      <c r="AV91" s="15"/>
-      <c r="AW91" s="15"/>
-      <c r="AX91" s="15"/>
-      <c r="AY91" s="15"/>
-      <c r="AZ91" s="15"/>
-      <c r="BA91" s="15"/>
-      <c r="BB91" s="15"/>
-      <c r="BC91" s="15"/>
-      <c r="BD91" s="15"/>
-      <c r="BE91" s="15"/>
-      <c r="BF91" s="15"/>
-      <c r="BG91" s="15"/>
-      <c r="BH91" s="15"/>
-      <c r="BI91" s="15"/>
-      <c r="BJ91" s="15"/>
-      <c r="BK91" s="15"/>
-      <c r="BL91" s="15"/>
-      <c r="BM91" s="15"/>
-      <c r="BN91" s="15"/>
-      <c r="BO91" s="15"/>
-      <c r="BP91" s="15"/>
-      <c r="BQ91" s="15"/>
-      <c r="BR91" s="15"/>
-      <c r="BS91" s="15"/>
-      <c r="BT91" s="15"/>
-      <c r="BU91" s="15"/>
-      <c r="BV91" s="15"/>
-      <c r="BW91" s="15"/>
-      <c r="BX91" s="15"/>
-      <c r="BY91" s="15"/>
-      <c r="BZ91" s="15"/>
-      <c r="CA91" s="15"/>
-      <c r="CB91" s="15"/>
-      <c r="CC91" s="15"/>
-      <c r="CD91" s="15"/>
-      <c r="CE91" s="15"/>
-      <c r="CF91" s="15"/>
-      <c r="CG91" s="15"/>
-      <c r="CH91" s="15"/>
-      <c r="CI91" s="15"/>
-      <c r="CJ91" s="15"/>
-      <c r="CK91" s="15"/>
-      <c r="CL91" s="15"/>
-      <c r="CM91" s="15"/>
-      <c r="CN91" s="15"/>
-      <c r="CO91" s="15"/>
-      <c r="CP91" s="15"/>
-      <c r="CQ91" s="15"/>
-      <c r="CR91" s="15"/>
-      <c r="CS91" s="15"/>
-      <c r="CT91" s="15"/>
-      <c r="CU91" s="15"/>
-      <c r="CV91" s="15"/>
-      <c r="CW91" s="15"/>
-      <c r="CX91" s="15"/>
-      <c r="CY91" s="15"/>
-      <c r="CZ91" s="15"/>
-      <c r="DA91" s="15"/>
-      <c r="DB91" s="15"/>
-      <c r="DC91" s="15"/>
-      <c r="DD91" s="15"/>
-      <c r="DE91" s="15"/>
-      <c r="DF91" s="15"/>
-      <c r="DG91" s="15"/>
-      <c r="DH91" s="15"/>
-      <c r="DI91" s="15"/>
-      <c r="DJ91" s="15"/>
-      <c r="DK91" s="15"/>
-      <c r="DL91" s="15"/>
-      <c r="DM91" s="15"/>
-      <c r="DN91" s="15"/>
-      <c r="DO91" s="15"/>
-      <c r="DP91" s="15"/>
-      <c r="DQ91" s="15"/>
-      <c r="DR91" s="15"/>
-      <c r="DS91" s="15"/>
-      <c r="DT91" s="15"/>
-      <c r="DU91" s="15"/>
-      <c r="DV91" s="15"/>
-      <c r="DW91" s="15"/>
-      <c r="DX91" s="15"/>
-      <c r="DY91" s="15"/>
-      <c r="DZ91" s="15"/>
-      <c r="EA91" s="15"/>
-      <c r="EB91" s="15"/>
-      <c r="EC91" s="15"/>
-      <c r="ED91" s="15"/>
-      <c r="EE91" s="15"/>
-      <c r="EF91" s="15"/>
-      <c r="EG91" s="15"/>
-      <c r="EH91" s="15"/>
-      <c r="EI91" s="15"/>
-      <c r="EJ91" s="15"/>
-      <c r="EK91" s="15"/>
-      <c r="EL91" s="15"/>
-      <c r="EM91" s="15"/>
-      <c r="EN91" s="15"/>
-      <c r="EO91" s="15"/>
-      <c r="EP91" s="15"/>
-      <c r="EQ91" s="15"/>
-      <c r="ER91" s="15"/>
-      <c r="ES91" s="15"/>
-      <c r="ET91" s="15"/>
-      <c r="EU91" s="15"/>
-      <c r="EV91" s="15"/>
-      <c r="EW91" s="15"/>
-      <c r="EX91" s="15"/>
-      <c r="EY91" s="15"/>
-      <c r="EZ91" s="15"/>
-      <c r="FA91" s="15"/>
-      <c r="FB91" s="15"/>
-      <c r="FC91" s="15"/>
-      <c r="FD91" s="15"/>
-      <c r="FE91" s="15"/>
-      <c r="FF91" s="15"/>
-      <c r="FG91" s="15"/>
-      <c r="FH91" s="15"/>
-      <c r="FI91" s="15"/>
-      <c r="FJ91" s="15"/>
-      <c r="FK91" s="15"/>
-      <c r="FL91" s="15"/>
-      <c r="FM91" s="15"/>
-      <c r="FN91" s="15"/>
-      <c r="FO91" s="15"/>
-      <c r="FP91" s="15"/>
-      <c r="FQ91" s="15"/>
-      <c r="FR91" s="15"/>
-      <c r="FS91" s="15"/>
-      <c r="FT91" s="15"/>
-      <c r="FU91" s="15"/>
-      <c r="FV91" s="15"/>
-      <c r="FW91" s="15"/>
-      <c r="FX91" s="15"/>
-      <c r="FY91" s="15"/>
-      <c r="FZ91" s="15"/>
-      <c r="GA91" s="15"/>
-      <c r="GB91" s="15"/>
-      <c r="GC91" s="15"/>
-      <c r="GD91" s="15"/>
-      <c r="GE91" s="15"/>
-      <c r="GF91" s="15"/>
-      <c r="GG91" s="15"/>
-      <c r="GH91" s="15"/>
-      <c r="GI91" s="15"/>
-      <c r="GJ91" s="15"/>
-      <c r="GK91" s="15"/>
-      <c r="GL91" s="15"/>
-      <c r="GM91" s="15"/>
-      <c r="GN91" s="15"/>
-      <c r="GO91" s="15"/>
-      <c r="GP91" s="15"/>
-      <c r="GQ91" s="15"/>
-      <c r="GR91" s="15"/>
-      <c r="GS91" s="15"/>
-      <c r="GT91" s="15"/>
-      <c r="GU91" s="15"/>
-      <c r="GV91" s="15"/>
-      <c r="GW91" s="15"/>
-      <c r="GX91" s="15"/>
-      <c r="GY91" s="15"/>
-      <c r="GZ91" s="15"/>
-      <c r="HA91" s="15"/>
-      <c r="HB91" s="15"/>
-      <c r="HC91" s="15"/>
-      <c r="HD91" s="15"/>
-      <c r="HE91" s="15"/>
-      <c r="HF91" s="15"/>
-      <c r="HG91" s="15"/>
-      <c r="HH91" s="15"/>
-      <c r="HI91" s="15"/>
-      <c r="HJ91" s="15"/>
-      <c r="HK91" s="15"/>
-      <c r="HL91" s="15"/>
-      <c r="HM91" s="15"/>
-      <c r="HN91" s="15"/>
-      <c r="HO91" s="15"/>
-      <c r="HP91" s="15"/>
-      <c r="HQ91" s="15"/>
-      <c r="HR91" s="15"/>
-      <c r="HS91" s="15"/>
-      <c r="HT91" s="15"/>
-      <c r="HU91" s="15"/>
-      <c r="HV91" s="15"/>
-      <c r="HW91" s="15"/>
-      <c r="HX91" s="15"/>
-      <c r="HY91" s="15"/>
-      <c r="HZ91" s="15"/>
-      <c r="IA91" s="15"/>
-      <c r="IB91" s="15"/>
-      <c r="IC91" s="15"/>
-      <c r="ID91" s="15"/>
-      <c r="IE91" s="15"/>
-      <c r="IF91" s="15"/>
-      <c r="IG91" s="15"/>
-      <c r="IH91" s="15"/>
-      <c r="II91" s="15"/>
-      <c r="IJ91" s="15"/>
-      <c r="IK91" s="15"/>
-      <c r="IL91" s="15"/>
-      <c r="IM91" s="15"/>
-      <c r="IN91" s="15"/>
-      <c r="IO91" s="15"/>
-      <c r="IP91" s="15"/>
-      <c r="IQ91" s="15"/>
-      <c r="IR91" s="15"/>
-      <c r="IS91" s="15"/>
-      <c r="IT91" s="15"/>
-      <c r="IU91" s="15"/>
-      <c r="IV91" s="15"/>
-      <c r="IW91" s="15"/>
-      <c r="IX91" s="15"/>
-      <c r="IY91" s="15"/>
-      <c r="IZ91" s="15"/>
-      <c r="JA91" s="15"/>
-      <c r="JB91" s="15"/>
-      <c r="JC91" s="15"/>
-      <c r="JD91" s="15"/>
-      <c r="JE91" s="15"/>
-      <c r="JF91" s="15"/>
-      <c r="JG91" s="15"/>
-      <c r="JH91" s="15"/>
-      <c r="JI91" s="15"/>
-      <c r="JJ91" s="15"/>
-      <c r="JK91" s="15"/>
-      <c r="JL91" s="15"/>
-      <c r="JM91" s="15"/>
-      <c r="JN91" s="15"/>
-      <c r="JO91" s="15"/>
-      <c r="JP91" s="15"/>
-      <c r="JQ91" s="15"/>
-      <c r="JR91" s="15"/>
-      <c r="JS91" s="15"/>
-      <c r="JT91" s="15"/>
-      <c r="JU91" s="15"/>
-      <c r="JV91" s="15"/>
-      <c r="JW91" s="15"/>
-      <c r="JX91" s="15"/>
-      <c r="JY91" s="15"/>
-      <c r="JZ91" s="15"/>
-      <c r="KA91" s="15"/>
-      <c r="KB91" s="15"/>
-      <c r="KC91" s="15"/>
-      <c r="KD91" s="15"/>
-      <c r="KE91" s="15"/>
-      <c r="KF91" s="15"/>
-      <c r="KG91" s="15"/>
-      <c r="KH91" s="15"/>
-      <c r="KI91" s="15"/>
-      <c r="KJ91" s="15"/>
-      <c r="KK91" s="15"/>
-      <c r="KL91" s="15"/>
-      <c r="KM91" s="15"/>
-      <c r="KN91" s="15"/>
-      <c r="KO91" s="15"/>
-      <c r="KP91" s="15"/>
-      <c r="KQ91" s="15"/>
-      <c r="KR91" s="15"/>
-      <c r="KS91" s="15"/>
-      <c r="KT91" s="15"/>
-      <c r="KU91" s="15"/>
-      <c r="KV91" s="15"/>
-      <c r="KW91" s="15"/>
-      <c r="KX91" s="15"/>
-      <c r="KY91" s="15"/>
-      <c r="KZ91" s="15"/>
-      <c r="LA91" s="15"/>
-      <c r="LB91" s="15"/>
-      <c r="LC91" s="15"/>
-      <c r="LD91" s="15"/>
-      <c r="LE91" s="15"/>
-      <c r="LF91" s="15"/>
-      <c r="LG91" s="15"/>
-      <c r="LH91" s="15"/>
-      <c r="LI91" s="15"/>
-      <c r="LJ91" s="15"/>
-      <c r="LK91" s="15"/>
-      <c r="LL91" s="15"/>
-      <c r="LM91" s="15"/>
-      <c r="LN91" s="15"/>
-      <c r="LO91" s="15"/>
-      <c r="LP91" s="15"/>
-      <c r="LQ91" s="15"/>
-      <c r="LR91" s="15"/>
-      <c r="LS91" s="15"/>
-      <c r="LT91" s="15"/>
-      <c r="LU91" s="15"/>
-      <c r="LV91" s="15"/>
-      <c r="LW91" s="15"/>
-      <c r="LX91" s="15"/>
-      <c r="LY91" s="15"/>
-      <c r="LZ91" s="15"/>
-      <c r="MA91" s="15"/>
-      <c r="MB91" s="15"/>
-      <c r="MC91" s="15"/>
-      <c r="MD91" s="15"/>
-      <c r="ME91" s="15"/>
-      <c r="MF91" s="15"/>
-      <c r="MG91" s="15"/>
-      <c r="MH91" s="15"/>
-      <c r="MI91" s="15"/>
-      <c r="MJ91" s="15"/>
-      <c r="MK91" s="15"/>
-      <c r="ML91" s="15"/>
-      <c r="MM91" s="15"/>
-      <c r="MN91" s="15"/>
-      <c r="MO91" s="15"/>
-      <c r="MP91" s="15"/>
-      <c r="MQ91" s="15"/>
-      <c r="MR91" s="15"/>
-      <c r="MS91" s="15"/>
-      <c r="MT91" s="15"/>
-      <c r="MU91" s="15"/>
-      <c r="MV91" s="15"/>
-      <c r="MW91" s="15"/>
-      <c r="MX91" s="15"/>
-      <c r="MY91" s="15"/>
-      <c r="MZ91" s="15"/>
-      <c r="NA91" s="15"/>
-      <c r="NB91" s="15"/>
-      <c r="NC91" s="15"/>
-      <c r="ND91" s="15"/>
-      <c r="NE91" s="15"/>
-      <c r="NF91" s="15"/>
-      <c r="NG91" s="15"/>
-      <c r="NH91" s="15"/>
-      <c r="NI91" s="15"/>
-      <c r="NJ91" s="15"/>
-      <c r="NK91" s="15"/>
-      <c r="NL91" s="15"/>
-      <c r="NM91" s="15"/>
-      <c r="NN91" s="15"/>
-      <c r="NO91" s="15"/>
-      <c r="NP91" s="15"/>
-      <c r="NQ91" s="15"/>
-      <c r="NR91" s="15"/>
-      <c r="NS91" s="15"/>
-      <c r="NT91" s="15"/>
-      <c r="NU91" s="15"/>
-      <c r="NV91" s="15"/>
-      <c r="NW91" s="15"/>
-      <c r="NX91" s="15"/>
-      <c r="NY91" s="15"/>
-      <c r="NZ91" s="15"/>
-      <c r="OA91" s="15"/>
-      <c r="OB91" s="15"/>
-      <c r="OC91" s="15"/>
-      <c r="OD91" s="15"/>
-      <c r="OE91" s="15"/>
-      <c r="OF91" s="15"/>
-      <c r="OG91" s="15"/>
-      <c r="OH91" s="15"/>
-      <c r="OI91" s="15"/>
-      <c r="OJ91" s="15"/>
-      <c r="OK91" s="15"/>
-      <c r="OL91" s="15"/>
-      <c r="OM91" s="15"/>
-      <c r="ON91" s="15"/>
-      <c r="OO91" s="15"/>
-      <c r="OP91" s="15"/>
-      <c r="OQ91" s="15"/>
-      <c r="OR91" s="15"/>
-      <c r="OS91" s="15"/>
-      <c r="OT91" s="15"/>
-      <c r="OU91" s="15"/>
-      <c r="OV91" s="15"/>
-      <c r="OW91" s="15"/>
-      <c r="OX91" s="15"/>
-      <c r="OY91" s="15"/>
-      <c r="OZ91" s="15"/>
-      <c r="PA91" s="15"/>
-      <c r="PB91" s="15"/>
-      <c r="PC91" s="15"/>
-      <c r="PD91" s="15"/>
-      <c r="PE91" s="15"/>
-      <c r="PF91" s="15"/>
-      <c r="PG91" s="15"/>
-      <c r="PH91" s="15"/>
-      <c r="PI91" s="15"/>
-      <c r="PJ91" s="15"/>
-      <c r="PK91" s="15"/>
-      <c r="PL91" s="15"/>
-      <c r="PM91" s="15"/>
-      <c r="PN91" s="15"/>
-      <c r="PO91" s="15"/>
-      <c r="PP91" s="15"/>
-      <c r="PQ91" s="15"/>
-      <c r="PR91" s="15"/>
-      <c r="PS91" s="15"/>
-      <c r="PT91" s="15"/>
-      <c r="PU91" s="15"/>
-      <c r="PV91" s="15"/>
-      <c r="PW91" s="15"/>
-      <c r="PX91" s="15"/>
-      <c r="PY91" s="15"/>
-      <c r="PZ91" s="15"/>
-      <c r="QA91" s="15"/>
-      <c r="QB91" s="15"/>
-      <c r="QC91" s="15"/>
-      <c r="QD91" s="15"/>
-      <c r="QE91" s="15"/>
-      <c r="QF91" s="15"/>
-      <c r="QG91" s="15"/>
-      <c r="QH91" s="15"/>
-      <c r="QI91" s="15"/>
-      <c r="QJ91" s="15"/>
-      <c r="QK91" s="15"/>
-      <c r="QL91" s="15"/>
-      <c r="QM91" s="15"/>
-      <c r="QN91" s="15"/>
-      <c r="QO91" s="15"/>
-      <c r="QP91" s="15"/>
-      <c r="QQ91" s="15"/>
-      <c r="QR91" s="15"/>
-      <c r="QS91" s="15"/>
-      <c r="QT91" s="15"/>
-      <c r="QU91" s="15"/>
-      <c r="QV91" s="15"/>
-      <c r="QW91" s="15"/>
-      <c r="QX91" s="15"/>
-      <c r="QY91" s="15"/>
-      <c r="QZ91" s="15"/>
-      <c r="RA91" s="15"/>
-      <c r="RB91" s="15"/>
-      <c r="RC91" s="15"/>
-      <c r="RD91" s="15"/>
-      <c r="RE91" s="15"/>
-      <c r="RF91" s="15"/>
-      <c r="RG91" s="15"/>
-      <c r="RH91" s="15"/>
-      <c r="RI91" s="15"/>
-      <c r="RJ91" s="15"/>
-      <c r="RK91" s="15"/>
-      <c r="RL91" s="15"/>
-      <c r="RM91" s="15"/>
-      <c r="RN91" s="15"/>
-      <c r="RO91" s="15"/>
-      <c r="RP91" s="15"/>
-      <c r="RQ91" s="15"/>
-      <c r="RR91" s="15"/>
-      <c r="RS91" s="15"/>
-      <c r="RT91" s="15"/>
-      <c r="RU91" s="15"/>
-      <c r="RV91" s="15"/>
-      <c r="RW91" s="15"/>
-      <c r="RX91" s="15"/>
-      <c r="RY91" s="15"/>
-      <c r="RZ91" s="15"/>
-      <c r="SA91" s="15"/>
-      <c r="SB91" s="15"/>
-      <c r="SC91" s="15"/>
-      <c r="SD91" s="15"/>
-      <c r="SE91" s="15"/>
-      <c r="SF91" s="15"/>
-      <c r="SG91" s="15"/>
-      <c r="SH91" s="15"/>
-      <c r="SI91" s="15"/>
-      <c r="SJ91" s="15"/>
-      <c r="SK91" s="15"/>
-      <c r="SL91" s="15"/>
-      <c r="SM91" s="15"/>
-      <c r="SN91" s="15"/>
-      <c r="SO91" s="15"/>
-      <c r="SP91" s="15"/>
-      <c r="SQ91" s="15"/>
-      <c r="SR91" s="15"/>
-      <c r="SS91" s="15"/>
-      <c r="ST91" s="15"/>
-      <c r="SU91" s="15"/>
-      <c r="SV91" s="15"/>
-      <c r="SW91" s="15"/>
-      <c r="SX91" s="15"/>
-      <c r="SY91" s="15"/>
-      <c r="SZ91" s="15"/>
-      <c r="TA91" s="15"/>
-      <c r="TB91" s="15"/>
-      <c r="TC91" s="15"/>
-      <c r="TD91" s="15"/>
-      <c r="TE91" s="15"/>
-      <c r="TF91" s="15"/>
-      <c r="TG91" s="15"/>
-      <c r="TH91" s="15"/>
-      <c r="TI91" s="15"/>
-      <c r="TJ91" s="15"/>
-      <c r="TK91" s="15"/>
-      <c r="TL91" s="15"/>
-      <c r="TM91" s="15"/>
-      <c r="TN91" s="15"/>
-      <c r="TO91" s="15"/>
-      <c r="TP91" s="15"/>
-      <c r="TQ91" s="15"/>
-      <c r="TR91" s="15"/>
-      <c r="TS91" s="15"/>
-      <c r="TT91" s="15"/>
-      <c r="TU91" s="15"/>
-      <c r="TV91" s="15"/>
-      <c r="TW91" s="15"/>
-      <c r="TX91" s="15"/>
-      <c r="TY91" s="15"/>
-      <c r="TZ91" s="15"/>
-      <c r="UA91" s="15"/>
-      <c r="UB91" s="15"/>
-      <c r="UC91" s="15"/>
-      <c r="UD91" s="15"/>
-      <c r="UE91" s="15"/>
-      <c r="UF91" s="15"/>
-      <c r="UG91" s="15"/>
-      <c r="UH91" s="15"/>
-      <c r="UI91" s="15"/>
-      <c r="UJ91" s="15"/>
-      <c r="UK91" s="15"/>
-      <c r="UL91" s="15"/>
-      <c r="UM91" s="15"/>
-      <c r="UN91" s="15"/>
-      <c r="UO91" s="15"/>
-      <c r="UP91" s="15"/>
-      <c r="UQ91" s="15"/>
-      <c r="UR91" s="15"/>
-      <c r="US91" s="15"/>
-      <c r="UT91" s="15"/>
-      <c r="UU91" s="15"/>
-      <c r="UV91" s="15"/>
-      <c r="UW91" s="15"/>
-      <c r="UX91" s="15"/>
-      <c r="UY91" s="15"/>
-      <c r="UZ91" s="15"/>
-      <c r="VA91" s="15"/>
-      <c r="VB91" s="15"/>
-      <c r="VC91" s="15"/>
-      <c r="VD91" s="15"/>
-      <c r="VE91" s="15"/>
-      <c r="VF91" s="15"/>
-      <c r="VG91" s="15"/>
-      <c r="VH91" s="15"/>
-      <c r="VI91" s="15"/>
-      <c r="VJ91" s="15"/>
-      <c r="VK91" s="15"/>
-      <c r="VL91" s="15"/>
-      <c r="VM91" s="15"/>
-      <c r="VN91" s="15"/>
-      <c r="VO91" s="15"/>
-      <c r="VP91" s="15"/>
-      <c r="VQ91" s="15"/>
-      <c r="VR91" s="15"/>
-      <c r="VS91" s="15"/>
-      <c r="VT91" s="15"/>
-      <c r="VU91" s="15"/>
-      <c r="VV91" s="15"/>
-      <c r="VW91" s="15"/>
-      <c r="VX91" s="15"/>
-      <c r="VY91" s="15"/>
-      <c r="VZ91" s="15"/>
-      <c r="WA91" s="15"/>
-      <c r="WB91" s="15"/>
-      <c r="WC91" s="15"/>
-      <c r="WD91" s="15"/>
-      <c r="WE91" s="15"/>
-      <c r="WF91" s="15"/>
-      <c r="WG91" s="15"/>
-      <c r="WH91" s="15"/>
-      <c r="WI91" s="15"/>
-      <c r="WJ91" s="15"/>
-      <c r="WK91" s="15"/>
-      <c r="WL91" s="15"/>
-      <c r="WM91" s="15"/>
-      <c r="WN91" s="15"/>
-      <c r="WO91" s="15"/>
-      <c r="WP91" s="15"/>
-      <c r="WQ91" s="15"/>
-      <c r="WR91" s="15"/>
-      <c r="WS91" s="15"/>
-      <c r="WT91" s="15"/>
-      <c r="WU91" s="15"/>
-      <c r="WV91" s="15"/>
-      <c r="WW91" s="15"/>
-      <c r="WX91" s="15"/>
-      <c r="WY91" s="15"/>
-      <c r="WZ91" s="15"/>
-      <c r="XA91" s="15"/>
-      <c r="XB91" s="15"/>
-      <c r="XC91" s="15"/>
-      <c r="XD91" s="15"/>
-      <c r="XE91" s="15"/>
-      <c r="XF91" s="15"/>
-      <c r="XG91" s="15"/>
-      <c r="XH91" s="15"/>
-      <c r="XI91" s="15"/>
-      <c r="XJ91" s="15"/>
-      <c r="XK91" s="15"/>
-      <c r="XL91" s="15"/>
-      <c r="XM91" s="15"/>
-      <c r="XN91" s="15"/>
-      <c r="XO91" s="15"/>
-      <c r="XP91" s="15"/>
-      <c r="XQ91" s="15"/>
-      <c r="XR91" s="15"/>
-      <c r="XS91" s="15"/>
-      <c r="XT91" s="15"/>
-      <c r="XU91" s="15"/>
-      <c r="XV91" s="15"/>
-      <c r="XW91" s="15"/>
-      <c r="XX91" s="15"/>
-      <c r="XY91" s="15"/>
-      <c r="XZ91" s="15"/>
-      <c r="YA91" s="15"/>
-      <c r="YB91" s="15"/>
-      <c r="YC91" s="15"/>
-      <c r="YD91" s="15"/>
-      <c r="YE91" s="15"/>
-      <c r="YF91" s="15"/>
-      <c r="YG91" s="15"/>
-      <c r="YH91" s="15"/>
-      <c r="YI91" s="15"/>
-      <c r="YJ91" s="15"/>
-      <c r="YK91" s="15"/>
-      <c r="YL91" s="15"/>
-      <c r="YM91" s="15"/>
-      <c r="YN91" s="15"/>
-      <c r="YO91" s="15"/>
-      <c r="YP91" s="15"/>
-      <c r="YQ91" s="15"/>
-      <c r="YR91" s="15"/>
-      <c r="YS91" s="15"/>
-      <c r="YT91" s="15"/>
-      <c r="YU91" s="15"/>
-      <c r="YV91" s="15"/>
-      <c r="YW91" s="15"/>
-      <c r="YX91" s="15"/>
-      <c r="YY91" s="15"/>
-      <c r="YZ91" s="15"/>
-      <c r="ZA91" s="15"/>
-      <c r="ZB91" s="15"/>
-      <c r="ZC91" s="15"/>
-      <c r="ZD91" s="15"/>
-      <c r="ZE91" s="15"/>
-      <c r="ZF91" s="15"/>
-      <c r="ZG91" s="15"/>
-      <c r="ZH91" s="15"/>
-      <c r="ZI91" s="15"/>
-      <c r="ZJ91" s="15"/>
-      <c r="ZK91" s="15"/>
-      <c r="ZL91" s="15"/>
-      <c r="ZM91" s="15"/>
-      <c r="ZN91" s="15"/>
-      <c r="ZO91" s="15"/>
-      <c r="ZP91" s="15"/>
-      <c r="ZQ91" s="15"/>
-      <c r="ZR91" s="15"/>
-      <c r="ZS91" s="15"/>
-      <c r="ZT91" s="15"/>
-      <c r="ZU91" s="15"/>
-      <c r="ZV91" s="15"/>
-      <c r="ZW91" s="15"/>
-      <c r="ZX91" s="15"/>
-      <c r="ZY91" s="15"/>
-      <c r="ZZ91" s="15"/>
-      <c r="AAA91" s="15"/>
-      <c r="AAB91" s="15"/>
-      <c r="AAC91" s="15"/>
-      <c r="AAD91" s="15"/>
-      <c r="AAE91" s="15"/>
-      <c r="AAF91" s="15"/>
-      <c r="AAG91" s="15"/>
-      <c r="AAH91" s="15"/>
-      <c r="AAI91" s="15"/>
-      <c r="AAJ91" s="15"/>
-      <c r="AAK91" s="15"/>
-      <c r="AAL91" s="15"/>
-      <c r="AAM91" s="15"/>
-      <c r="AAN91" s="15"/>
-      <c r="AAO91" s="15"/>
-      <c r="AAP91" s="15"/>
-      <c r="AAQ91" s="15"/>
-      <c r="AAR91" s="15"/>
-      <c r="AAS91" s="15"/>
-      <c r="AAT91" s="15"/>
-      <c r="AAU91" s="15"/>
-      <c r="AAV91" s="15"/>
-      <c r="AAW91" s="15"/>
-      <c r="AAX91" s="15"/>
-      <c r="AAY91" s="15"/>
-      <c r="AAZ91" s="15"/>
-      <c r="ABA91" s="15"/>
-      <c r="ABB91" s="15"/>
-      <c r="ABC91" s="15"/>
-      <c r="ABD91" s="15"/>
-      <c r="ABE91" s="15"/>
-      <c r="ABF91" s="15"/>
-      <c r="ABG91" s="15"/>
-      <c r="ABH91" s="15"/>
-      <c r="ABI91" s="15"/>
-      <c r="ABJ91" s="15"/>
-      <c r="ABK91" s="15"/>
-      <c r="ABL91" s="15"/>
-      <c r="ABM91" s="15"/>
-      <c r="ABN91" s="15"/>
-      <c r="ABO91" s="15"/>
-      <c r="ABP91" s="15"/>
-      <c r="ABQ91" s="15"/>
-      <c r="ABR91" s="15"/>
-      <c r="ABS91" s="15"/>
-      <c r="ABT91" s="15"/>
-      <c r="ABU91" s="15"/>
-      <c r="ABV91" s="15"/>
-      <c r="ABW91" s="15"/>
-      <c r="ABX91" s="15"/>
-      <c r="ABY91" s="15"/>
-      <c r="ABZ91" s="15"/>
-      <c r="ACA91" s="15"/>
-      <c r="ACB91" s="15"/>
-      <c r="ACC91" s="15"/>
-      <c r="ACD91" s="15"/>
-      <c r="ACE91" s="15"/>
-      <c r="ACF91" s="15"/>
-      <c r="ACG91" s="15"/>
-      <c r="ACH91" s="15"/>
-      <c r="ACI91" s="15"/>
-      <c r="ACJ91" s="15"/>
-      <c r="ACK91" s="15"/>
-      <c r="ACL91" s="15"/>
-      <c r="ACM91" s="15"/>
-      <c r="ACN91" s="15"/>
-      <c r="ACO91" s="15"/>
-      <c r="ACP91" s="15"/>
-      <c r="ACQ91" s="15"/>
-      <c r="ACR91" s="15"/>
-      <c r="ACS91" s="15"/>
-      <c r="ACT91" s="15"/>
-      <c r="ACU91" s="15"/>
-      <c r="ACV91" s="15"/>
-      <c r="ACW91" s="15"/>
-      <c r="ACX91" s="15"/>
-      <c r="ACY91" s="15"/>
-      <c r="ACZ91" s="15"/>
-      <c r="ADA91" s="15"/>
-      <c r="ADB91" s="15"/>
-      <c r="ADC91" s="15"/>
-      <c r="ADD91" s="15"/>
-      <c r="ADE91" s="15"/>
-      <c r="ADF91" s="15"/>
-      <c r="ADG91" s="15"/>
-      <c r="ADH91" s="15"/>
-      <c r="ADI91" s="15"/>
-      <c r="ADJ91" s="15"/>
-      <c r="ADK91" s="15"/>
-      <c r="ADL91" s="15"/>
-      <c r="ADM91" s="15"/>
-      <c r="ADN91" s="15"/>
-      <c r="ADO91" s="15"/>
-      <c r="ADP91" s="15"/>
-      <c r="ADQ91" s="15"/>
-      <c r="ADR91" s="15"/>
-      <c r="ADS91" s="15"/>
-      <c r="ADT91" s="15"/>
-      <c r="ADU91" s="15"/>
-      <c r="ADV91" s="15"/>
-      <c r="ADW91" s="15"/>
-      <c r="ADX91" s="15"/>
-      <c r="ADY91" s="15"/>
-      <c r="ADZ91" s="15"/>
-      <c r="AEA91" s="15"/>
-      <c r="AEB91" s="15"/>
-      <c r="AEC91" s="15"/>
-      <c r="AED91" s="15"/>
-      <c r="AEE91" s="15"/>
-      <c r="AEF91" s="15"/>
-      <c r="AEG91" s="15"/>
-      <c r="AEH91" s="15"/>
-      <c r="AEI91" s="15"/>
-      <c r="AEJ91" s="15"/>
-      <c r="AEK91" s="15"/>
-      <c r="AEL91" s="15"/>
-      <c r="AEM91" s="15"/>
-      <c r="AEN91" s="15"/>
-      <c r="AEO91" s="15"/>
-      <c r="AEP91" s="15"/>
-      <c r="AEQ91" s="15"/>
-      <c r="AER91" s="15"/>
-      <c r="AES91" s="15"/>
-      <c r="AET91" s="15"/>
-      <c r="AEU91" s="15"/>
-      <c r="AEV91" s="15"/>
-      <c r="AEW91" s="15"/>
-      <c r="AEX91" s="15"/>
-      <c r="AEY91" s="15"/>
-      <c r="AEZ91" s="15"/>
-      <c r="AFA91" s="15"/>
-      <c r="AFB91" s="15"/>
-      <c r="AFC91" s="15"/>
-      <c r="AFD91" s="15"/>
-      <c r="AFE91" s="15"/>
-      <c r="AFF91" s="15"/>
-      <c r="AFG91" s="15"/>
-      <c r="AFH91" s="15"/>
-      <c r="AFI91" s="15"/>
-      <c r="AFJ91" s="15"/>
-      <c r="AFK91" s="15"/>
-      <c r="AFL91" s="15"/>
-      <c r="AFM91" s="15"/>
-      <c r="AFN91" s="15"/>
-      <c r="AFO91" s="15"/>
-      <c r="AFP91" s="15"/>
-      <c r="AFQ91" s="15"/>
-      <c r="AFR91" s="15"/>
-      <c r="AFS91" s="15"/>
-      <c r="AFT91" s="15"/>
-      <c r="AFU91" s="15"/>
-      <c r="AFV91" s="15"/>
-      <c r="AFW91" s="15"/>
-      <c r="AFX91" s="15"/>
-      <c r="AFY91" s="15"/>
-      <c r="AFZ91" s="15"/>
-      <c r="AGA91" s="15"/>
-      <c r="AGB91" s="15"/>
-      <c r="AGC91" s="15"/>
-      <c r="AGD91" s="15"/>
-      <c r="AGE91" s="15"/>
-      <c r="AGF91" s="15"/>
-      <c r="AGG91" s="15"/>
-      <c r="AGH91" s="15"/>
-      <c r="AGI91" s="15"/>
-      <c r="AGJ91" s="15"/>
-      <c r="AGK91" s="15"/>
-      <c r="AGL91" s="15"/>
-      <c r="AGM91" s="15"/>
-      <c r="AGN91" s="15"/>
-      <c r="AGO91" s="15"/>
-      <c r="AGP91" s="15"/>
-      <c r="AGQ91" s="15"/>
-      <c r="AGR91" s="15"/>
-      <c r="AGS91" s="15"/>
-      <c r="AGT91" s="15"/>
-      <c r="AGU91" s="15"/>
-      <c r="AGV91" s="15"/>
-      <c r="AGW91" s="15"/>
-      <c r="AGX91" s="15"/>
-      <c r="AGY91" s="15"/>
-      <c r="AGZ91" s="15"/>
-      <c r="AHA91" s="15"/>
-      <c r="AHB91" s="15"/>
-      <c r="AHC91" s="15"/>
-      <c r="AHD91" s="15"/>
-      <c r="AHE91" s="15"/>
-      <c r="AHF91" s="15"/>
-      <c r="AHG91" s="15"/>
-      <c r="AHH91" s="15"/>
-      <c r="AHI91" s="15"/>
-      <c r="AHJ91" s="15"/>
-      <c r="AHK91" s="15"/>
-      <c r="AHL91" s="15"/>
-      <c r="AHM91" s="15"/>
-      <c r="AHN91" s="15"/>
-      <c r="AHO91" s="15"/>
-      <c r="AHP91" s="15"/>
-      <c r="AHQ91" s="15"/>
-      <c r="AHR91" s="15"/>
-      <c r="AHS91" s="15"/>
-      <c r="AHT91" s="15"/>
-      <c r="AHU91" s="15"/>
-      <c r="AHV91" s="15"/>
-      <c r="AHW91" s="15"/>
-      <c r="AHX91" s="15"/>
-      <c r="AHY91" s="15"/>
-      <c r="AHZ91" s="15"/>
-      <c r="AIA91" s="15"/>
-      <c r="AIB91" s="15"/>
-      <c r="AIC91" s="15"/>
-      <c r="AID91" s="15"/>
-      <c r="AIE91" s="15"/>
-      <c r="AIF91" s="15"/>
-      <c r="AIG91" s="15"/>
-      <c r="AIH91" s="15"/>
-      <c r="AII91" s="15"/>
-      <c r="AIJ91" s="15"/>
-      <c r="AIK91" s="15"/>
-      <c r="AIL91" s="15"/>
-      <c r="AIM91" s="15"/>
-      <c r="AIN91" s="15"/>
-      <c r="AIO91" s="15"/>
-      <c r="AIP91" s="15"/>
-      <c r="AIQ91" s="15"/>
-      <c r="AIR91" s="15"/>
-      <c r="AIS91" s="15"/>
-      <c r="AIT91" s="15"/>
-      <c r="AIU91" s="15"/>
-      <c r="AIV91" s="15"/>
-      <c r="AIW91" s="15"/>
-      <c r="AIX91" s="15"/>
-      <c r="AIY91" s="15"/>
-      <c r="AIZ91" s="15"/>
-      <c r="AJA91" s="15"/>
-      <c r="AJB91" s="15"/>
-      <c r="AJC91" s="15"/>
-      <c r="AJD91" s="15"/>
-      <c r="AJE91" s="15"/>
-      <c r="AJF91" s="15"/>
-      <c r="AJG91" s="15"/>
-      <c r="AJH91" s="15"/>
-      <c r="AJI91" s="15"/>
-      <c r="AJJ91" s="15"/>
-      <c r="AJK91" s="15"/>
-      <c r="AJL91" s="15"/>
-      <c r="AJM91" s="15"/>
-      <c r="AJN91" s="15"/>
-      <c r="AJO91" s="15"/>
-      <c r="AJP91" s="15"/>
-      <c r="AJQ91" s="15"/>
-      <c r="AJR91" s="15"/>
-      <c r="AJS91" s="15"/>
-      <c r="AJT91" s="15"/>
-      <c r="AJU91" s="15"/>
-      <c r="AJV91" s="15"/>
-      <c r="AJW91" s="15"/>
-      <c r="AJX91" s="15"/>
-      <c r="AJY91" s="15"/>
-      <c r="AJZ91" s="15"/>
-      <c r="AKA91" s="15"/>
-      <c r="AKB91" s="15"/>
-      <c r="AKC91" s="15"/>
-      <c r="AKD91" s="15"/>
-      <c r="AKE91" s="15"/>
-      <c r="AKF91" s="15"/>
-      <c r="AKG91" s="15"/>
-      <c r="AKH91" s="15"/>
-      <c r="AKI91" s="15"/>
-      <c r="AKJ91" s="15"/>
-      <c r="AKK91" s="15"/>
-      <c r="AKL91" s="15"/>
-      <c r="AKM91" s="15"/>
-      <c r="AKN91" s="15"/>
-      <c r="AKO91" s="15"/>
-      <c r="AKP91" s="15"/>
-      <c r="AKQ91" s="15"/>
-      <c r="AKR91" s="15"/>
-      <c r="AKS91" s="15"/>
-      <c r="AKT91" s="15"/>
-      <c r="AKU91" s="15"/>
-      <c r="AKV91" s="15"/>
-      <c r="AKW91" s="15"/>
-      <c r="AKX91" s="15"/>
-      <c r="AKY91" s="15"/>
-      <c r="AKZ91" s="15"/>
-      <c r="ALA91" s="15"/>
-      <c r="ALB91" s="15"/>
-      <c r="ALC91" s="15"/>
-      <c r="ALD91" s="15"/>
-      <c r="ALE91" s="15"/>
-      <c r="ALF91" s="15"/>
-      <c r="ALG91" s="15"/>
-      <c r="ALH91" s="15"/>
-      <c r="ALI91" s="15"/>
-      <c r="ALJ91" s="15"/>
-      <c r="ALK91" s="15"/>
-      <c r="ALL91" s="15"/>
-      <c r="ALM91" s="15"/>
-      <c r="ALN91" s="15"/>
-      <c r="ALO91" s="15"/>
-      <c r="ALP91" s="15"/>
-      <c r="ALQ91" s="15"/>
-      <c r="ALR91" s="15"/>
-      <c r="ALS91" s="15"/>
-      <c r="ALT91" s="15"/>
-      <c r="ALU91" s="15"/>
-      <c r="ALV91" s="15"/>
-      <c r="ALW91" s="15"/>
-      <c r="ALX91" s="15"/>
-      <c r="ALY91" s="15"/>
-      <c r="ALZ91" s="15"/>
-      <c r="AMA91" s="15"/>
-      <c r="AMB91" s="15"/>
-      <c r="AMC91" s="15"/>
-      <c r="AMD91" s="15"/>
-      <c r="AME91" s="15"/>
-      <c r="AMF91" s="15"/>
-      <c r="AMG91" s="15"/>
-      <c r="AMH91" s="15"/>
-      <c r="AMI91" s="15"/>
-      <c r="AMJ91" s="15"/>
-      <c r="AMK91" s="15"/>
-      <c r="AML91" s="15"/>
-      <c r="AMM91" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="15"/>
+      <c r="AN92" s="15"/>
+      <c r="AO92" s="15"/>
+      <c r="AP92" s="15"/>
+      <c r="AQ92" s="15"/>
+      <c r="AR92" s="15"/>
+      <c r="AS92" s="15"/>
+      <c r="AT92" s="15"/>
+      <c r="AU92" s="15"/>
+      <c r="AV92" s="15"/>
+      <c r="AW92" s="15"/>
+      <c r="AX92" s="15"/>
+      <c r="AY92" s="15"/>
+      <c r="AZ92" s="15"/>
+      <c r="BA92" s="15"/>
+      <c r="BB92" s="15"/>
+      <c r="BC92" s="15"/>
+      <c r="BD92" s="15"/>
+      <c r="BE92" s="15"/>
+      <c r="BF92" s="15"/>
+      <c r="BG92" s="15"/>
+      <c r="BH92" s="15"/>
+      <c r="BI92" s="15"/>
+      <c r="BJ92" s="15"/>
+      <c r="BK92" s="15"/>
+      <c r="BL92" s="15"/>
+      <c r="BM92" s="15"/>
+      <c r="BN92" s="15"/>
+      <c r="BO92" s="15"/>
+      <c r="BP92" s="15"/>
+      <c r="BQ92" s="15"/>
+      <c r="BR92" s="15"/>
+      <c r="BS92" s="15"/>
+      <c r="BT92" s="15"/>
+      <c r="BU92" s="15"/>
+      <c r="BV92" s="15"/>
+      <c r="BW92" s="15"/>
+      <c r="BX92" s="15"/>
+      <c r="BY92" s="15"/>
+      <c r="BZ92" s="15"/>
+      <c r="CA92" s="15"/>
+      <c r="CB92" s="15"/>
+      <c r="CC92" s="15"/>
+      <c r="CD92" s="15"/>
+      <c r="CE92" s="15"/>
+      <c r="CF92" s="15"/>
+      <c r="CG92" s="15"/>
+      <c r="CH92" s="15"/>
+      <c r="CI92" s="15"/>
+      <c r="CJ92" s="15"/>
+      <c r="CK92" s="15"/>
+      <c r="CL92" s="15"/>
+      <c r="CM92" s="15"/>
+      <c r="CN92" s="15"/>
+      <c r="CO92" s="15"/>
+      <c r="CP92" s="15"/>
+      <c r="CQ92" s="15"/>
+      <c r="CR92" s="15"/>
+      <c r="CS92" s="15"/>
+      <c r="CT92" s="15"/>
+      <c r="CU92" s="15"/>
+      <c r="CV92" s="15"/>
+      <c r="CW92" s="15"/>
+      <c r="CX92" s="15"/>
+      <c r="CY92" s="15"/>
+      <c r="CZ92" s="15"/>
+      <c r="DA92" s="15"/>
+      <c r="DB92" s="15"/>
+      <c r="DC92" s="15"/>
+      <c r="DD92" s="15"/>
+      <c r="DE92" s="15"/>
+      <c r="DF92" s="15"/>
+      <c r="DG92" s="15"/>
+      <c r="DH92" s="15"/>
+      <c r="DI92" s="15"/>
+      <c r="DJ92" s="15"/>
+      <c r="DK92" s="15"/>
+      <c r="DL92" s="15"/>
+      <c r="DM92" s="15"/>
+      <c r="DN92" s="15"/>
+      <c r="DO92" s="15"/>
+      <c r="DP92" s="15"/>
+      <c r="DQ92" s="15"/>
+      <c r="DR92" s="15"/>
+      <c r="DS92" s="15"/>
+      <c r="DT92" s="15"/>
+      <c r="DU92" s="15"/>
+      <c r="DV92" s="15"/>
+      <c r="DW92" s="15"/>
+      <c r="DX92" s="15"/>
+      <c r="DY92" s="15"/>
+      <c r="DZ92" s="15"/>
+      <c r="EA92" s="15"/>
+      <c r="EB92" s="15"/>
+      <c r="EC92" s="15"/>
+      <c r="ED92" s="15"/>
+      <c r="EE92" s="15"/>
+      <c r="EF92" s="15"/>
+      <c r="EG92" s="15"/>
+      <c r="EH92" s="15"/>
+      <c r="EI92" s="15"/>
+      <c r="EJ92" s="15"/>
+      <c r="EK92" s="15"/>
+      <c r="EL92" s="15"/>
+      <c r="EM92" s="15"/>
+      <c r="EN92" s="15"/>
+      <c r="EO92" s="15"/>
+      <c r="EP92" s="15"/>
+      <c r="EQ92" s="15"/>
+      <c r="ER92" s="15"/>
+      <c r="ES92" s="15"/>
+      <c r="ET92" s="15"/>
+      <c r="EU92" s="15"/>
+      <c r="EV92" s="15"/>
+      <c r="EW92" s="15"/>
+      <c r="EX92" s="15"/>
+      <c r="EY92" s="15"/>
+      <c r="EZ92" s="15"/>
+      <c r="FA92" s="15"/>
+      <c r="FB92" s="15"/>
+      <c r="FC92" s="15"/>
+      <c r="FD92" s="15"/>
+      <c r="FE92" s="15"/>
+      <c r="FF92" s="15"/>
+      <c r="FG92" s="15"/>
+      <c r="FH92" s="15"/>
+      <c r="FI92" s="15"/>
+      <c r="FJ92" s="15"/>
+      <c r="FK92" s="15"/>
+      <c r="FL92" s="15"/>
+      <c r="FM92" s="15"/>
+      <c r="FN92" s="15"/>
+      <c r="FO92" s="15"/>
+      <c r="FP92" s="15"/>
+      <c r="FQ92" s="15"/>
+      <c r="FR92" s="15"/>
+      <c r="FS92" s="15"/>
+      <c r="FT92" s="15"/>
+      <c r="FU92" s="15"/>
+      <c r="FV92" s="15"/>
+      <c r="FW92" s="15"/>
+      <c r="FX92" s="15"/>
+      <c r="FY92" s="15"/>
+      <c r="FZ92" s="15"/>
+      <c r="GA92" s="15"/>
+      <c r="GB92" s="15"/>
+      <c r="GC92" s="15"/>
+      <c r="GD92" s="15"/>
+      <c r="GE92" s="15"/>
+      <c r="GF92" s="15"/>
+      <c r="GG92" s="15"/>
+      <c r="GH92" s="15"/>
+      <c r="GI92" s="15"/>
+      <c r="GJ92" s="15"/>
+      <c r="GK92" s="15"/>
+      <c r="GL92" s="15"/>
+      <c r="GM92" s="15"/>
+      <c r="GN92" s="15"/>
+      <c r="GO92" s="15"/>
+      <c r="GP92" s="15"/>
+      <c r="GQ92" s="15"/>
+      <c r="GR92" s="15"/>
+      <c r="GS92" s="15"/>
+      <c r="GT92" s="15"/>
+      <c r="GU92" s="15"/>
+      <c r="GV92" s="15"/>
+      <c r="GW92" s="15"/>
+      <c r="GX92" s="15"/>
+      <c r="GY92" s="15"/>
+      <c r="GZ92" s="15"/>
+      <c r="HA92" s="15"/>
+      <c r="HB92" s="15"/>
+      <c r="HC92" s="15"/>
+      <c r="HD92" s="15"/>
+      <c r="HE92" s="15"/>
+      <c r="HF92" s="15"/>
+      <c r="HG92" s="15"/>
+      <c r="HH92" s="15"/>
+      <c r="HI92" s="15"/>
+      <c r="HJ92" s="15"/>
+      <c r="HK92" s="15"/>
+      <c r="HL92" s="15"/>
+      <c r="HM92" s="15"/>
+      <c r="HN92" s="15"/>
+      <c r="HO92" s="15"/>
+      <c r="HP92" s="15"/>
+      <c r="HQ92" s="15"/>
+      <c r="HR92" s="15"/>
+      <c r="HS92" s="15"/>
+      <c r="HT92" s="15"/>
+      <c r="HU92" s="15"/>
+      <c r="HV92" s="15"/>
+      <c r="HW92" s="15"/>
+      <c r="HX92" s="15"/>
+      <c r="HY92" s="15"/>
+      <c r="HZ92" s="15"/>
+      <c r="IA92" s="15"/>
+      <c r="IB92" s="15"/>
+      <c r="IC92" s="15"/>
+      <c r="ID92" s="15"/>
+      <c r="IE92" s="15"/>
+      <c r="IF92" s="15"/>
+      <c r="IG92" s="15"/>
+      <c r="IH92" s="15"/>
+      <c r="II92" s="15"/>
+      <c r="IJ92" s="15"/>
+      <c r="IK92" s="15"/>
+      <c r="IL92" s="15"/>
+      <c r="IM92" s="15"/>
+      <c r="IN92" s="15"/>
+      <c r="IO92" s="15"/>
+      <c r="IP92" s="15"/>
+      <c r="IQ92" s="15"/>
+      <c r="IR92" s="15"/>
+      <c r="IS92" s="15"/>
+      <c r="IT92" s="15"/>
+      <c r="IU92" s="15"/>
+      <c r="IV92" s="15"/>
+      <c r="IW92" s="15"/>
+      <c r="IX92" s="15"/>
+      <c r="IY92" s="15"/>
+      <c r="IZ92" s="15"/>
+      <c r="JA92" s="15"/>
+      <c r="JB92" s="15"/>
+      <c r="JC92" s="15"/>
+      <c r="JD92" s="15"/>
+      <c r="JE92" s="15"/>
+      <c r="JF92" s="15"/>
+      <c r="JG92" s="15"/>
+      <c r="JH92" s="15"/>
+      <c r="JI92" s="15"/>
+      <c r="JJ92" s="15"/>
+      <c r="JK92" s="15"/>
+      <c r="JL92" s="15"/>
+      <c r="JM92" s="15"/>
+      <c r="JN92" s="15"/>
+      <c r="JO92" s="15"/>
+      <c r="JP92" s="15"/>
+      <c r="JQ92" s="15"/>
+      <c r="JR92" s="15"/>
+      <c r="JS92" s="15"/>
+      <c r="JT92" s="15"/>
+      <c r="JU92" s="15"/>
+      <c r="JV92" s="15"/>
+      <c r="JW92" s="15"/>
+      <c r="JX92" s="15"/>
+      <c r="JY92" s="15"/>
+      <c r="JZ92" s="15"/>
+      <c r="KA92" s="15"/>
+      <c r="KB92" s="15"/>
+      <c r="KC92" s="15"/>
+      <c r="KD92" s="15"/>
+      <c r="KE92" s="15"/>
+      <c r="KF92" s="15"/>
+      <c r="KG92" s="15"/>
+      <c r="KH92" s="15"/>
+      <c r="KI92" s="15"/>
+      <c r="KJ92" s="15"/>
+      <c r="KK92" s="15"/>
+      <c r="KL92" s="15"/>
+      <c r="KM92" s="15"/>
+      <c r="KN92" s="15"/>
+      <c r="KO92" s="15"/>
+      <c r="KP92" s="15"/>
+      <c r="KQ92" s="15"/>
+      <c r="KR92" s="15"/>
+      <c r="KS92" s="15"/>
+      <c r="KT92" s="15"/>
+      <c r="KU92" s="15"/>
+      <c r="KV92" s="15"/>
+      <c r="KW92" s="15"/>
+      <c r="KX92" s="15"/>
+      <c r="KY92" s="15"/>
+      <c r="KZ92" s="15"/>
+      <c r="LA92" s="15"/>
+      <c r="LB92" s="15"/>
+      <c r="LC92" s="15"/>
+      <c r="LD92" s="15"/>
+      <c r="LE92" s="15"/>
+      <c r="LF92" s="15"/>
+      <c r="LG92" s="15"/>
+      <c r="LH92" s="15"/>
+      <c r="LI92" s="15"/>
+      <c r="LJ92" s="15"/>
+      <c r="LK92" s="15"/>
+      <c r="LL92" s="15"/>
+      <c r="LM92" s="15"/>
+      <c r="LN92" s="15"/>
+      <c r="LO92" s="15"/>
+      <c r="LP92" s="15"/>
+      <c r="LQ92" s="15"/>
+      <c r="LR92" s="15"/>
+      <c r="LS92" s="15"/>
+      <c r="LT92" s="15"/>
+      <c r="LU92" s="15"/>
+      <c r="LV92" s="15"/>
+      <c r="LW92" s="15"/>
+      <c r="LX92" s="15"/>
+      <c r="LY92" s="15"/>
+      <c r="LZ92" s="15"/>
+      <c r="MA92" s="15"/>
+      <c r="MB92" s="15"/>
+      <c r="MC92" s="15"/>
+      <c r="MD92" s="15"/>
+      <c r="ME92" s="15"/>
+      <c r="MF92" s="15"/>
+      <c r="MG92" s="15"/>
+      <c r="MH92" s="15"/>
+      <c r="MI92" s="15"/>
+      <c r="MJ92" s="15"/>
+      <c r="MK92" s="15"/>
+      <c r="ML92" s="15"/>
+      <c r="MM92" s="15"/>
+      <c r="MN92" s="15"/>
+      <c r="MO92" s="15"/>
+      <c r="MP92" s="15"/>
+      <c r="MQ92" s="15"/>
+      <c r="MR92" s="15"/>
+      <c r="MS92" s="15"/>
+      <c r="MT92" s="15"/>
+      <c r="MU92" s="15"/>
+      <c r="MV92" s="15"/>
+      <c r="MW92" s="15"/>
+      <c r="MX92" s="15"/>
+      <c r="MY92" s="15"/>
+      <c r="MZ92" s="15"/>
+      <c r="NA92" s="15"/>
+      <c r="NB92" s="15"/>
+      <c r="NC92" s="15"/>
+      <c r="ND92" s="15"/>
+      <c r="NE92" s="15"/>
+      <c r="NF92" s="15"/>
+      <c r="NG92" s="15"/>
+      <c r="NH92" s="15"/>
+      <c r="NI92" s="15"/>
+      <c r="NJ92" s="15"/>
+      <c r="NK92" s="15"/>
+      <c r="NL92" s="15"/>
+      <c r="NM92" s="15"/>
+      <c r="NN92" s="15"/>
+      <c r="NO92" s="15"/>
+      <c r="NP92" s="15"/>
+      <c r="NQ92" s="15"/>
+      <c r="NR92" s="15"/>
+      <c r="NS92" s="15"/>
+      <c r="NT92" s="15"/>
+      <c r="NU92" s="15"/>
+      <c r="NV92" s="15"/>
+      <c r="NW92" s="15"/>
+      <c r="NX92" s="15"/>
+      <c r="NY92" s="15"/>
+      <c r="NZ92" s="15"/>
+      <c r="OA92" s="15"/>
+      <c r="OB92" s="15"/>
+      <c r="OC92" s="15"/>
+      <c r="OD92" s="15"/>
+      <c r="OE92" s="15"/>
+      <c r="OF92" s="15"/>
+      <c r="OG92" s="15"/>
+      <c r="OH92" s="15"/>
+      <c r="OI92" s="15"/>
+      <c r="OJ92" s="15"/>
+      <c r="OK92" s="15"/>
+      <c r="OL92" s="15"/>
+      <c r="OM92" s="15"/>
+      <c r="ON92" s="15"/>
+      <c r="OO92" s="15"/>
+      <c r="OP92" s="15"/>
+      <c r="OQ92" s="15"/>
+      <c r="OR92" s="15"/>
+      <c r="OS92" s="15"/>
+      <c r="OT92" s="15"/>
+      <c r="OU92" s="15"/>
+      <c r="OV92" s="15"/>
+      <c r="OW92" s="15"/>
+      <c r="OX92" s="15"/>
+      <c r="OY92" s="15"/>
+      <c r="OZ92" s="15"/>
+      <c r="PA92" s="15"/>
+      <c r="PB92" s="15"/>
+      <c r="PC92" s="15"/>
+      <c r="PD92" s="15"/>
+      <c r="PE92" s="15"/>
+      <c r="PF92" s="15"/>
+      <c r="PG92" s="15"/>
+      <c r="PH92" s="15"/>
+      <c r="PI92" s="15"/>
+      <c r="PJ92" s="15"/>
+      <c r="PK92" s="15"/>
+      <c r="PL92" s="15"/>
+      <c r="PM92" s="15"/>
+      <c r="PN92" s="15"/>
+      <c r="PO92" s="15"/>
+      <c r="PP92" s="15"/>
+      <c r="PQ92" s="15"/>
+      <c r="PR92" s="15"/>
+      <c r="PS92" s="15"/>
+      <c r="PT92" s="15"/>
+      <c r="PU92" s="15"/>
+      <c r="PV92" s="15"/>
+      <c r="PW92" s="15"/>
+      <c r="PX92" s="15"/>
+      <c r="PY92" s="15"/>
+      <c r="PZ92" s="15"/>
+      <c r="QA92" s="15"/>
+      <c r="QB92" s="15"/>
+      <c r="QC92" s="15"/>
+      <c r="QD92" s="15"/>
+      <c r="QE92" s="15"/>
+      <c r="QF92" s="15"/>
+      <c r="QG92" s="15"/>
+      <c r="QH92" s="15"/>
+      <c r="QI92" s="15"/>
+      <c r="QJ92" s="15"/>
+      <c r="QK92" s="15"/>
+      <c r="QL92" s="15"/>
+      <c r="QM92" s="15"/>
+      <c r="QN92" s="15"/>
+      <c r="QO92" s="15"/>
+      <c r="QP92" s="15"/>
+      <c r="QQ92" s="15"/>
+      <c r="QR92" s="15"/>
+      <c r="QS92" s="15"/>
+      <c r="QT92" s="15"/>
+      <c r="QU92" s="15"/>
+      <c r="QV92" s="15"/>
+      <c r="QW92" s="15"/>
+      <c r="QX92" s="15"/>
+      <c r="QY92" s="15"/>
+      <c r="QZ92" s="15"/>
+      <c r="RA92" s="15"/>
+      <c r="RB92" s="15"/>
+      <c r="RC92" s="15"/>
+      <c r="RD92" s="15"/>
+      <c r="RE92" s="15"/>
+      <c r="RF92" s="15"/>
+      <c r="RG92" s="15"/>
+      <c r="RH92" s="15"/>
+      <c r="RI92" s="15"/>
+      <c r="RJ92" s="15"/>
+      <c r="RK92" s="15"/>
+      <c r="RL92" s="15"/>
+      <c r="RM92" s="15"/>
+      <c r="RN92" s="15"/>
+      <c r="RO92" s="15"/>
+      <c r="RP92" s="15"/>
+      <c r="RQ92" s="15"/>
+      <c r="RR92" s="15"/>
+      <c r="RS92" s="15"/>
+      <c r="RT92" s="15"/>
+      <c r="RU92" s="15"/>
+      <c r="RV92" s="15"/>
+      <c r="RW92" s="15"/>
+      <c r="RX92" s="15"/>
+      <c r="RY92" s="15"/>
+      <c r="RZ92" s="15"/>
+      <c r="SA92" s="15"/>
+      <c r="SB92" s="15"/>
+      <c r="SC92" s="15"/>
+      <c r="SD92" s="15"/>
+      <c r="SE92" s="15"/>
+      <c r="SF92" s="15"/>
+      <c r="SG92" s="15"/>
+      <c r="SH92" s="15"/>
+      <c r="SI92" s="15"/>
+      <c r="SJ92" s="15"/>
+      <c r="SK92" s="15"/>
+      <c r="SL92" s="15"/>
+      <c r="SM92" s="15"/>
+      <c r="SN92" s="15"/>
+      <c r="SO92" s="15"/>
+      <c r="SP92" s="15"/>
+      <c r="SQ92" s="15"/>
+      <c r="SR92" s="15"/>
+      <c r="SS92" s="15"/>
+      <c r="ST92" s="15"/>
+      <c r="SU92" s="15"/>
+      <c r="SV92" s="15"/>
+      <c r="SW92" s="15"/>
+      <c r="SX92" s="15"/>
+      <c r="SY92" s="15"/>
+      <c r="SZ92" s="15"/>
+      <c r="TA92" s="15"/>
+      <c r="TB92" s="15"/>
+      <c r="TC92" s="15"/>
+      <c r="TD92" s="15"/>
+      <c r="TE92" s="15"/>
+      <c r="TF92" s="15"/>
+      <c r="TG92" s="15"/>
+      <c r="TH92" s="15"/>
+      <c r="TI92" s="15"/>
+      <c r="TJ92" s="15"/>
+      <c r="TK92" s="15"/>
+      <c r="TL92" s="15"/>
+      <c r="TM92" s="15"/>
+      <c r="TN92" s="15"/>
+      <c r="TO92" s="15"/>
+      <c r="TP92" s="15"/>
+      <c r="TQ92" s="15"/>
+      <c r="TR92" s="15"/>
+      <c r="TS92" s="15"/>
+      <c r="TT92" s="15"/>
+      <c r="TU92" s="15"/>
+      <c r="TV92" s="15"/>
+      <c r="TW92" s="15"/>
+      <c r="TX92" s="15"/>
+      <c r="TY92" s="15"/>
+      <c r="TZ92" s="15"/>
+      <c r="UA92" s="15"/>
+      <c r="UB92" s="15"/>
+      <c r="UC92" s="15"/>
+      <c r="UD92" s="15"/>
+      <c r="UE92" s="15"/>
+      <c r="UF92" s="15"/>
+      <c r="UG92" s="15"/>
+      <c r="UH92" s="15"/>
+      <c r="UI92" s="15"/>
+      <c r="UJ92" s="15"/>
+      <c r="UK92" s="15"/>
+      <c r="UL92" s="15"/>
+      <c r="UM92" s="15"/>
+      <c r="UN92" s="15"/>
+      <c r="UO92" s="15"/>
+      <c r="UP92" s="15"/>
+      <c r="UQ92" s="15"/>
+      <c r="UR92" s="15"/>
+      <c r="US92" s="15"/>
+      <c r="UT92" s="15"/>
+      <c r="UU92" s="15"/>
+      <c r="UV92" s="15"/>
+      <c r="UW92" s="15"/>
+      <c r="UX92" s="15"/>
+      <c r="UY92" s="15"/>
+      <c r="UZ92" s="15"/>
+      <c r="VA92" s="15"/>
+      <c r="VB92" s="15"/>
+      <c r="VC92" s="15"/>
+      <c r="VD92" s="15"/>
+      <c r="VE92" s="15"/>
+      <c r="VF92" s="15"/>
+      <c r="VG92" s="15"/>
+      <c r="VH92" s="15"/>
+      <c r="VI92" s="15"/>
+      <c r="VJ92" s="15"/>
+      <c r="VK92" s="15"/>
+      <c r="VL92" s="15"/>
+      <c r="VM92" s="15"/>
+      <c r="VN92" s="15"/>
+      <c r="VO92" s="15"/>
+      <c r="VP92" s="15"/>
+      <c r="VQ92" s="15"/>
+      <c r="VR92" s="15"/>
+      <c r="VS92" s="15"/>
+      <c r="VT92" s="15"/>
+      <c r="VU92" s="15"/>
+      <c r="VV92" s="15"/>
+      <c r="VW92" s="15"/>
+      <c r="VX92" s="15"/>
+      <c r="VY92" s="15"/>
+      <c r="VZ92" s="15"/>
+      <c r="WA92" s="15"/>
+      <c r="WB92" s="15"/>
+      <c r="WC92" s="15"/>
+      <c r="WD92" s="15"/>
+      <c r="WE92" s="15"/>
+      <c r="WF92" s="15"/>
+      <c r="WG92" s="15"/>
+      <c r="WH92" s="15"/>
+      <c r="WI92" s="15"/>
+      <c r="WJ92" s="15"/>
+      <c r="WK92" s="15"/>
+      <c r="WL92" s="15"/>
+      <c r="WM92" s="15"/>
+      <c r="WN92" s="15"/>
+      <c r="WO92" s="15"/>
+      <c r="WP92" s="15"/>
+      <c r="WQ92" s="15"/>
+      <c r="WR92" s="15"/>
+      <c r="WS92" s="15"/>
+      <c r="WT92" s="15"/>
+      <c r="WU92" s="15"/>
+      <c r="WV92" s="15"/>
+      <c r="WW92" s="15"/>
+      <c r="WX92" s="15"/>
+      <c r="WY92" s="15"/>
+      <c r="WZ92" s="15"/>
+      <c r="XA92" s="15"/>
+      <c r="XB92" s="15"/>
+      <c r="XC92" s="15"/>
+      <c r="XD92" s="15"/>
+      <c r="XE92" s="15"/>
+      <c r="XF92" s="15"/>
+      <c r="XG92" s="15"/>
+      <c r="XH92" s="15"/>
+      <c r="XI92" s="15"/>
+      <c r="XJ92" s="15"/>
+      <c r="XK92" s="15"/>
+      <c r="XL92" s="15"/>
+      <c r="XM92" s="15"/>
+      <c r="XN92" s="15"/>
+      <c r="XO92" s="15"/>
+      <c r="XP92" s="15"/>
+      <c r="XQ92" s="15"/>
+      <c r="XR92" s="15"/>
+      <c r="XS92" s="15"/>
+      <c r="XT92" s="15"/>
+      <c r="XU92" s="15"/>
+      <c r="XV92" s="15"/>
+      <c r="XW92" s="15"/>
+      <c r="XX92" s="15"/>
+      <c r="XY92" s="15"/>
+      <c r="XZ92" s="15"/>
+      <c r="YA92" s="15"/>
+      <c r="YB92" s="15"/>
+      <c r="YC92" s="15"/>
+      <c r="YD92" s="15"/>
+      <c r="YE92" s="15"/>
+      <c r="YF92" s="15"/>
+      <c r="YG92" s="15"/>
+      <c r="YH92" s="15"/>
+      <c r="YI92" s="15"/>
+      <c r="YJ92" s="15"/>
+      <c r="YK92" s="15"/>
+      <c r="YL92" s="15"/>
+      <c r="YM92" s="15"/>
+      <c r="YN92" s="15"/>
+      <c r="YO92" s="15"/>
+      <c r="YP92" s="15"/>
+      <c r="YQ92" s="15"/>
+      <c r="YR92" s="15"/>
+      <c r="YS92" s="15"/>
+      <c r="YT92" s="15"/>
+      <c r="YU92" s="15"/>
+      <c r="YV92" s="15"/>
+      <c r="YW92" s="15"/>
+      <c r="YX92" s="15"/>
+      <c r="YY92" s="15"/>
+      <c r="YZ92" s="15"/>
+      <c r="ZA92" s="15"/>
+      <c r="ZB92" s="15"/>
+      <c r="ZC92" s="15"/>
+      <c r="ZD92" s="15"/>
+      <c r="ZE92" s="15"/>
+      <c r="ZF92" s="15"/>
+      <c r="ZG92" s="15"/>
+      <c r="ZH92" s="15"/>
+      <c r="ZI92" s="15"/>
+      <c r="ZJ92" s="15"/>
+      <c r="ZK92" s="15"/>
+      <c r="ZL92" s="15"/>
+      <c r="ZM92" s="15"/>
+      <c r="ZN92" s="15"/>
+      <c r="ZO92" s="15"/>
+      <c r="ZP92" s="15"/>
+      <c r="ZQ92" s="15"/>
+      <c r="ZR92" s="15"/>
+      <c r="ZS92" s="15"/>
+      <c r="ZT92" s="15"/>
+      <c r="ZU92" s="15"/>
+      <c r="ZV92" s="15"/>
+      <c r="ZW92" s="15"/>
+      <c r="ZX92" s="15"/>
+      <c r="ZY92" s="15"/>
+      <c r="ZZ92" s="15"/>
+      <c r="AAA92" s="15"/>
+      <c r="AAB92" s="15"/>
+      <c r="AAC92" s="15"/>
+      <c r="AAD92" s="15"/>
+      <c r="AAE92" s="15"/>
+      <c r="AAF92" s="15"/>
+      <c r="AAG92" s="15"/>
+      <c r="AAH92" s="15"/>
+      <c r="AAI92" s="15"/>
+      <c r="AAJ92" s="15"/>
+      <c r="AAK92" s="15"/>
+      <c r="AAL92" s="15"/>
+      <c r="AAM92" s="15"/>
+      <c r="AAN92" s="15"/>
+      <c r="AAO92" s="15"/>
+      <c r="AAP92" s="15"/>
+      <c r="AAQ92" s="15"/>
+      <c r="AAR92" s="15"/>
+      <c r="AAS92" s="15"/>
+      <c r="AAT92" s="15"/>
+      <c r="AAU92" s="15"/>
+      <c r="AAV92" s="15"/>
+      <c r="AAW92" s="15"/>
+      <c r="AAX92" s="15"/>
+      <c r="AAY92" s="15"/>
+      <c r="AAZ92" s="15"/>
+      <c r="ABA92" s="15"/>
+      <c r="ABB92" s="15"/>
+      <c r="ABC92" s="15"/>
+      <c r="ABD92" s="15"/>
+      <c r="ABE92" s="15"/>
+      <c r="ABF92" s="15"/>
+      <c r="ABG92" s="15"/>
+      <c r="ABH92" s="15"/>
+      <c r="ABI92" s="15"/>
+      <c r="ABJ92" s="15"/>
+      <c r="ABK92" s="15"/>
+      <c r="ABL92" s="15"/>
+      <c r="ABM92" s="15"/>
+      <c r="ABN92" s="15"/>
+      <c r="ABO92" s="15"/>
+      <c r="ABP92" s="15"/>
+      <c r="ABQ92" s="15"/>
+      <c r="ABR92" s="15"/>
+      <c r="ABS92" s="15"/>
+      <c r="ABT92" s="15"/>
+      <c r="ABU92" s="15"/>
+      <c r="ABV92" s="15"/>
+      <c r="ABW92" s="15"/>
+      <c r="ABX92" s="15"/>
+      <c r="ABY92" s="15"/>
+      <c r="ABZ92" s="15"/>
+      <c r="ACA92" s="15"/>
+      <c r="ACB92" s="15"/>
+      <c r="ACC92" s="15"/>
+      <c r="ACD92" s="15"/>
+      <c r="ACE92" s="15"/>
+      <c r="ACF92" s="15"/>
+      <c r="ACG92" s="15"/>
+      <c r="ACH92" s="15"/>
+      <c r="ACI92" s="15"/>
+      <c r="ACJ92" s="15"/>
+      <c r="ACK92" s="15"/>
+      <c r="ACL92" s="15"/>
+      <c r="ACM92" s="15"/>
+      <c r="ACN92" s="15"/>
+      <c r="ACO92" s="15"/>
+      <c r="ACP92" s="15"/>
+      <c r="ACQ92" s="15"/>
+      <c r="ACR92" s="15"/>
+      <c r="ACS92" s="15"/>
+      <c r="ACT92" s="15"/>
+      <c r="ACU92" s="15"/>
+      <c r="ACV92" s="15"/>
+      <c r="ACW92" s="15"/>
+      <c r="ACX92" s="15"/>
+      <c r="ACY92" s="15"/>
+      <c r="ACZ92" s="15"/>
+      <c r="ADA92" s="15"/>
+      <c r="ADB92" s="15"/>
+      <c r="ADC92" s="15"/>
+      <c r="ADD92" s="15"/>
+      <c r="ADE92" s="15"/>
+      <c r="ADF92" s="15"/>
+      <c r="ADG92" s="15"/>
+      <c r="ADH92" s="15"/>
+      <c r="ADI92" s="15"/>
+      <c r="ADJ92" s="15"/>
+      <c r="ADK92" s="15"/>
+      <c r="ADL92" s="15"/>
+      <c r="ADM92" s="15"/>
+      <c r="ADN92" s="15"/>
+      <c r="ADO92" s="15"/>
+      <c r="ADP92" s="15"/>
+      <c r="ADQ92" s="15"/>
+      <c r="ADR92" s="15"/>
+      <c r="ADS92" s="15"/>
+      <c r="ADT92" s="15"/>
+      <c r="ADU92" s="15"/>
+      <c r="ADV92" s="15"/>
+      <c r="ADW92" s="15"/>
+      <c r="ADX92" s="15"/>
+      <c r="ADY92" s="15"/>
+      <c r="ADZ92" s="15"/>
+      <c r="AEA92" s="15"/>
+      <c r="AEB92" s="15"/>
+      <c r="AEC92" s="15"/>
+      <c r="AED92" s="15"/>
+      <c r="AEE92" s="15"/>
+      <c r="AEF92" s="15"/>
+      <c r="AEG92" s="15"/>
+      <c r="AEH92" s="15"/>
+      <c r="AEI92" s="15"/>
+      <c r="AEJ92" s="15"/>
+      <c r="AEK92" s="15"/>
+      <c r="AEL92" s="15"/>
+      <c r="AEM92" s="15"/>
+      <c r="AEN92" s="15"/>
+      <c r="AEO92" s="15"/>
+      <c r="AEP92" s="15"/>
+      <c r="AEQ92" s="15"/>
+      <c r="AER92" s="15"/>
+      <c r="AES92" s="15"/>
+      <c r="AET92" s="15"/>
+      <c r="AEU92" s="15"/>
+      <c r="AEV92" s="15"/>
+      <c r="AEW92" s="15"/>
+      <c r="AEX92" s="15"/>
+      <c r="AEY92" s="15"/>
+      <c r="AEZ92" s="15"/>
+      <c r="AFA92" s="15"/>
+      <c r="AFB92" s="15"/>
+      <c r="AFC92" s="15"/>
+      <c r="AFD92" s="15"/>
+      <c r="AFE92" s="15"/>
+      <c r="AFF92" s="15"/>
+      <c r="AFG92" s="15"/>
+      <c r="AFH92" s="15"/>
+      <c r="AFI92" s="15"/>
+      <c r="AFJ92" s="15"/>
+      <c r="AFK92" s="15"/>
+      <c r="AFL92" s="15"/>
+      <c r="AFM92" s="15"/>
+      <c r="AFN92" s="15"/>
+      <c r="AFO92" s="15"/>
+      <c r="AFP92" s="15"/>
+      <c r="AFQ92" s="15"/>
+      <c r="AFR92" s="15"/>
+      <c r="AFS92" s="15"/>
+      <c r="AFT92" s="15"/>
+      <c r="AFU92" s="15"/>
+      <c r="AFV92" s="15"/>
+      <c r="AFW92" s="15"/>
+      <c r="AFX92" s="15"/>
+      <c r="AFY92" s="15"/>
+      <c r="AFZ92" s="15"/>
+      <c r="AGA92" s="15"/>
+      <c r="AGB92" s="15"/>
+      <c r="AGC92" s="15"/>
+      <c r="AGD92" s="15"/>
+      <c r="AGE92" s="15"/>
+      <c r="AGF92" s="15"/>
+      <c r="AGG92" s="15"/>
+      <c r="AGH92" s="15"/>
+      <c r="AGI92" s="15"/>
+      <c r="AGJ92" s="15"/>
+      <c r="AGK92" s="15"/>
+      <c r="AGL92" s="15"/>
+      <c r="AGM92" s="15"/>
+      <c r="AGN92" s="15"/>
+      <c r="AGO92" s="15"/>
+      <c r="AGP92" s="15"/>
+      <c r="AGQ92" s="15"/>
+      <c r="AGR92" s="15"/>
+      <c r="AGS92" s="15"/>
+      <c r="AGT92" s="15"/>
+      <c r="AGU92" s="15"/>
+      <c r="AGV92" s="15"/>
+      <c r="AGW92" s="15"/>
+      <c r="AGX92" s="15"/>
+      <c r="AGY92" s="15"/>
+      <c r="AGZ92" s="15"/>
+      <c r="AHA92" s="15"/>
+      <c r="AHB92" s="15"/>
+      <c r="AHC92" s="15"/>
+      <c r="AHD92" s="15"/>
+      <c r="AHE92" s="15"/>
+      <c r="AHF92" s="15"/>
+      <c r="AHG92" s="15"/>
+      <c r="AHH92" s="15"/>
+      <c r="AHI92" s="15"/>
+      <c r="AHJ92" s="15"/>
+      <c r="AHK92" s="15"/>
+      <c r="AHL92" s="15"/>
+      <c r="AHM92" s="15"/>
+      <c r="AHN92" s="15"/>
+      <c r="AHO92" s="15"/>
+      <c r="AHP92" s="15"/>
+      <c r="AHQ92" s="15"/>
+      <c r="AHR92" s="15"/>
+      <c r="AHS92" s="15"/>
+      <c r="AHT92" s="15"/>
+      <c r="AHU92" s="15"/>
+      <c r="AHV92" s="15"/>
+      <c r="AHW92" s="15"/>
+      <c r="AHX92" s="15"/>
+      <c r="AHY92" s="15"/>
+      <c r="AHZ92" s="15"/>
+      <c r="AIA92" s="15"/>
+      <c r="AIB92" s="15"/>
+      <c r="AIC92" s="15"/>
+      <c r="AID92" s="15"/>
+      <c r="AIE92" s="15"/>
+      <c r="AIF92" s="15"/>
+      <c r="AIG92" s="15"/>
+      <c r="AIH92" s="15"/>
+      <c r="AII92" s="15"/>
+      <c r="AIJ92" s="15"/>
+      <c r="AIK92" s="15"/>
+      <c r="AIL92" s="15"/>
+      <c r="AIM92" s="15"/>
+      <c r="AIN92" s="15"/>
+      <c r="AIO92" s="15"/>
+      <c r="AIP92" s="15"/>
+      <c r="AIQ92" s="15"/>
+      <c r="AIR92" s="15"/>
+      <c r="AIS92" s="15"/>
+      <c r="AIT92" s="15"/>
+      <c r="AIU92" s="15"/>
+      <c r="AIV92" s="15"/>
+      <c r="AIW92" s="15"/>
+      <c r="AIX92" s="15"/>
+      <c r="AIY92" s="15"/>
+      <c r="AIZ92" s="15"/>
+      <c r="AJA92" s="15"/>
+      <c r="AJB92" s="15"/>
+      <c r="AJC92" s="15"/>
+      <c r="AJD92" s="15"/>
+      <c r="AJE92" s="15"/>
+      <c r="AJF92" s="15"/>
+      <c r="AJG92" s="15"/>
+      <c r="AJH92" s="15"/>
+      <c r="AJI92" s="15"/>
+      <c r="AJJ92" s="15"/>
+      <c r="AJK92" s="15"/>
+      <c r="AJL92" s="15"/>
+      <c r="AJM92" s="15"/>
+      <c r="AJN92" s="15"/>
+      <c r="AJO92" s="15"/>
+      <c r="AJP92" s="15"/>
+      <c r="AJQ92" s="15"/>
+      <c r="AJR92" s="15"/>
+      <c r="AJS92" s="15"/>
+      <c r="AJT92" s="15"/>
+      <c r="AJU92" s="15"/>
+      <c r="AJV92" s="15"/>
+      <c r="AJW92" s="15"/>
+      <c r="AJX92" s="15"/>
+      <c r="AJY92" s="15"/>
+      <c r="AJZ92" s="15"/>
+      <c r="AKA92" s="15"/>
+      <c r="AKB92" s="15"/>
+      <c r="AKC92" s="15"/>
+      <c r="AKD92" s="15"/>
+      <c r="AKE92" s="15"/>
+      <c r="AKF92" s="15"/>
+      <c r="AKG92" s="15"/>
+      <c r="AKH92" s="15"/>
+      <c r="AKI92" s="15"/>
+      <c r="AKJ92" s="15"/>
+      <c r="AKK92" s="15"/>
+      <c r="AKL92" s="15"/>
+      <c r="AKM92" s="15"/>
+      <c r="AKN92" s="15"/>
+      <c r="AKO92" s="15"/>
+      <c r="AKP92" s="15"/>
+      <c r="AKQ92" s="15"/>
+      <c r="AKR92" s="15"/>
+      <c r="AKS92" s="15"/>
+      <c r="AKT92" s="15"/>
+      <c r="AKU92" s="15"/>
+      <c r="AKV92" s="15"/>
+      <c r="AKW92" s="15"/>
+      <c r="AKX92" s="15"/>
+      <c r="AKY92" s="15"/>
+      <c r="AKZ92" s="15"/>
+      <c r="ALA92" s="15"/>
+      <c r="ALB92" s="15"/>
+      <c r="ALC92" s="15"/>
+      <c r="ALD92" s="15"/>
+      <c r="ALE92" s="15"/>
+      <c r="ALF92" s="15"/>
+      <c r="ALG92" s="15"/>
+      <c r="ALH92" s="15"/>
+      <c r="ALI92" s="15"/>
+      <c r="ALJ92" s="15"/>
+      <c r="ALK92" s="15"/>
+      <c r="ALL92" s="15"/>
+      <c r="ALM92" s="15"/>
+      <c r="ALN92" s="15"/>
+      <c r="ALO92" s="15"/>
+      <c r="ALP92" s="15"/>
+      <c r="ALQ92" s="15"/>
+      <c r="ALR92" s="15"/>
+      <c r="ALS92" s="15"/>
+      <c r="ALT92" s="15"/>
+      <c r="ALU92" s="15"/>
+      <c r="ALV92" s="15"/>
+      <c r="ALW92" s="15"/>
+      <c r="ALX92" s="15"/>
+      <c r="ALY92" s="15"/>
+      <c r="ALZ92" s="15"/>
+      <c r="AMA92" s="15"/>
+      <c r="AMB92" s="15"/>
+      <c r="AMC92" s="15"/>
+      <c r="AMD92" s="15"/>
+      <c r="AME92" s="15"/>
+      <c r="AMF92" s="15"/>
+      <c r="AMG92" s="15"/>
+      <c r="AMH92" s="15"/>
+      <c r="AMI92" s="15"/>
+      <c r="AMJ92" s="15"/>
+      <c r="AMK92" s="15"/>
+      <c r="AML92" s="15"/>
+      <c r="AMM92" s="15"/>
     </row>
-    <row r="92" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+    <row r="93" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="L92" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="M92" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="O92" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="F93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="O93" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="94" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+    <row r="94" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="O94" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B95" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D95" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="16" t="s">
+      <c r="E95" s="15"/>
+      <c r="F95" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G95" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H95" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I95" s="22">
         <v>45138</v>
       </c>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="15" t="s">
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="O94" s="17" t="s">
+      <c r="O95" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
-      <c r="U94" s="15"/>
-      <c r="V94" s="15"/>
-      <c r="W94" s="15"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="15"/>
-      <c r="AA94" s="15"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="15"/>
-      <c r="AD94" s="15"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15"/>
-      <c r="AG94" s="15"/>
-      <c r="AH94" s="15"/>
-      <c r="AI94" s="15"/>
-      <c r="AJ94" s="15"/>
-      <c r="AK94" s="15"/>
-      <c r="AL94" s="15"/>
-      <c r="AM94" s="15"/>
-      <c r="AN94" s="15"/>
-      <c r="AO94" s="15"/>
-      <c r="AP94" s="15"/>
-      <c r="AQ94" s="15"/>
-      <c r="AR94" s="15"/>
-      <c r="AS94" s="15"/>
-      <c r="AT94" s="15"/>
-      <c r="AU94" s="15"/>
-      <c r="AV94" s="15"/>
-      <c r="AW94" s="15"/>
-      <c r="AX94" s="15"/>
-      <c r="AY94" s="15"/>
-      <c r="AZ94" s="15"/>
-      <c r="BA94" s="15"/>
-      <c r="BB94" s="15"/>
-      <c r="BC94" s="15"/>
-      <c r="BD94" s="15"/>
-      <c r="BE94" s="15"/>
-      <c r="BF94" s="15"/>
-      <c r="BG94" s="15"/>
-      <c r="BH94" s="15"/>
-      <c r="BI94" s="15"/>
-      <c r="BJ94" s="15"/>
-      <c r="BK94" s="15"/>
-      <c r="BL94" s="15"/>
-      <c r="BM94" s="15"/>
-      <c r="BN94" s="15"/>
-      <c r="BO94" s="15"/>
-      <c r="BP94" s="15"/>
-      <c r="BQ94" s="15"/>
-      <c r="BR94" s="15"/>
-      <c r="BS94" s="15"/>
-      <c r="BT94" s="15"/>
-      <c r="BU94" s="15"/>
-      <c r="BV94" s="15"/>
-      <c r="BW94" s="15"/>
-      <c r="BX94" s="15"/>
-      <c r="BY94" s="15"/>
-      <c r="BZ94" s="15"/>
-      <c r="CA94" s="15"/>
-      <c r="CB94" s="15"/>
-      <c r="CC94" s="15"/>
-      <c r="CD94" s="15"/>
-      <c r="CE94" s="15"/>
-      <c r="CF94" s="15"/>
-      <c r="CG94" s="15"/>
-      <c r="CH94" s="15"/>
-      <c r="CI94" s="15"/>
-      <c r="CJ94" s="15"/>
-      <c r="CK94" s="15"/>
-      <c r="CL94" s="15"/>
-      <c r="CM94" s="15"/>
-      <c r="CN94" s="15"/>
-      <c r="CO94" s="15"/>
-      <c r="CP94" s="15"/>
-      <c r="CQ94" s="15"/>
-      <c r="CR94" s="15"/>
-      <c r="CS94" s="15"/>
-      <c r="CT94" s="15"/>
-      <c r="CU94" s="15"/>
-      <c r="CV94" s="15"/>
-      <c r="CW94" s="15"/>
-      <c r="CX94" s="15"/>
-      <c r="CY94" s="15"/>
-      <c r="CZ94" s="15"/>
-      <c r="DA94" s="15"/>
-      <c r="DB94" s="15"/>
-      <c r="DC94" s="15"/>
-      <c r="DD94" s="15"/>
-      <c r="DE94" s="15"/>
-      <c r="DF94" s="15"/>
-      <c r="DG94" s="15"/>
-      <c r="DH94" s="15"/>
-      <c r="DI94" s="15"/>
-      <c r="DJ94" s="15"/>
-      <c r="DK94" s="15"/>
-      <c r="DL94" s="15"/>
-      <c r="DM94" s="15"/>
-      <c r="DN94" s="15"/>
-      <c r="DO94" s="15"/>
-      <c r="DP94" s="15"/>
-      <c r="DQ94" s="15"/>
-      <c r="DR94" s="15"/>
-      <c r="DS94" s="15"/>
-      <c r="DT94" s="15"/>
-      <c r="DU94" s="15"/>
-      <c r="DV94" s="15"/>
-      <c r="DW94" s="15"/>
-      <c r="DX94" s="15"/>
-      <c r="DY94" s="15"/>
-      <c r="DZ94" s="15"/>
-      <c r="EA94" s="15"/>
-      <c r="EB94" s="15"/>
-      <c r="EC94" s="15"/>
-      <c r="ED94" s="15"/>
-      <c r="EE94" s="15"/>
-      <c r="EF94" s="15"/>
-      <c r="EG94" s="15"/>
-      <c r="EH94" s="15"/>
-      <c r="EI94" s="15"/>
-      <c r="EJ94" s="15"/>
-      <c r="EK94" s="15"/>
-      <c r="EL94" s="15"/>
-      <c r="EM94" s="15"/>
-      <c r="EN94" s="15"/>
-      <c r="EO94" s="15"/>
-      <c r="EP94" s="15"/>
-      <c r="EQ94" s="15"/>
-      <c r="ER94" s="15"/>
-      <c r="ES94" s="15"/>
-      <c r="ET94" s="15"/>
-      <c r="EU94" s="15"/>
-      <c r="EV94" s="15"/>
-      <c r="EW94" s="15"/>
-      <c r="EX94" s="15"/>
-      <c r="EY94" s="15"/>
-      <c r="EZ94" s="15"/>
-      <c r="FA94" s="15"/>
-      <c r="FB94" s="15"/>
-      <c r="FC94" s="15"/>
-      <c r="FD94" s="15"/>
-      <c r="FE94" s="15"/>
-      <c r="FF94" s="15"/>
-      <c r="FG94" s="15"/>
-      <c r="FH94" s="15"/>
-      <c r="FI94" s="15"/>
-      <c r="FJ94" s="15"/>
-      <c r="FK94" s="15"/>
-      <c r="FL94" s="15"/>
-      <c r="FM94" s="15"/>
-      <c r="FN94" s="15"/>
-      <c r="FO94" s="15"/>
-      <c r="FP94" s="15"/>
-      <c r="FQ94" s="15"/>
-      <c r="FR94" s="15"/>
-      <c r="FS94" s="15"/>
-      <c r="FT94" s="15"/>
-      <c r="FU94" s="15"/>
-      <c r="FV94" s="15"/>
-      <c r="FW94" s="15"/>
-      <c r="FX94" s="15"/>
-      <c r="FY94" s="15"/>
-      <c r="FZ94" s="15"/>
-      <c r="GA94" s="15"/>
-      <c r="GB94" s="15"/>
-      <c r="GC94" s="15"/>
-      <c r="GD94" s="15"/>
-      <c r="GE94" s="15"/>
-      <c r="GF94" s="15"/>
-      <c r="GG94" s="15"/>
-      <c r="GH94" s="15"/>
-      <c r="GI94" s="15"/>
-      <c r="GJ94" s="15"/>
-      <c r="GK94" s="15"/>
-      <c r="GL94" s="15"/>
-      <c r="GM94" s="15"/>
-      <c r="GN94" s="15"/>
-      <c r="GO94" s="15"/>
-      <c r="GP94" s="15"/>
-      <c r="GQ94" s="15"/>
-      <c r="GR94" s="15"/>
-      <c r="GS94" s="15"/>
-      <c r="GT94" s="15"/>
-      <c r="GU94" s="15"/>
-      <c r="GV94" s="15"/>
-      <c r="GW94" s="15"/>
-      <c r="GX94" s="15"/>
-      <c r="GY94" s="15"/>
-      <c r="GZ94" s="15"/>
-      <c r="HA94" s="15"/>
-      <c r="HB94" s="15"/>
-      <c r="HC94" s="15"/>
-      <c r="HD94" s="15"/>
-      <c r="HE94" s="15"/>
-      <c r="HF94" s="15"/>
-      <c r="HG94" s="15"/>
-      <c r="HH94" s="15"/>
-      <c r="HI94" s="15"/>
-      <c r="HJ94" s="15"/>
-      <c r="HK94" s="15"/>
-      <c r="HL94" s="15"/>
-      <c r="HM94" s="15"/>
-      <c r="HN94" s="15"/>
-      <c r="HO94" s="15"/>
-      <c r="HP94" s="15"/>
-      <c r="HQ94" s="15"/>
-      <c r="HR94" s="15"/>
-      <c r="HS94" s="15"/>
-      <c r="HT94" s="15"/>
-      <c r="HU94" s="15"/>
-      <c r="HV94" s="15"/>
-      <c r="HW94" s="15"/>
-      <c r="HX94" s="15"/>
-      <c r="HY94" s="15"/>
-      <c r="HZ94" s="15"/>
-      <c r="IA94" s="15"/>
-      <c r="IB94" s="15"/>
-      <c r="IC94" s="15"/>
-      <c r="ID94" s="15"/>
-      <c r="IE94" s="15"/>
-      <c r="IF94" s="15"/>
-      <c r="IG94" s="15"/>
-      <c r="IH94" s="15"/>
-      <c r="II94" s="15"/>
-      <c r="IJ94" s="15"/>
-      <c r="IK94" s="15"/>
-      <c r="IL94" s="15"/>
-      <c r="IM94" s="15"/>
-      <c r="IN94" s="15"/>
-      <c r="IO94" s="15"/>
-      <c r="IP94" s="15"/>
-      <c r="IQ94" s="15"/>
-      <c r="IR94" s="15"/>
-      <c r="IS94" s="15"/>
-      <c r="IT94" s="15"/>
-      <c r="IU94" s="15"/>
-      <c r="IV94" s="15"/>
-      <c r="IW94" s="15"/>
-      <c r="IX94" s="15"/>
-      <c r="IY94" s="15"/>
-      <c r="IZ94" s="15"/>
-      <c r="JA94" s="15"/>
-      <c r="JB94" s="15"/>
-      <c r="JC94" s="15"/>
-      <c r="JD94" s="15"/>
-      <c r="JE94" s="15"/>
-      <c r="JF94" s="15"/>
-      <c r="JG94" s="15"/>
-      <c r="JH94" s="15"/>
-      <c r="JI94" s="15"/>
-      <c r="JJ94" s="15"/>
-      <c r="JK94" s="15"/>
-      <c r="JL94" s="15"/>
-      <c r="JM94" s="15"/>
-      <c r="JN94" s="15"/>
-      <c r="JO94" s="15"/>
-      <c r="JP94" s="15"/>
-      <c r="JQ94" s="15"/>
-      <c r="JR94" s="15"/>
-      <c r="JS94" s="15"/>
-      <c r="JT94" s="15"/>
-      <c r="JU94" s="15"/>
-      <c r="JV94" s="15"/>
-      <c r="JW94" s="15"/>
-      <c r="JX94" s="15"/>
-      <c r="JY94" s="15"/>
-      <c r="JZ94" s="15"/>
-      <c r="KA94" s="15"/>
-      <c r="KB94" s="15"/>
-      <c r="KC94" s="15"/>
-      <c r="KD94" s="15"/>
-      <c r="KE94" s="15"/>
-      <c r="KF94" s="15"/>
-      <c r="KG94" s="15"/>
-      <c r="KH94" s="15"/>
-      <c r="KI94" s="15"/>
-      <c r="KJ94" s="15"/>
-      <c r="KK94" s="15"/>
-      <c r="KL94" s="15"/>
-      <c r="KM94" s="15"/>
-      <c r="KN94" s="15"/>
-      <c r="KO94" s="15"/>
-      <c r="KP94" s="15"/>
-      <c r="KQ94" s="15"/>
-      <c r="KR94" s="15"/>
-      <c r="KS94" s="15"/>
-      <c r="KT94" s="15"/>
-      <c r="KU94" s="15"/>
-      <c r="KV94" s="15"/>
-      <c r="KW94" s="15"/>
-      <c r="KX94" s="15"/>
-      <c r="KY94" s="15"/>
-      <c r="KZ94" s="15"/>
-      <c r="LA94" s="15"/>
-      <c r="LB94" s="15"/>
-      <c r="LC94" s="15"/>
-      <c r="LD94" s="15"/>
-      <c r="LE94" s="15"/>
-      <c r="LF94" s="15"/>
-      <c r="LG94" s="15"/>
-      <c r="LH94" s="15"/>
-      <c r="LI94" s="15"/>
-      <c r="LJ94" s="15"/>
-      <c r="LK94" s="15"/>
-      <c r="LL94" s="15"/>
-      <c r="LM94" s="15"/>
-      <c r="LN94" s="15"/>
-      <c r="LO94" s="15"/>
-      <c r="LP94" s="15"/>
-      <c r="LQ94" s="15"/>
-      <c r="LR94" s="15"/>
-      <c r="LS94" s="15"/>
-      <c r="LT94" s="15"/>
-      <c r="LU94" s="15"/>
-      <c r="LV94" s="15"/>
-      <c r="LW94" s="15"/>
-      <c r="LX94" s="15"/>
-      <c r="LY94" s="15"/>
-      <c r="LZ94" s="15"/>
-      <c r="MA94" s="15"/>
-      <c r="MB94" s="15"/>
-      <c r="MC94" s="15"/>
-      <c r="MD94" s="15"/>
-      <c r="ME94" s="15"/>
-      <c r="MF94" s="15"/>
-      <c r="MG94" s="15"/>
-      <c r="MH94" s="15"/>
-      <c r="MI94" s="15"/>
-      <c r="MJ94" s="15"/>
-      <c r="MK94" s="15"/>
-      <c r="ML94" s="15"/>
-      <c r="MM94" s="15"/>
-      <c r="MN94" s="15"/>
-      <c r="MO94" s="15"/>
-      <c r="MP94" s="15"/>
-      <c r="MQ94" s="15"/>
-      <c r="MR94" s="15"/>
-      <c r="MS94" s="15"/>
-      <c r="MT94" s="15"/>
-      <c r="MU94" s="15"/>
-      <c r="MV94" s="15"/>
-      <c r="MW94" s="15"/>
-      <c r="MX94" s="15"/>
-      <c r="MY94" s="15"/>
-      <c r="MZ94" s="15"/>
-      <c r="NA94" s="15"/>
-      <c r="NB94" s="15"/>
-      <c r="NC94" s="15"/>
-      <c r="ND94" s="15"/>
-      <c r="NE94" s="15"/>
-      <c r="NF94" s="15"/>
-      <c r="NG94" s="15"/>
-      <c r="NH94" s="15"/>
-      <c r="NI94" s="15"/>
-      <c r="NJ94" s="15"/>
-      <c r="NK94" s="15"/>
-      <c r="NL94" s="15"/>
-      <c r="NM94" s="15"/>
-      <c r="NN94" s="15"/>
-      <c r="NO94" s="15"/>
-      <c r="NP94" s="15"/>
-      <c r="NQ94" s="15"/>
-      <c r="NR94" s="15"/>
-      <c r="NS94" s="15"/>
-      <c r="NT94" s="15"/>
-      <c r="NU94" s="15"/>
-      <c r="NV94" s="15"/>
-      <c r="NW94" s="15"/>
-      <c r="NX94" s="15"/>
-      <c r="NY94" s="15"/>
-      <c r="NZ94" s="15"/>
-      <c r="OA94" s="15"/>
-      <c r="OB94" s="15"/>
-      <c r="OC94" s="15"/>
-      <c r="OD94" s="15"/>
-      <c r="OE94" s="15"/>
-      <c r="OF94" s="15"/>
-      <c r="OG94" s="15"/>
-      <c r="OH94" s="15"/>
-      <c r="OI94" s="15"/>
-      <c r="OJ94" s="15"/>
-      <c r="OK94" s="15"/>
-      <c r="OL94" s="15"/>
-      <c r="OM94" s="15"/>
-      <c r="ON94" s="15"/>
-      <c r="OO94" s="15"/>
-      <c r="OP94" s="15"/>
-      <c r="OQ94" s="15"/>
-      <c r="OR94" s="15"/>
-      <c r="OS94" s="15"/>
-      <c r="OT94" s="15"/>
-      <c r="OU94" s="15"/>
-      <c r="OV94" s="15"/>
-      <c r="OW94" s="15"/>
-      <c r="OX94" s="15"/>
-      <c r="OY94" s="15"/>
-      <c r="OZ94" s="15"/>
-      <c r="PA94" s="15"/>
-      <c r="PB94" s="15"/>
-      <c r="PC94" s="15"/>
-      <c r="PD94" s="15"/>
-      <c r="PE94" s="15"/>
-      <c r="PF94" s="15"/>
-      <c r="PG94" s="15"/>
-      <c r="PH94" s="15"/>
-      <c r="PI94" s="15"/>
-      <c r="PJ94" s="15"/>
-      <c r="PK94" s="15"/>
-      <c r="PL94" s="15"/>
-      <c r="PM94" s="15"/>
-      <c r="PN94" s="15"/>
-      <c r="PO94" s="15"/>
-      <c r="PP94" s="15"/>
-      <c r="PQ94" s="15"/>
-      <c r="PR94" s="15"/>
-      <c r="PS94" s="15"/>
-      <c r="PT94" s="15"/>
-      <c r="PU94" s="15"/>
-      <c r="PV94" s="15"/>
-      <c r="PW94" s="15"/>
-      <c r="PX94" s="15"/>
-      <c r="PY94" s="15"/>
-      <c r="PZ94" s="15"/>
-      <c r="QA94" s="15"/>
-      <c r="QB94" s="15"/>
-      <c r="QC94" s="15"/>
-      <c r="QD94" s="15"/>
-      <c r="QE94" s="15"/>
-      <c r="QF94" s="15"/>
-      <c r="QG94" s="15"/>
-      <c r="QH94" s="15"/>
-      <c r="QI94" s="15"/>
-      <c r="QJ94" s="15"/>
-      <c r="QK94" s="15"/>
-      <c r="QL94" s="15"/>
-      <c r="QM94" s="15"/>
-      <c r="QN94" s="15"/>
-      <c r="QO94" s="15"/>
-      <c r="QP94" s="15"/>
-      <c r="QQ94" s="15"/>
-      <c r="QR94" s="15"/>
-      <c r="QS94" s="15"/>
-      <c r="QT94" s="15"/>
-      <c r="QU94" s="15"/>
-      <c r="QV94" s="15"/>
-      <c r="QW94" s="15"/>
-      <c r="QX94" s="15"/>
-      <c r="QY94" s="15"/>
-      <c r="QZ94" s="15"/>
-      <c r="RA94" s="15"/>
-      <c r="RB94" s="15"/>
-      <c r="RC94" s="15"/>
-      <c r="RD94" s="15"/>
-      <c r="RE94" s="15"/>
-      <c r="RF94" s="15"/>
-      <c r="RG94" s="15"/>
-      <c r="RH94" s="15"/>
-      <c r="RI94" s="15"/>
-      <c r="RJ94" s="15"/>
-      <c r="RK94" s="15"/>
-      <c r="RL94" s="15"/>
-      <c r="RM94" s="15"/>
-      <c r="RN94" s="15"/>
-      <c r="RO94" s="15"/>
-      <c r="RP94" s="15"/>
-      <c r="RQ94" s="15"/>
-      <c r="RR94" s="15"/>
-      <c r="RS94" s="15"/>
-      <c r="RT94" s="15"/>
-      <c r="RU94" s="15"/>
-      <c r="RV94" s="15"/>
-      <c r="RW94" s="15"/>
-      <c r="RX94" s="15"/>
-      <c r="RY94" s="15"/>
-      <c r="RZ94" s="15"/>
-      <c r="SA94" s="15"/>
-      <c r="SB94" s="15"/>
-      <c r="SC94" s="15"/>
-      <c r="SD94" s="15"/>
-      <c r="SE94" s="15"/>
-      <c r="SF94" s="15"/>
-      <c r="SG94" s="15"/>
-      <c r="SH94" s="15"/>
-      <c r="SI94" s="15"/>
-      <c r="SJ94" s="15"/>
-      <c r="SK94" s="15"/>
-      <c r="SL94" s="15"/>
-      <c r="SM94" s="15"/>
-      <c r="SN94" s="15"/>
-      <c r="SO94" s="15"/>
-      <c r="SP94" s="15"/>
-      <c r="SQ94" s="15"/>
-      <c r="SR94" s="15"/>
-      <c r="SS94" s="15"/>
-      <c r="ST94" s="15"/>
-      <c r="SU94" s="15"/>
-      <c r="SV94" s="15"/>
-      <c r="SW94" s="15"/>
-      <c r="SX94" s="15"/>
-      <c r="SY94" s="15"/>
-      <c r="SZ94" s="15"/>
-      <c r="TA94" s="15"/>
-      <c r="TB94" s="15"/>
-      <c r="TC94" s="15"/>
-      <c r="TD94" s="15"/>
-      <c r="TE94" s="15"/>
-      <c r="TF94" s="15"/>
-      <c r="TG94" s="15"/>
-      <c r="TH94" s="15"/>
-      <c r="TI94" s="15"/>
-      <c r="TJ94" s="15"/>
-      <c r="TK94" s="15"/>
-      <c r="TL94" s="15"/>
-      <c r="TM94" s="15"/>
-      <c r="TN94" s="15"/>
-      <c r="TO94" s="15"/>
-      <c r="TP94" s="15"/>
-      <c r="TQ94" s="15"/>
-      <c r="TR94" s="15"/>
-      <c r="TS94" s="15"/>
-      <c r="TT94" s="15"/>
-      <c r="TU94" s="15"/>
-      <c r="TV94" s="15"/>
-      <c r="TW94" s="15"/>
-      <c r="TX94" s="15"/>
-      <c r="TY94" s="15"/>
-      <c r="TZ94" s="15"/>
-      <c r="UA94" s="15"/>
-      <c r="UB94" s="15"/>
-      <c r="UC94" s="15"/>
-      <c r="UD94" s="15"/>
-      <c r="UE94" s="15"/>
-      <c r="UF94" s="15"/>
-      <c r="UG94" s="15"/>
-      <c r="UH94" s="15"/>
-      <c r="UI94" s="15"/>
-      <c r="UJ94" s="15"/>
-      <c r="UK94" s="15"/>
-      <c r="UL94" s="15"/>
-      <c r="UM94" s="15"/>
-      <c r="UN94" s="15"/>
-      <c r="UO94" s="15"/>
-      <c r="UP94" s="15"/>
-      <c r="UQ94" s="15"/>
-      <c r="UR94" s="15"/>
-      <c r="US94" s="15"/>
-      <c r="UT94" s="15"/>
-      <c r="UU94" s="15"/>
-      <c r="UV94" s="15"/>
-      <c r="UW94" s="15"/>
-      <c r="UX94" s="15"/>
-      <c r="UY94" s="15"/>
-      <c r="UZ94" s="15"/>
-      <c r="VA94" s="15"/>
-      <c r="VB94" s="15"/>
-      <c r="VC94" s="15"/>
-      <c r="VD94" s="15"/>
-      <c r="VE94" s="15"/>
-      <c r="VF94" s="15"/>
-      <c r="VG94" s="15"/>
-      <c r="VH94" s="15"/>
-      <c r="VI94" s="15"/>
-      <c r="VJ94" s="15"/>
-      <c r="VK94" s="15"/>
-      <c r="VL94" s="15"/>
-      <c r="VM94" s="15"/>
-      <c r="VN94" s="15"/>
-      <c r="VO94" s="15"/>
-      <c r="VP94" s="15"/>
-      <c r="VQ94" s="15"/>
-      <c r="VR94" s="15"/>
-      <c r="VS94" s="15"/>
-      <c r="VT94" s="15"/>
-      <c r="VU94" s="15"/>
-      <c r="VV94" s="15"/>
-      <c r="VW94" s="15"/>
-      <c r="VX94" s="15"/>
-      <c r="VY94" s="15"/>
-      <c r="VZ94" s="15"/>
-      <c r="WA94" s="15"/>
-      <c r="WB94" s="15"/>
-      <c r="WC94" s="15"/>
-      <c r="WD94" s="15"/>
-      <c r="WE94" s="15"/>
-      <c r="WF94" s="15"/>
-      <c r="WG94" s="15"/>
-      <c r="WH94" s="15"/>
-      <c r="WI94" s="15"/>
-      <c r="WJ94" s="15"/>
-      <c r="WK94" s="15"/>
-      <c r="WL94" s="15"/>
-      <c r="WM94" s="15"/>
-      <c r="WN94" s="15"/>
-      <c r="WO94" s="15"/>
-      <c r="WP94" s="15"/>
-      <c r="WQ94" s="15"/>
-      <c r="WR94" s="15"/>
-      <c r="WS94" s="15"/>
-      <c r="WT94" s="15"/>
-      <c r="WU94" s="15"/>
-      <c r="WV94" s="15"/>
-      <c r="WW94" s="15"/>
-      <c r="WX94" s="15"/>
-      <c r="WY94" s="15"/>
-      <c r="WZ94" s="15"/>
-      <c r="XA94" s="15"/>
-      <c r="XB94" s="15"/>
-      <c r="XC94" s="15"/>
-      <c r="XD94" s="15"/>
-      <c r="XE94" s="15"/>
-      <c r="XF94" s="15"/>
-      <c r="XG94" s="15"/>
-      <c r="XH94" s="15"/>
-      <c r="XI94" s="15"/>
-      <c r="XJ94" s="15"/>
-      <c r="XK94" s="15"/>
-      <c r="XL94" s="15"/>
-      <c r="XM94" s="15"/>
-      <c r="XN94" s="15"/>
-      <c r="XO94" s="15"/>
-      <c r="XP94" s="15"/>
-      <c r="XQ94" s="15"/>
-      <c r="XR94" s="15"/>
-      <c r="XS94" s="15"/>
-      <c r="XT94" s="15"/>
-      <c r="XU94" s="15"/>
-      <c r="XV94" s="15"/>
-      <c r="XW94" s="15"/>
-      <c r="XX94" s="15"/>
-      <c r="XY94" s="15"/>
-      <c r="XZ94" s="15"/>
-      <c r="YA94" s="15"/>
-      <c r="YB94" s="15"/>
-      <c r="YC94" s="15"/>
-      <c r="YD94" s="15"/>
-      <c r="YE94" s="15"/>
-      <c r="YF94" s="15"/>
-      <c r="YG94" s="15"/>
-      <c r="YH94" s="15"/>
-      <c r="YI94" s="15"/>
-      <c r="YJ94" s="15"/>
-      <c r="YK94" s="15"/>
-      <c r="YL94" s="15"/>
-      <c r="YM94" s="15"/>
-      <c r="YN94" s="15"/>
-      <c r="YO94" s="15"/>
-      <c r="YP94" s="15"/>
-      <c r="YQ94" s="15"/>
-      <c r="YR94" s="15"/>
-      <c r="YS94" s="15"/>
-      <c r="YT94" s="15"/>
-      <c r="YU94" s="15"/>
-      <c r="YV94" s="15"/>
-      <c r="YW94" s="15"/>
-      <c r="YX94" s="15"/>
-      <c r="YY94" s="15"/>
-      <c r="YZ94" s="15"/>
-      <c r="ZA94" s="15"/>
-      <c r="ZB94" s="15"/>
-      <c r="ZC94" s="15"/>
-      <c r="ZD94" s="15"/>
-      <c r="ZE94" s="15"/>
-      <c r="ZF94" s="15"/>
-      <c r="ZG94" s="15"/>
-      <c r="ZH94" s="15"/>
-      <c r="ZI94" s="15"/>
-      <c r="ZJ94" s="15"/>
-      <c r="ZK94" s="15"/>
-      <c r="ZL94" s="15"/>
-      <c r="ZM94" s="15"/>
-      <c r="ZN94" s="15"/>
-      <c r="ZO94" s="15"/>
-      <c r="ZP94" s="15"/>
-      <c r="ZQ94" s="15"/>
-      <c r="ZR94" s="15"/>
-      <c r="ZS94" s="15"/>
-      <c r="ZT94" s="15"/>
-      <c r="ZU94" s="15"/>
-      <c r="ZV94" s="15"/>
-      <c r="ZW94" s="15"/>
-      <c r="ZX94" s="15"/>
-      <c r="ZY94" s="15"/>
-      <c r="ZZ94" s="15"/>
-      <c r="AAA94" s="15"/>
-      <c r="AAB94" s="15"/>
-      <c r="AAC94" s="15"/>
-      <c r="AAD94" s="15"/>
-      <c r="AAE94" s="15"/>
-      <c r="AAF94" s="15"/>
-      <c r="AAG94" s="15"/>
-      <c r="AAH94" s="15"/>
-      <c r="AAI94" s="15"/>
-      <c r="AAJ94" s="15"/>
-      <c r="AAK94" s="15"/>
-      <c r="AAL94" s="15"/>
-      <c r="AAM94" s="15"/>
-      <c r="AAN94" s="15"/>
-      <c r="AAO94" s="15"/>
-      <c r="AAP94" s="15"/>
-      <c r="AAQ94" s="15"/>
-      <c r="AAR94" s="15"/>
-      <c r="AAS94" s="15"/>
-      <c r="AAT94" s="15"/>
-      <c r="AAU94" s="15"/>
-      <c r="AAV94" s="15"/>
-      <c r="AAW94" s="15"/>
-      <c r="AAX94" s="15"/>
-      <c r="AAY94" s="15"/>
-      <c r="AAZ94" s="15"/>
-      <c r="ABA94" s="15"/>
-      <c r="ABB94" s="15"/>
-      <c r="ABC94" s="15"/>
-      <c r="ABD94" s="15"/>
-      <c r="ABE94" s="15"/>
-      <c r="ABF94" s="15"/>
-      <c r="ABG94" s="15"/>
-      <c r="ABH94" s="15"/>
-      <c r="ABI94" s="15"/>
-      <c r="ABJ94" s="15"/>
-      <c r="ABK94" s="15"/>
-      <c r="ABL94" s="15"/>
-      <c r="ABM94" s="15"/>
-      <c r="ABN94" s="15"/>
-      <c r="ABO94" s="15"/>
-      <c r="ABP94" s="15"/>
-      <c r="ABQ94" s="15"/>
-      <c r="ABR94" s="15"/>
-      <c r="ABS94" s="15"/>
-      <c r="ABT94" s="15"/>
-      <c r="ABU94" s="15"/>
-      <c r="ABV94" s="15"/>
-      <c r="ABW94" s="15"/>
-      <c r="ABX94" s="15"/>
-      <c r="ABY94" s="15"/>
-      <c r="ABZ94" s="15"/>
-      <c r="ACA94" s="15"/>
-      <c r="ACB94" s="15"/>
-      <c r="ACC94" s="15"/>
-      <c r="ACD94" s="15"/>
-      <c r="ACE94" s="15"/>
-      <c r="ACF94" s="15"/>
-      <c r="ACG94" s="15"/>
-      <c r="ACH94" s="15"/>
-      <c r="ACI94" s="15"/>
-      <c r="ACJ94" s="15"/>
-      <c r="ACK94" s="15"/>
-      <c r="ACL94" s="15"/>
-      <c r="ACM94" s="15"/>
-      <c r="ACN94" s="15"/>
-      <c r="ACO94" s="15"/>
-      <c r="ACP94" s="15"/>
-      <c r="ACQ94" s="15"/>
-      <c r="ACR94" s="15"/>
-      <c r="ACS94" s="15"/>
-      <c r="ACT94" s="15"/>
-      <c r="ACU94" s="15"/>
-      <c r="ACV94" s="15"/>
-      <c r="ACW94" s="15"/>
-      <c r="ACX94" s="15"/>
-      <c r="ACY94" s="15"/>
-      <c r="ACZ94" s="15"/>
-      <c r="ADA94" s="15"/>
-      <c r="ADB94" s="15"/>
-      <c r="ADC94" s="15"/>
-      <c r="ADD94" s="15"/>
-      <c r="ADE94" s="15"/>
-      <c r="ADF94" s="15"/>
-      <c r="ADG94" s="15"/>
-      <c r="ADH94" s="15"/>
-      <c r="ADI94" s="15"/>
-      <c r="ADJ94" s="15"/>
-      <c r="ADK94" s="15"/>
-      <c r="ADL94" s="15"/>
-      <c r="ADM94" s="15"/>
-      <c r="ADN94" s="15"/>
-      <c r="ADO94" s="15"/>
-      <c r="ADP94" s="15"/>
-      <c r="ADQ94" s="15"/>
-      <c r="ADR94" s="15"/>
-      <c r="ADS94" s="15"/>
-      <c r="ADT94" s="15"/>
-      <c r="ADU94" s="15"/>
-      <c r="ADV94" s="15"/>
-      <c r="ADW94" s="15"/>
-      <c r="ADX94" s="15"/>
-      <c r="ADY94" s="15"/>
-      <c r="ADZ94" s="15"/>
-      <c r="AEA94" s="15"/>
-      <c r="AEB94" s="15"/>
-      <c r="AEC94" s="15"/>
-      <c r="AED94" s="15"/>
-      <c r="AEE94" s="15"/>
-      <c r="AEF94" s="15"/>
-      <c r="AEG94" s="15"/>
-      <c r="AEH94" s="15"/>
-      <c r="AEI94" s="15"/>
-      <c r="AEJ94" s="15"/>
-      <c r="AEK94" s="15"/>
-      <c r="AEL94" s="15"/>
-      <c r="AEM94" s="15"/>
-      <c r="AEN94" s="15"/>
-      <c r="AEO94" s="15"/>
-      <c r="AEP94" s="15"/>
-      <c r="AEQ94" s="15"/>
-      <c r="AER94" s="15"/>
-      <c r="AES94" s="15"/>
-      <c r="AET94" s="15"/>
-      <c r="AEU94" s="15"/>
-      <c r="AEV94" s="15"/>
-      <c r="AEW94" s="15"/>
-      <c r="AEX94" s="15"/>
-      <c r="AEY94" s="15"/>
-      <c r="AEZ94" s="15"/>
-      <c r="AFA94" s="15"/>
-      <c r="AFB94" s="15"/>
-      <c r="AFC94" s="15"/>
-      <c r="AFD94" s="15"/>
-      <c r="AFE94" s="15"/>
-      <c r="AFF94" s="15"/>
-      <c r="AFG94" s="15"/>
-      <c r="AFH94" s="15"/>
-      <c r="AFI94" s="15"/>
-      <c r="AFJ94" s="15"/>
-      <c r="AFK94" s="15"/>
-      <c r="AFL94" s="15"/>
-      <c r="AFM94" s="15"/>
-      <c r="AFN94" s="15"/>
-      <c r="AFO94" s="15"/>
-      <c r="AFP94" s="15"/>
-      <c r="AFQ94" s="15"/>
-      <c r="AFR94" s="15"/>
-      <c r="AFS94" s="15"/>
-      <c r="AFT94" s="15"/>
-      <c r="AFU94" s="15"/>
-      <c r="AFV94" s="15"/>
-      <c r="AFW94" s="15"/>
-      <c r="AFX94" s="15"/>
-      <c r="AFY94" s="15"/>
-      <c r="AFZ94" s="15"/>
-      <c r="AGA94" s="15"/>
-      <c r="AGB94" s="15"/>
-      <c r="AGC94" s="15"/>
-      <c r="AGD94" s="15"/>
-      <c r="AGE94" s="15"/>
-      <c r="AGF94" s="15"/>
-      <c r="AGG94" s="15"/>
-      <c r="AGH94" s="15"/>
-      <c r="AGI94" s="15"/>
-      <c r="AGJ94" s="15"/>
-      <c r="AGK94" s="15"/>
-      <c r="AGL94" s="15"/>
-      <c r="AGM94" s="15"/>
-      <c r="AGN94" s="15"/>
-      <c r="AGO94" s="15"/>
-      <c r="AGP94" s="15"/>
-      <c r="AGQ94" s="15"/>
-      <c r="AGR94" s="15"/>
-      <c r="AGS94" s="15"/>
-      <c r="AGT94" s="15"/>
-      <c r="AGU94" s="15"/>
-      <c r="AGV94" s="15"/>
-      <c r="AGW94" s="15"/>
-      <c r="AGX94" s="15"/>
-      <c r="AGY94" s="15"/>
-      <c r="AGZ94" s="15"/>
-      <c r="AHA94" s="15"/>
-      <c r="AHB94" s="15"/>
-      <c r="AHC94" s="15"/>
-      <c r="AHD94" s="15"/>
-      <c r="AHE94" s="15"/>
-      <c r="AHF94" s="15"/>
-      <c r="AHG94" s="15"/>
-      <c r="AHH94" s="15"/>
-      <c r="AHI94" s="15"/>
-      <c r="AHJ94" s="15"/>
-      <c r="AHK94" s="15"/>
-      <c r="AHL94" s="15"/>
-      <c r="AHM94" s="15"/>
-      <c r="AHN94" s="15"/>
-      <c r="AHO94" s="15"/>
-      <c r="AHP94" s="15"/>
-      <c r="AHQ94" s="15"/>
-      <c r="AHR94" s="15"/>
-      <c r="AHS94" s="15"/>
-      <c r="AHT94" s="15"/>
-      <c r="AHU94" s="15"/>
-      <c r="AHV94" s="15"/>
-      <c r="AHW94" s="15"/>
-      <c r="AHX94" s="15"/>
-      <c r="AHY94" s="15"/>
-      <c r="AHZ94" s="15"/>
-      <c r="AIA94" s="15"/>
-      <c r="AIB94" s="15"/>
-      <c r="AIC94" s="15"/>
-      <c r="AID94" s="15"/>
-      <c r="AIE94" s="15"/>
-      <c r="AIF94" s="15"/>
-      <c r="AIG94" s="15"/>
-      <c r="AIH94" s="15"/>
-      <c r="AII94" s="15"/>
-      <c r="AIJ94" s="15"/>
-      <c r="AIK94" s="15"/>
-      <c r="AIL94" s="15"/>
-      <c r="AIM94" s="15"/>
-      <c r="AIN94" s="15"/>
-      <c r="AIO94" s="15"/>
-      <c r="AIP94" s="15"/>
-      <c r="AIQ94" s="15"/>
-      <c r="AIR94" s="15"/>
-      <c r="AIS94" s="15"/>
-      <c r="AIT94" s="15"/>
-      <c r="AIU94" s="15"/>
-      <c r="AIV94" s="15"/>
-      <c r="AIW94" s="15"/>
-      <c r="AIX94" s="15"/>
-      <c r="AIY94" s="15"/>
-      <c r="AIZ94" s="15"/>
-      <c r="AJA94" s="15"/>
-      <c r="AJB94" s="15"/>
-      <c r="AJC94" s="15"/>
-      <c r="AJD94" s="15"/>
-      <c r="AJE94" s="15"/>
-      <c r="AJF94" s="15"/>
-      <c r="AJG94" s="15"/>
-      <c r="AJH94" s="15"/>
-      <c r="AJI94" s="15"/>
-      <c r="AJJ94" s="15"/>
-      <c r="AJK94" s="15"/>
-      <c r="AJL94" s="15"/>
-      <c r="AJM94" s="15"/>
-      <c r="AJN94" s="15"/>
-      <c r="AJO94" s="15"/>
-      <c r="AJP94" s="15"/>
-      <c r="AJQ94" s="15"/>
-      <c r="AJR94" s="15"/>
-      <c r="AJS94" s="15"/>
-      <c r="AJT94" s="15"/>
-      <c r="AJU94" s="15"/>
-      <c r="AJV94" s="15"/>
-      <c r="AJW94" s="15"/>
-      <c r="AJX94" s="15"/>
-      <c r="AJY94" s="15"/>
-      <c r="AJZ94" s="15"/>
-      <c r="AKA94" s="15"/>
-      <c r="AKB94" s="15"/>
-      <c r="AKC94" s="15"/>
-      <c r="AKD94" s="15"/>
-      <c r="AKE94" s="15"/>
-      <c r="AKF94" s="15"/>
-      <c r="AKG94" s="15"/>
-      <c r="AKH94" s="15"/>
-      <c r="AKI94" s="15"/>
-      <c r="AKJ94" s="15"/>
-      <c r="AKK94" s="15"/>
-      <c r="AKL94" s="15"/>
-      <c r="AKM94" s="15"/>
-      <c r="AKN94" s="15"/>
-      <c r="AKO94" s="15"/>
-      <c r="AKP94" s="15"/>
-      <c r="AKQ94" s="15"/>
-      <c r="AKR94" s="15"/>
-      <c r="AKS94" s="15"/>
-      <c r="AKT94" s="15"/>
-      <c r="AKU94" s="15"/>
-      <c r="AKV94" s="15"/>
-      <c r="AKW94" s="15"/>
-      <c r="AKX94" s="15"/>
-      <c r="AKY94" s="15"/>
-      <c r="AKZ94" s="15"/>
-      <c r="ALA94" s="15"/>
-      <c r="ALB94" s="15"/>
-      <c r="ALC94" s="15"/>
-      <c r="ALD94" s="15"/>
-      <c r="ALE94" s="15"/>
-      <c r="ALF94" s="15"/>
-      <c r="ALG94" s="15"/>
-      <c r="ALH94" s="15"/>
-      <c r="ALI94" s="15"/>
-      <c r="ALJ94" s="15"/>
-      <c r="ALK94" s="15"/>
-      <c r="ALL94" s="15"/>
-      <c r="ALM94" s="15"/>
-      <c r="ALN94" s="15"/>
-      <c r="ALO94" s="15"/>
-      <c r="ALP94" s="15"/>
-      <c r="ALQ94" s="15"/>
-      <c r="ALR94" s="15"/>
-      <c r="ALS94" s="15"/>
-      <c r="ALT94" s="15"/>
-      <c r="ALU94" s="15"/>
-      <c r="ALV94" s="15"/>
-      <c r="ALW94" s="15"/>
-      <c r="ALX94" s="15"/>
-      <c r="ALY94" s="15"/>
-      <c r="ALZ94" s="15"/>
-      <c r="AMA94" s="15"/>
-      <c r="AMB94" s="15"/>
-      <c r="AMC94" s="15"/>
-      <c r="AMD94" s="15"/>
-      <c r="AME94" s="15"/>
-      <c r="AMF94" s="15"/>
-      <c r="AMG94" s="15"/>
-      <c r="AMH94" s="15"/>
-      <c r="AMI94" s="15"/>
-      <c r="AMJ94" s="15"/>
-      <c r="AMK94" s="15"/>
-      <c r="AML94" s="15"/>
-      <c r="AMM94" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="15"/>
+      <c r="T95" s="15"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="15"/>
+      <c r="AA95" s="15"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="15"/>
+      <c r="AN95" s="15"/>
+      <c r="AO95" s="15"/>
+      <c r="AP95" s="15"/>
+      <c r="AQ95" s="15"/>
+      <c r="AR95" s="15"/>
+      <c r="AS95" s="15"/>
+      <c r="AT95" s="15"/>
+      <c r="AU95" s="15"/>
+      <c r="AV95" s="15"/>
+      <c r="AW95" s="15"/>
+      <c r="AX95" s="15"/>
+      <c r="AY95" s="15"/>
+      <c r="AZ95" s="15"/>
+      <c r="BA95" s="15"/>
+      <c r="BB95" s="15"/>
+      <c r="BC95" s="15"/>
+      <c r="BD95" s="15"/>
+      <c r="BE95" s="15"/>
+      <c r="BF95" s="15"/>
+      <c r="BG95" s="15"/>
+      <c r="BH95" s="15"/>
+      <c r="BI95" s="15"/>
+      <c r="BJ95" s="15"/>
+      <c r="BK95" s="15"/>
+      <c r="BL95" s="15"/>
+      <c r="BM95" s="15"/>
+      <c r="BN95" s="15"/>
+      <c r="BO95" s="15"/>
+      <c r="BP95" s="15"/>
+      <c r="BQ95" s="15"/>
+      <c r="BR95" s="15"/>
+      <c r="BS95" s="15"/>
+      <c r="BT95" s="15"/>
+      <c r="BU95" s="15"/>
+      <c r="BV95" s="15"/>
+      <c r="BW95" s="15"/>
+      <c r="BX95" s="15"/>
+      <c r="BY95" s="15"/>
+      <c r="BZ95" s="15"/>
+      <c r="CA95" s="15"/>
+      <c r="CB95" s="15"/>
+      <c r="CC95" s="15"/>
+      <c r="CD95" s="15"/>
+      <c r="CE95" s="15"/>
+      <c r="CF95" s="15"/>
+      <c r="CG95" s="15"/>
+      <c r="CH95" s="15"/>
+      <c r="CI95" s="15"/>
+      <c r="CJ95" s="15"/>
+      <c r="CK95" s="15"/>
+      <c r="CL95" s="15"/>
+      <c r="CM95" s="15"/>
+      <c r="CN95" s="15"/>
+      <c r="CO95" s="15"/>
+      <c r="CP95" s="15"/>
+      <c r="CQ95" s="15"/>
+      <c r="CR95" s="15"/>
+      <c r="CS95" s="15"/>
+      <c r="CT95" s="15"/>
+      <c r="CU95" s="15"/>
+      <c r="CV95" s="15"/>
+      <c r="CW95" s="15"/>
+      <c r="CX95" s="15"/>
+      <c r="CY95" s="15"/>
+      <c r="CZ95" s="15"/>
+      <c r="DA95" s="15"/>
+      <c r="DB95" s="15"/>
+      <c r="DC95" s="15"/>
+      <c r="DD95" s="15"/>
+      <c r="DE95" s="15"/>
+      <c r="DF95" s="15"/>
+      <c r="DG95" s="15"/>
+      <c r="DH95" s="15"/>
+      <c r="DI95" s="15"/>
+      <c r="DJ95" s="15"/>
+      <c r="DK95" s="15"/>
+      <c r="DL95" s="15"/>
+      <c r="DM95" s="15"/>
+      <c r="DN95" s="15"/>
+      <c r="DO95" s="15"/>
+      <c r="DP95" s="15"/>
+      <c r="DQ95" s="15"/>
+      <c r="DR95" s="15"/>
+      <c r="DS95" s="15"/>
+      <c r="DT95" s="15"/>
+      <c r="DU95" s="15"/>
+      <c r="DV95" s="15"/>
+      <c r="DW95" s="15"/>
+      <c r="DX95" s="15"/>
+      <c r="DY95" s="15"/>
+      <c r="DZ95" s="15"/>
+      <c r="EA95" s="15"/>
+      <c r="EB95" s="15"/>
+      <c r="EC95" s="15"/>
+      <c r="ED95" s="15"/>
+      <c r="EE95" s="15"/>
+      <c r="EF95" s="15"/>
+      <c r="EG95" s="15"/>
+      <c r="EH95" s="15"/>
+      <c r="EI95" s="15"/>
+      <c r="EJ95" s="15"/>
+      <c r="EK95" s="15"/>
+      <c r="EL95" s="15"/>
+      <c r="EM95" s="15"/>
+      <c r="EN95" s="15"/>
+      <c r="EO95" s="15"/>
+      <c r="EP95" s="15"/>
+      <c r="EQ95" s="15"/>
+      <c r="ER95" s="15"/>
+      <c r="ES95" s="15"/>
+      <c r="ET95" s="15"/>
+      <c r="EU95" s="15"/>
+      <c r="EV95" s="15"/>
+      <c r="EW95" s="15"/>
+      <c r="EX95" s="15"/>
+      <c r="EY95" s="15"/>
+      <c r="EZ95" s="15"/>
+      <c r="FA95" s="15"/>
+      <c r="FB95" s="15"/>
+      <c r="FC95" s="15"/>
+      <c r="FD95" s="15"/>
+      <c r="FE95" s="15"/>
+      <c r="FF95" s="15"/>
+      <c r="FG95" s="15"/>
+      <c r="FH95" s="15"/>
+      <c r="FI95" s="15"/>
+      <c r="FJ95" s="15"/>
+      <c r="FK95" s="15"/>
+      <c r="FL95" s="15"/>
+      <c r="FM95" s="15"/>
+      <c r="FN95" s="15"/>
+      <c r="FO95" s="15"/>
+      <c r="FP95" s="15"/>
+      <c r="FQ95" s="15"/>
+      <c r="FR95" s="15"/>
+      <c r="FS95" s="15"/>
+      <c r="FT95" s="15"/>
+      <c r="FU95" s="15"/>
+      <c r="FV95" s="15"/>
+      <c r="FW95" s="15"/>
+      <c r="FX95" s="15"/>
+      <c r="FY95" s="15"/>
+      <c r="FZ95" s="15"/>
+      <c r="GA95" s="15"/>
+      <c r="GB95" s="15"/>
+      <c r="GC95" s="15"/>
+      <c r="GD95" s="15"/>
+      <c r="GE95" s="15"/>
+      <c r="GF95" s="15"/>
+      <c r="GG95" s="15"/>
+      <c r="GH95" s="15"/>
+      <c r="GI95" s="15"/>
+      <c r="GJ95" s="15"/>
+      <c r="GK95" s="15"/>
+      <c r="GL95" s="15"/>
+      <c r="GM95" s="15"/>
+      <c r="GN95" s="15"/>
+      <c r="GO95" s="15"/>
+      <c r="GP95" s="15"/>
+      <c r="GQ95" s="15"/>
+      <c r="GR95" s="15"/>
+      <c r="GS95" s="15"/>
+      <c r="GT95" s="15"/>
+      <c r="GU95" s="15"/>
+      <c r="GV95" s="15"/>
+      <c r="GW95" s="15"/>
+      <c r="GX95" s="15"/>
+      <c r="GY95" s="15"/>
+      <c r="GZ95" s="15"/>
+      <c r="HA95" s="15"/>
+      <c r="HB95" s="15"/>
+      <c r="HC95" s="15"/>
+      <c r="HD95" s="15"/>
+      <c r="HE95" s="15"/>
+      <c r="HF95" s="15"/>
+      <c r="HG95" s="15"/>
+      <c r="HH95" s="15"/>
+      <c r="HI95" s="15"/>
+      <c r="HJ95" s="15"/>
+      <c r="HK95" s="15"/>
+      <c r="HL95" s="15"/>
+      <c r="HM95" s="15"/>
+      <c r="HN95" s="15"/>
+      <c r="HO95" s="15"/>
+      <c r="HP95" s="15"/>
+      <c r="HQ95" s="15"/>
+      <c r="HR95" s="15"/>
+      <c r="HS95" s="15"/>
+      <c r="HT95" s="15"/>
+      <c r="HU95" s="15"/>
+      <c r="HV95" s="15"/>
+      <c r="HW95" s="15"/>
+      <c r="HX95" s="15"/>
+      <c r="HY95" s="15"/>
+      <c r="HZ95" s="15"/>
+      <c r="IA95" s="15"/>
+      <c r="IB95" s="15"/>
+      <c r="IC95" s="15"/>
+      <c r="ID95" s="15"/>
+      <c r="IE95" s="15"/>
+      <c r="IF95" s="15"/>
+      <c r="IG95" s="15"/>
+      <c r="IH95" s="15"/>
+      <c r="II95" s="15"/>
+      <c r="IJ95" s="15"/>
+      <c r="IK95" s="15"/>
+      <c r="IL95" s="15"/>
+      <c r="IM95" s="15"/>
+      <c r="IN95" s="15"/>
+      <c r="IO95" s="15"/>
+      <c r="IP95" s="15"/>
+      <c r="IQ95" s="15"/>
+      <c r="IR95" s="15"/>
+      <c r="IS95" s="15"/>
+      <c r="IT95" s="15"/>
+      <c r="IU95" s="15"/>
+      <c r="IV95" s="15"/>
+      <c r="IW95" s="15"/>
+      <c r="IX95" s="15"/>
+      <c r="IY95" s="15"/>
+      <c r="IZ95" s="15"/>
+      <c r="JA95" s="15"/>
+      <c r="JB95" s="15"/>
+      <c r="JC95" s="15"/>
+      <c r="JD95" s="15"/>
+      <c r="JE95" s="15"/>
+      <c r="JF95" s="15"/>
+      <c r="JG95" s="15"/>
+      <c r="JH95" s="15"/>
+      <c r="JI95" s="15"/>
+      <c r="JJ95" s="15"/>
+      <c r="JK95" s="15"/>
+      <c r="JL95" s="15"/>
+      <c r="JM95" s="15"/>
+      <c r="JN95" s="15"/>
+      <c r="JO95" s="15"/>
+      <c r="JP95" s="15"/>
+      <c r="JQ95" s="15"/>
+      <c r="JR95" s="15"/>
+      <c r="JS95" s="15"/>
+      <c r="JT95" s="15"/>
+      <c r="JU95" s="15"/>
+      <c r="JV95" s="15"/>
+      <c r="JW95" s="15"/>
+      <c r="JX95" s="15"/>
+      <c r="JY95" s="15"/>
+      <c r="JZ95" s="15"/>
+      <c r="KA95" s="15"/>
+      <c r="KB95" s="15"/>
+      <c r="KC95" s="15"/>
+      <c r="KD95" s="15"/>
+      <c r="KE95" s="15"/>
+      <c r="KF95" s="15"/>
+      <c r="KG95" s="15"/>
+      <c r="KH95" s="15"/>
+      <c r="KI95" s="15"/>
+      <c r="KJ95" s="15"/>
+      <c r="KK95" s="15"/>
+      <c r="KL95" s="15"/>
+      <c r="KM95" s="15"/>
+      <c r="KN95" s="15"/>
+      <c r="KO95" s="15"/>
+      <c r="KP95" s="15"/>
+      <c r="KQ95" s="15"/>
+      <c r="KR95" s="15"/>
+      <c r="KS95" s="15"/>
+      <c r="KT95" s="15"/>
+      <c r="KU95" s="15"/>
+      <c r="KV95" s="15"/>
+      <c r="KW95" s="15"/>
+      <c r="KX95" s="15"/>
+      <c r="KY95" s="15"/>
+      <c r="KZ95" s="15"/>
+      <c r="LA95" s="15"/>
+      <c r="LB95" s="15"/>
+      <c r="LC95" s="15"/>
+      <c r="LD95" s="15"/>
+      <c r="LE95" s="15"/>
+      <c r="LF95" s="15"/>
+      <c r="LG95" s="15"/>
+      <c r="LH95" s="15"/>
+      <c r="LI95" s="15"/>
+      <c r="LJ95" s="15"/>
+      <c r="LK95" s="15"/>
+      <c r="LL95" s="15"/>
+      <c r="LM95" s="15"/>
+      <c r="LN95" s="15"/>
+      <c r="LO95" s="15"/>
+      <c r="LP95" s="15"/>
+      <c r="LQ95" s="15"/>
+      <c r="LR95" s="15"/>
+      <c r="LS95" s="15"/>
+      <c r="LT95" s="15"/>
+      <c r="LU95" s="15"/>
+      <c r="LV95" s="15"/>
+      <c r="LW95" s="15"/>
+      <c r="LX95" s="15"/>
+      <c r="LY95" s="15"/>
+      <c r="LZ95" s="15"/>
+      <c r="MA95" s="15"/>
+      <c r="MB95" s="15"/>
+      <c r="MC95" s="15"/>
+      <c r="MD95" s="15"/>
+      <c r="ME95" s="15"/>
+      <c r="MF95" s="15"/>
+      <c r="MG95" s="15"/>
+      <c r="MH95" s="15"/>
+      <c r="MI95" s="15"/>
+      <c r="MJ95" s="15"/>
+      <c r="MK95" s="15"/>
+      <c r="ML95" s="15"/>
+      <c r="MM95" s="15"/>
+      <c r="MN95" s="15"/>
+      <c r="MO95" s="15"/>
+      <c r="MP95" s="15"/>
+      <c r="MQ95" s="15"/>
+      <c r="MR95" s="15"/>
+      <c r="MS95" s="15"/>
+      <c r="MT95" s="15"/>
+      <c r="MU95" s="15"/>
+      <c r="MV95" s="15"/>
+      <c r="MW95" s="15"/>
+      <c r="MX95" s="15"/>
+      <c r="MY95" s="15"/>
+      <c r="MZ95" s="15"/>
+      <c r="NA95" s="15"/>
+      <c r="NB95" s="15"/>
+      <c r="NC95" s="15"/>
+      <c r="ND95" s="15"/>
+      <c r="NE95" s="15"/>
+      <c r="NF95" s="15"/>
+      <c r="NG95" s="15"/>
+      <c r="NH95" s="15"/>
+      <c r="NI95" s="15"/>
+      <c r="NJ95" s="15"/>
+      <c r="NK95" s="15"/>
+      <c r="NL95" s="15"/>
+      <c r="NM95" s="15"/>
+      <c r="NN95" s="15"/>
+      <c r="NO95" s="15"/>
+      <c r="NP95" s="15"/>
+      <c r="NQ95" s="15"/>
+      <c r="NR95" s="15"/>
+      <c r="NS95" s="15"/>
+      <c r="NT95" s="15"/>
+      <c r="NU95" s="15"/>
+      <c r="NV95" s="15"/>
+      <c r="NW95" s="15"/>
+      <c r="NX95" s="15"/>
+      <c r="NY95" s="15"/>
+      <c r="NZ95" s="15"/>
+      <c r="OA95" s="15"/>
+      <c r="OB95" s="15"/>
+      <c r="OC95" s="15"/>
+      <c r="OD95" s="15"/>
+      <c r="OE95" s="15"/>
+      <c r="OF95" s="15"/>
+      <c r="OG95" s="15"/>
+      <c r="OH95" s="15"/>
+      <c r="OI95" s="15"/>
+      <c r="OJ95" s="15"/>
+      <c r="OK95" s="15"/>
+      <c r="OL95" s="15"/>
+      <c r="OM95" s="15"/>
+      <c r="ON95" s="15"/>
+      <c r="OO95" s="15"/>
+      <c r="OP95" s="15"/>
+      <c r="OQ95" s="15"/>
+      <c r="OR95" s="15"/>
+      <c r="OS95" s="15"/>
+      <c r="OT95" s="15"/>
+      <c r="OU95" s="15"/>
+      <c r="OV95" s="15"/>
+      <c r="OW95" s="15"/>
+      <c r="OX95" s="15"/>
+      <c r="OY95" s="15"/>
+      <c r="OZ95" s="15"/>
+      <c r="PA95" s="15"/>
+      <c r="PB95" s="15"/>
+      <c r="PC95" s="15"/>
+      <c r="PD95" s="15"/>
+      <c r="PE95" s="15"/>
+      <c r="PF95" s="15"/>
+      <c r="PG95" s="15"/>
+      <c r="PH95" s="15"/>
+      <c r="PI95" s="15"/>
+      <c r="PJ95" s="15"/>
+      <c r="PK95" s="15"/>
+      <c r="PL95" s="15"/>
+      <c r="PM95" s="15"/>
+      <c r="PN95" s="15"/>
+      <c r="PO95" s="15"/>
+      <c r="PP95" s="15"/>
+      <c r="PQ95" s="15"/>
+      <c r="PR95" s="15"/>
+      <c r="PS95" s="15"/>
+      <c r="PT95" s="15"/>
+      <c r="PU95" s="15"/>
+      <c r="PV95" s="15"/>
+      <c r="PW95" s="15"/>
+      <c r="PX95" s="15"/>
+      <c r="PY95" s="15"/>
+      <c r="PZ95" s="15"/>
+      <c r="QA95" s="15"/>
+      <c r="QB95" s="15"/>
+      <c r="QC95" s="15"/>
+      <c r="QD95" s="15"/>
+      <c r="QE95" s="15"/>
+      <c r="QF95" s="15"/>
+      <c r="QG95" s="15"/>
+      <c r="QH95" s="15"/>
+      <c r="QI95" s="15"/>
+      <c r="QJ95" s="15"/>
+      <c r="QK95" s="15"/>
+      <c r="QL95" s="15"/>
+      <c r="QM95" s="15"/>
+      <c r="QN95" s="15"/>
+      <c r="QO95" s="15"/>
+      <c r="QP95" s="15"/>
+      <c r="QQ95" s="15"/>
+      <c r="QR95" s="15"/>
+      <c r="QS95" s="15"/>
+      <c r="QT95" s="15"/>
+      <c r="QU95" s="15"/>
+      <c r="QV95" s="15"/>
+      <c r="QW95" s="15"/>
+      <c r="QX95" s="15"/>
+      <c r="QY95" s="15"/>
+      <c r="QZ95" s="15"/>
+      <c r="RA95" s="15"/>
+      <c r="RB95" s="15"/>
+      <c r="RC95" s="15"/>
+      <c r="RD95" s="15"/>
+      <c r="RE95" s="15"/>
+      <c r="RF95" s="15"/>
+      <c r="RG95" s="15"/>
+      <c r="RH95" s="15"/>
+      <c r="RI95" s="15"/>
+      <c r="RJ95" s="15"/>
+      <c r="RK95" s="15"/>
+      <c r="RL95" s="15"/>
+      <c r="RM95" s="15"/>
+      <c r="RN95" s="15"/>
+      <c r="RO95" s="15"/>
+      <c r="RP95" s="15"/>
+      <c r="RQ95" s="15"/>
+      <c r="RR95" s="15"/>
+      <c r="RS95" s="15"/>
+      <c r="RT95" s="15"/>
+      <c r="RU95" s="15"/>
+      <c r="RV95" s="15"/>
+      <c r="RW95" s="15"/>
+      <c r="RX95" s="15"/>
+      <c r="RY95" s="15"/>
+      <c r="RZ95" s="15"/>
+      <c r="SA95" s="15"/>
+      <c r="SB95" s="15"/>
+      <c r="SC95" s="15"/>
+      <c r="SD95" s="15"/>
+      <c r="SE95" s="15"/>
+      <c r="SF95" s="15"/>
+      <c r="SG95" s="15"/>
+      <c r="SH95" s="15"/>
+      <c r="SI95" s="15"/>
+      <c r="SJ95" s="15"/>
+      <c r="SK95" s="15"/>
+      <c r="SL95" s="15"/>
+      <c r="SM95" s="15"/>
+      <c r="SN95" s="15"/>
+      <c r="SO95" s="15"/>
+      <c r="SP95" s="15"/>
+      <c r="SQ95" s="15"/>
+      <c r="SR95" s="15"/>
+      <c r="SS95" s="15"/>
+      <c r="ST95" s="15"/>
+      <c r="SU95" s="15"/>
+      <c r="SV95" s="15"/>
+      <c r="SW95" s="15"/>
+      <c r="SX95" s="15"/>
+      <c r="SY95" s="15"/>
+      <c r="SZ95" s="15"/>
+      <c r="TA95" s="15"/>
+      <c r="TB95" s="15"/>
+      <c r="TC95" s="15"/>
+      <c r="TD95" s="15"/>
+      <c r="TE95" s="15"/>
+      <c r="TF95" s="15"/>
+      <c r="TG95" s="15"/>
+      <c r="TH95" s="15"/>
+      <c r="TI95" s="15"/>
+      <c r="TJ95" s="15"/>
+      <c r="TK95" s="15"/>
+      <c r="TL95" s="15"/>
+      <c r="TM95" s="15"/>
+      <c r="TN95" s="15"/>
+      <c r="TO95" s="15"/>
+      <c r="TP95" s="15"/>
+      <c r="TQ95" s="15"/>
+      <c r="TR95" s="15"/>
+      <c r="TS95" s="15"/>
+      <c r="TT95" s="15"/>
+      <c r="TU95" s="15"/>
+      <c r="TV95" s="15"/>
+      <c r="TW95" s="15"/>
+      <c r="TX95" s="15"/>
+      <c r="TY95" s="15"/>
+      <c r="TZ95" s="15"/>
+      <c r="UA95" s="15"/>
+      <c r="UB95" s="15"/>
+      <c r="UC95" s="15"/>
+      <c r="UD95" s="15"/>
+      <c r="UE95" s="15"/>
+      <c r="UF95" s="15"/>
+      <c r="UG95" s="15"/>
+      <c r="UH95" s="15"/>
+      <c r="UI95" s="15"/>
+      <c r="UJ95" s="15"/>
+      <c r="UK95" s="15"/>
+      <c r="UL95" s="15"/>
+      <c r="UM95" s="15"/>
+      <c r="UN95" s="15"/>
+      <c r="UO95" s="15"/>
+      <c r="UP95" s="15"/>
+      <c r="UQ95" s="15"/>
+      <c r="UR95" s="15"/>
+      <c r="US95" s="15"/>
+      <c r="UT95" s="15"/>
+      <c r="UU95" s="15"/>
+      <c r="UV95" s="15"/>
+      <c r="UW95" s="15"/>
+      <c r="UX95" s="15"/>
+      <c r="UY95" s="15"/>
+      <c r="UZ95" s="15"/>
+      <c r="VA95" s="15"/>
+      <c r="VB95" s="15"/>
+      <c r="VC95" s="15"/>
+      <c r="VD95" s="15"/>
+      <c r="VE95" s="15"/>
+      <c r="VF95" s="15"/>
+      <c r="VG95" s="15"/>
+      <c r="VH95" s="15"/>
+      <c r="VI95" s="15"/>
+      <c r="VJ95" s="15"/>
+      <c r="VK95" s="15"/>
+      <c r="VL95" s="15"/>
+      <c r="VM95" s="15"/>
+      <c r="VN95" s="15"/>
+      <c r="VO95" s="15"/>
+      <c r="VP95" s="15"/>
+      <c r="VQ95" s="15"/>
+      <c r="VR95" s="15"/>
+      <c r="VS95" s="15"/>
+      <c r="VT95" s="15"/>
+      <c r="VU95" s="15"/>
+      <c r="VV95" s="15"/>
+      <c r="VW95" s="15"/>
+      <c r="VX95" s="15"/>
+      <c r="VY95" s="15"/>
+      <c r="VZ95" s="15"/>
+      <c r="WA95" s="15"/>
+      <c r="WB95" s="15"/>
+      <c r="WC95" s="15"/>
+      <c r="WD95" s="15"/>
+      <c r="WE95" s="15"/>
+      <c r="WF95" s="15"/>
+      <c r="WG95" s="15"/>
+      <c r="WH95" s="15"/>
+      <c r="WI95" s="15"/>
+      <c r="WJ95" s="15"/>
+      <c r="WK95" s="15"/>
+      <c r="WL95" s="15"/>
+      <c r="WM95" s="15"/>
+      <c r="WN95" s="15"/>
+      <c r="WO95" s="15"/>
+      <c r="WP95" s="15"/>
+      <c r="WQ95" s="15"/>
+      <c r="WR95" s="15"/>
+      <c r="WS95" s="15"/>
+      <c r="WT95" s="15"/>
+      <c r="WU95" s="15"/>
+      <c r="WV95" s="15"/>
+      <c r="WW95" s="15"/>
+      <c r="WX95" s="15"/>
+      <c r="WY95" s="15"/>
+      <c r="WZ95" s="15"/>
+      <c r="XA95" s="15"/>
+      <c r="XB95" s="15"/>
+      <c r="XC95" s="15"/>
+      <c r="XD95" s="15"/>
+      <c r="XE95" s="15"/>
+      <c r="XF95" s="15"/>
+      <c r="XG95" s="15"/>
+      <c r="XH95" s="15"/>
+      <c r="XI95" s="15"/>
+      <c r="XJ95" s="15"/>
+      <c r="XK95" s="15"/>
+      <c r="XL95" s="15"/>
+      <c r="XM95" s="15"/>
+      <c r="XN95" s="15"/>
+      <c r="XO95" s="15"/>
+      <c r="XP95" s="15"/>
+      <c r="XQ95" s="15"/>
+      <c r="XR95" s="15"/>
+      <c r="XS95" s="15"/>
+      <c r="XT95" s="15"/>
+      <c r="XU95" s="15"/>
+      <c r="XV95" s="15"/>
+      <c r="XW95" s="15"/>
+      <c r="XX95" s="15"/>
+      <c r="XY95" s="15"/>
+      <c r="XZ95" s="15"/>
+      <c r="YA95" s="15"/>
+      <c r="YB95" s="15"/>
+      <c r="YC95" s="15"/>
+      <c r="YD95" s="15"/>
+      <c r="YE95" s="15"/>
+      <c r="YF95" s="15"/>
+      <c r="YG95" s="15"/>
+      <c r="YH95" s="15"/>
+      <c r="YI95" s="15"/>
+      <c r="YJ95" s="15"/>
+      <c r="YK95" s="15"/>
+      <c r="YL95" s="15"/>
+      <c r="YM95" s="15"/>
+      <c r="YN95" s="15"/>
+      <c r="YO95" s="15"/>
+      <c r="YP95" s="15"/>
+      <c r="YQ95" s="15"/>
+      <c r="YR95" s="15"/>
+      <c r="YS95" s="15"/>
+      <c r="YT95" s="15"/>
+      <c r="YU95" s="15"/>
+      <c r="YV95" s="15"/>
+      <c r="YW95" s="15"/>
+      <c r="YX95" s="15"/>
+      <c r="YY95" s="15"/>
+      <c r="YZ95" s="15"/>
+      <c r="ZA95" s="15"/>
+      <c r="ZB95" s="15"/>
+      <c r="ZC95" s="15"/>
+      <c r="ZD95" s="15"/>
+      <c r="ZE95" s="15"/>
+      <c r="ZF95" s="15"/>
+      <c r="ZG95" s="15"/>
+      <c r="ZH95" s="15"/>
+      <c r="ZI95" s="15"/>
+      <c r="ZJ95" s="15"/>
+      <c r="ZK95" s="15"/>
+      <c r="ZL95" s="15"/>
+      <c r="ZM95" s="15"/>
+      <c r="ZN95" s="15"/>
+      <c r="ZO95" s="15"/>
+      <c r="ZP95" s="15"/>
+      <c r="ZQ95" s="15"/>
+      <c r="ZR95" s="15"/>
+      <c r="ZS95" s="15"/>
+      <c r="ZT95" s="15"/>
+      <c r="ZU95" s="15"/>
+      <c r="ZV95" s="15"/>
+      <c r="ZW95" s="15"/>
+      <c r="ZX95" s="15"/>
+      <c r="ZY95" s="15"/>
+      <c r="ZZ95" s="15"/>
+      <c r="AAA95" s="15"/>
+      <c r="AAB95" s="15"/>
+      <c r="AAC95" s="15"/>
+      <c r="AAD95" s="15"/>
+      <c r="AAE95" s="15"/>
+      <c r="AAF95" s="15"/>
+      <c r="AAG95" s="15"/>
+      <c r="AAH95" s="15"/>
+      <c r="AAI95" s="15"/>
+      <c r="AAJ95" s="15"/>
+      <c r="AAK95" s="15"/>
+      <c r="AAL95" s="15"/>
+      <c r="AAM95" s="15"/>
+      <c r="AAN95" s="15"/>
+      <c r="AAO95" s="15"/>
+      <c r="AAP95" s="15"/>
+      <c r="AAQ95" s="15"/>
+      <c r="AAR95" s="15"/>
+      <c r="AAS95" s="15"/>
+      <c r="AAT95" s="15"/>
+      <c r="AAU95" s="15"/>
+      <c r="AAV95" s="15"/>
+      <c r="AAW95" s="15"/>
+      <c r="AAX95" s="15"/>
+      <c r="AAY95" s="15"/>
+      <c r="AAZ95" s="15"/>
+      <c r="ABA95" s="15"/>
+      <c r="ABB95" s="15"/>
+      <c r="ABC95" s="15"/>
+      <c r="ABD95" s="15"/>
+      <c r="ABE95" s="15"/>
+      <c r="ABF95" s="15"/>
+      <c r="ABG95" s="15"/>
+      <c r="ABH95" s="15"/>
+      <c r="ABI95" s="15"/>
+      <c r="ABJ95" s="15"/>
+      <c r="ABK95" s="15"/>
+      <c r="ABL95" s="15"/>
+      <c r="ABM95" s="15"/>
+      <c r="ABN95" s="15"/>
+      <c r="ABO95" s="15"/>
+      <c r="ABP95" s="15"/>
+      <c r="ABQ95" s="15"/>
+      <c r="ABR95" s="15"/>
+      <c r="ABS95" s="15"/>
+      <c r="ABT95" s="15"/>
+      <c r="ABU95" s="15"/>
+      <c r="ABV95" s="15"/>
+      <c r="ABW95" s="15"/>
+      <c r="ABX95" s="15"/>
+      <c r="ABY95" s="15"/>
+      <c r="ABZ95" s="15"/>
+      <c r="ACA95" s="15"/>
+      <c r="ACB95" s="15"/>
+      <c r="ACC95" s="15"/>
+      <c r="ACD95" s="15"/>
+      <c r="ACE95" s="15"/>
+      <c r="ACF95" s="15"/>
+      <c r="ACG95" s="15"/>
+      <c r="ACH95" s="15"/>
+      <c r="ACI95" s="15"/>
+      <c r="ACJ95" s="15"/>
+      <c r="ACK95" s="15"/>
+      <c r="ACL95" s="15"/>
+      <c r="ACM95" s="15"/>
+      <c r="ACN95" s="15"/>
+      <c r="ACO95" s="15"/>
+      <c r="ACP95" s="15"/>
+      <c r="ACQ95" s="15"/>
+      <c r="ACR95" s="15"/>
+      <c r="ACS95" s="15"/>
+      <c r="ACT95" s="15"/>
+      <c r="ACU95" s="15"/>
+      <c r="ACV95" s="15"/>
+      <c r="ACW95" s="15"/>
+      <c r="ACX95" s="15"/>
+      <c r="ACY95" s="15"/>
+      <c r="ACZ95" s="15"/>
+      <c r="ADA95" s="15"/>
+      <c r="ADB95" s="15"/>
+      <c r="ADC95" s="15"/>
+      <c r="ADD95" s="15"/>
+      <c r="ADE95" s="15"/>
+      <c r="ADF95" s="15"/>
+      <c r="ADG95" s="15"/>
+      <c r="ADH95" s="15"/>
+      <c r="ADI95" s="15"/>
+      <c r="ADJ95" s="15"/>
+      <c r="ADK95" s="15"/>
+      <c r="ADL95" s="15"/>
+      <c r="ADM95" s="15"/>
+      <c r="ADN95" s="15"/>
+      <c r="ADO95" s="15"/>
+      <c r="ADP95" s="15"/>
+      <c r="ADQ95" s="15"/>
+      <c r="ADR95" s="15"/>
+      <c r="ADS95" s="15"/>
+      <c r="ADT95" s="15"/>
+      <c r="ADU95" s="15"/>
+      <c r="ADV95" s="15"/>
+      <c r="ADW95" s="15"/>
+      <c r="ADX95" s="15"/>
+      <c r="ADY95" s="15"/>
+      <c r="ADZ95" s="15"/>
+      <c r="AEA95" s="15"/>
+      <c r="AEB95" s="15"/>
+      <c r="AEC95" s="15"/>
+      <c r="AED95" s="15"/>
+      <c r="AEE95" s="15"/>
+      <c r="AEF95" s="15"/>
+      <c r="AEG95" s="15"/>
+      <c r="AEH95" s="15"/>
+      <c r="AEI95" s="15"/>
+      <c r="AEJ95" s="15"/>
+      <c r="AEK95" s="15"/>
+      <c r="AEL95" s="15"/>
+      <c r="AEM95" s="15"/>
+      <c r="AEN95" s="15"/>
+      <c r="AEO95" s="15"/>
+      <c r="AEP95" s="15"/>
+      <c r="AEQ95" s="15"/>
+      <c r="AER95" s="15"/>
+      <c r="AES95" s="15"/>
+      <c r="AET95" s="15"/>
+      <c r="AEU95" s="15"/>
+      <c r="AEV95" s="15"/>
+      <c r="AEW95" s="15"/>
+      <c r="AEX95" s="15"/>
+      <c r="AEY95" s="15"/>
+      <c r="AEZ95" s="15"/>
+      <c r="AFA95" s="15"/>
+      <c r="AFB95" s="15"/>
+      <c r="AFC95" s="15"/>
+      <c r="AFD95" s="15"/>
+      <c r="AFE95" s="15"/>
+      <c r="AFF95" s="15"/>
+      <c r="AFG95" s="15"/>
+      <c r="AFH95" s="15"/>
+      <c r="AFI95" s="15"/>
+      <c r="AFJ95" s="15"/>
+      <c r="AFK95" s="15"/>
+      <c r="AFL95" s="15"/>
+      <c r="AFM95" s="15"/>
+      <c r="AFN95" s="15"/>
+      <c r="AFO95" s="15"/>
+      <c r="AFP95" s="15"/>
+      <c r="AFQ95" s="15"/>
+      <c r="AFR95" s="15"/>
+      <c r="AFS95" s="15"/>
+      <c r="AFT95" s="15"/>
+      <c r="AFU95" s="15"/>
+      <c r="AFV95" s="15"/>
+      <c r="AFW95" s="15"/>
+      <c r="AFX95" s="15"/>
+      <c r="AFY95" s="15"/>
+      <c r="AFZ95" s="15"/>
+      <c r="AGA95" s="15"/>
+      <c r="AGB95" s="15"/>
+      <c r="AGC95" s="15"/>
+      <c r="AGD95" s="15"/>
+      <c r="AGE95" s="15"/>
+      <c r="AGF95" s="15"/>
+      <c r="AGG95" s="15"/>
+      <c r="AGH95" s="15"/>
+      <c r="AGI95" s="15"/>
+      <c r="AGJ95" s="15"/>
+      <c r="AGK95" s="15"/>
+      <c r="AGL95" s="15"/>
+      <c r="AGM95" s="15"/>
+      <c r="AGN95" s="15"/>
+      <c r="AGO95" s="15"/>
+      <c r="AGP95" s="15"/>
+      <c r="AGQ95" s="15"/>
+      <c r="AGR95" s="15"/>
+      <c r="AGS95" s="15"/>
+      <c r="AGT95" s="15"/>
+      <c r="AGU95" s="15"/>
+      <c r="AGV95" s="15"/>
+      <c r="AGW95" s="15"/>
+      <c r="AGX95" s="15"/>
+      <c r="AGY95" s="15"/>
+      <c r="AGZ95" s="15"/>
+      <c r="AHA95" s="15"/>
+      <c r="AHB95" s="15"/>
+      <c r="AHC95" s="15"/>
+      <c r="AHD95" s="15"/>
+      <c r="AHE95" s="15"/>
+      <c r="AHF95" s="15"/>
+      <c r="AHG95" s="15"/>
+      <c r="AHH95" s="15"/>
+      <c r="AHI95" s="15"/>
+      <c r="AHJ95" s="15"/>
+      <c r="AHK95" s="15"/>
+      <c r="AHL95" s="15"/>
+      <c r="AHM95" s="15"/>
+      <c r="AHN95" s="15"/>
+      <c r="AHO95" s="15"/>
+      <c r="AHP95" s="15"/>
+      <c r="AHQ95" s="15"/>
+      <c r="AHR95" s="15"/>
+      <c r="AHS95" s="15"/>
+      <c r="AHT95" s="15"/>
+      <c r="AHU95" s="15"/>
+      <c r="AHV95" s="15"/>
+      <c r="AHW95" s="15"/>
+      <c r="AHX95" s="15"/>
+      <c r="AHY95" s="15"/>
+      <c r="AHZ95" s="15"/>
+      <c r="AIA95" s="15"/>
+      <c r="AIB95" s="15"/>
+      <c r="AIC95" s="15"/>
+      <c r="AID95" s="15"/>
+      <c r="AIE95" s="15"/>
+      <c r="AIF95" s="15"/>
+      <c r="AIG95" s="15"/>
+      <c r="AIH95" s="15"/>
+      <c r="AII95" s="15"/>
+      <c r="AIJ95" s="15"/>
+      <c r="AIK95" s="15"/>
+      <c r="AIL95" s="15"/>
+      <c r="AIM95" s="15"/>
+      <c r="AIN95" s="15"/>
+      <c r="AIO95" s="15"/>
+      <c r="AIP95" s="15"/>
+      <c r="AIQ95" s="15"/>
+      <c r="AIR95" s="15"/>
+      <c r="AIS95" s="15"/>
+      <c r="AIT95" s="15"/>
+      <c r="AIU95" s="15"/>
+      <c r="AIV95" s="15"/>
+      <c r="AIW95" s="15"/>
+      <c r="AIX95" s="15"/>
+      <c r="AIY95" s="15"/>
+      <c r="AIZ95" s="15"/>
+      <c r="AJA95" s="15"/>
+      <c r="AJB95" s="15"/>
+      <c r="AJC95" s="15"/>
+      <c r="AJD95" s="15"/>
+      <c r="AJE95" s="15"/>
+      <c r="AJF95" s="15"/>
+      <c r="AJG95" s="15"/>
+      <c r="AJH95" s="15"/>
+      <c r="AJI95" s="15"/>
+      <c r="AJJ95" s="15"/>
+      <c r="AJK95" s="15"/>
+      <c r="AJL95" s="15"/>
+      <c r="AJM95" s="15"/>
+      <c r="AJN95" s="15"/>
+      <c r="AJO95" s="15"/>
+      <c r="AJP95" s="15"/>
+      <c r="AJQ95" s="15"/>
+      <c r="AJR95" s="15"/>
+      <c r="AJS95" s="15"/>
+      <c r="AJT95" s="15"/>
+      <c r="AJU95" s="15"/>
+      <c r="AJV95" s="15"/>
+      <c r="AJW95" s="15"/>
+      <c r="AJX95" s="15"/>
+      <c r="AJY95" s="15"/>
+      <c r="AJZ95" s="15"/>
+      <c r="AKA95" s="15"/>
+      <c r="AKB95" s="15"/>
+      <c r="AKC95" s="15"/>
+      <c r="AKD95" s="15"/>
+      <c r="AKE95" s="15"/>
+      <c r="AKF95" s="15"/>
+      <c r="AKG95" s="15"/>
+      <c r="AKH95" s="15"/>
+      <c r="AKI95" s="15"/>
+      <c r="AKJ95" s="15"/>
+      <c r="AKK95" s="15"/>
+      <c r="AKL95" s="15"/>
+      <c r="AKM95" s="15"/>
+      <c r="AKN95" s="15"/>
+      <c r="AKO95" s="15"/>
+      <c r="AKP95" s="15"/>
+      <c r="AKQ95" s="15"/>
+      <c r="AKR95" s="15"/>
+      <c r="AKS95" s="15"/>
+      <c r="AKT95" s="15"/>
+      <c r="AKU95" s="15"/>
+      <c r="AKV95" s="15"/>
+      <c r="AKW95" s="15"/>
+      <c r="AKX95" s="15"/>
+      <c r="AKY95" s="15"/>
+      <c r="AKZ95" s="15"/>
+      <c r="ALA95" s="15"/>
+      <c r="ALB95" s="15"/>
+      <c r="ALC95" s="15"/>
+      <c r="ALD95" s="15"/>
+      <c r="ALE95" s="15"/>
+      <c r="ALF95" s="15"/>
+      <c r="ALG95" s="15"/>
+      <c r="ALH95" s="15"/>
+      <c r="ALI95" s="15"/>
+      <c r="ALJ95" s="15"/>
+      <c r="ALK95" s="15"/>
+      <c r="ALL95" s="15"/>
+      <c r="ALM95" s="15"/>
+      <c r="ALN95" s="15"/>
+      <c r="ALO95" s="15"/>
+      <c r="ALP95" s="15"/>
+      <c r="ALQ95" s="15"/>
+      <c r="ALR95" s="15"/>
+      <c r="ALS95" s="15"/>
+      <c r="ALT95" s="15"/>
+      <c r="ALU95" s="15"/>
+      <c r="ALV95" s="15"/>
+      <c r="ALW95" s="15"/>
+      <c r="ALX95" s="15"/>
+      <c r="ALY95" s="15"/>
+      <c r="ALZ95" s="15"/>
+      <c r="AMA95" s="15"/>
+      <c r="AMB95" s="15"/>
+      <c r="AMC95" s="15"/>
+      <c r="AMD95" s="15"/>
+      <c r="AME95" s="15"/>
+      <c r="AMF95" s="15"/>
+      <c r="AMG95" s="15"/>
+      <c r="AMH95" s="15"/>
+      <c r="AMI95" s="15"/>
+      <c r="AMJ95" s="15"/>
+      <c r="AMK95" s="15"/>
+      <c r="AML95" s="15"/>
+      <c r="AMM95" s="15"/>
     </row>
-    <row r="95" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+    <row r="96" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B96" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D96" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F96" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="G95" s="10" t="s">
+      <c r="G96" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="O95" s="10" t="s">
+      <c r="O96" s="10" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" s="4"/>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O95" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
